--- a/results/resultado_consolidado/graph2.xlsx
+++ b/results/resultado_consolidado/graph2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\covid-model-master\results\Pruebas de resultados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Georg\Documents\GitHub\covid-model\results\resultado_consolidado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4AAE24-C70F-4981-95E1-806BB9CC2BC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB9B250-9AC0-41D0-9247-538AE9FCD1C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4AC76AC7-E5A1-4C07-9F5F-EE5E7DC34869}"/>
   </bookViews>
   <sheets>
-    <sheet name="8 oct" sheetId="2" r:id="rId1"/>
-    <sheet name="8 sep" sheetId="1" r:id="rId2"/>
-    <sheet name="8 ago" sheetId="3" r:id="rId3"/>
+    <sheet name="18 oct" sheetId="2" r:id="rId1"/>
+    <sheet name="18 sep" sheetId="1" r:id="rId2"/>
+    <sheet name="18 ago" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -189,7 +189,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8 oct'!$D$1</c:f>
+              <c:f>'18 oct'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -221,17 +221,41 @@
             </c:spPr>
           </c:marker>
           <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="25400">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-7874-4D86-B162-A864952B52FE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="5"/>
             <c:marker>
               <c:symbol val="square"/>
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -251,11 +275,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -275,11 +299,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -299,11 +323,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -323,11 +347,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -467,108 +491,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'8 oct'!$H$2:$H$16</c:f>
+                <c:f>'18 oct'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.15056726055704306</c:v>
+                    <c:v>0.19560238626805893</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.19625865006964305</c:v>
+                    <c:v>0.20083182332252503</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.18287043054830809</c:v>
+                    <c:v>0.18872950370295916</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.17456759834204394</c:v>
+                    <c:v>0.21554785558826106</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.17530508173634296</c:v>
+                    <c:v>0.18997292113334807</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.18556672027077004</c:v>
+                    <c:v>0.19121288497883993</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.19469658145294999</c:v>
+                    <c:v>0.18986884159826301</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.18469005940675998</c:v>
+                    <c:v>0.19201497226864006</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.21451910973657995</c:v>
+                    <c:v>0.1969251881426799</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.19454073605849009</c:v>
+                    <c:v>0.19337041667484001</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.17579615500400014</c:v>
+                    <c:v>0.18881851147870998</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.22190366174505005</c:v>
+                    <c:v>0.18260154706727993</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.22947732644206997</c:v>
+                    <c:v>0.19233164552559012</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.23511049152670993</c:v>
+                    <c:v>0.19611438662360015</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.29879657884975996</c:v>
+                    <c:v>0.24299512210720997</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'8 oct'!$G$2:$G$16</c:f>
+                <c:f>'18 oct'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.19129168435810096</c:v>
+                    <c:v>0.20639504142567999</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.19236560074584697</c:v>
+                    <c:v>0.19918832279962606</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.19600959914145299</c:v>
+                    <c:v>0.19368623611506097</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.23996071046589507</c:v>
+                    <c:v>0.20021746543706498</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.23027700661015293</c:v>
+                    <c:v>0.19552919105204392</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.28057251822189488</c:v>
+                    <c:v>0.20657226207266899</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.20288295104268794</c:v>
+                    <c:v>0.2313520437620149</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.24111833286813611</c:v>
+                    <c:v>0.20580373146434894</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.26456918506043192</c:v>
+                    <c:v>0.28303063330561806</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.29000640631100705</c:v>
+                    <c:v>0.24457974521785397</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.26679309134835494</c:v>
+                    <c:v>0.26987463251012689</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.23358521238419905</c:v>
+                    <c:v>0.26405215033711393</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.28208118364224399</c:v>
+                    <c:v>0.23909667586468597</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.27970624684508405</c:v>
+                    <c:v>0.24785709885647589</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.29579986086731003</c:v>
+                    <c:v>0.28973159051285691</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -589,107 +613,107 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'8 oct'!$A$2:$A$16</c:f>
+              <c:f>'18 oct'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>Azua</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Espaillat</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Distrito Nacional</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>La Vega</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Santo Domingo</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Sánchez Ramírez</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Puerto Plata</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Espaillat</c:v>
+                  <c:v>Peravia</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Azua</c:v>
+                  <c:v>Duarte</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>San Cristóbal</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>La Altagracia</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>La Romana</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Duarte</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8 oct'!$D$2:$D$16</c:f>
+              <c:f>'18 oct'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.82556355836321205</c:v>
+                  <c:v>0.85901370429745405</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84491665254548898</c:v>
+                  <c:v>0.87125505362344302</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89258563367115595</c:v>
+                  <c:v>0.87472463252164701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95102531197025797</c:v>
+                  <c:v>0.87763904166292594</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.95241521797154904</c:v>
+                  <c:v>0.90537805427924101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.00139246352022</c:v>
+                  <c:v>0.92384926535883205</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.00369335547364</c:v>
+                  <c:v>0.94261665233397096</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0148305673631499</c:v>
+                  <c:v>0.94292708119840196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0295544347448999</c:v>
+                  <c:v>0.99058479502074503</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0577724179411401</c:v>
+                  <c:v>0.99901795254579395</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.08147930550196</c:v>
+                  <c:v>1.0308983922255399</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0818169987455299</c:v>
+                  <c:v>1.03868750510747</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1178538797714499</c:v>
+                  <c:v>1.0497320411889099</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.25980273817537</c:v>
+                  <c:v>1.07251159353671</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.38413501275144</c:v>
+                  <c:v>1.14412025870595</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -706,7 +730,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8 oct'!$I$1</c:f>
+              <c:f>'18 oct'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -764,7 +788,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'8 oct'!$I$2:$I$16</c:f>
+              <c:f>'18 oct'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -861,7 +885,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1008,7 +1032,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8 sep'!$D$1</c:f>
+              <c:f>'18 sep'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1040,7 +1064,31 @@
             </c:spPr>
           </c:marker>
           <c:dPt>
-            <c:idx val="5"/>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="25400">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-33AD-4D75-A450-48D1BC4B958E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
             <c:marker>
               <c:symbol val="square"/>
               <c:size val="6"/>
@@ -1059,22 +1107,22 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-7349-4B88-8F72-A9F8BF77084A}"/>
+                <c16:uniqueId val="{00000001-33AD-4D75-A450-48D1BC4B958E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="6"/>
+            <c:idx val="4"/>
             <c:marker>
               <c:symbol val="square"/>
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1083,7 +1131,31 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-7349-4B88-8F72-A9F8BF77084A}"/>
+                <c16:uniqueId val="{0000000B-1F13-42B4-840D-7A2AC8332416}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="25400">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-7349-4B88-8F72-A9F8BF77084A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1112,7 +1184,7 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="8"/>
+            <c:idx val="9"/>
             <c:marker>
               <c:symbol val="square"/>
               <c:size val="6"/>
@@ -1123,30 +1195,6 @@
                 <a:ln w="25400">
                   <a:solidFill>
                     <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-7349-4B88-8F72-A9F8BF77084A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="6"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:ln w="25400">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1190,11 +1238,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1238,11 +1286,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1262,11 +1310,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1286,108 +1334,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'8 sep'!$H$2:$H$16</c:f>
+                <c:f>'18 sep'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>6.4202491656684013E-2</c:v>
+                    <c:v>9.6340861439119907E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.5481122958216971E-2</c:v>
+                    <c:v>7.0731031865545968E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.1188449992187088E-2</c:v>
+                    <c:v>7.4152213606956896E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.8475978199719973E-2</c:v>
+                    <c:v>7.6929204150836927E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.7423194954081009E-2</c:v>
+                    <c:v>7.9701990404449807E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.9755515486914952E-2</c:v>
+                    <c:v>8.4662303781620096E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6.9393045937305997E-2</c:v>
+                    <c:v>6.5468548491544931E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7.2414900358248047E-2</c:v>
+                    <c:v>8.5053590717063976E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.646775054016608E-2</c:v>
+                    <c:v>7.1913537809861983E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>7.5135398374439832E-2</c:v>
+                    <c:v>8.4240901304842075E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7.723655646615013E-2</c:v>
+                    <c:v>0.11230390474713015</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>6.7769742655880094E-2</c:v>
+                    <c:v>7.8016962027539938E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>7.4404311919789023E-2</c:v>
+                    <c:v>8.1684812373376992E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>6.5453385056619906E-2</c:v>
+                    <c:v>7.6276238021234954E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>9.5296909881490199E-2</c:v>
+                    <c:v>7.295991212000108E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'8 sep'!$G$2:$G$16</c:f>
+                <c:f>'18 sep'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>7.730105576933699E-2</c:v>
+                    <c:v>8.0023491271169922E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.3678031669259023E-2</c:v>
+                    <c:v>7.9380154445401918E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.7017785968282015E-2</c:v>
+                    <c:v>0.11283594345249504</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.3632019086683052E-2</c:v>
+                    <c:v>9.1386971148064045E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.1812761407116019E-2</c:v>
+                    <c:v>8.0632035333484064E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>9.1987126645476036E-2</c:v>
+                    <c:v>9.9306076686001887E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6.5827965884997952E-2</c:v>
+                    <c:v>9.2974711777914054E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.4337857808808092E-2</c:v>
+                    <c:v>8.1248696433978917E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>9.0549624435974918E-2</c:v>
+                    <c:v>6.4575534444488936E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>9.098473938963314E-2</c:v>
+                    <c:v>8.0595949071792017E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>8.686865446419989E-2</c:v>
+                    <c:v>0.11253889075283996</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>8.3414288782188928E-2</c:v>
+                    <c:v>0.1144619845928061</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>8.6149783412776015E-2</c:v>
+                    <c:v>7.6245297757155939E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.10011568132101101</c:v>
+                    <c:v>8.7444293724266986E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>8.9938335829387928E-2</c:v>
+                    <c:v>6.3824062985822994E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1408,107 +1456,107 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'8 sep'!$A$2:$A$16</c:f>
+              <c:f>'18 sep'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>Azua</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Espaillat</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Distrito Nacional</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>La Vega</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Santo Domingo</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Sánchez Ramírez</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Puerto Plata</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Espaillat</c:v>
+                  <c:v>Peravia</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Azua</c:v>
+                  <c:v>Duarte</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>San Cristóbal</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>La Altagracia</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>La Romana</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Duarte</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8 sep'!$D$2:$D$16</c:f>
+              <c:f>'18 sep'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.905850888273662</c:v>
+                  <c:v>1.08487895884812</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90360154565422601</c:v>
+                  <c:v>0.96471190602036405</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87123034141297895</c:v>
+                  <c:v>0.95125186007864404</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93222920217891003</c:v>
+                  <c:v>0.96948324393541496</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91095771684461602</c:v>
+                  <c:v>1.01975529384094</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94750314642820999</c:v>
+                  <c:v>1.01486517565979</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90332615799580895</c:v>
+                  <c:v>0.89594355249219804</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99735125048837103</c:v>
+                  <c:v>0.94287308533578096</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94412652993424995</c:v>
+                  <c:v>0.88979943876055501</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0006106681334901</c:v>
+                  <c:v>0.91899246250671396</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0224245781841299</c:v>
+                  <c:v>1.1648362153048599</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.98433002345909404</c:v>
+                  <c:v>1.0777922267715101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.98207218611343605</c:v>
+                  <c:v>0.96257927564356305</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0300089094474101</c:v>
+                  <c:v>0.89177288785199404</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0847788819213</c:v>
+                  <c:v>0.97090221912352603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1525,7 +1573,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8 oct'!$I$1</c:f>
+              <c:f>'18 oct'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1583,60 +1631,60 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'8 sep'!$A$2:$A$16</c:f>
+              <c:f>'18 sep'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>Azua</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Espaillat</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Distrito Nacional</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>La Vega</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Santo Domingo</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Sánchez Ramírez</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Puerto Plata</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Espaillat</c:v>
+                  <c:v>Peravia</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Azua</c:v>
+                  <c:v>Duarte</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>San Cristóbal</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>La Altagracia</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>La Romana</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Duarte</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8 oct'!$I$2:$I$16</c:f>
+              <c:f>'18 oct'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1880,7 +1928,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8 ago'!$D$1</c:f>
+              <c:f>'18 ago'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1911,6 +1959,126 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="25400">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-5875-40F9-B6E5-6B10DF1FECD8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="25400">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-5875-40F9-B6E5-6B10DF1FECD8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="25400">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5875-40F9-B6E5-6B10DF1FECD8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="25400">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-5875-40F9-B6E5-6B10DF1FECD8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="25400">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5875-40F9-B6E5-6B10DF1FECD8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
             <c:marker>
@@ -1966,11 +2134,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1979,7 +2147,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-0047-462A-8D79-F6B0A6344A96}"/>
+                <c16:uniqueId val="{0000000C-5875-40F9-B6E5-6B10DF1FECD8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2004,78 +2172,6 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-0047-462A-8D79-F6B0A6344A96}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="6"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:ln w="25400">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-0047-462A-8D79-F6B0A6344A96}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="6"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:ln w="25400">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-0047-462A-8D79-F6B0A6344A96}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="6"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:ln w="25400">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-0047-462A-8D79-F6B0A6344A96}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2158,108 +2254,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'8 sep'!$H$2:$H$16</c:f>
+                <c:f>'18 sep'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>6.4202491656684013E-2</c:v>
+                    <c:v>9.6340861439119907E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.5481122958216971E-2</c:v>
+                    <c:v>7.0731031865545968E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.1188449992187088E-2</c:v>
+                    <c:v>7.4152213606956896E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.8475978199719973E-2</c:v>
+                    <c:v>7.6929204150836927E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.7423194954081009E-2</c:v>
+                    <c:v>7.9701990404449807E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.9755515486914952E-2</c:v>
+                    <c:v>8.4662303781620096E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6.9393045937305997E-2</c:v>
+                    <c:v>6.5468548491544931E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7.2414900358248047E-2</c:v>
+                    <c:v>8.5053590717063976E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.646775054016608E-2</c:v>
+                    <c:v>7.1913537809861983E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>7.5135398374439832E-2</c:v>
+                    <c:v>8.4240901304842075E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7.723655646615013E-2</c:v>
+                    <c:v>0.11230390474713015</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>6.7769742655880094E-2</c:v>
+                    <c:v>7.8016962027539938E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>7.4404311919789023E-2</c:v>
+                    <c:v>8.1684812373376992E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>6.5453385056619906E-2</c:v>
+                    <c:v>7.6276238021234954E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>9.5296909881490199E-2</c:v>
+                    <c:v>7.295991212000108E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'8 sep'!$G$2:$G$16</c:f>
+                <c:f>'18 sep'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>7.730105576933699E-2</c:v>
+                    <c:v>8.0023491271169922E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.3678031669259023E-2</c:v>
+                    <c:v>7.9380154445401918E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.7017785968282015E-2</c:v>
+                    <c:v>0.11283594345249504</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.3632019086683052E-2</c:v>
+                    <c:v>9.1386971148064045E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.1812761407116019E-2</c:v>
+                    <c:v>8.0632035333484064E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>9.1987126645476036E-2</c:v>
+                    <c:v>9.9306076686001887E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6.5827965884997952E-2</c:v>
+                    <c:v>9.2974711777914054E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.4337857808808092E-2</c:v>
+                    <c:v>8.1248696433978917E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>9.0549624435974918E-2</c:v>
+                    <c:v>6.4575534444488936E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>9.098473938963314E-2</c:v>
+                    <c:v>8.0595949071792017E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>8.686865446419989E-2</c:v>
+                    <c:v>0.11253889075283996</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>8.3414288782188928E-2</c:v>
+                    <c:v>0.1144619845928061</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>8.6149783412776015E-2</c:v>
+                    <c:v>7.6245297757155939E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.10011568132101101</c:v>
+                    <c:v>8.7444293724266986E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>8.9938335829387928E-2</c:v>
+                    <c:v>6.3824062985822994E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2280,107 +2376,107 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'8 sep'!$A$2:$A$16</c:f>
+              <c:f>'18 sep'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>Azua</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Espaillat</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Distrito Nacional</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>La Vega</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Santo Domingo</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Sánchez Ramírez</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Puerto Plata</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Espaillat</c:v>
+                  <c:v>Peravia</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Azua</c:v>
+                  <c:v>Duarte</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>San Cristóbal</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>La Altagracia</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>La Romana</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Duarte</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8 ago'!$D$2:$D$16</c:f>
+              <c:f>'18 ago'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.91530330235547497</c:v>
+                  <c:v>0.90072527399442004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92101670480014297</c:v>
+                  <c:v>1.01518123632543</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95828412932293405</c:v>
+                  <c:v>0.98775281140729898</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93014173055264004</c:v>
+                  <c:v>0.98514103557613197</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99592871686239903</c:v>
+                  <c:v>0.98926812806513897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.86189639754097103</c:v>
+                  <c:v>0.99789060115414197</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90665906208759295</c:v>
+                  <c:v>0.94795579162468901</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.91226021348284603</c:v>
+                  <c:v>1.0041215553507401</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.96371712710916302</c:v>
+                  <c:v>0.96442681322901602</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.86269395754203204</c:v>
+                  <c:v>0.87431367338556798</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.887605710238068</c:v>
+                  <c:v>0.87228525928997303</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.90397559914890302</c:v>
+                  <c:v>0.99454480473645901</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.95366307056209598</c:v>
+                  <c:v>0.94561286243693599</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.92036792217913499</c:v>
+                  <c:v>0.944747072194147</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.884540236523366</c:v>
+                  <c:v>0.95024486628594096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2397,7 +2493,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8 oct'!$I$1</c:f>
+              <c:f>'18 oct'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2455,60 +2551,60 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'8 sep'!$A$2:$A$16</c:f>
+              <c:f>'18 sep'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>Azua</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Espaillat</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Distrito Nacional</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>La Vega</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Santo Domingo</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Sánchez Ramírez</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Puerto Plata</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Espaillat</c:v>
+                  <c:v>Peravia</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Azua</c:v>
+                  <c:v>Duarte</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>San Cristóbal</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>La Altagracia</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>La Romana</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Duarte</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8 oct'!$I$2:$I$16</c:f>
+              <c:f>'18 oct'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4823,14 +4919,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A870B0F-A2EC-457C-A8A5-5E639A765E29}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -4864,30 +4960,30 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>44112</v>
+        <v>44122</v>
       </c>
       <c r="C2">
-        <v>0.83906267129585999</v>
+        <v>0.87679839420786099</v>
       </c>
       <c r="D2">
-        <v>0.82556355836321205</v>
+        <v>0.85901370429745405</v>
       </c>
       <c r="E2">
-        <v>0.64777098693775903</v>
+        <v>0.67040335278218099</v>
       </c>
       <c r="F2">
-        <v>0.98962993185290304</v>
+        <v>1.0724007804759199</v>
       </c>
       <c r="G2">
-        <f>C2-E2</f>
-        <v>0.19129168435810096</v>
+        <f t="shared" ref="G2:G16" si="0">C2-E2</f>
+        <v>0.20639504142567999</v>
       </c>
       <c r="H2">
-        <f>F2-C2</f>
-        <v>0.15056726055704306</v>
+        <f t="shared" ref="H2:H16" si="1">F2-C2</f>
+        <v>0.19560238626805893</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -4896,30 +4992,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
-        <v>44112</v>
+        <v>44122</v>
       </c>
       <c r="C3">
-        <v>0.85831373973411695</v>
+        <v>0.88131066258232504</v>
       </c>
       <c r="D3">
-        <v>0.84491665254548898</v>
+        <v>0.87125505362344302</v>
       </c>
       <c r="E3">
-        <v>0.66594813898826999</v>
+        <v>0.68212233978269898</v>
       </c>
       <c r="F3">
-        <v>1.05457238980376</v>
+        <v>1.0821424859048501</v>
       </c>
       <c r="G3">
-        <f>C3-E3</f>
-        <v>0.19236560074584697</v>
+        <f t="shared" si="0"/>
+        <v>0.19918832279962606</v>
       </c>
       <c r="H3">
-        <f>F3-C3</f>
-        <v>0.19625865006964305</v>
+        <f t="shared" si="1"/>
+        <v>0.20083182332252503</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -4928,30 +5024,30 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>44112</v>
+        <v>44122</v>
       </c>
       <c r="C4">
-        <v>0.91471045592476197</v>
+        <v>0.88850945755103095</v>
       </c>
       <c r="D4">
-        <v>0.89258563367115595</v>
+        <v>0.87472463252164701</v>
       </c>
       <c r="E4">
-        <v>0.71870085678330897</v>
+        <v>0.69482322143596997</v>
       </c>
       <c r="F4">
-        <v>1.0975808864730701</v>
+        <v>1.0772389612539901</v>
       </c>
       <c r="G4">
-        <f>C4-E4</f>
-        <v>0.19600959914145299</v>
+        <f t="shared" si="0"/>
+        <v>0.19368623611506097</v>
       </c>
       <c r="H4">
-        <f>F4-C4</f>
-        <v>0.18287043054830809</v>
+        <f t="shared" si="1"/>
+        <v>0.18872950370295916</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -4960,30 +5056,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>44112</v>
+        <v>44122</v>
       </c>
       <c r="C5">
-        <v>0.96843457208295602</v>
+        <v>0.891599813094059</v>
       </c>
       <c r="D5">
-        <v>0.95102531197025797</v>
+        <v>0.87763904166292594</v>
       </c>
       <c r="E5">
-        <v>0.72847386161706096</v>
+        <v>0.69138234765699402</v>
       </c>
       <c r="F5">
-        <v>1.143002170425</v>
+        <v>1.1071476686823201</v>
       </c>
       <c r="G5">
-        <f>C5-E5</f>
-        <v>0.23996071046589507</v>
+        <f t="shared" si="0"/>
+        <v>0.20021746543706498</v>
       </c>
       <c r="H5">
-        <f>F5-C5</f>
-        <v>0.17456759834204394</v>
+        <f t="shared" si="1"/>
+        <v>0.21554785558826106</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -4992,30 +5088,30 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>44112</v>
+        <v>44122</v>
       </c>
       <c r="C6">
-        <v>0.96108174579040695</v>
+        <v>0.91935070487038195</v>
       </c>
       <c r="D6">
-        <v>0.95241521797154904</v>
+        <v>0.90537805427924101</v>
       </c>
       <c r="E6">
-        <v>0.73080473918025401</v>
+        <v>0.72382151381833804</v>
       </c>
       <c r="F6">
-        <v>1.1363868275267499</v>
+        <v>1.10932362600373</v>
       </c>
       <c r="G6">
-        <f>C6-E6</f>
-        <v>0.23027700661015293</v>
+        <f t="shared" si="0"/>
+        <v>0.19552919105204392</v>
       </c>
       <c r="H6">
-        <f>F6-C6</f>
-        <v>0.17530508173634296</v>
+        <f t="shared" si="1"/>
+        <v>0.18997292113334807</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5024,30 +5120,30 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>44112</v>
+        <v>44122</v>
       </c>
       <c r="C7">
-        <v>1.0162100041653599</v>
+        <v>0.93197693198304998</v>
       </c>
       <c r="D7">
-        <v>1.00139246352022</v>
+        <v>0.92384926535883205</v>
       </c>
       <c r="E7">
-        <v>0.73563748594346501</v>
+        <v>0.72540466991038099</v>
       </c>
       <c r="F7">
-        <v>1.2017767244361299</v>
+        <v>1.1231898169618899</v>
       </c>
       <c r="G7">
-        <f>C7-E7</f>
-        <v>0.28057251822189488</v>
+        <f t="shared" si="0"/>
+        <v>0.20657226207266899</v>
       </c>
       <c r="H7">
-        <f>F7-C7</f>
-        <v>0.18556672027077004</v>
+        <f t="shared" si="1"/>
+        <v>0.19121288497883993</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5056,30 +5152,30 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
-        <v>44112</v>
+        <v>44122</v>
       </c>
       <c r="C8">
-        <v>1.0248078253588599</v>
+        <v>0.95617973820175695</v>
       </c>
       <c r="D8">
-        <v>1.00369335547364</v>
+        <v>0.94261665233397096</v>
       </c>
       <c r="E8">
-        <v>0.821924874316172</v>
+        <v>0.72482769443974204</v>
       </c>
       <c r="F8">
-        <v>1.2195044068118099</v>
+        <v>1.14604857980002</v>
       </c>
       <c r="G8">
-        <f>C8-E8</f>
-        <v>0.20288295104268794</v>
+        <f t="shared" si="0"/>
+        <v>0.2313520437620149</v>
       </c>
       <c r="H8">
-        <f>F8-C8</f>
-        <v>0.19469658145294999</v>
+        <f t="shared" si="1"/>
+        <v>0.18986884159826301</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5091,27 +5187,27 @@
         <v>14</v>
       </c>
       <c r="B9" s="1">
-        <v>44112</v>
+        <v>44122</v>
       </c>
       <c r="C9">
-        <v>1.0401035921767701</v>
+        <v>0.95900094558394999</v>
       </c>
       <c r="D9">
-        <v>1.0148305673631499</v>
+        <v>0.94292708119840196</v>
       </c>
       <c r="E9">
-        <v>0.79898525930863395</v>
+        <v>0.75319721411960106</v>
       </c>
       <c r="F9">
-        <v>1.22479365158353</v>
+        <v>1.1510159178525901</v>
       </c>
       <c r="G9">
-        <f>C9-E9</f>
-        <v>0.24111833286813611</v>
+        <f t="shared" si="0"/>
+        <v>0.20580373146434894</v>
       </c>
       <c r="H9">
-        <f>F9-C9</f>
-        <v>0.18469005940675998</v>
+        <f t="shared" si="1"/>
+        <v>0.19201497226864006</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5120,30 +5216,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1">
-        <v>44112</v>
+        <v>44122</v>
       </c>
       <c r="C10">
-        <v>1.04159286539555</v>
+        <v>1.01412246936934</v>
       </c>
       <c r="D10">
-        <v>1.0295544347448999</v>
+        <v>0.99058479502074503</v>
       </c>
       <c r="E10">
-        <v>0.77702368033511804</v>
+        <v>0.73109183606372197</v>
       </c>
       <c r="F10">
-        <v>1.2561119751321299</v>
+        <v>1.2110476575120199</v>
       </c>
       <c r="G10">
-        <f>C10-E10</f>
-        <v>0.26456918506043192</v>
+        <f t="shared" si="0"/>
+        <v>0.28303063330561806</v>
       </c>
       <c r="H10">
-        <f>F10-C10</f>
-        <v>0.21451910973657995</v>
+        <f t="shared" si="1"/>
+        <v>0.1969251881426799</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5152,30 +5248,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>44112</v>
+        <v>44122</v>
       </c>
       <c r="C11">
-        <v>1.0833122591202</v>
+        <v>1.0068471024135399</v>
       </c>
       <c r="D11">
-        <v>1.0577724179411401</v>
+        <v>0.99901795254579395</v>
       </c>
       <c r="E11">
-        <v>0.79330585280919297</v>
+        <v>0.76226735719568595</v>
       </c>
       <c r="F11">
-        <v>1.2778529951786901</v>
+        <v>1.2002175190883799</v>
       </c>
       <c r="G11">
-        <f>C11-E11</f>
-        <v>0.29000640631100705</v>
+        <f t="shared" si="0"/>
+        <v>0.24457974521785397</v>
       </c>
       <c r="H11">
-        <f>F11-C11</f>
-        <v>0.19454073605849009</v>
+        <f t="shared" si="1"/>
+        <v>0.19337041667484001</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5184,30 +5280,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
-        <v>44112</v>
+        <v>44122</v>
       </c>
       <c r="C12">
-        <v>1.10109144802925</v>
+        <v>1.0444633287228899</v>
       </c>
       <c r="D12">
-        <v>1.08147930550196</v>
+        <v>1.0308983922255399</v>
       </c>
       <c r="E12">
-        <v>0.83429835668089503</v>
+        <v>0.77458869621276305</v>
       </c>
       <c r="F12">
-        <v>1.2768876030332501</v>
+        <v>1.2332818402015999</v>
       </c>
       <c r="G12">
-        <f>C12-E12</f>
-        <v>0.26679309134835494</v>
+        <f t="shared" si="0"/>
+        <v>0.26987463251012689</v>
       </c>
       <c r="H12">
-        <f>F12-C12</f>
-        <v>0.17579615500400014</v>
+        <f t="shared" si="1"/>
+        <v>0.18881851147870998</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5216,30 +5312,30 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1">
-        <v>44112</v>
+        <v>44122</v>
       </c>
       <c r="C13">
-        <v>1.0842528428585601</v>
+        <v>1.05169644216685</v>
       </c>
       <c r="D13">
-        <v>1.0818169987455299</v>
+        <v>1.03868750510747</v>
       </c>
       <c r="E13">
-        <v>0.850667630474361</v>
+        <v>0.78764429182973605</v>
       </c>
       <c r="F13">
-        <v>1.3061565046036101</v>
+        <v>1.2342979892341299</v>
       </c>
       <c r="G13">
-        <f>C13-E13</f>
-        <v>0.23358521238419905</v>
+        <f t="shared" si="0"/>
+        <v>0.26405215033711393</v>
       </c>
       <c r="H13">
-        <f>F13-C13</f>
-        <v>0.22190366174505005</v>
+        <f t="shared" si="1"/>
+        <v>0.18260154706727993</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5248,30 +5344,30 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1">
-        <v>44112</v>
+        <v>44122</v>
       </c>
       <c r="C14">
-        <v>1.12565535746377</v>
+        <v>1.0601688645809599</v>
       </c>
       <c r="D14">
-        <v>1.1178538797714499</v>
+        <v>1.0497320411889099</v>
       </c>
       <c r="E14">
-        <v>0.843574173821526</v>
+        <v>0.82107218871627397</v>
       </c>
       <c r="F14">
-        <v>1.35513268390584</v>
+        <v>1.2525005101065501</v>
       </c>
       <c r="G14">
-        <f>C14-E14</f>
-        <v>0.28208118364224399</v>
+        <f t="shared" si="0"/>
+        <v>0.23909667586468597</v>
       </c>
       <c r="H14">
-        <f>F14-C14</f>
-        <v>0.22947732644206997</v>
+        <f t="shared" si="1"/>
+        <v>0.19233164552559012</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -5280,30 +5376,30 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1">
-        <v>44112</v>
+        <v>44122</v>
       </c>
       <c r="C15">
-        <v>1.2659561422716501</v>
+        <v>1.0810022869900899</v>
       </c>
       <c r="D15">
-        <v>1.25980273817537</v>
+        <v>1.07251159353671</v>
       </c>
       <c r="E15">
-        <v>0.98624989542656605</v>
+        <v>0.83314518813361405</v>
       </c>
       <c r="F15">
-        <v>1.50106663379836</v>
+        <v>1.2771166736136901</v>
       </c>
       <c r="G15">
-        <f>C15-E15</f>
-        <v>0.27970624684508405</v>
+        <f t="shared" si="0"/>
+        <v>0.24785709885647589</v>
       </c>
       <c r="H15">
-        <f>F15-C15</f>
-        <v>0.23511049152670993</v>
+        <f t="shared" si="1"/>
+        <v>0.19611438662360015</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -5312,30 +5408,30 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
-        <v>44112</v>
+        <v>44122</v>
       </c>
       <c r="C16">
-        <v>1.40263259045844</v>
+        <v>1.1570786532066399</v>
       </c>
       <c r="D16">
-        <v>1.38413501275144</v>
+        <v>1.14412025870595</v>
       </c>
       <c r="E16">
-        <v>1.10683272959113</v>
+        <v>0.86734706269378303</v>
       </c>
       <c r="F16">
-        <v>1.7014291693082</v>
+        <v>1.4000737753138499</v>
       </c>
       <c r="G16">
-        <f>C16-E16</f>
-        <v>0.29579986086731003</v>
+        <f t="shared" si="0"/>
+        <v>0.28973159051285691</v>
       </c>
       <c r="H16">
-        <f>F16-C16</f>
-        <v>0.29879657884975996</v>
+        <f t="shared" si="1"/>
+        <v>0.24299512210720997</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -5355,8 +5451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9B4699-B86D-4EFA-A264-1734A39D161E}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5396,30 +5492,30 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>44082</v>
+        <v>44092</v>
       </c>
       <c r="C2">
-        <v>0.90861016201760203</v>
+        <v>1.08334678494279</v>
       </c>
       <c r="D2">
-        <v>0.905850888273662</v>
+        <v>1.08487895884812</v>
       </c>
       <c r="E2">
-        <v>0.83130910624826504</v>
+        <v>1.0033232936716201</v>
       </c>
       <c r="F2">
-        <v>0.97281265367428604</v>
+        <v>1.1796876463819099</v>
       </c>
       <c r="G2">
-        <f>C2-E2</f>
-        <v>7.730105576933699E-2</v>
+        <f t="shared" ref="G2:G16" si="0">C2-E2</f>
+        <v>8.0023491271169922E-2</v>
       </c>
       <c r="H2">
-        <f>F2-C2</f>
-        <v>6.4202491656684013E-2</v>
+        <f t="shared" ref="H2:H16" si="1">F2-C2</f>
+        <v>9.6340861439119907E-2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5428,30 +5524,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
-        <v>44082</v>
+        <v>44092</v>
       </c>
       <c r="C3">
-        <v>0.90535034191225905</v>
+        <v>0.96816309354332397</v>
       </c>
       <c r="D3">
-        <v>0.90360154565422601</v>
+        <v>0.96471190602036405</v>
       </c>
       <c r="E3">
-        <v>0.82167231024300003</v>
+        <v>0.88878293909792205</v>
       </c>
       <c r="F3">
-        <v>0.99083146487047602</v>
+        <v>1.0388941254088699</v>
       </c>
       <c r="G3">
-        <f>C3-E3</f>
-        <v>8.3678031669259023E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.9380154445401918E-2</v>
       </c>
       <c r="H3">
-        <f>F3-C3</f>
-        <v>8.5481122958216971E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.0731031865545968E-2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5460,30 +5556,30 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>44082</v>
+        <v>44092</v>
       </c>
       <c r="C4">
-        <v>0.87187805718809996</v>
+        <v>0.95472998365504302</v>
       </c>
       <c r="D4">
-        <v>0.87123034141297895</v>
+        <v>0.95125186007864404</v>
       </c>
       <c r="E4">
-        <v>0.79486027121981795</v>
+        <v>0.84189404020254799</v>
       </c>
       <c r="F4">
-        <v>0.93306650718028705</v>
+        <v>1.0288821972619999</v>
       </c>
       <c r="G4">
-        <f>C4-E4</f>
-        <v>7.7017785968282015E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.11283594345249504</v>
       </c>
       <c r="H4">
-        <f>F4-C4</f>
-        <v>6.1188449992187088E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.4152213606956896E-2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5492,30 +5588,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>44082</v>
+        <v>44092</v>
       </c>
       <c r="C5">
-        <v>0.93466315317722004</v>
+        <v>0.974250739704003</v>
       </c>
       <c r="D5">
-        <v>0.93222920217891003</v>
+        <v>0.96948324393541496</v>
       </c>
       <c r="E5">
-        <v>0.85103113409053699</v>
+        <v>0.88286376855593895</v>
       </c>
       <c r="F5">
-        <v>1.02313913137694</v>
+        <v>1.0511799438548399</v>
       </c>
       <c r="G5">
-        <f>C5-E5</f>
-        <v>8.3632019086683052E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.1386971148064045E-2</v>
       </c>
       <c r="H5">
-        <f>F5-C5</f>
-        <v>8.8475978199719973E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.6929204150836927E-2</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5524,30 +5620,30 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>44082</v>
+        <v>44092</v>
       </c>
       <c r="C6">
-        <v>0.91370318131379302</v>
+        <v>1.0248539508908301</v>
       </c>
       <c r="D6">
-        <v>0.91095771684461602</v>
+        <v>1.01975529384094</v>
       </c>
       <c r="E6">
-        <v>0.831890419906677</v>
+        <v>0.94422191555734603</v>
       </c>
       <c r="F6">
-        <v>0.99112637626787403</v>
+        <v>1.1045559412952799</v>
       </c>
       <c r="G6">
-        <f>C6-E6</f>
-        <v>8.1812761407116019E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.0632035333484064E-2</v>
       </c>
       <c r="H6">
-        <f>F6-C6</f>
-        <v>7.7423194954081009E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.9701990404449807E-2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5556,30 +5652,30 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>44082</v>
+        <v>44092</v>
       </c>
       <c r="C7">
-        <v>0.94986622072777505</v>
+        <v>1.0183321048584899</v>
       </c>
       <c r="D7">
-        <v>0.94750314642820999</v>
+        <v>1.01486517565979</v>
       </c>
       <c r="E7">
-        <v>0.85787909408229901</v>
+        <v>0.91902602817248802</v>
       </c>
       <c r="F7">
-        <v>1.02962173621469</v>
+        <v>1.10299440864011</v>
       </c>
       <c r="G7">
-        <f>C7-E7</f>
-        <v>9.1987126645476036E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.9306076686001887E-2</v>
       </c>
       <c r="H7">
-        <f>F7-C7</f>
-        <v>7.9755515486914952E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.4662303781620096E-2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5588,30 +5684,30 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
-        <v>44082</v>
+        <v>44092</v>
       </c>
       <c r="C8">
-        <v>0.90500940531401197</v>
+        <v>0.89818448626622005</v>
       </c>
       <c r="D8">
-        <v>0.90332615799580895</v>
+        <v>0.89594355249219804</v>
       </c>
       <c r="E8">
-        <v>0.83918143942901402</v>
+        <v>0.805209774488306</v>
       </c>
       <c r="F8">
-        <v>0.97440245125131797</v>
+        <v>0.96365303475776498</v>
       </c>
       <c r="G8">
-        <f>C8-E8</f>
-        <v>6.5827965884997952E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.2974711777914054E-2</v>
       </c>
       <c r="H8">
-        <f>F8-C8</f>
-        <v>6.9393045937305997E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.5468548491544931E-2</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5623,27 +5719,27 @@
         <v>14</v>
       </c>
       <c r="B9" s="1">
-        <v>44082</v>
+        <v>44092</v>
       </c>
       <c r="C9">
-        <v>0.99710981479972205</v>
+        <v>0.94445627406365595</v>
       </c>
       <c r="D9">
-        <v>0.99735125048837103</v>
+        <v>0.94287308533578096</v>
       </c>
       <c r="E9">
-        <v>0.91277195699091396</v>
+        <v>0.86320757762967704</v>
       </c>
       <c r="F9">
-        <v>1.0695247151579701</v>
+        <v>1.0295098647807199</v>
       </c>
       <c r="G9">
-        <f>C9-E9</f>
-        <v>8.4337857808808092E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.1248696433978917E-2</v>
       </c>
       <c r="H9">
-        <f>F9-C9</f>
-        <v>7.2414900358248047E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.5053590717063976E-2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5652,30 +5748,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1">
-        <v>44082</v>
+        <v>44092</v>
       </c>
       <c r="C10">
-        <v>0.94627949621264396</v>
+        <v>0.89020499141390097</v>
       </c>
       <c r="D10">
-        <v>0.94412652993424995</v>
+        <v>0.88979943876055501</v>
       </c>
       <c r="E10">
-        <v>0.85572987177666904</v>
+        <v>0.82562945696941203</v>
       </c>
       <c r="F10">
-        <v>1.02274724675281</v>
+        <v>0.96211852922376295</v>
       </c>
       <c r="G10">
-        <f>C10-E10</f>
-        <v>9.0549624435974918E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.4575534444488936E-2</v>
       </c>
       <c r="H10">
-        <f>F10-C10</f>
-        <v>7.646775054016608E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.1913537809861983E-2</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5684,30 +5780,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>44082</v>
+        <v>44092</v>
       </c>
       <c r="C11">
-        <v>1.0021925728494301</v>
+        <v>0.92273576510773803</v>
       </c>
       <c r="D11">
-        <v>1.0006106681334901</v>
+        <v>0.91899246250671396</v>
       </c>
       <c r="E11">
-        <v>0.91120783345979695</v>
+        <v>0.84213981603594601</v>
       </c>
       <c r="F11">
-        <v>1.0773279712238699</v>
+        <v>1.0069766664125801</v>
       </c>
       <c r="G11">
-        <f>C11-E11</f>
-        <v>9.098473938963314E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.0595949071792017E-2</v>
       </c>
       <c r="H11">
-        <f>F11-C11</f>
-        <v>7.5135398374439832E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.4240901304842075E-2</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5716,30 +5812,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
-        <v>44082</v>
+        <v>44092</v>
       </c>
       <c r="C12">
-        <v>1.0244876707227699</v>
+        <v>1.1714652060405599</v>
       </c>
       <c r="D12">
-        <v>1.0224245781841299</v>
+        <v>1.1648362153048599</v>
       </c>
       <c r="E12">
-        <v>0.93761901625857003</v>
+        <v>1.05892631528772</v>
       </c>
       <c r="F12">
-        <v>1.10172422718892</v>
+        <v>1.2837691107876901</v>
       </c>
       <c r="G12">
-        <f>C12-E12</f>
-        <v>8.686865446419989E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.11253889075283996</v>
       </c>
       <c r="H12">
-        <f>F12-C12</f>
-        <v>7.723655646615013E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.11230390474713015</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5748,30 +5844,30 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1">
-        <v>44082</v>
+        <v>44092</v>
       </c>
       <c r="C13">
-        <v>0.98492937358530996</v>
+        <v>1.0840484484453301</v>
       </c>
       <c r="D13">
-        <v>0.98433002345909404</v>
+        <v>1.0777922267715101</v>
       </c>
       <c r="E13">
-        <v>0.90151508480312104</v>
+        <v>0.96958646385252401</v>
       </c>
       <c r="F13">
-        <v>1.0526991162411901</v>
+        <v>1.16206541047287</v>
       </c>
       <c r="G13">
-        <f>C13-E13</f>
-        <v>8.3414288782188928E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.1144619845928061</v>
       </c>
       <c r="H13">
-        <f>F13-C13</f>
-        <v>6.7769742655880094E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.8016962027539938E-2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5780,30 +5876,30 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1">
-        <v>44082</v>
+        <v>44092</v>
       </c>
       <c r="C14">
-        <v>0.98571325083588102</v>
+        <v>0.96614600246801297</v>
       </c>
       <c r="D14">
-        <v>0.98207218611343605</v>
+        <v>0.96257927564356305</v>
       </c>
       <c r="E14">
-        <v>0.899563467423105</v>
+        <v>0.88990070471085703</v>
       </c>
       <c r="F14">
-        <v>1.06011756275567</v>
+        <v>1.04783081484139</v>
       </c>
       <c r="G14">
-        <f>C14-E14</f>
-        <v>8.6149783412776015E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.6245297757155939E-2</v>
       </c>
       <c r="H14">
-        <f>F14-C14</f>
-        <v>7.4404311919789023E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.1684812373376992E-2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -5812,30 +5908,30 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1">
-        <v>44082</v>
+        <v>44092</v>
       </c>
       <c r="C15">
-        <v>1.03331636201512</v>
+        <v>0.891611250416524</v>
       </c>
       <c r="D15">
-        <v>1.0300089094474101</v>
+        <v>0.89177288785199404</v>
       </c>
       <c r="E15">
-        <v>0.933200680694109</v>
+        <v>0.80416695669225702</v>
       </c>
       <c r="F15">
-        <v>1.0987697470717399</v>
+        <v>0.96788748843775896</v>
       </c>
       <c r="G15">
-        <f>C15-E15</f>
-        <v>0.10011568132101101</v>
+        <f t="shared" si="0"/>
+        <v>8.7444293724266986E-2</v>
       </c>
       <c r="H15">
-        <f>F15-C15</f>
-        <v>6.5453385056619906E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.6276238021234954E-2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -5844,30 +5940,30 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
-        <v>44082</v>
+        <v>44092</v>
       </c>
       <c r="C16">
-        <v>1.0882889897566399</v>
+        <v>0.97408742923112901</v>
       </c>
       <c r="D16">
-        <v>1.0847788819213</v>
+        <v>0.97090221912352603</v>
       </c>
       <c r="E16">
-        <v>0.99835065392725197</v>
+        <v>0.91026336624530602</v>
       </c>
       <c r="F16">
-        <v>1.1835858996381301</v>
+        <v>1.0470473413511301</v>
       </c>
       <c r="G16">
-        <f>C16-E16</f>
-        <v>8.9938335829387928E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.3824062985822994E-2</v>
       </c>
       <c r="H16">
-        <f>F16-C16</f>
-        <v>9.5296909881490199E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.295991212000108E-2</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -5875,8 +5971,8 @@
       <c r="J16" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I17">
-    <sortCondition ref="C1:C17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I16">
+    <sortCondition ref="A2:A16" customList="Azua,Espaillat,Distrito Nacional,San Juan,La Altagracia,Santo Domingo,Sánchez Ramírez,Puerto Plata,Peravia,Duarte,San Pedro de Macorís,La Vega,Santiago,San Cristóbal,La Romana"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5887,8 +5983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFCAF56-E988-48E4-BDA2-C84256C27DCF}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5928,30 +6024,30 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>44051</v>
+        <v>44061</v>
       </c>
       <c r="C2">
-        <v>0.91524484392665995</v>
+        <v>0.90431971025624902</v>
       </c>
       <c r="D2">
-        <v>0.91530330235547497</v>
+        <v>0.90072527399442004</v>
       </c>
       <c r="E2">
-        <v>0.85177770887056803</v>
+        <v>0.82147807230022396</v>
       </c>
       <c r="F2">
-        <v>0.98996424707443198</v>
+        <v>0.97421877440975901</v>
       </c>
       <c r="G2">
-        <f>C2-E2</f>
-        <v>6.3467135056091917E-2</v>
+        <f t="shared" ref="G2:G16" si="0">C2-E2</f>
+        <v>8.284163795602506E-2</v>
       </c>
       <c r="H2">
-        <f>F2-C2</f>
-        <v>7.4719403147772034E-2</v>
+        <f t="shared" ref="H2:H16" si="1">F2-C2</f>
+        <v>6.9899064153509993E-2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5960,30 +6056,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
-        <v>44051</v>
+        <v>44061</v>
       </c>
       <c r="C3">
-        <v>0.92369750154395402</v>
+        <v>1.0180281386845</v>
       </c>
       <c r="D3">
-        <v>0.92101670480014297</v>
+        <v>1.01518123632543</v>
       </c>
       <c r="E3">
-        <v>0.83261793545556595</v>
+        <v>0.93647800697956596</v>
       </c>
       <c r="F3">
-        <v>0.98856845352767098</v>
+        <v>1.1071980098638501</v>
       </c>
       <c r="G3">
-        <f>C3-E3</f>
-        <v>9.1079566088388075E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.1550131704934081E-2</v>
       </c>
       <c r="H3">
-        <f>F3-C3</f>
-        <v>6.4870951983716951E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.9169871179350046E-2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5992,30 +6088,30 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>44051</v>
+        <v>44061</v>
       </c>
       <c r="C4">
-        <v>0.95811111010438799</v>
+        <v>0.98819795005738797</v>
       </c>
       <c r="D4">
-        <v>0.95828412932293405</v>
+        <v>0.98775281140729898</v>
       </c>
       <c r="E4">
-        <v>0.88775063924769504</v>
+        <v>0.91392744261395598</v>
       </c>
       <c r="F4">
-        <v>1.0343064896224801</v>
+        <v>1.0568929391519599</v>
       </c>
       <c r="G4">
-        <f>C4-E4</f>
-        <v>7.0360470856692947E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.4270507443431999E-2</v>
       </c>
       <c r="H4">
-        <f>F4-C4</f>
-        <v>7.6195379518092077E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.8694989094571945E-2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -6024,30 +6120,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>44051</v>
+        <v>44061</v>
       </c>
       <c r="C5">
-        <v>0.92990442383844596</v>
+        <v>0.98542437563541996</v>
       </c>
       <c r="D5">
-        <v>0.93014173055264004</v>
+        <v>0.98514103557613197</v>
       </c>
       <c r="E5">
-        <v>0.85166618397194604</v>
+        <v>0.90423517933966202</v>
       </c>
       <c r="F5">
-        <v>1.00553844257586</v>
+        <v>1.05608114365165</v>
       </c>
       <c r="G5">
-        <f>C5-E5</f>
-        <v>7.8238239866499915E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.1189196295757937E-2</v>
       </c>
       <c r="H5">
-        <f>F5-C5</f>
-        <v>7.5634018737414044E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.0656768016229998E-2</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -6056,30 +6152,30 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>44051</v>
+        <v>44061</v>
       </c>
       <c r="C6">
-        <v>0.99832471117571697</v>
+        <v>0.99034126550333501</v>
       </c>
       <c r="D6">
-        <v>0.99592871686239903</v>
+        <v>0.98926812806513897</v>
       </c>
       <c r="E6">
-        <v>0.90288010840396804</v>
+        <v>0.89938154258574099</v>
       </c>
       <c r="F6">
-        <v>1.0758108195491101</v>
+        <v>1.06650728317971</v>
       </c>
       <c r="G6">
-        <f>C6-E6</f>
-        <v>9.5444602771748932E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.0959722917594021E-2</v>
       </c>
       <c r="H6">
-        <f>F6-C6</f>
-        <v>7.7486108373393092E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.6166017676374986E-2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -6088,30 +6184,30 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>44051</v>
+        <v>44061</v>
       </c>
       <c r="C7">
-        <v>0.86415867371334298</v>
+        <v>1.0001829302048899</v>
       </c>
       <c r="D7">
-        <v>0.86189639754097103</v>
+        <v>0.99789060115414197</v>
       </c>
       <c r="E7">
-        <v>0.785149201089688</v>
+        <v>0.92613168626830999</v>
       </c>
       <c r="F7">
-        <v>0.93591102500786205</v>
+        <v>1.0729412211634599</v>
       </c>
       <c r="G7">
-        <f>C7-E7</f>
-        <v>7.9009472623654986E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.4051243936579914E-2</v>
       </c>
       <c r="H7">
-        <f>F7-C7</f>
-        <v>7.1752351294519068E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.2758290958570004E-2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -6120,30 +6216,30 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
-        <v>44051</v>
+        <v>44061</v>
       </c>
       <c r="C8">
-        <v>0.90728029766408702</v>
+        <v>0.95127667827644402</v>
       </c>
       <c r="D8">
-        <v>0.90665906208759295</v>
+        <v>0.94795579162468901</v>
       </c>
       <c r="E8">
-        <v>0.82862582414015395</v>
+        <v>0.86972821513596699</v>
       </c>
       <c r="F8">
-        <v>0.96573098400271196</v>
+        <v>1.0269457884194999</v>
       </c>
       <c r="G8">
-        <f>C8-E8</f>
-        <v>7.8654473523933066E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.1548463140477034E-2</v>
       </c>
       <c r="H8">
-        <f>F8-C8</f>
-        <v>5.8450686338624935E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.5669110143055884E-2</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -6155,27 +6251,27 @@
         <v>14</v>
       </c>
       <c r="B9" s="1">
-        <v>44051</v>
+        <v>44061</v>
       </c>
       <c r="C9">
-        <v>0.912969407785992</v>
+        <v>1.00560738185165</v>
       </c>
       <c r="D9">
-        <v>0.91226021348284603</v>
+        <v>1.0041215553507401</v>
       </c>
       <c r="E9">
-        <v>0.84444323728125903</v>
+        <v>0.91775383424982204</v>
       </c>
       <c r="F9">
-        <v>0.98878619698755699</v>
+        <v>1.08079633300067</v>
       </c>
       <c r="G9">
-        <f>C9-E9</f>
-        <v>6.8526170504732975E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.7853547601827953E-2</v>
       </c>
       <c r="H9">
-        <f>F9-C9</f>
-        <v>7.5816789201564982E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.5188951149020022E-2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -6184,30 +6280,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1">
-        <v>44051</v>
+        <v>44061</v>
       </c>
       <c r="C10">
-        <v>0.96445042488863997</v>
+        <v>0.96532181982568499</v>
       </c>
       <c r="D10">
-        <v>0.96371712710916302</v>
+        <v>0.96442681322901602</v>
       </c>
       <c r="E10">
-        <v>0.88814249991398597</v>
+        <v>0.87943922222367799</v>
       </c>
       <c r="F10">
-        <v>1.04950159081642</v>
+        <v>1.0369919318832901</v>
       </c>
       <c r="G10">
-        <f>C10-E10</f>
-        <v>7.6307924974653996E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.5882597602007005E-2</v>
       </c>
       <c r="H10">
-        <f>F10-C10</f>
-        <v>8.5051165927780059E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.1670112057605095E-2</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -6216,30 +6312,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>44051</v>
+        <v>44061</v>
       </c>
       <c r="C11">
-        <v>0.86428020983356302</v>
+        <v>0.87241377110709095</v>
       </c>
       <c r="D11">
-        <v>0.86269395754203204</v>
+        <v>0.87431367338556798</v>
       </c>
       <c r="E11">
-        <v>0.78522322688970403</v>
+        <v>0.80113882233341405</v>
       </c>
       <c r="F11">
-        <v>0.93065122770101405</v>
+        <v>0.93684056954389405</v>
       </c>
       <c r="G11">
-        <f>C11-E11</f>
-        <v>7.9056982943858989E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.1274948773676905E-2</v>
       </c>
       <c r="H11">
-        <f>F11-C11</f>
-        <v>6.6371017867451032E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.4426798436803101E-2</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -6248,30 +6344,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
-        <v>44051</v>
+        <v>44061</v>
       </c>
       <c r="C12">
-        <v>0.88720759274329897</v>
+        <v>0.87540767100156203</v>
       </c>
       <c r="D12">
-        <v>0.887605710238068</v>
+        <v>0.87228525928997303</v>
       </c>
       <c r="E12">
-        <v>0.81020974802379198</v>
+        <v>0.79254827418054397</v>
       </c>
       <c r="F12">
-        <v>0.95215253800329402</v>
+        <v>0.94294763923695402</v>
       </c>
       <c r="G12">
-        <f>C12-E12</f>
-        <v>7.6997844719506991E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.2859396821018061E-2</v>
       </c>
       <c r="H12">
-        <f>F12-C12</f>
-        <v>6.4944945259995057E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.7539968235391989E-2</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -6280,30 +6376,30 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1">
-        <v>44051</v>
+        <v>44061</v>
       </c>
       <c r="C13">
-        <v>0.90679941241413398</v>
+        <v>0.99495568760519504</v>
       </c>
       <c r="D13">
-        <v>0.90397559914890302</v>
+        <v>0.99454480473645901</v>
       </c>
       <c r="E13">
-        <v>0.83356956306810803</v>
+        <v>0.90943673843058803</v>
       </c>
       <c r="F13">
-        <v>0.96899630484909405</v>
+        <v>1.0645816830277199</v>
       </c>
       <c r="G13">
-        <f>C13-E13</f>
-        <v>7.3229849346025944E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.5518949174607006E-2</v>
       </c>
       <c r="H13">
-        <f>F13-C13</f>
-        <v>6.2196892434960072E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.96259954225249E-2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -6312,30 +6408,30 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1">
-        <v>44051</v>
+        <v>44061</v>
       </c>
       <c r="C14">
-        <v>0.95511643658211898</v>
+        <v>0.94556946147333898</v>
       </c>
       <c r="D14">
-        <v>0.95366307056209598</v>
+        <v>0.94561286243693599</v>
       </c>
       <c r="E14">
-        <v>0.88322620390425499</v>
+        <v>0.87215104168398805</v>
       </c>
       <c r="F14">
-        <v>1.0230198110329001</v>
+        <v>1.0043357207400401</v>
       </c>
       <c r="G14">
-        <f>C14-E14</f>
-        <v>7.1890232677863986E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.341841978935093E-2</v>
       </c>
       <c r="H14">
-        <f>F14-C14</f>
-        <v>6.7903374450781095E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.8766259266701093E-2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -6344,30 +6440,30 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1">
-        <v>44051</v>
+        <v>44061</v>
       </c>
       <c r="C15">
-        <v>0.92441014493627005</v>
+        <v>0.94987187902223802</v>
       </c>
       <c r="D15">
-        <v>0.92036792217913499</v>
+        <v>0.944747072194147</v>
       </c>
       <c r="E15">
-        <v>0.84942615811486299</v>
+        <v>0.87939640308950995</v>
       </c>
       <c r="F15">
-        <v>0.99940043727271399</v>
+        <v>1.0422747175606699</v>
       </c>
       <c r="G15">
-        <f>C15-E15</f>
-        <v>7.4983986821407056E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.0475475932728071E-2</v>
       </c>
       <c r="H15">
-        <f>F15-C15</f>
-        <v>7.4990292336443942E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.2402838538431897E-2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -6376,30 +6472,30 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
-        <v>44051</v>
+        <v>44061</v>
       </c>
       <c r="C16">
-        <v>0.88420412453420905</v>
+        <v>0.95215863538149903</v>
       </c>
       <c r="D16">
-        <v>0.884540236523366</v>
+        <v>0.95024486628594096</v>
       </c>
       <c r="E16">
-        <v>0.81083740477868105</v>
+        <v>0.86877297673949005</v>
       </c>
       <c r="F16">
-        <v>0.95201642605631798</v>
+        <v>1.0294459735480701</v>
       </c>
       <c r="G16">
-        <f>C16-E16</f>
-        <v>7.3366719755527998E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.3385658642008975E-2</v>
       </c>
       <c r="H16">
-        <f>F16-C16</f>
-        <v>6.7812301522108931E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.7287338166571073E-2</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -6407,6 +6503,9 @@
       <c r="J16" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I16">
+    <sortCondition ref="A2:A16" customList="Azua,Espaillat,Distrito Nacional,San Juan,La Altagracia,Santo Domingo,Sánchez Ramírez,Puerto Plata,Peravia,Duarte,San Pedro de Macorís,La Vega,Santiago,San Cristóbal,La Romana"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/results/resultado_consolidado/graph2.xlsx
+++ b/results/resultado_consolidado/graph2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Georg\Documents\GitHub\covid-model\results\resultado_consolidado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB9B250-9AC0-41D0-9247-538AE9FCD1C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA22C883-6FD5-401C-AE78-1756A95F4440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4AC76AC7-E5A1-4C07-9F5F-EE5E7DC34869}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4AC76AC7-E5A1-4C07-9F5F-EE5E7DC34869}"/>
   </bookViews>
   <sheets>
-    <sheet name="18 oct" sheetId="2" r:id="rId1"/>
-    <sheet name="18 sep" sheetId="1" r:id="rId2"/>
-    <sheet name="18 ago" sheetId="3" r:id="rId3"/>
+    <sheet name="21 oct" sheetId="2" r:id="rId1"/>
+    <sheet name="21 sep" sheetId="1" r:id="rId2"/>
+    <sheet name="21 ago" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -189,7 +189,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'18 oct'!$D$1</c:f>
+              <c:f>'21 oct'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -491,108 +491,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'18 oct'!$H$2:$H$16</c:f>
+                <c:f>'21 oct'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.19560238626805893</c:v>
+                    <c:v>0.1989442823524501</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.20083182332252503</c:v>
+                    <c:v>0.18772721207936593</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.18872950370295916</c:v>
+                    <c:v>0.17108703984205997</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.21554785558826106</c:v>
+                    <c:v>0.18453495250968011</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.18997292113334807</c:v>
+                    <c:v>0.18782036474575003</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.19121288497883993</c:v>
+                    <c:v>0.25315797081100389</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.18986884159826301</c:v>
+                    <c:v>0.16337464094711796</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.19201497226864006</c:v>
+                    <c:v>0.17548065499037813</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.1969251881426799</c:v>
+                    <c:v>0.21409544116742008</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.19337041667484001</c:v>
+                    <c:v>0.23451868185473002</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.18881851147870998</c:v>
+                    <c:v>0.19778469516543984</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.18260154706727993</c:v>
+                    <c:v>0.20856220446828999</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.19233164552559012</c:v>
+                    <c:v>0.19339169519008004</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.19611438662360015</c:v>
+                    <c:v>0.24389708918032005</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.24299512210720997</c:v>
+                    <c:v>0.22386247785036018</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'18 oct'!$G$2:$G$16</c:f>
+                <c:f>'21 oct'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.20639504142567999</c:v>
+                    <c:v>0.19155608494190302</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.19918832279962606</c:v>
+                    <c:v>0.23080860949744397</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.19368623611506097</c:v>
+                    <c:v>0.21567232549141391</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.20021746543706498</c:v>
+                    <c:v>0.23610150750954795</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.19552919105204392</c:v>
+                    <c:v>0.23661867791337998</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.20657226207266899</c:v>
+                    <c:v>0.18832292894478309</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.2313520437620149</c:v>
+                    <c:v>0.226887061740773</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.20580373146434894</c:v>
+                    <c:v>0.25794070158622895</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.28303063330561806</c:v>
+                    <c:v>0.21894752907084203</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.24457974521785397</c:v>
+                    <c:v>0.19532275106307706</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.26987463251012689</c:v>
+                    <c:v>0.27251489743953305</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.26405215033711393</c:v>
+                    <c:v>0.26092252394662008</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.23909667586468597</c:v>
+                    <c:v>0.25069424616583103</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.24785709885647589</c:v>
+                    <c:v>0.25313952653869598</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.28973159051285691</c:v>
+                    <c:v>0.28731994479993295</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -613,107 +613,107 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'18 oct'!$A$2:$A$16</c:f>
+              <c:f>'21 oct'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>Espaillat</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Azua</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Santo Domingo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Distrito Nacional</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>La Altagracia</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Sánchez Ramírez</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Duarte</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>San Pedro de Macorís</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>La Romana</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>La Vega</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Santiago</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>San Cristóbal</c:v>
+                  <c:v>Peravia</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>La Romana</c:v>
+                  <c:v>Sánchez Ramírez</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'18 oct'!$D$2:$D$16</c:f>
+              <c:f>'21 oct'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.85901370429745405</c:v>
+                  <c:v>0.850375242007955</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.87125505362344302</c:v>
+                  <c:v>0.88511382460362198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87472463252164701</c:v>
+                  <c:v>0.94804472762005498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87763904166292594</c:v>
+                  <c:v>0.95080033467888803</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90537805427924101</c:v>
+                  <c:v>0.960162192521125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92384926535883205</c:v>
+                  <c:v>0.96525815555227901</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94261665233397096</c:v>
+                  <c:v>0.96721359598198298</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94292708119840196</c:v>
+                  <c:v>0.97354171255125499</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99058479502074503</c:v>
+                  <c:v>0.984036020591468</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99901795254579395</c:v>
+                  <c:v>0.98846801717532295</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0308983922255399</c:v>
+                  <c:v>1.00479310736202</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.03868750510747</c:v>
+                  <c:v>1.0292285349889201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0497320411889099</c:v>
+                  <c:v>1.0540178040152299</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.07251159353671</c:v>
+                  <c:v>1.09233295068659</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.14412025870595</c:v>
+                  <c:v>1.10910458446923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -730,7 +730,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'18 oct'!$I$1</c:f>
+              <c:f>'21 oct'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -788,7 +788,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'18 oct'!$I$2:$I$16</c:f>
+              <c:f>'21 oct'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1032,7 +1032,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'18 sep'!$D$1</c:f>
+              <c:f>'21 sep'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1070,11 +1070,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1118,11 +1118,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1166,11 +1166,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1180,6 +1180,30 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-7349-4B88-8F72-A9F8BF77084A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="25400">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-2764-4D63-9C0C-43D1B7B331DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1334,108 +1358,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'18 sep'!$H$2:$H$16</c:f>
+                <c:f>'21 sep'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>9.6340861439119907E-2</c:v>
+                    <c:v>7.5871822814158052E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.0731031865545968E-2</c:v>
+                    <c:v>6.8875905974122964E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.4152213606956896E-2</c:v>
+                    <c:v>8.7216279442514866E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.6929204150836927E-2</c:v>
+                    <c:v>0.10662001853152603</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.9701990404449807E-2</c:v>
+                    <c:v>8.3483483229818023E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8.4662303781620096E-2</c:v>
+                    <c:v>8.6890336783929989E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6.5468548491544931E-2</c:v>
+                    <c:v>7.5531097152237048E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.5053590717063976E-2</c:v>
+                    <c:v>8.7896417540409999E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.1913537809861983E-2</c:v>
+                    <c:v>7.8478460708189868E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.4240901304842075E-2</c:v>
+                    <c:v>6.1318368381468979E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.11230390474713015</c:v>
+                    <c:v>8.1562132243800045E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>7.8016962027539938E-2</c:v>
+                    <c:v>0.10110886581868983</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>8.1684812373376992E-2</c:v>
+                    <c:v>7.7629054369783068E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>7.6276238021234954E-2</c:v>
+                    <c:v>7.6141977838109054E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>7.295991212000108E-2</c:v>
+                    <c:v>8.0875879499935022E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'18 sep'!$G$2:$G$16</c:f>
+                <c:f>'21 sep'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>8.0023491271169922E-2</c:v>
+                    <c:v>9.0679593660563995E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.9380154445401918E-2</c:v>
+                    <c:v>9.9638240591785054E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.11283594345249504</c:v>
+                    <c:v>7.4146373961224032E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>9.1386971148064045E-2</c:v>
+                    <c:v>8.4685447508790035E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.0632035333484064E-2</c:v>
+                    <c:v>7.8515855846654992E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>9.9306076686001887E-2</c:v>
+                    <c:v>9.0986960409599971E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>9.2974711777914054E-2</c:v>
+                    <c:v>7.5316801105125064E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.1248696433978917E-2</c:v>
+                    <c:v>0.10168725811810997</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>6.4575534444488936E-2</c:v>
+                    <c:v>7.1423559037142148E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.0595949071792017E-2</c:v>
+                    <c:v>6.3331435527687052E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.11253889075283996</c:v>
+                    <c:v>0.10044830451542697</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.1144619845928061</c:v>
+                    <c:v>0.11423182916854002</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>7.6245297757155939E-2</c:v>
+                    <c:v>8.1985088645134985E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>8.7444293724266986E-2</c:v>
+                    <c:v>9.4597482231872032E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>6.3824062985822994E-2</c:v>
+                    <c:v>8.7161344182806966E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1456,107 +1480,107 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'18 sep'!$A$2:$A$16</c:f>
+              <c:f>'21 sep'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>Espaillat</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Azua</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Santo Domingo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Distrito Nacional</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>La Altagracia</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Sánchez Ramírez</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Duarte</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>San Pedro de Macorís</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>La Romana</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>La Vega</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Santiago</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>San Cristóbal</c:v>
+                  <c:v>Peravia</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>La Romana</c:v>
+                  <c:v>Sánchez Ramírez</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'18 sep'!$D$2:$D$16</c:f>
+              <c:f>'21 sep'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.08487895884812</c:v>
+                  <c:v>0.87913837501271797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96471190602036405</c:v>
+                  <c:v>0.89273174452581905</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95125186007864404</c:v>
+                  <c:v>0.96818915274908701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96948324393541496</c:v>
+                  <c:v>0.97549385760419605</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.01975529384094</c:v>
+                  <c:v>0.96631271611407898</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.01486517565979</c:v>
+                  <c:v>1.04925611686072</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89594355249219804</c:v>
+                  <c:v>0.98095542990983797</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94287308533578096</c:v>
+                  <c:v>1.06860134883345</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88979943876055501</c:v>
+                  <c:v>1.03601867162136</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91899246250671396</c:v>
+                  <c:v>0.91817765960053999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1648362153048599</c:v>
+                  <c:v>1.02013449518393</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0777922267715101</c:v>
+                  <c:v>1.12587782403723</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.96257927564356305</c:v>
+                  <c:v>0.99690275142353302</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.89177288785199404</c:v>
+                  <c:v>0.99288339461420005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.97090221912352603</c:v>
+                  <c:v>0.98566434598265695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1573,7 +1597,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'18 oct'!$I$1</c:f>
+              <c:f>'21 oct'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1631,60 +1655,60 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'18 sep'!$A$2:$A$16</c:f>
+              <c:f>'21 sep'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>Espaillat</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Azua</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Santo Domingo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Distrito Nacional</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>La Altagracia</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Sánchez Ramírez</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Duarte</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>San Pedro de Macorís</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>La Romana</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>La Vega</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Santiago</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>San Cristóbal</c:v>
+                  <c:v>Peravia</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>La Romana</c:v>
+                  <c:v>Sánchez Ramírez</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'18 oct'!$I$2:$I$16</c:f>
+              <c:f>'21 oct'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1928,7 +1952,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'18 ago'!$D$1</c:f>
+              <c:f>'21 ago'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1966,11 +1990,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1990,11 +2014,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2062,11 +2086,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2110,11 +2134,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2134,11 +2158,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2172,6 +2196,30 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-0047-462A-8D79-F6B0A6344A96}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="25400">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-365B-4172-89CE-E163A3DD2B1C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2254,108 +2302,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'18 sep'!$H$2:$H$16</c:f>
+                <c:f>'21 sep'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>9.6340861439119907E-2</c:v>
+                    <c:v>7.5871822814158052E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.0731031865545968E-2</c:v>
+                    <c:v>6.8875905974122964E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.4152213606956896E-2</c:v>
+                    <c:v>8.7216279442514866E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.6929204150836927E-2</c:v>
+                    <c:v>0.10662001853152603</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.9701990404449807E-2</c:v>
+                    <c:v>8.3483483229818023E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8.4662303781620096E-2</c:v>
+                    <c:v>8.6890336783929989E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6.5468548491544931E-2</c:v>
+                    <c:v>7.5531097152237048E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.5053590717063976E-2</c:v>
+                    <c:v>8.7896417540409999E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.1913537809861983E-2</c:v>
+                    <c:v>7.8478460708189868E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.4240901304842075E-2</c:v>
+                    <c:v>6.1318368381468979E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.11230390474713015</c:v>
+                    <c:v>8.1562132243800045E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>7.8016962027539938E-2</c:v>
+                    <c:v>0.10110886581868983</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>8.1684812373376992E-2</c:v>
+                    <c:v>7.7629054369783068E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>7.6276238021234954E-2</c:v>
+                    <c:v>7.6141977838109054E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>7.295991212000108E-2</c:v>
+                    <c:v>8.0875879499935022E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'18 sep'!$G$2:$G$16</c:f>
+                <c:f>'21 sep'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>8.0023491271169922E-2</c:v>
+                    <c:v>9.0679593660563995E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.9380154445401918E-2</c:v>
+                    <c:v>9.9638240591785054E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.11283594345249504</c:v>
+                    <c:v>7.4146373961224032E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>9.1386971148064045E-2</c:v>
+                    <c:v>8.4685447508790035E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.0632035333484064E-2</c:v>
+                    <c:v>7.8515855846654992E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>9.9306076686001887E-2</c:v>
+                    <c:v>9.0986960409599971E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>9.2974711777914054E-2</c:v>
+                    <c:v>7.5316801105125064E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.1248696433978917E-2</c:v>
+                    <c:v>0.10168725811810997</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>6.4575534444488936E-2</c:v>
+                    <c:v>7.1423559037142148E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.0595949071792017E-2</c:v>
+                    <c:v>6.3331435527687052E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.11253889075283996</c:v>
+                    <c:v>0.10044830451542697</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.1144619845928061</c:v>
+                    <c:v>0.11423182916854002</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>7.6245297757155939E-2</c:v>
+                    <c:v>8.1985088645134985E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>8.7444293724266986E-2</c:v>
+                    <c:v>9.4597482231872032E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>6.3824062985822994E-2</c:v>
+                    <c:v>8.7161344182806966E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2376,107 +2424,107 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'18 sep'!$A$2:$A$16</c:f>
+              <c:f>'21 sep'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>Espaillat</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Azua</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Santo Domingo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Distrito Nacional</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>La Altagracia</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Sánchez Ramírez</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Duarte</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>San Pedro de Macorís</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>La Romana</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>La Vega</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Santiago</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>San Cristóbal</c:v>
+                  <c:v>Peravia</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>La Romana</c:v>
+                  <c:v>Sánchez Ramírez</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'18 ago'!$D$2:$D$16</c:f>
+              <c:f>'21 ago'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.90072527399442004</c:v>
+                  <c:v>1.0122264526123399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.01518123632543</c:v>
+                  <c:v>0.96504421886568703</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98775281140729898</c:v>
+                  <c:v>0.98223393422878902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98514103557613197</c:v>
+                  <c:v>0.91154800518706303</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98926812806513897</c:v>
+                  <c:v>1.0181879510821901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99789060115414197</c:v>
+                  <c:v>0.96961128649192196</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94795579162468901</c:v>
+                  <c:v>1.01344658968363</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0041215553507401</c:v>
+                  <c:v>0.87156316862849403</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.96442681322901602</c:v>
+                  <c:v>0.94388376814328101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.87431367338556798</c:v>
+                  <c:v>1.00110014586326</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.87228525928997303</c:v>
+                  <c:v>0.87424364075954997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99454480473645901</c:v>
+                  <c:v>0.98287639578852504</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.94561286243693599</c:v>
+                  <c:v>0.98283188128710497</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.944747072194147</c:v>
+                  <c:v>0.962552877212285</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.95024486628594096</c:v>
+                  <c:v>0.94799087760851997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2493,7 +2541,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'18 oct'!$I$1</c:f>
+              <c:f>'21 oct'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2551,60 +2599,60 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'18 sep'!$A$2:$A$16</c:f>
+              <c:f>'21 sep'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>Espaillat</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Azua</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Santo Domingo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Distrito Nacional</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>La Altagracia</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Sánchez Ramírez</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Duarte</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>San Pedro de Macorís</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>La Romana</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>La Vega</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Santiago</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>San Cristóbal</c:v>
+                  <c:v>Peravia</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>La Romana</c:v>
+                  <c:v>Sánchez Ramírez</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'18 oct'!$I$2:$I$16</c:f>
+              <c:f>'21 oct'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4919,8 +4967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A870B0F-A2EC-457C-A8A5-5E639A765E29}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4960,30 +5008,30 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
-        <v>44122</v>
+        <v>44125</v>
       </c>
       <c r="C2">
-        <v>0.87679839420786099</v>
+        <v>0.86508247214626999</v>
       </c>
       <c r="D2">
-        <v>0.85901370429745405</v>
+        <v>0.850375242007955</v>
       </c>
       <c r="E2">
-        <v>0.67040335278218099</v>
+        <v>0.67352638720436697</v>
       </c>
       <c r="F2">
-        <v>1.0724007804759199</v>
+        <v>1.0640267544987201</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G16" si="0">C2-E2</f>
-        <v>0.20639504142567999</v>
+        <v>0.19155608494190302</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H16" si="1">F2-C2</f>
-        <v>0.19560238626805893</v>
+        <v>0.1989442823524501</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -4992,30 +5040,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1">
-        <v>44122</v>
+        <v>44125</v>
       </c>
       <c r="C3">
-        <v>0.88131066258232504</v>
+        <v>0.89821965890963396</v>
       </c>
       <c r="D3">
-        <v>0.87125505362344302</v>
+        <v>0.88511382460362198</v>
       </c>
       <c r="E3">
-        <v>0.68212233978269898</v>
+        <v>0.66741104941218998</v>
       </c>
       <c r="F3">
-        <v>1.0821424859048501</v>
+        <v>1.0859468709889999</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>0.19918832279962606</v>
+        <v>0.23080860949744397</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>0.20083182332252503</v>
+        <v>0.18772721207936593</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5024,30 +5072,30 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>44122</v>
+        <v>44125</v>
       </c>
       <c r="C4">
-        <v>0.88850945755103095</v>
+        <v>0.95896312705140996</v>
       </c>
       <c r="D4">
-        <v>0.87472463252164701</v>
+        <v>0.94804472762005498</v>
       </c>
       <c r="E4">
-        <v>0.69482322143596997</v>
+        <v>0.74329080155999605</v>
       </c>
       <c r="F4">
-        <v>1.0772389612539901</v>
+        <v>1.1300501668934699</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.19368623611506097</v>
+        <v>0.21567232549141391</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>0.18872950370295916</v>
+        <v>0.17108703984205997</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5056,30 +5104,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
-        <v>44122</v>
+        <v>44125</v>
       </c>
       <c r="C5">
-        <v>0.891599813094059</v>
+        <v>0.96880840100234999</v>
       </c>
       <c r="D5">
-        <v>0.87763904166292594</v>
+        <v>0.95080033467888803</v>
       </c>
       <c r="E5">
-        <v>0.69138234765699402</v>
+        <v>0.73270689349280205</v>
       </c>
       <c r="F5">
-        <v>1.1071476686823201</v>
+        <v>1.1533433535120301</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.20021746543706498</v>
+        <v>0.23610150750954795</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>0.21554785558826106</v>
+        <v>0.18453495250968011</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5088,30 +5136,30 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
-        <v>44122</v>
+        <v>44125</v>
       </c>
       <c r="C6">
-        <v>0.91935070487038195</v>
+        <v>0.97230138165475</v>
       </c>
       <c r="D6">
-        <v>0.90537805427924101</v>
+        <v>0.960162192521125</v>
       </c>
       <c r="E6">
-        <v>0.72382151381833804</v>
+        <v>0.73568270374137001</v>
       </c>
       <c r="F6">
-        <v>1.10932362600373</v>
+        <v>1.1601217464005</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.19552919105204392</v>
+        <v>0.23661867791337998</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>0.18997292113334807</v>
+        <v>0.18782036474575003</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5120,30 +5168,30 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
-        <v>44122</v>
+        <v>44125</v>
       </c>
       <c r="C7">
-        <v>0.93197693198304998</v>
+        <v>0.97526343084926603</v>
       </c>
       <c r="D7">
-        <v>0.92384926535883205</v>
+        <v>0.96525815555227901</v>
       </c>
       <c r="E7">
-        <v>0.72540466991038099</v>
+        <v>0.78694050190448295</v>
       </c>
       <c r="F7">
-        <v>1.1231898169618899</v>
+        <v>1.2284214016602699</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.20657226207266899</v>
+        <v>0.18832292894478309</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>0.19121288497883993</v>
+        <v>0.25315797081100389</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5152,30 +5200,30 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44122</v>
+        <v>44125</v>
       </c>
       <c r="C8">
-        <v>0.95617973820175695</v>
+        <v>0.97593920712762205</v>
       </c>
       <c r="D8">
-        <v>0.94261665233397096</v>
+        <v>0.96721359598198298</v>
       </c>
       <c r="E8">
-        <v>0.72482769443974204</v>
+        <v>0.74905214538684906</v>
       </c>
       <c r="F8">
-        <v>1.14604857980002</v>
+        <v>1.13931384807474</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.2313520437620149</v>
+        <v>0.226887061740773</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>0.18986884159826301</v>
+        <v>0.16337464094711796</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5184,30 +5232,30 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>44122</v>
+        <v>44125</v>
       </c>
       <c r="C9">
-        <v>0.95900094558394999</v>
+        <v>0.99213548471811197</v>
       </c>
       <c r="D9">
-        <v>0.94292708119840196</v>
+        <v>0.97354171255125499</v>
       </c>
       <c r="E9">
-        <v>0.75319721411960106</v>
+        <v>0.73419478313188302</v>
       </c>
       <c r="F9">
-        <v>1.1510159178525901</v>
+        <v>1.1676161397084901</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.20580373146434894</v>
+        <v>0.25794070158622895</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>0.19201497226864006</v>
+        <v>0.17548065499037813</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5216,30 +5264,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>44122</v>
+        <v>44125</v>
       </c>
       <c r="C10">
-        <v>1.01412246936934</v>
+        <v>1.00625599947165</v>
       </c>
       <c r="D10">
-        <v>0.99058479502074503</v>
+        <v>0.984036020591468</v>
       </c>
       <c r="E10">
-        <v>0.73109183606372197</v>
+        <v>0.78730847040080798</v>
       </c>
       <c r="F10">
-        <v>1.2110476575120199</v>
+        <v>1.2203514406390701</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.28303063330561806</v>
+        <v>0.21894752907084203</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>0.1969251881426799</v>
+        <v>0.21409544116742008</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5248,30 +5296,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
-        <v>44122</v>
+        <v>44125</v>
       </c>
       <c r="C11">
-        <v>1.0068471024135399</v>
+        <v>1.00863039646701</v>
       </c>
       <c r="D11">
-        <v>0.99901795254579395</v>
+        <v>0.98846801717532295</v>
       </c>
       <c r="E11">
-        <v>0.76226735719568595</v>
+        <v>0.81330764540393297</v>
       </c>
       <c r="F11">
-        <v>1.2002175190883799</v>
+        <v>1.24314907832174</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.24457974521785397</v>
+        <v>0.19532275106307706</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>0.19337041667484001</v>
+        <v>0.23451868185473002</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5283,27 +5331,27 @@
         <v>15</v>
       </c>
       <c r="B12" s="1">
-        <v>44122</v>
+        <v>44125</v>
       </c>
       <c r="C12">
-        <v>1.0444633287228899</v>
+        <v>1.0247820299014101</v>
       </c>
       <c r="D12">
-        <v>1.0308983922255399</v>
+        <v>1.00479310736202</v>
       </c>
       <c r="E12">
-        <v>0.77458869621276305</v>
+        <v>0.75226713246187704</v>
       </c>
       <c r="F12">
-        <v>1.2332818402015999</v>
+        <v>1.2225667250668499</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0.26987463251012689</v>
+        <v>0.27251489743953305</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>0.18881851147870998</v>
+        <v>0.19778469516543984</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5312,30 +5360,30 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>44122</v>
+        <v>44125</v>
       </c>
       <c r="C13">
-        <v>1.05169644216685</v>
+        <v>1.0549835907721301</v>
       </c>
       <c r="D13">
-        <v>1.03868750510747</v>
+        <v>1.0292285349889201</v>
       </c>
       <c r="E13">
-        <v>0.78764429182973605</v>
+        <v>0.79406106682551003</v>
       </c>
       <c r="F13">
-        <v>1.2342979892341299</v>
+        <v>1.2635457952404201</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.26405215033711393</v>
+        <v>0.26092252394662008</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>0.18260154706727993</v>
+        <v>0.20856220446828999</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5344,30 +5392,30 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1">
-        <v>44122</v>
+        <v>44125</v>
       </c>
       <c r="C14">
-        <v>1.0601688645809599</v>
+        <v>1.06363679491921</v>
       </c>
       <c r="D14">
-        <v>1.0497320411889099</v>
+        <v>1.0540178040152299</v>
       </c>
       <c r="E14">
-        <v>0.82107218871627397</v>
+        <v>0.81294254875337901</v>
       </c>
       <c r="F14">
-        <v>1.2525005101065501</v>
+        <v>1.2570284901092901</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0.23909667586468597</v>
+        <v>0.25069424616583103</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>0.19233164552559012</v>
+        <v>0.19339169519008004</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -5376,30 +5424,30 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1">
-        <v>44122</v>
+        <v>44125</v>
       </c>
       <c r="C15">
-        <v>1.0810022869900899</v>
+        <v>1.10274246335729</v>
       </c>
       <c r="D15">
-        <v>1.07251159353671</v>
+        <v>1.09233295068659</v>
       </c>
       <c r="E15">
-        <v>0.83314518813361405</v>
+        <v>0.849602936818594</v>
       </c>
       <c r="F15">
-        <v>1.2771166736136901</v>
+        <v>1.34663955253761</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0.24785709885647589</v>
+        <v>0.25313952653869598</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>0.19611438662360015</v>
+        <v>0.24389708918032005</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -5408,30 +5456,30 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
-        <v>44122</v>
+        <v>44125</v>
       </c>
       <c r="C16">
-        <v>1.1570786532066399</v>
+        <v>1.1253587527856399</v>
       </c>
       <c r="D16">
-        <v>1.14412025870595</v>
+        <v>1.10910458446923</v>
       </c>
       <c r="E16">
-        <v>0.86734706269378303</v>
+        <v>0.83803880798570696</v>
       </c>
       <c r="F16">
-        <v>1.4000737753138499</v>
+        <v>1.3492212306360001</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0.28973159051285691</v>
+        <v>0.28731994479993295</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>0.24299512210720997</v>
+        <v>0.22386247785036018</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -5451,8 +5499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9B4699-B86D-4EFA-A264-1734A39D161E}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5492,30 +5540,30 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
-        <v>44092</v>
+        <v>44095</v>
       </c>
       <c r="C2">
-        <v>1.08334678494279</v>
+        <v>0.88510593847876995</v>
       </c>
       <c r="D2">
-        <v>1.08487895884812</v>
+        <v>0.87913837501271797</v>
       </c>
       <c r="E2">
-        <v>1.0033232936716201</v>
+        <v>0.79442634481820595</v>
       </c>
       <c r="F2">
-        <v>1.1796876463819099</v>
+        <v>0.960977761292928</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G16" si="0">C2-E2</f>
-        <v>8.0023491271169922E-2</v>
+        <v>9.0679593660563995E-2</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H16" si="1">F2-C2</f>
-        <v>9.6340861439119907E-2</v>
+        <v>7.5871822814158052E-2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5524,30 +5572,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1">
-        <v>44092</v>
+        <v>44095</v>
       </c>
       <c r="C3">
-        <v>0.96816309354332397</v>
+        <v>0.89471525966384602</v>
       </c>
       <c r="D3">
-        <v>0.96471190602036405</v>
+        <v>0.89273174452581905</v>
       </c>
       <c r="E3">
-        <v>0.88878293909792205</v>
+        <v>0.79507701907206096</v>
       </c>
       <c r="F3">
-        <v>1.0388941254088699</v>
+        <v>0.96359116563796898</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>7.9380154445401918E-2</v>
+        <v>9.9638240591785054E-2</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>7.0731031865545968E-2</v>
+        <v>6.8875905974122964E-2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5556,30 +5604,30 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>44092</v>
+        <v>44095</v>
       </c>
       <c r="C4">
-        <v>0.95472998365504302</v>
+        <v>0.97036352491480504</v>
       </c>
       <c r="D4">
-        <v>0.95125186007864404</v>
+        <v>0.96818915274908701</v>
       </c>
       <c r="E4">
-        <v>0.84189404020254799</v>
+        <v>0.89621715095358101</v>
       </c>
       <c r="F4">
-        <v>1.0288821972619999</v>
+        <v>1.0575798043573199</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.11283594345249504</v>
+        <v>7.4146373961224032E-2</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>7.4152213606956896E-2</v>
+        <v>8.7216279442514866E-2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5588,30 +5636,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
-        <v>44092</v>
+        <v>44095</v>
       </c>
       <c r="C5">
-        <v>0.974250739704003</v>
+        <v>0.97944494772553403</v>
       </c>
       <c r="D5">
-        <v>0.96948324393541496</v>
+        <v>0.97549385760419605</v>
       </c>
       <c r="E5">
-        <v>0.88286376855593895</v>
+        <v>0.894759500216744</v>
       </c>
       <c r="F5">
-        <v>1.0511799438548399</v>
+        <v>1.0860649662570601</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>9.1386971148064045E-2</v>
+        <v>8.4685447508790035E-2</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>7.6929204150836927E-2</v>
+        <v>0.10662001853152603</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5620,30 +5668,30 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
-        <v>44092</v>
+        <v>44095</v>
       </c>
       <c r="C6">
-        <v>1.0248539508908301</v>
+        <v>0.96391772899995198</v>
       </c>
       <c r="D6">
-        <v>1.01975529384094</v>
+        <v>0.96631271611407898</v>
       </c>
       <c r="E6">
-        <v>0.94422191555734603</v>
+        <v>0.88540187315329699</v>
       </c>
       <c r="F6">
-        <v>1.1045559412952799</v>
+        <v>1.04740121222977</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>8.0632035333484064E-2</v>
+        <v>7.8515855846654992E-2</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>7.9701990404449807E-2</v>
+        <v>8.3483483229818023E-2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5652,30 +5700,30 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
-        <v>44092</v>
+        <v>44095</v>
       </c>
       <c r="C7">
-        <v>1.0183321048584899</v>
+        <v>1.05383268712263</v>
       </c>
       <c r="D7">
-        <v>1.01486517565979</v>
+        <v>1.04925611686072</v>
       </c>
       <c r="E7">
-        <v>0.91902602817248802</v>
+        <v>0.96284572671303004</v>
       </c>
       <c r="F7">
-        <v>1.10299440864011</v>
+        <v>1.14072302390656</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>9.9306076686001887E-2</v>
+        <v>9.0986960409599971E-2</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>8.4662303781620096E-2</v>
+        <v>8.6890336783929989E-2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5684,30 +5732,30 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44092</v>
+        <v>44095</v>
       </c>
       <c r="C8">
-        <v>0.89818448626622005</v>
+        <v>0.98259172179441301</v>
       </c>
       <c r="D8">
-        <v>0.89594355249219804</v>
+        <v>0.98095542990983797</v>
       </c>
       <c r="E8">
-        <v>0.805209774488306</v>
+        <v>0.90727492068928794</v>
       </c>
       <c r="F8">
-        <v>0.96365303475776498</v>
+        <v>1.0581228189466501</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>9.2974711777914054E-2</v>
+        <v>7.5316801105125064E-2</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>6.5468548491544931E-2</v>
+        <v>7.5531097152237048E-2</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5716,30 +5764,30 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>44092</v>
+        <v>44095</v>
       </c>
       <c r="C9">
-        <v>0.94445627406365595</v>
+        <v>1.06822134481836</v>
       </c>
       <c r="D9">
-        <v>0.94287308533578096</v>
+        <v>1.06860134883345</v>
       </c>
       <c r="E9">
-        <v>0.86320757762967704</v>
+        <v>0.96653408670024998</v>
       </c>
       <c r="F9">
-        <v>1.0295098647807199</v>
+        <v>1.15611776235877</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>8.1248696433978917E-2</v>
+        <v>0.10168725811810997</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>8.5053590717063976E-2</v>
+        <v>8.7896417540409999E-2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5748,30 +5796,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>44092</v>
+        <v>44095</v>
       </c>
       <c r="C10">
-        <v>0.89020499141390097</v>
+        <v>1.0378269545963601</v>
       </c>
       <c r="D10">
-        <v>0.88979943876055501</v>
+        <v>1.03601867162136</v>
       </c>
       <c r="E10">
-        <v>0.82562945696941203</v>
+        <v>0.96640339555921795</v>
       </c>
       <c r="F10">
-        <v>0.96211852922376295</v>
+        <v>1.11630541530455</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>6.4575534444488936E-2</v>
+        <v>7.1423559037142148E-2</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>7.1913537809861983E-2</v>
+        <v>7.8478460708189868E-2</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5780,30 +5828,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
-        <v>44092</v>
+        <v>44095</v>
       </c>
       <c r="C11">
-        <v>0.92273576510773803</v>
+        <v>0.92166132031447201</v>
       </c>
       <c r="D11">
-        <v>0.91899246250671396</v>
+        <v>0.91817765960053999</v>
       </c>
       <c r="E11">
-        <v>0.84213981603594601</v>
+        <v>0.85832988478678496</v>
       </c>
       <c r="F11">
-        <v>1.0069766664125801</v>
+        <v>0.98297968869594099</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>8.0595949071792017E-2</v>
+        <v>6.3331435527687052E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>8.4240901304842075E-2</v>
+        <v>6.1318368381468979E-2</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5815,27 +5863,27 @@
         <v>15</v>
       </c>
       <c r="B12" s="1">
-        <v>44092</v>
+        <v>44095</v>
       </c>
       <c r="C12">
-        <v>1.1714652060405599</v>
+        <v>1.0223924171176599</v>
       </c>
       <c r="D12">
-        <v>1.1648362153048599</v>
+        <v>1.02013449518393</v>
       </c>
       <c r="E12">
-        <v>1.05892631528772</v>
+        <v>0.92194411260223297</v>
       </c>
       <c r="F12">
-        <v>1.2837691107876901</v>
+        <v>1.10395454936146</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0.11253889075283996</v>
+        <v>0.10044830451542697</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>0.11230390474713015</v>
+        <v>8.1562132243800045E-2</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5844,30 +5892,30 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>44092</v>
+        <v>44095</v>
       </c>
       <c r="C13">
-        <v>1.0840484484453301</v>
+        <v>1.1250352665747501</v>
       </c>
       <c r="D13">
-        <v>1.0777922267715101</v>
+        <v>1.12587782403723</v>
       </c>
       <c r="E13">
-        <v>0.96958646385252401</v>
+        <v>1.01080343740621</v>
       </c>
       <c r="F13">
-        <v>1.16206541047287</v>
+        <v>1.2261441323934399</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.1144619845928061</v>
+        <v>0.11423182916854002</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>7.8016962027539938E-2</v>
+        <v>0.10110886581868983</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5876,30 +5924,30 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1">
-        <v>44092</v>
+        <v>44095</v>
       </c>
       <c r="C14">
-        <v>0.96614600246801297</v>
+        <v>0.99992369917205703</v>
       </c>
       <c r="D14">
-        <v>0.96257927564356305</v>
+        <v>0.99690275142353302</v>
       </c>
       <c r="E14">
-        <v>0.88990070471085703</v>
+        <v>0.91793861052692205</v>
       </c>
       <c r="F14">
-        <v>1.04783081484139</v>
+        <v>1.0775527535418401</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>7.6245297757155939E-2</v>
+        <v>8.1985088645134985E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>8.1684812373376992E-2</v>
+        <v>7.7629054369783068E-2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -5908,30 +5956,30 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1">
-        <v>44092</v>
+        <v>44095</v>
       </c>
       <c r="C15">
-        <v>0.891611250416524</v>
+        <v>0.99293908854615098</v>
       </c>
       <c r="D15">
-        <v>0.89177288785199404</v>
+        <v>0.99288339461420005</v>
       </c>
       <c r="E15">
-        <v>0.80416695669225702</v>
+        <v>0.89834160631427895</v>
       </c>
       <c r="F15">
-        <v>0.96788748843775896</v>
+        <v>1.06908106638426</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>8.7444293724266986E-2</v>
+        <v>9.4597482231872032E-2</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>7.6276238021234954E-2</v>
+        <v>7.6141977838109054E-2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -5940,30 +5988,30 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
-        <v>44092</v>
+        <v>44095</v>
       </c>
       <c r="C16">
-        <v>0.97408742923112901</v>
+        <v>0.988971805003935</v>
       </c>
       <c r="D16">
-        <v>0.97090221912352603</v>
+        <v>0.98566434598265695</v>
       </c>
       <c r="E16">
-        <v>0.91026336624530602</v>
+        <v>0.90181046082112803</v>
       </c>
       <c r="F16">
-        <v>1.0470473413511301</v>
+        <v>1.06984768450387</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>6.3824062985822994E-2</v>
+        <v>8.7161344182806966E-2</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>7.295991212000108E-2</v>
+        <v>8.0875879499935022E-2</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -5983,8 +6031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFCAF56-E988-48E4-BDA2-C84256C27DCF}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6024,30 +6072,30 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
-        <v>44061</v>
+        <v>44064</v>
       </c>
       <c r="C2">
-        <v>0.90431971025624902</v>
+        <v>1.01362260405511</v>
       </c>
       <c r="D2">
-        <v>0.90072527399442004</v>
+        <v>1.0122264526123399</v>
       </c>
       <c r="E2">
-        <v>0.82147807230022396</v>
+        <v>0.93719359461121898</v>
       </c>
       <c r="F2">
-        <v>0.97421877440975901</v>
+        <v>1.0944840868121599</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G16" si="0">C2-E2</f>
-        <v>8.284163795602506E-2</v>
+        <v>7.6429009443890972E-2</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H16" si="1">F2-C2</f>
-        <v>6.9899064153509993E-2</v>
+        <v>8.0861482757049963E-2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -6056,30 +6104,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1">
-        <v>44061</v>
+        <v>44064</v>
       </c>
       <c r="C3">
-        <v>1.0180281386845</v>
+        <v>0.96686347451192001</v>
       </c>
       <c r="D3">
-        <v>1.01518123632543</v>
+        <v>0.96504421886568703</v>
       </c>
       <c r="E3">
-        <v>0.93647800697956596</v>
+        <v>0.88451474156495302</v>
       </c>
       <c r="F3">
-        <v>1.1071980098638501</v>
+        <v>1.03945930431588</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>8.1550131704934081E-2</v>
+        <v>8.2348732946966985E-2</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>8.9169871179350046E-2</v>
+        <v>7.2595829803959955E-2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -6088,30 +6136,30 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>44061</v>
+        <v>44064</v>
       </c>
       <c r="C4">
-        <v>0.98819795005738797</v>
+        <v>0.98098640549793503</v>
       </c>
       <c r="D4">
-        <v>0.98775281140729898</v>
+        <v>0.98223393422878902</v>
       </c>
       <c r="E4">
-        <v>0.91392744261395598</v>
+        <v>0.90342379945097095</v>
       </c>
       <c r="F4">
-        <v>1.0568929391519599</v>
+        <v>1.0608391744087</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>7.4270507443431999E-2</v>
+        <v>7.7562606046964078E-2</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>6.8694989094571945E-2</v>
+        <v>7.9852768910764982E-2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -6120,30 +6168,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
-        <v>44061</v>
+        <v>44064</v>
       </c>
       <c r="C5">
-        <v>0.98542437563541996</v>
+        <v>0.91454384205015704</v>
       </c>
       <c r="D5">
-        <v>0.98514103557613197</v>
+        <v>0.91154800518706303</v>
       </c>
       <c r="E5">
-        <v>0.90423517933966202</v>
+        <v>0.83083194455574005</v>
       </c>
       <c r="F5">
-        <v>1.05608114365165</v>
+        <v>0.97820673852628404</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>8.1189196295757937E-2</v>
+        <v>8.3711897494416987E-2</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>7.0656768016229998E-2</v>
+        <v>6.3662896476126996E-2</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -6152,30 +6200,30 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
-        <v>44061</v>
+        <v>44064</v>
       </c>
       <c r="C6">
-        <v>0.99034126550333501</v>
+        <v>1.0205480616903599</v>
       </c>
       <c r="D6">
-        <v>0.98926812806513897</v>
+        <v>1.0181879510821901</v>
       </c>
       <c r="E6">
-        <v>0.89938154258574099</v>
+        <v>0.92539991542029598</v>
       </c>
       <c r="F6">
-        <v>1.06650728317971</v>
+        <v>1.0891485292082701</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>9.0959722917594021E-2</v>
+        <v>9.514814627006396E-2</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>7.6166017676374986E-2</v>
+        <v>6.8600467517910158E-2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -6184,30 +6232,30 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
-        <v>44061</v>
+        <v>44064</v>
       </c>
       <c r="C7">
-        <v>1.0001829302048899</v>
+        <v>0.97075197045152295</v>
       </c>
       <c r="D7">
-        <v>0.99789060115414197</v>
+        <v>0.96961128649192196</v>
       </c>
       <c r="E7">
-        <v>0.92613168626830999</v>
+        <v>0.89053649139485802</v>
       </c>
       <c r="F7">
-        <v>1.0729412211634599</v>
+        <v>1.04929180858146</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>7.4051243936579914E-2</v>
+        <v>8.0215479056664929E-2</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>7.2758290958570004E-2</v>
+        <v>7.8539838129937034E-2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -6216,30 +6264,30 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44061</v>
+        <v>44064</v>
       </c>
       <c r="C8">
-        <v>0.95127667827644402</v>
+        <v>1.0125939172559</v>
       </c>
       <c r="D8">
-        <v>0.94795579162468901</v>
+        <v>1.01344658968363</v>
       </c>
       <c r="E8">
-        <v>0.86972821513596699</v>
+        <v>0.93481896262562902</v>
       </c>
       <c r="F8">
-        <v>1.0269457884194999</v>
+        <v>1.0807987195503099</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>8.1548463140477034E-2</v>
+        <v>7.7774954630270954E-2</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>7.5669110143055884E-2</v>
+        <v>6.820480229440995E-2</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -6248,30 +6296,30 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>44061</v>
+        <v>44064</v>
       </c>
       <c r="C9">
-        <v>1.00560738185165</v>
+        <v>0.87499262431847602</v>
       </c>
       <c r="D9">
-        <v>1.0041215553507401</v>
+        <v>0.87156316862849403</v>
       </c>
       <c r="E9">
-        <v>0.91775383424982204</v>
+        <v>0.79777301147726998</v>
       </c>
       <c r="F9">
-        <v>1.08079633300067</v>
+        <v>0.94224372039228999</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>8.7853547601827953E-2</v>
+        <v>7.7219612841206042E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>7.5188951149020022E-2</v>
+        <v>6.7251096073813965E-2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -6280,30 +6328,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>44061</v>
+        <v>44064</v>
       </c>
       <c r="C10">
-        <v>0.96532181982568499</v>
+        <v>0.94579544771670598</v>
       </c>
       <c r="D10">
-        <v>0.96442681322901602</v>
+        <v>0.94388376814328101</v>
       </c>
       <c r="E10">
-        <v>0.87943922222367799</v>
+        <v>0.88102458250849403</v>
       </c>
       <c r="F10">
-        <v>1.0369919318832901</v>
+        <v>1.0179891937811201</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>8.5882597602007005E-2</v>
+        <v>6.4770865208211958E-2</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>7.1670112057605095E-2</v>
+        <v>7.2193746064414088E-2</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -6312,30 +6360,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
-        <v>44061</v>
+        <v>44064</v>
       </c>
       <c r="C11">
-        <v>0.87241377110709095</v>
+        <v>1.0024315775724</v>
       </c>
       <c r="D11">
-        <v>0.87431367338556798</v>
+        <v>1.00110014586326</v>
       </c>
       <c r="E11">
-        <v>0.80113882233341405</v>
+        <v>0.92283008561142299</v>
       </c>
       <c r="F11">
-        <v>0.93684056954389405</v>
+        <v>1.07107718765703</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>7.1274948773676905E-2</v>
+        <v>7.9601491960976989E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>6.4426798436803101E-2</v>
+        <v>6.8645610084629993E-2</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -6347,27 +6395,27 @@
         <v>15</v>
       </c>
       <c r="B12" s="1">
-        <v>44061</v>
+        <v>44064</v>
       </c>
       <c r="C12">
-        <v>0.87540767100156203</v>
+        <v>0.87567277821945899</v>
       </c>
       <c r="D12">
-        <v>0.87228525928997303</v>
+        <v>0.87424364075954997</v>
       </c>
       <c r="E12">
-        <v>0.79254827418054397</v>
+        <v>0.803228610089609</v>
       </c>
       <c r="F12">
-        <v>0.94294763923695402</v>
+        <v>0.94827754461247205</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>8.2859396821018061E-2</v>
+        <v>7.2444168129849995E-2</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>6.7539968235391989E-2</v>
+        <v>7.2604766393013054E-2</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -6376,30 +6424,30 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>44061</v>
+        <v>44064</v>
       </c>
       <c r="C13">
-        <v>0.99495568760519504</v>
+        <v>0.98275129292538399</v>
       </c>
       <c r="D13">
-        <v>0.99454480473645901</v>
+        <v>0.98287639578852504</v>
       </c>
       <c r="E13">
-        <v>0.90943673843058803</v>
+        <v>0.90056368140713505</v>
       </c>
       <c r="F13">
-        <v>1.0645816830277199</v>
+        <v>1.0782128160390601</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>8.5518949174607006E-2</v>
+        <v>8.2187611518248938E-2</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>6.96259954225249E-2</v>
+        <v>9.5461523113676061E-2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -6408,30 +6456,30 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1">
-        <v>44061</v>
+        <v>44064</v>
       </c>
       <c r="C14">
-        <v>0.94556946147333898</v>
+        <v>0.98741912719463798</v>
       </c>
       <c r="D14">
-        <v>0.94561286243693599</v>
+        <v>0.98283188128710497</v>
       </c>
       <c r="E14">
-        <v>0.87215104168398805</v>
+        <v>0.90385824744585597</v>
       </c>
       <c r="F14">
-        <v>1.0043357207400401</v>
+        <v>1.0587810413148999</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>7.341841978935093E-2</v>
+        <v>8.3560879748782013E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>5.8766259266701093E-2</v>
+        <v>7.1361914120261938E-2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -6440,30 +6488,30 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1">
-        <v>44061</v>
+        <v>44064</v>
       </c>
       <c r="C15">
-        <v>0.94987187902223802</v>
+        <v>0.96484119592455597</v>
       </c>
       <c r="D15">
-        <v>0.944747072194147</v>
+        <v>0.962552877212285</v>
       </c>
       <c r="E15">
-        <v>0.87939640308950995</v>
+        <v>0.87547538294641702</v>
       </c>
       <c r="F15">
-        <v>1.0422747175606699</v>
+        <v>1.04282130935645</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>7.0475475932728071E-2</v>
+        <v>8.9365812978138948E-2</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>9.2402838538431897E-2</v>
+        <v>7.7980113431894038E-2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -6472,30 +6520,30 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
-        <v>44061</v>
+        <v>44064</v>
       </c>
       <c r="C16">
-        <v>0.95215863538149903</v>
+        <v>0.94625747299483098</v>
       </c>
       <c r="D16">
-        <v>0.95024486628594096</v>
+        <v>0.94799087760851997</v>
       </c>
       <c r="E16">
-        <v>0.86877297673949005</v>
+        <v>0.85923314153374797</v>
       </c>
       <c r="F16">
-        <v>1.0294459735480701</v>
+        <v>1.01485240350682</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>8.3385658642008975E-2</v>
+        <v>8.7024331461083015E-2</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>7.7287338166571073E-2</v>
+        <v>6.8594930511989061E-2</v>
       </c>
       <c r="I16">
         <v>1</v>

--- a/results/resultado_consolidado/graph2.xlsx
+++ b/results/resultado_consolidado/graph2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Georg\Documents\GitHub\covid-model\results\resultado_consolidado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA22C883-6FD5-401C-AE78-1756A95F4440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E98A801-FD7E-4E3B-922F-DEF102B02701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4AC76AC7-E5A1-4C07-9F5F-EE5E7DC34869}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4AC76AC7-E5A1-4C07-9F5F-EE5E7DC34869}"/>
   </bookViews>
   <sheets>
-    <sheet name="21 oct" sheetId="2" r:id="rId1"/>
-    <sheet name="21 sep" sheetId="1" r:id="rId2"/>
-    <sheet name="21 ago" sheetId="3" r:id="rId3"/>
+    <sheet name="24 oct" sheetId="2" r:id="rId1"/>
+    <sheet name="24 sep" sheetId="1" r:id="rId2"/>
+    <sheet name="24 ago" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -189,7 +189,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'21 oct'!$D$1</c:f>
+              <c:f>'24 oct'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -371,11 +371,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -491,108 +491,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'21 oct'!$H$2:$H$16</c:f>
+                <c:f>'24 oct'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.1989442823524501</c:v>
+                    <c:v>0.20857811439455498</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.18772721207936593</c:v>
+                    <c:v>0.19629836460724803</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.17108703984205997</c:v>
+                    <c:v>0.20723246842534104</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.18453495250968011</c:v>
+                    <c:v>0.17902528717081589</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.18782036474575003</c:v>
+                    <c:v>0.18616809328078598</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.25315797081100389</c:v>
+                    <c:v>0.20143231428682395</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.16337464094711796</c:v>
+                    <c:v>0.20601272960162798</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.17548065499037813</c:v>
+                    <c:v>0.21023881197761896</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.21409544116742008</c:v>
+                    <c:v>0.187464015976049</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.23451868185473002</c:v>
+                    <c:v>0.22588408167290197</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.19778469516543984</c:v>
+                    <c:v>0.21860341299122588</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.20856220446828999</c:v>
+                    <c:v>0.21772125506737994</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.19339169519008004</c:v>
+                    <c:v>0.17999333798827988</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.24389708918032005</c:v>
+                    <c:v>0.2283023792407699</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.22386247785036018</c:v>
+                    <c:v>0.1999658669162101</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'21 oct'!$G$2:$G$16</c:f>
+                <c:f>'24 oct'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.19155608494190302</c:v>
+                    <c:v>0.22751541986897506</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.23080860949744397</c:v>
+                    <c:v>0.21324339407325299</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.21567232549141391</c:v>
+                    <c:v>0.22869719130732302</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.23610150750954795</c:v>
+                    <c:v>0.23878405262561309</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.23661867791337998</c:v>
+                    <c:v>0.23386484333274793</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.18832292894478309</c:v>
+                    <c:v>0.24642945762708601</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.226887061740773</c:v>
+                    <c:v>0.192367247099821</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.25794070158622895</c:v>
+                    <c:v>0.21934129883910392</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.21894752907084203</c:v>
+                    <c:v>0.21621013424797897</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.19532275106307706</c:v>
+                    <c:v>0.20446734274855805</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.27251489743953305</c:v>
+                    <c:v>0.21054865178114501</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.26092252394662008</c:v>
+                    <c:v>0.24830124823565403</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.25069424616583103</c:v>
+                    <c:v>0.22942880488790407</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.25313952653869598</c:v>
+                    <c:v>0.26889898317440608</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.28731994479993295</c:v>
+                    <c:v>0.30509406867099587</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -613,41 +613,41 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'21 oct'!$A$2:$A$16</c:f>
+              <c:f>'24 oct'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Espaillat</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>San Juan</c:v>
+                  <c:v>La Altagracia</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>La Altagracia</c:v>
+                  <c:v>Azua</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Azua</c:v>
+                  <c:v>Duarte</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Puerto Plata</c:v>
+                  <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>San Cristóbal</c:v>
+                  <c:v>San Pedro de Macorís</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Santo Domingo</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Duarte</c:v>
+                  <c:v>San Cristóbal</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Santiago</c:v>
+                  <c:v>Distrito Nacional</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Distrito Nacional</c:v>
+                  <c:v>Peravia</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>San Pedro de Macorís</c:v>
+                  <c:v>Puerto Plata</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>La Romana</c:v>
@@ -656,7 +656,7 @@
                   <c:v>La Vega</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Peravia</c:v>
+                  <c:v>San Juan</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Sánchez Ramírez</c:v>
@@ -666,54 +666,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'21 oct'!$D$2:$D$16</c:f>
+              <c:f>'24 oct'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.850375242007955</c:v>
+                  <c:v>0.88529741527015504</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88511382460362198</c:v>
+                  <c:v>0.89526198781418798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94804472762005498</c:v>
+                  <c:v>0.91260170279275299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95080033467888803</c:v>
+                  <c:v>0.93410034211801796</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.960162192521125</c:v>
+                  <c:v>0.94062683902113697</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96525815555227901</c:v>
+                  <c:v>0.94622328743381801</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96721359598198298</c:v>
+                  <c:v>0.95213721839985999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97354171255125499</c:v>
+                  <c:v>0.955782107294326</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.984036020591468</c:v>
+                  <c:v>0.97199485076874204</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.98846801717532295</c:v>
+                  <c:v>0.98165025810395001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.00479310736202</c:v>
+                  <c:v>0.98337624704908999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0292285349889201</c:v>
+                  <c:v>1.0033373347379999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0540178040152299</c:v>
+                  <c:v>1.0136093505262</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.09233295068659</c:v>
+                  <c:v>1.0904852390156301</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.10910458446923</c:v>
+                  <c:v>1.11595731200524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -730,7 +730,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'21 oct'!$I$1</c:f>
+              <c:f>'24 oct'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -788,7 +788,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'21 oct'!$I$2:$I$16</c:f>
+              <c:f>'24 oct'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1032,7 +1032,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'21 sep'!$D$1</c:f>
+              <c:f>'24 sep'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1112,17 +1112,41 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="25400">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-00C7-4289-83C2-ACC5993B81BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="4"/>
             <c:marker>
               <c:symbol val="square"/>
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1142,11 +1166,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1190,11 +1214,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1238,11 +1262,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1286,11 +1310,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1334,11 +1358,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1358,108 +1382,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'21 sep'!$H$2:$H$16</c:f>
+                <c:f>'24 sep'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>7.5871822814158052E-2</c:v>
+                    <c:v>7.7504191717090998E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.8875905974122964E-2</c:v>
+                    <c:v>8.3554185629166944E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.7216279442514866E-2</c:v>
+                    <c:v>9.4151524621855054E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.10662001853152603</c:v>
+                    <c:v>7.4840425872010119E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.3483483229818023E-2</c:v>
+                    <c:v>7.3321141095999964E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8.6890336783929989E-2</c:v>
+                    <c:v>9.0267930780689953E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.5531097152237048E-2</c:v>
+                    <c:v>7.1738067851788934E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.7896417540409999E-2</c:v>
+                    <c:v>9.1332208682719962E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.8478460708189868E-2</c:v>
+                    <c:v>5.6680740506985017E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>6.1318368381468979E-2</c:v>
+                    <c:v>8.1874161184206096E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>8.1562132243800045E-2</c:v>
+                    <c:v>6.8038710792746038E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.10110886581868983</c:v>
+                    <c:v>9.4437696134719973E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>7.7629054369783068E-2</c:v>
+                    <c:v>7.5088675817360118E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>7.6141977838109054E-2</c:v>
+                    <c:v>7.4161454893385992E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>8.0875879499935022E-2</c:v>
+                    <c:v>8.6849108650760121E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'21 sep'!$G$2:$G$16</c:f>
+                <c:f>'24 sep'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>9.0679593660563995E-2</c:v>
+                    <c:v>8.8917309670070943E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>9.9638240591785054E-2</c:v>
+                    <c:v>7.3441979149421965E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.4146373961224032E-2</c:v>
+                    <c:v>8.0829551537546895E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.4685447508790035E-2</c:v>
+                    <c:v>9.1864701427524009E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.8515855846654992E-2</c:v>
+                    <c:v>7.8605065735634971E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>9.0986960409599971E-2</c:v>
+                    <c:v>0.10543271836473511</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.5316801105125064E-2</c:v>
+                    <c:v>7.1490188182407044E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.10168725811810997</c:v>
+                    <c:v>8.5342336311741041E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.1423559037142148E-2</c:v>
+                    <c:v>8.4200420547362098E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>6.3331435527687052E-2</c:v>
+                    <c:v>0.10765747586458696</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.10044830451542697</c:v>
+                    <c:v>8.4515082176005007E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.11423182916854002</c:v>
+                    <c:v>0.1128313734421249</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>8.1985088645134985E-2</c:v>
+                    <c:v>9.132988812712195E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>9.4597482231872032E-2</c:v>
+                    <c:v>9.261325372316398E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>8.7161344182806966E-2</c:v>
+                    <c:v>8.0207523493703969E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1480,41 +1504,41 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'21 sep'!$A$2:$A$16</c:f>
+              <c:f>'24 sep'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Espaillat</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>San Juan</c:v>
+                  <c:v>La Altagracia</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>La Altagracia</c:v>
+                  <c:v>Azua</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Azua</c:v>
+                  <c:v>Duarte</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Puerto Plata</c:v>
+                  <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>San Cristóbal</c:v>
+                  <c:v>San Pedro de Macorís</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Santo Domingo</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Duarte</c:v>
+                  <c:v>San Cristóbal</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Santiago</c:v>
+                  <c:v>Distrito Nacional</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Distrito Nacional</c:v>
+                  <c:v>Peravia</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>San Pedro de Macorís</c:v>
+                  <c:v>Puerto Plata</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>La Romana</c:v>
@@ -1523,7 +1547,7 @@
                   <c:v>La Vega</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Peravia</c:v>
+                  <c:v>San Juan</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Sánchez Ramírez</c:v>
@@ -1533,54 +1557,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'21 sep'!$D$2:$D$16</c:f>
+              <c:f>'24 sep'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.87913837501271797</c:v>
+                  <c:v>0.88324207717476599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89273174452581905</c:v>
+                  <c:v>0.94343256369705897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96818915274908701</c:v>
+                  <c:v>0.95040928947407399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97549385760419605</c:v>
+                  <c:v>1.0226191238284801</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96631271611407898</c:v>
+                  <c:v>1.0251962933179399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.04925611686072</c:v>
+                  <c:v>0.99798030913425995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98095542990983797</c:v>
+                  <c:v>0.97328774094169701</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.06860134883345</c:v>
+                  <c:v>1.0318573500875701</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.03601867162136</c:v>
+                  <c:v>0.94221198757471003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91817765960053999</c:v>
+                  <c:v>0.96965601660985001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.02013449518393</c:v>
+                  <c:v>0.97142338469562695</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.12587782403723</c:v>
+                  <c:v>1.1024101889594999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99690275142353302</c:v>
+                  <c:v>1.0109057735323801</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.99288339461420005</c:v>
+                  <c:v>0.95905148182539901</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.98566434598265695</c:v>
+                  <c:v>1.00990838890226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1597,7 +1621,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'21 oct'!$I$1</c:f>
+              <c:f>'24 oct'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1655,41 +1679,41 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'21 sep'!$A$2:$A$16</c:f>
+              <c:f>'24 sep'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Espaillat</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>San Juan</c:v>
+                  <c:v>La Altagracia</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>La Altagracia</c:v>
+                  <c:v>Azua</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Azua</c:v>
+                  <c:v>Duarte</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Puerto Plata</c:v>
+                  <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>San Cristóbal</c:v>
+                  <c:v>San Pedro de Macorís</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Santo Domingo</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Duarte</c:v>
+                  <c:v>San Cristóbal</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Santiago</c:v>
+                  <c:v>Distrito Nacional</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Distrito Nacional</c:v>
+                  <c:v>Peravia</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>San Pedro de Macorís</c:v>
+                  <c:v>Puerto Plata</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>La Romana</c:v>
@@ -1698,7 +1722,7 @@
                   <c:v>La Vega</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Peravia</c:v>
+                  <c:v>San Juan</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Sánchez Ramírez</c:v>
@@ -1708,7 +1732,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'21 oct'!$I$2:$I$16</c:f>
+              <c:f>'24 oct'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1952,7 +1976,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'21 ago'!$D$1</c:f>
+              <c:f>'24 ago'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2086,11 +2110,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2182,11 +2206,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2206,6 +2230,30 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="25400">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-365B-4172-89CE-E163A3DD2B1C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
@@ -2219,7 +2267,31 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-365B-4172-89CE-E163A3DD2B1C}"/>
+                <c16:uniqueId val="{0000000E-0F03-403C-B87E-AF523491FA41}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="25400">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-0F03-403C-B87E-AF523491FA41}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2302,108 +2374,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'21 sep'!$H$2:$H$16</c:f>
+                <c:f>'24 sep'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>7.5871822814158052E-2</c:v>
+                    <c:v>7.7504191717090998E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.8875905974122964E-2</c:v>
+                    <c:v>8.3554185629166944E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.7216279442514866E-2</c:v>
+                    <c:v>9.4151524621855054E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.10662001853152603</c:v>
+                    <c:v>7.4840425872010119E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.3483483229818023E-2</c:v>
+                    <c:v>7.3321141095999964E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8.6890336783929989E-2</c:v>
+                    <c:v>9.0267930780689953E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.5531097152237048E-2</c:v>
+                    <c:v>7.1738067851788934E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.7896417540409999E-2</c:v>
+                    <c:v>9.1332208682719962E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.8478460708189868E-2</c:v>
+                    <c:v>5.6680740506985017E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>6.1318368381468979E-2</c:v>
+                    <c:v>8.1874161184206096E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>8.1562132243800045E-2</c:v>
+                    <c:v>6.8038710792746038E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.10110886581868983</c:v>
+                    <c:v>9.4437696134719973E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>7.7629054369783068E-2</c:v>
+                    <c:v>7.5088675817360118E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>7.6141977838109054E-2</c:v>
+                    <c:v>7.4161454893385992E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>8.0875879499935022E-2</c:v>
+                    <c:v>8.6849108650760121E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'21 sep'!$G$2:$G$16</c:f>
+                <c:f>'24 sep'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>9.0679593660563995E-2</c:v>
+                    <c:v>8.8917309670070943E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>9.9638240591785054E-2</c:v>
+                    <c:v>7.3441979149421965E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.4146373961224032E-2</c:v>
+                    <c:v>8.0829551537546895E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.4685447508790035E-2</c:v>
+                    <c:v>9.1864701427524009E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.8515855846654992E-2</c:v>
+                    <c:v>7.8605065735634971E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>9.0986960409599971E-2</c:v>
+                    <c:v>0.10543271836473511</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.5316801105125064E-2</c:v>
+                    <c:v>7.1490188182407044E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.10168725811810997</c:v>
+                    <c:v>8.5342336311741041E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.1423559037142148E-2</c:v>
+                    <c:v>8.4200420547362098E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>6.3331435527687052E-2</c:v>
+                    <c:v>0.10765747586458696</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.10044830451542697</c:v>
+                    <c:v>8.4515082176005007E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.11423182916854002</c:v>
+                    <c:v>0.1128313734421249</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>8.1985088645134985E-2</c:v>
+                    <c:v>9.132988812712195E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>9.4597482231872032E-2</c:v>
+                    <c:v>9.261325372316398E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>8.7161344182806966E-2</c:v>
+                    <c:v>8.0207523493703969E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2424,41 +2496,41 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'21 sep'!$A$2:$A$16</c:f>
+              <c:f>'24 sep'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Espaillat</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>San Juan</c:v>
+                  <c:v>La Altagracia</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>La Altagracia</c:v>
+                  <c:v>Azua</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Azua</c:v>
+                  <c:v>Duarte</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Puerto Plata</c:v>
+                  <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>San Cristóbal</c:v>
+                  <c:v>San Pedro de Macorís</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Santo Domingo</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Duarte</c:v>
+                  <c:v>San Cristóbal</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Santiago</c:v>
+                  <c:v>Distrito Nacional</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Distrito Nacional</c:v>
+                  <c:v>Peravia</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>San Pedro de Macorís</c:v>
+                  <c:v>Puerto Plata</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>La Romana</c:v>
@@ -2467,7 +2539,7 @@
                   <c:v>La Vega</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Peravia</c:v>
+                  <c:v>San Juan</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Sánchez Ramírez</c:v>
@@ -2477,54 +2549,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'21 ago'!$D$2:$D$16</c:f>
+              <c:f>'24 ago'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.0122264526123399</c:v>
+                  <c:v>1.0008618187839</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96504421886568703</c:v>
+                  <c:v>0.969917883368273</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98223393422878902</c:v>
+                  <c:v>0.92073714262234296</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91154800518706303</c:v>
+                  <c:v>0.88897444336331199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0181879510821901</c:v>
+                  <c:v>0.93844118082828598</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96961128649192196</c:v>
+                  <c:v>0.87330884264429198</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.01344658968363</c:v>
+                  <c:v>1.0165874383084701</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.87156316862849403</c:v>
+                  <c:v>0.985433460910214</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94388376814328101</c:v>
+                  <c:v>1.00042122267141</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.00110014586326</c:v>
+                  <c:v>0.96781049867462499</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.87424364075954997</c:v>
+                  <c:v>1.0172031213191199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.98287639578852504</c:v>
+                  <c:v>1.00632584595715</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.98283188128710497</c:v>
+                  <c:v>0.96633695773227202</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.962552877212285</c:v>
+                  <c:v>0.93859910739618302</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.94799087760851997</c:v>
+                  <c:v>0.93747794865374601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2541,7 +2613,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'21 oct'!$I$1</c:f>
+              <c:f>'24 oct'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2599,41 +2671,41 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'21 sep'!$A$2:$A$16</c:f>
+              <c:f>'24 sep'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Espaillat</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>San Juan</c:v>
+                  <c:v>La Altagracia</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>La Altagracia</c:v>
+                  <c:v>Azua</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Azua</c:v>
+                  <c:v>Duarte</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Puerto Plata</c:v>
+                  <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>San Cristóbal</c:v>
+                  <c:v>San Pedro de Macorís</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Santo Domingo</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Duarte</c:v>
+                  <c:v>San Cristóbal</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Santiago</c:v>
+                  <c:v>Distrito Nacional</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Distrito Nacional</c:v>
+                  <c:v>Peravia</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>San Pedro de Macorís</c:v>
+                  <c:v>Puerto Plata</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>La Romana</c:v>
@@ -2642,7 +2714,7 @@
                   <c:v>La Vega</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Peravia</c:v>
+                  <c:v>San Juan</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Sánchez Ramírez</c:v>
@@ -2652,7 +2724,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'21 oct'!$I$2:$I$16</c:f>
+              <c:f>'24 oct'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4588,14 +4660,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>173524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>211666</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>120227</xdr:rowOff>
+      <xdr:rowOff>112682</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5011,27 +5083,27 @@
         <v>19</v>
       </c>
       <c r="B2" s="1">
-        <v>44125</v>
+        <v>44128</v>
       </c>
       <c r="C2">
-        <v>0.86508247214626999</v>
+        <v>0.89953678165601503</v>
       </c>
       <c r="D2">
-        <v>0.850375242007955</v>
+        <v>0.88529741527015504</v>
       </c>
       <c r="E2">
-        <v>0.67352638720436697</v>
+        <v>0.67202136178703997</v>
       </c>
       <c r="F2">
-        <v>1.0640267544987201</v>
+        <v>1.10811489605057</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G16" si="0">C2-E2</f>
-        <v>0.19155608494190302</v>
+        <v>0.22751541986897506</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H16" si="1">F2-C2</f>
-        <v>0.1989442823524501</v>
+        <v>0.20857811439455498</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5040,30 +5112,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>44125</v>
+        <v>44128</v>
       </c>
       <c r="C3">
-        <v>0.89821965890963396</v>
+        <v>0.91647269637031203</v>
       </c>
       <c r="D3">
-        <v>0.88511382460362198</v>
+        <v>0.89526198781418798</v>
       </c>
       <c r="E3">
-        <v>0.66741104941218998</v>
+        <v>0.70322930229705904</v>
       </c>
       <c r="F3">
-        <v>1.0859468709889999</v>
+        <v>1.1127710609775601</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>0.23080860949744397</v>
+        <v>0.21324339407325299</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>0.18772721207936593</v>
+        <v>0.19629836460724803</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5072,30 +5144,30 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
-        <v>44125</v>
+        <v>44128</v>
       </c>
       <c r="C4">
-        <v>0.95896312705140996</v>
+        <v>0.93380642499097899</v>
       </c>
       <c r="D4">
-        <v>0.94804472762005498</v>
+        <v>0.91260170279275299</v>
       </c>
       <c r="E4">
-        <v>0.74329080155999605</v>
+        <v>0.70510923368365597</v>
       </c>
       <c r="F4">
-        <v>1.1300501668934699</v>
+        <v>1.14103889341632</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.21567232549141391</v>
+        <v>0.22869719130732302</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>0.17108703984205997</v>
+        <v>0.20723246842534104</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5104,30 +5176,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>44125</v>
+        <v>44128</v>
       </c>
       <c r="C5">
-        <v>0.96880840100234999</v>
+        <v>0.95548700942465403</v>
       </c>
       <c r="D5">
-        <v>0.95080033467888803</v>
+        <v>0.93410034211801796</v>
       </c>
       <c r="E5">
-        <v>0.73270689349280205</v>
+        <v>0.71670295679904095</v>
       </c>
       <c r="F5">
-        <v>1.1533433535120301</v>
+        <v>1.1345122965954699</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.23610150750954795</v>
+        <v>0.23878405262561309</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>0.18453495250968011</v>
+        <v>0.17902528717081589</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5136,30 +5208,30 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>44125</v>
+        <v>44128</v>
       </c>
       <c r="C6">
-        <v>0.97230138165475</v>
+        <v>0.95471019224863396</v>
       </c>
       <c r="D6">
-        <v>0.960162192521125</v>
+        <v>0.94062683902113697</v>
       </c>
       <c r="E6">
-        <v>0.73568270374137001</v>
+        <v>0.72084534891588603</v>
       </c>
       <c r="F6">
-        <v>1.1601217464005</v>
+        <v>1.1408782855294199</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.23661867791337998</v>
+        <v>0.23386484333274793</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>0.18782036474575003</v>
+        <v>0.18616809328078598</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5168,30 +5240,30 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>44125</v>
+        <v>44128</v>
       </c>
       <c r="C7">
-        <v>0.97526343084926603</v>
+        <v>0.96800063375862599</v>
       </c>
       <c r="D7">
-        <v>0.96525815555227901</v>
+        <v>0.94622328743381801</v>
       </c>
       <c r="E7">
-        <v>0.78694050190448295</v>
+        <v>0.72157117613153998</v>
       </c>
       <c r="F7">
-        <v>1.2284214016602699</v>
+        <v>1.1694329480454499</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.18832292894478309</v>
+        <v>0.24642945762708601</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>0.25315797081100389</v>
+        <v>0.20143231428682395</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5203,27 +5275,27 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44125</v>
+        <v>44128</v>
       </c>
       <c r="C8">
-        <v>0.97593920712762205</v>
+        <v>0.95893308998259197</v>
       </c>
       <c r="D8">
-        <v>0.96721359598198298</v>
+        <v>0.95213721839985999</v>
       </c>
       <c r="E8">
-        <v>0.74905214538684906</v>
+        <v>0.76656584288277096</v>
       </c>
       <c r="F8">
-        <v>1.13931384807474</v>
+        <v>1.1649458195842199</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.226887061740773</v>
+        <v>0.192367247099821</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>0.16337464094711796</v>
+        <v>0.20601272960162798</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5232,30 +5304,30 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
-        <v>44125</v>
+        <v>44128</v>
       </c>
       <c r="C9">
-        <v>0.99213548471811197</v>
+        <v>0.96335409147375095</v>
       </c>
       <c r="D9">
-        <v>0.97354171255125499</v>
+        <v>0.955782107294326</v>
       </c>
       <c r="E9">
-        <v>0.73419478313188302</v>
+        <v>0.74401279263464704</v>
       </c>
       <c r="F9">
-        <v>1.1676161397084901</v>
+        <v>1.1735929034513699</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.25794070158622895</v>
+        <v>0.21934129883910392</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>0.17548065499037813</v>
+        <v>0.21023881197761896</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5264,30 +5336,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>44125</v>
+        <v>44128</v>
       </c>
       <c r="C10">
-        <v>1.00625599947165</v>
+        <v>0.98460674885774102</v>
       </c>
       <c r="D10">
-        <v>0.984036020591468</v>
+        <v>0.97199485076874204</v>
       </c>
       <c r="E10">
-        <v>0.78730847040080798</v>
+        <v>0.76839661460976205</v>
       </c>
       <c r="F10">
-        <v>1.2203514406390701</v>
+        <v>1.17207076483379</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.21894752907084203</v>
+        <v>0.21621013424797897</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>0.21409544116742008</v>
+        <v>0.187464015976049</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5296,30 +5368,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1">
-        <v>44125</v>
+        <v>44128</v>
       </c>
       <c r="C11">
-        <v>1.00863039646701</v>
+        <v>0.99916448853575801</v>
       </c>
       <c r="D11">
-        <v>0.98846801717532295</v>
+        <v>0.98165025810395001</v>
       </c>
       <c r="E11">
-        <v>0.81330764540393297</v>
+        <v>0.79469714578719997</v>
       </c>
       <c r="F11">
-        <v>1.24314907832174</v>
+        <v>1.22504857020866</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.19532275106307706</v>
+        <v>0.20446734274855805</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>0.23451868185473002</v>
+        <v>0.22588408167290197</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5328,30 +5400,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>44125</v>
+        <v>44128</v>
       </c>
       <c r="C12">
-        <v>1.0247820299014101</v>
+        <v>0.99618337888212405</v>
       </c>
       <c r="D12">
-        <v>1.00479310736202</v>
+        <v>0.98337624704908999</v>
       </c>
       <c r="E12">
-        <v>0.75226713246187704</v>
+        <v>0.78563472710097904</v>
       </c>
       <c r="F12">
-        <v>1.2225667250668499</v>
+        <v>1.2147867918733499</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0.27251489743953305</v>
+        <v>0.21054865178114501</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>0.19778469516543984</v>
+        <v>0.21860341299122588</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5363,27 +5435,27 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>44125</v>
+        <v>44128</v>
       </c>
       <c r="C13">
-        <v>1.0549835907721301</v>
+        <v>1.02911334972476</v>
       </c>
       <c r="D13">
-        <v>1.0292285349889201</v>
+        <v>1.0033373347379999</v>
       </c>
       <c r="E13">
-        <v>0.79406106682551003</v>
+        <v>0.78081210148910596</v>
       </c>
       <c r="F13">
-        <v>1.2635457952404201</v>
+        <v>1.2468346047921399</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.26092252394662008</v>
+        <v>0.24830124823565403</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>0.20856220446828999</v>
+        <v>0.21772125506737994</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5395,27 +5467,27 @@
         <v>9</v>
       </c>
       <c r="B14" s="1">
-        <v>44125</v>
+        <v>44128</v>
       </c>
       <c r="C14">
-        <v>1.06363679491921</v>
+        <v>1.02078557980673</v>
       </c>
       <c r="D14">
-        <v>1.0540178040152299</v>
+        <v>1.0136093505262</v>
       </c>
       <c r="E14">
-        <v>0.81294254875337901</v>
+        <v>0.79135677491882594</v>
       </c>
       <c r="F14">
-        <v>1.2570284901092901</v>
+        <v>1.2007789177950099</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0.25069424616583103</v>
+        <v>0.22942880488790407</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>0.19339169519008004</v>
+        <v>0.17999333798827988</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -5424,30 +5496,30 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>44125</v>
+        <v>44128</v>
       </c>
       <c r="C15">
-        <v>1.10274246335729</v>
+        <v>1.1106891714282801</v>
       </c>
       <c r="D15">
-        <v>1.09233295068659</v>
+        <v>1.0904852390156301</v>
       </c>
       <c r="E15">
-        <v>0.849602936818594</v>
+        <v>0.84179018825387397</v>
       </c>
       <c r="F15">
-        <v>1.34663955253761</v>
+        <v>1.33899155066905</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0.25313952653869598</v>
+        <v>0.26889898317440608</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>0.24389708918032005</v>
+        <v>0.2283023792407699</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -5459,27 +5531,27 @@
         <v>20</v>
       </c>
       <c r="B16" s="1">
-        <v>44125</v>
+        <v>44128</v>
       </c>
       <c r="C16">
-        <v>1.1253587527856399</v>
+        <v>1.1285547386755499</v>
       </c>
       <c r="D16">
-        <v>1.10910458446923</v>
+        <v>1.11595731200524</v>
       </c>
       <c r="E16">
-        <v>0.83803880798570696</v>
+        <v>0.82346067000455403</v>
       </c>
       <c r="F16">
-        <v>1.3492212306360001</v>
+        <v>1.32852060559176</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0.28731994479993295</v>
+        <v>0.30509406867099587</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>0.22386247785036018</v>
+        <v>0.1999658669162101</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -5499,7 +5571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9B4699-B86D-4EFA-A264-1734A39D161E}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
@@ -5543,27 +5615,27 @@
         <v>19</v>
       </c>
       <c r="B2" s="1">
-        <v>44095</v>
+        <v>44098</v>
       </c>
       <c r="C2">
-        <v>0.88510593847876995</v>
+        <v>0.88645423688130398</v>
       </c>
       <c r="D2">
-        <v>0.87913837501271797</v>
+        <v>0.88324207717476599</v>
       </c>
       <c r="E2">
-        <v>0.79442634481820595</v>
+        <v>0.79753692721123304</v>
       </c>
       <c r="F2">
-        <v>0.960977761292928</v>
+        <v>0.96395842859839498</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G16" si="0">C2-E2</f>
-        <v>9.0679593660563995E-2</v>
+        <v>8.8917309670070943E-2</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H16" si="1">F2-C2</f>
-        <v>7.5871822814158052E-2</v>
+        <v>7.7504191717090998E-2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5572,30 +5644,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>44095</v>
+        <v>44098</v>
       </c>
       <c r="C3">
-        <v>0.89471525966384602</v>
+        <v>0.94477470711433298</v>
       </c>
       <c r="D3">
-        <v>0.89273174452581905</v>
+        <v>0.94343256369705897</v>
       </c>
       <c r="E3">
-        <v>0.79507701907206096</v>
+        <v>0.87133272796491101</v>
       </c>
       <c r="F3">
-        <v>0.96359116563796898</v>
+        <v>1.0283288927434999</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>9.9638240591785054E-2</v>
+        <v>7.3441979149421965E-2</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>6.8875905974122964E-2</v>
+        <v>8.3554185629166944E-2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5604,30 +5676,30 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
-        <v>44095</v>
+        <v>44098</v>
       </c>
       <c r="C4">
-        <v>0.97036352491480504</v>
+        <v>0.95291243945441495</v>
       </c>
       <c r="D4">
-        <v>0.96818915274908701</v>
+        <v>0.95040928947407399</v>
       </c>
       <c r="E4">
-        <v>0.89621715095358101</v>
+        <v>0.87208288791686805</v>
       </c>
       <c r="F4">
-        <v>1.0575798043573199</v>
+        <v>1.04706396407627</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>7.4146373961224032E-2</v>
+        <v>8.0829551537546895E-2</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>8.7216279442514866E-2</v>
+        <v>9.4151524621855054E-2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5636,30 +5708,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>44095</v>
+        <v>44098</v>
       </c>
       <c r="C5">
-        <v>0.97944494772553403</v>
+        <v>1.02330569311084</v>
       </c>
       <c r="D5">
-        <v>0.97549385760419605</v>
+        <v>1.0226191238284801</v>
       </c>
       <c r="E5">
-        <v>0.894759500216744</v>
+        <v>0.93144099168331596</v>
       </c>
       <c r="F5">
-        <v>1.0860649662570601</v>
+        <v>1.0981461189828501</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>8.4685447508790035E-2</v>
+        <v>9.1864701427524009E-2</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>0.10662001853152603</v>
+        <v>7.4840425872010119E-2</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5668,30 +5740,30 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>44095</v>
+        <v>44098</v>
       </c>
       <c r="C6">
-        <v>0.96391772899995198</v>
+        <v>1.02748601440445</v>
       </c>
       <c r="D6">
-        <v>0.96631271611407898</v>
+        <v>1.0251962933179399</v>
       </c>
       <c r="E6">
-        <v>0.88540187315329699</v>
+        <v>0.94888094866881501</v>
       </c>
       <c r="F6">
-        <v>1.04740121222977</v>
+        <v>1.1008071555004499</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>7.8515855846654992E-2</v>
+        <v>7.8605065735634971E-2</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>8.3483483229818023E-2</v>
+        <v>7.3321141095999964E-2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5700,30 +5772,30 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>44095</v>
+        <v>44098</v>
       </c>
       <c r="C7">
-        <v>1.05383268712263</v>
+        <v>1.0051625149466901</v>
       </c>
       <c r="D7">
-        <v>1.04925611686072</v>
+        <v>0.99798030913425995</v>
       </c>
       <c r="E7">
-        <v>0.96284572671303004</v>
+        <v>0.89972979658195495</v>
       </c>
       <c r="F7">
-        <v>1.14072302390656</v>
+        <v>1.09543044572738</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>9.0986960409599971E-2</v>
+        <v>0.10543271836473511</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>8.6890336783929989E-2</v>
+        <v>9.0267930780689953E-2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5735,27 +5807,27 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44095</v>
+        <v>44098</v>
       </c>
       <c r="C8">
-        <v>0.98259172179441301</v>
+        <v>0.97400379146726102</v>
       </c>
       <c r="D8">
-        <v>0.98095542990983797</v>
+        <v>0.97328774094169701</v>
       </c>
       <c r="E8">
-        <v>0.90727492068928794</v>
+        <v>0.90251360328485397</v>
       </c>
       <c r="F8">
-        <v>1.0581228189466501</v>
+        <v>1.0457418593190499</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>7.5316801105125064E-2</v>
+        <v>7.1490188182407044E-2</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>7.5531097152237048E-2</v>
+        <v>7.1738067851788934E-2</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5764,30 +5836,30 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
-        <v>44095</v>
+        <v>44098</v>
       </c>
       <c r="C9">
-        <v>1.06822134481836</v>
+        <v>1.03304255372648</v>
       </c>
       <c r="D9">
-        <v>1.06860134883345</v>
+        <v>1.0318573500875701</v>
       </c>
       <c r="E9">
-        <v>0.96653408670024998</v>
+        <v>0.94770021741473898</v>
       </c>
       <c r="F9">
-        <v>1.15611776235877</v>
+        <v>1.1243747624092</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.10168725811810997</v>
+        <v>8.5342336311741041E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>8.7896417540409999E-2</v>
+        <v>9.1332208682719962E-2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5796,30 +5868,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>44095</v>
+        <v>44098</v>
       </c>
       <c r="C10">
-        <v>1.0378269545963601</v>
+        <v>0.94453245850258505</v>
       </c>
       <c r="D10">
-        <v>1.03601867162136</v>
+        <v>0.94221198757471003</v>
       </c>
       <c r="E10">
-        <v>0.96640339555921795</v>
+        <v>0.86033203795522295</v>
       </c>
       <c r="F10">
-        <v>1.11630541530455</v>
+        <v>1.0012131990095701</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>7.1423559037142148E-2</v>
+        <v>8.4200420547362098E-2</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>7.8478460708189868E-2</v>
+        <v>5.6680740506985017E-2</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5828,30 +5900,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1">
-        <v>44095</v>
+        <v>44098</v>
       </c>
       <c r="C11">
-        <v>0.92166132031447201</v>
+        <v>0.97333387147672401</v>
       </c>
       <c r="D11">
-        <v>0.91817765960053999</v>
+        <v>0.96965601660985001</v>
       </c>
       <c r="E11">
-        <v>0.85832988478678496</v>
+        <v>0.86567639561213705</v>
       </c>
       <c r="F11">
-        <v>0.98297968869594099</v>
+        <v>1.0552080326609301</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>6.3331435527687052E-2</v>
+        <v>0.10765747586458696</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>6.1318368381468979E-2</v>
+        <v>8.1874161184206096E-2</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5860,30 +5932,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>44095</v>
+        <v>44098</v>
       </c>
       <c r="C12">
-        <v>1.0223924171176599</v>
+        <v>0.971829347664384</v>
       </c>
       <c r="D12">
-        <v>1.02013449518393</v>
+        <v>0.97142338469562695</v>
       </c>
       <c r="E12">
-        <v>0.92194411260223297</v>
+        <v>0.88731426548837899</v>
       </c>
       <c r="F12">
-        <v>1.10395454936146</v>
+        <v>1.03986805845713</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0.10044830451542697</v>
+        <v>8.4515082176005007E-2</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>8.1562132243800045E-2</v>
+        <v>6.8038710792746038E-2</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5895,27 +5967,27 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>44095</v>
+        <v>44098</v>
       </c>
       <c r="C13">
-        <v>1.1250352665747501</v>
+        <v>1.1038487466792199</v>
       </c>
       <c r="D13">
-        <v>1.12587782403723</v>
+        <v>1.1024101889594999</v>
       </c>
       <c r="E13">
-        <v>1.01080343740621</v>
+        <v>0.99101737323709505</v>
       </c>
       <c r="F13">
-        <v>1.2261441323934399</v>
+        <v>1.1982864428139399</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.11423182916854002</v>
+        <v>0.1128313734421249</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>0.10110886581868983</v>
+        <v>9.4437696134719973E-2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5927,27 +5999,27 @@
         <v>9</v>
       </c>
       <c r="B14" s="1">
-        <v>44095</v>
+        <v>44098</v>
       </c>
       <c r="C14">
-        <v>0.99992369917205703</v>
+        <v>1.0105988842470499</v>
       </c>
       <c r="D14">
-        <v>0.99690275142353302</v>
+        <v>1.0109057735323801</v>
       </c>
       <c r="E14">
-        <v>0.91793861052692205</v>
+        <v>0.91926899611992796</v>
       </c>
       <c r="F14">
-        <v>1.0775527535418401</v>
+        <v>1.08568756006441</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>8.1985088645134985E-2</v>
+        <v>9.132988812712195E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>7.7629054369783068E-2</v>
+        <v>7.5088675817360118E-2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -5956,30 +6028,30 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>44095</v>
+        <v>44098</v>
       </c>
       <c r="C15">
-        <v>0.99293908854615098</v>
+        <v>0.96295617451577398</v>
       </c>
       <c r="D15">
-        <v>0.99288339461420005</v>
+        <v>0.95905148182539901</v>
       </c>
       <c r="E15">
-        <v>0.89834160631427895</v>
+        <v>0.87034292079261</v>
       </c>
       <c r="F15">
-        <v>1.06908106638426</v>
+        <v>1.03711762940916</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>9.4597482231872032E-2</v>
+        <v>9.261325372316398E-2</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>7.6141977838109054E-2</v>
+        <v>7.4161454893385992E-2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -5991,27 +6063,27 @@
         <v>20</v>
       </c>
       <c r="B16" s="1">
-        <v>44095</v>
+        <v>44098</v>
       </c>
       <c r="C16">
-        <v>0.988971805003935</v>
+        <v>1.01512720595176</v>
       </c>
       <c r="D16">
-        <v>0.98566434598265695</v>
+        <v>1.00990838890226</v>
       </c>
       <c r="E16">
-        <v>0.90181046082112803</v>
+        <v>0.93491968245805601</v>
       </c>
       <c r="F16">
-        <v>1.06984768450387</v>
+        <v>1.1019763146025201</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>8.7161344182806966E-2</v>
+        <v>8.0207523493703969E-2</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>8.0875879499935022E-2</v>
+        <v>8.6849108650760121E-2</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -6031,8 +6103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFCAF56-E988-48E4-BDA2-C84256C27DCF}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6075,27 +6147,27 @@
         <v>19</v>
       </c>
       <c r="B2" s="1">
-        <v>44064</v>
+        <v>44067</v>
       </c>
       <c r="C2">
-        <v>1.01362260405511</v>
+        <v>1.0041487048575899</v>
       </c>
       <c r="D2">
-        <v>1.0122264526123399</v>
+        <v>1.0008618187839</v>
       </c>
       <c r="E2">
-        <v>0.93719359461121898</v>
+        <v>0.92041428031162498</v>
       </c>
       <c r="F2">
-        <v>1.0944840868121599</v>
+        <v>1.0911604770412</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G16" si="0">C2-E2</f>
-        <v>7.6429009443890972E-2</v>
+        <v>8.3734424545964914E-2</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H16" si="1">F2-C2</f>
-        <v>8.0861482757049963E-2</v>
+        <v>8.7011772183610114E-2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -6104,30 +6176,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>44064</v>
+        <v>44067</v>
       </c>
       <c r="C3">
-        <v>0.96686347451192001</v>
+        <v>0.97153701696608696</v>
       </c>
       <c r="D3">
-        <v>0.96504421886568703</v>
+        <v>0.969917883368273</v>
       </c>
       <c r="E3">
-        <v>0.88451474156495302</v>
+        <v>0.89379567202152199</v>
       </c>
       <c r="F3">
-        <v>1.03945930431588</v>
+        <v>1.05127828297728</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>8.2348732946966985E-2</v>
+        <v>7.7741344944564972E-2</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>7.2595829803959955E-2</v>
+        <v>7.9741266011193024E-2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -6136,30 +6208,30 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
-        <v>44064</v>
+        <v>44067</v>
       </c>
       <c r="C4">
-        <v>0.98098640549793503</v>
+        <v>0.92422045193277402</v>
       </c>
       <c r="D4">
-        <v>0.98223393422878902</v>
+        <v>0.92073714262234296</v>
       </c>
       <c r="E4">
-        <v>0.90342379945097095</v>
+        <v>0.85048293608182801</v>
       </c>
       <c r="F4">
-        <v>1.0608391744087</v>
+        <v>1.00393335695969</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>7.7562606046964078E-2</v>
+        <v>7.3737515850946012E-2</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>7.9852768910764982E-2</v>
+        <v>7.971290502691597E-2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -6168,30 +6240,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>44064</v>
+        <v>44067</v>
       </c>
       <c r="C5">
-        <v>0.91454384205015704</v>
+        <v>0.89021757589820705</v>
       </c>
       <c r="D5">
-        <v>0.91154800518706303</v>
+        <v>0.88897444336331199</v>
       </c>
       <c r="E5">
-        <v>0.83083194455574005</v>
+        <v>0.813525499851524</v>
       </c>
       <c r="F5">
-        <v>0.97820673852628404</v>
+        <v>0.95841724865266498</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>8.3711897494416987E-2</v>
+        <v>7.6692076046683044E-2</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>6.3662896476126996E-2</v>
+        <v>6.819967275445793E-2</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -6200,30 +6272,30 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>44064</v>
+        <v>44067</v>
       </c>
       <c r="C6">
-        <v>1.0205480616903599</v>
+        <v>0.942110627889302</v>
       </c>
       <c r="D6">
-        <v>1.0181879510821901</v>
+        <v>0.93844118082828598</v>
       </c>
       <c r="E6">
-        <v>0.92539991542029598</v>
+        <v>0.86489235542485399</v>
       </c>
       <c r="F6">
-        <v>1.0891485292082701</v>
+        <v>1.0054801593790199</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>9.514814627006396E-2</v>
+        <v>7.7218272464448012E-2</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>6.8600467517910158E-2</v>
+        <v>6.3369531489717912E-2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -6232,30 +6304,30 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>44064</v>
+        <v>44067</v>
       </c>
       <c r="C7">
-        <v>0.97075197045152295</v>
+        <v>0.87622402892205398</v>
       </c>
       <c r="D7">
-        <v>0.96961128649192196</v>
+        <v>0.87330884264429198</v>
       </c>
       <c r="E7">
-        <v>0.89053649139485802</v>
+        <v>0.79448213535265</v>
       </c>
       <c r="F7">
-        <v>1.04929180858146</v>
+        <v>0.93570587277153305</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>8.0215479056664929E-2</v>
+        <v>8.1741893569403978E-2</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>7.8539838129937034E-2</v>
+        <v>5.9481843849479077E-2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -6267,27 +6339,27 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44064</v>
+        <v>44067</v>
       </c>
       <c r="C8">
-        <v>1.0125939172559</v>
+        <v>1.01914000414669</v>
       </c>
       <c r="D8">
-        <v>1.01344658968363</v>
+        <v>1.0165874383084701</v>
       </c>
       <c r="E8">
-        <v>0.93481896262562902</v>
+        <v>0.93990749560729403</v>
       </c>
       <c r="F8">
-        <v>1.0807987195503099</v>
+        <v>1.0917809896926101</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>7.7774954630270954E-2</v>
+        <v>7.9232508539396007E-2</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>6.820480229440995E-2</v>
+        <v>7.2640985545920023E-2</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -6296,30 +6368,30 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
-        <v>44064</v>
+        <v>44067</v>
       </c>
       <c r="C9">
-        <v>0.87499262431847602</v>
+        <v>0.98938183147108305</v>
       </c>
       <c r="D9">
-        <v>0.87156316862849403</v>
+        <v>0.985433460910214</v>
       </c>
       <c r="E9">
-        <v>0.79777301147726998</v>
+        <v>0.90674899747006499</v>
       </c>
       <c r="F9">
-        <v>0.94224372039228999</v>
+        <v>1.07178244222775</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>7.7219612841206042E-2</v>
+        <v>8.2632834001018063E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>6.7251096073813965E-2</v>
+        <v>8.2400610756666937E-2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -6328,30 +6400,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>44064</v>
+        <v>44067</v>
       </c>
       <c r="C10">
-        <v>0.94579544771670598</v>
+        <v>1.00322122791373</v>
       </c>
       <c r="D10">
-        <v>0.94388376814328101</v>
+        <v>1.00042122267141</v>
       </c>
       <c r="E10">
-        <v>0.88102458250849403</v>
+        <v>0.92534011070394395</v>
       </c>
       <c r="F10">
-        <v>1.0179891937811201</v>
+        <v>1.0688061440894101</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>6.4770865208211958E-2</v>
+        <v>7.7881117209786077E-2</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>7.2193746064414088E-2</v>
+        <v>6.5584916175680075E-2</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -6360,30 +6432,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1">
-        <v>44064</v>
+        <v>44067</v>
       </c>
       <c r="C11">
-        <v>1.0024315775724</v>
+        <v>0.97082631548113196</v>
       </c>
       <c r="D11">
-        <v>1.00110014586326</v>
+        <v>0.96781049867462499</v>
       </c>
       <c r="E11">
-        <v>0.92283008561142299</v>
+        <v>0.87640606540896004</v>
       </c>
       <c r="F11">
-        <v>1.07107718765703</v>
+        <v>1.03430528944475</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>7.9601491960976989E-2</v>
+        <v>9.4420250072171918E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>6.8645610084629993E-2</v>
+        <v>6.3478973963618013E-2</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -6392,30 +6464,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>44064</v>
+        <v>44067</v>
       </c>
       <c r="C12">
-        <v>0.87567277821945899</v>
+        <v>1.0194044794184001</v>
       </c>
       <c r="D12">
-        <v>0.87424364075954997</v>
+        <v>1.0172031213191199</v>
       </c>
       <c r="E12">
-        <v>0.803228610089609</v>
+        <v>0.93399196322509703</v>
       </c>
       <c r="F12">
-        <v>0.94827754461247205</v>
+        <v>1.09887967474002</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>7.2444168129849995E-2</v>
+        <v>8.5412516193303034E-2</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>7.2604766393013054E-2</v>
+        <v>7.9475195321619951E-2</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -6427,27 +6499,27 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>44064</v>
+        <v>44067</v>
       </c>
       <c r="C13">
-        <v>0.98275129292538399</v>
+        <v>1.0101542526273299</v>
       </c>
       <c r="D13">
-        <v>0.98287639578852504</v>
+        <v>1.00632584595715</v>
       </c>
       <c r="E13">
-        <v>0.90056368140713505</v>
+        <v>0.89682790778155497</v>
       </c>
       <c r="F13">
-        <v>1.0782128160390601</v>
+        <v>1.07825703059185</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>8.2187611518248938E-2</v>
+        <v>0.11332634484577497</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>9.5461523113676061E-2</v>
+        <v>6.8102777964520023E-2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -6459,27 +6531,27 @@
         <v>9</v>
       </c>
       <c r="B14" s="1">
-        <v>44064</v>
+        <v>44067</v>
       </c>
       <c r="C14">
-        <v>0.98741912719463798</v>
+        <v>0.96820773463228005</v>
       </c>
       <c r="D14">
-        <v>0.98283188128710497</v>
+        <v>0.96633695773227202</v>
       </c>
       <c r="E14">
-        <v>0.90385824744585597</v>
+        <v>0.89843749121276595</v>
       </c>
       <c r="F14">
-        <v>1.0587810413148999</v>
+        <v>1.0453297014496401</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>8.3560879748782013E-2</v>
+        <v>6.97702434195141E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>7.1361914120261938E-2</v>
+        <v>7.7121966817360055E-2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -6488,30 +6560,30 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>44064</v>
+        <v>44067</v>
       </c>
       <c r="C15">
-        <v>0.96484119592455597</v>
+        <v>0.93933859494331395</v>
       </c>
       <c r="D15">
-        <v>0.962552877212285</v>
+        <v>0.93859910739618302</v>
       </c>
       <c r="E15">
-        <v>0.87547538294641702</v>
+        <v>0.85427519894194803</v>
       </c>
       <c r="F15">
-        <v>1.04282130935645</v>
+        <v>1.00985006862732</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>8.9365812978138948E-2</v>
+        <v>8.5063396001365921E-2</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>7.7980113431894038E-2</v>
+        <v>7.051147368400601E-2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -6523,27 +6595,27 @@
         <v>20</v>
       </c>
       <c r="B16" s="1">
-        <v>44064</v>
+        <v>44067</v>
       </c>
       <c r="C16">
-        <v>0.94625747299483098</v>
+        <v>0.93913982322621203</v>
       </c>
       <c r="D16">
-        <v>0.94799087760851997</v>
+        <v>0.93747794865374601</v>
       </c>
       <c r="E16">
-        <v>0.85923314153374797</v>
+        <v>0.86071452591895303</v>
       </c>
       <c r="F16">
-        <v>1.01485240350682</v>
+        <v>1.0077458751062101</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>8.7024331461083015E-2</v>
+        <v>7.8425297307259001E-2</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>6.8594930511989061E-2</v>
+        <v>6.860605187999802E-2</v>
       </c>
       <c r="I16">
         <v>1</v>

--- a/results/resultado_consolidado/graph2.xlsx
+++ b/results/resultado_consolidado/graph2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Georg\Documents\GitHub\covid-model\results\resultado_consolidado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E98A801-FD7E-4E3B-922F-DEF102B02701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FAC769-E686-491C-864C-33719AD8DFCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4AC76AC7-E5A1-4C07-9F5F-EE5E7DC34869}"/>
   </bookViews>
   <sheets>
-    <sheet name="24 oct" sheetId="2" r:id="rId1"/>
-    <sheet name="24 sep" sheetId="1" r:id="rId2"/>
-    <sheet name="24 ago" sheetId="3" r:id="rId3"/>
+    <sheet name="29 oct" sheetId="2" r:id="rId1"/>
+    <sheet name="29 sep" sheetId="1" r:id="rId2"/>
+    <sheet name="29 ago" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -189,7 +189,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'24 oct'!$D$1</c:f>
+              <c:f>'29 oct'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -395,11 +395,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -419,11 +419,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -443,11 +443,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -491,108 +491,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'24 oct'!$H$2:$H$16</c:f>
+                <c:f>'29 oct'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.20857811439455498</c:v>
+                    <c:v>0.14192680237939603</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.19629836460724803</c:v>
+                    <c:v>0.16581598473563608</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.20723246842534104</c:v>
+                    <c:v>0.16168102181321198</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.17902528717081589</c:v>
+                    <c:v>0.18781791409025805</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.18616809328078598</c:v>
+                    <c:v>0.17514737952137205</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.20143231428682395</c:v>
+                    <c:v>0.1987496519621551</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.20601272960162798</c:v>
+                    <c:v>0.18163029894752514</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.21023881197761896</c:v>
+                    <c:v>0.18730033159405091</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.187464015976049</c:v>
+                    <c:v>0.19648497682395405</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.22588408167290197</c:v>
+                    <c:v>0.18402711913075287</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.21860341299122588</c:v>
+                    <c:v>0.18511056542256588</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.21772125506737994</c:v>
+                    <c:v>0.17430791466406204</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.17999333798827988</c:v>
+                    <c:v>0.20566570806426998</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.2283023792407699</c:v>
+                    <c:v>0.161600138759318</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.1999658669162101</c:v>
+                    <c:v>0.18528158507416004</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'24 oct'!$G$2:$G$16</c:f>
+                <c:f>'29 oct'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.22751541986897506</c:v>
+                    <c:v>0.21086255065814596</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.21324339407325299</c:v>
+                    <c:v>0.21212604508520005</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.22869719130732302</c:v>
+                    <c:v>0.21459918481292495</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.23878405262561309</c:v>
+                    <c:v>0.23796688693164592</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.23386484333274793</c:v>
+                    <c:v>0.248706771174249</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.24642945762708601</c:v>
+                    <c:v>0.22060947973178302</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.192367247099821</c:v>
+                    <c:v>0.21253865139408401</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.21934129883910392</c:v>
+                    <c:v>0.21361073489898807</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.21621013424797897</c:v>
+                    <c:v>0.20771252054073996</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.20446734274855805</c:v>
+                    <c:v>0.20470950279480105</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.21054865178114501</c:v>
+                    <c:v>0.23909851671320403</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.24830124823565403</c:v>
+                    <c:v>0.22612965875353297</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.22942880488790407</c:v>
+                    <c:v>0.22434304177894793</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.26889898317440608</c:v>
+                    <c:v>0.23603348469596597</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.30509406867099587</c:v>
+                    <c:v>0.29113087285026595</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -613,50 +613,50 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'24 oct'!$A$2:$A$16</c:f>
+              <c:f>'29 oct'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Espaillat</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>La Altagracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>La Romana</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Azua</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Duarte</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>San Pedro de Macorís</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Peravia</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Santo Domingo</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>San Cristóbal</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Distrito Nacional</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>La Romana</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>San Juan</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Sánchez Ramírez</c:v>
@@ -666,54 +666,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'24 oct'!$D$2:$D$16</c:f>
+              <c:f>'29 oct'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.88529741527015504</c:v>
+                  <c:v>0.76813989109165304</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89526198781418798</c:v>
+                  <c:v>0.84878549037278295</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91260170279275299</c:v>
+                  <c:v>0.85189057358008502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93410034211801796</c:v>
+                  <c:v>0.87064415053085298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94062683902113697</c:v>
+                  <c:v>0.87629229302266098</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94622328743381801</c:v>
+                  <c:v>0.87770259859887401</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95213721839985999</c:v>
+                  <c:v>0.903603202207791</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.955782107294326</c:v>
+                  <c:v>0.90595489615686897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97199485076874204</c:v>
+                  <c:v>0.92197842731913204</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.98165025810395001</c:v>
+                  <c:v>0.93150787760982601</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.98337624704908999</c:v>
+                  <c:v>0.94431559788311603</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0033373347379999</c:v>
+                  <c:v>0.94908751166372296</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0136093505262</c:v>
+                  <c:v>0.95304069327628604</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0904852390156301</c:v>
+                  <c:v>0.95534923734650301</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.11595731200524</c:v>
+                  <c:v>1.0547516555695799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -730,7 +730,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'24 oct'!$I$1</c:f>
+              <c:f>'29 oct'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -788,7 +788,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'24 oct'!$I$2:$I$16</c:f>
+              <c:f>'29 oct'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1032,7 +1032,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'24 sep'!$D$1</c:f>
+              <c:f>'29 sep'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1118,11 +1118,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1142,11 +1142,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1190,11 +1190,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1286,11 +1286,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1310,11 +1310,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1382,108 +1382,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'24 sep'!$H$2:$H$16</c:f>
+                <c:f>'29 sep'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>7.7504191717090998E-2</c:v>
+                    <c:v>6.1578226036545947E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.3554185629166944E-2</c:v>
+                    <c:v>7.1606627551627056E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>9.4151524621855054E-2</c:v>
+                    <c:v>8.888356404337594E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.4840425872010119E-2</c:v>
+                    <c:v>0.10160039332814397</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.3321141095999964E-2</c:v>
+                    <c:v>9.3432107271695153E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>9.0267930780689953E-2</c:v>
+                    <c:v>8.0859376597371968E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.1738067851788934E-2</c:v>
+                    <c:v>7.0835997273510976E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>9.1332208682719962E-2</c:v>
+                    <c:v>9.1709101605529142E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>5.6680740506985017E-2</c:v>
+                    <c:v>8.3116703459455987E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.1874161184206096E-2</c:v>
+                    <c:v>7.1440502881509937E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>6.8038710792746038E-2</c:v>
+                    <c:v>7.0180668463231011E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>9.4437696134719973E-2</c:v>
+                    <c:v>6.2894242933490108E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>7.5088675817360118E-2</c:v>
+                    <c:v>9.1439185441781867E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>7.4161454893385992E-2</c:v>
+                    <c:v>7.5418621950316012E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>8.6849108650760121E-2</c:v>
+                    <c:v>8.7422530245470087E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'24 sep'!$G$2:$G$16</c:f>
+                <c:f>'29 sep'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>8.8917309670070943E-2</c:v>
+                    <c:v>8.3301249217788031E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.3441979149421965E-2</c:v>
+                    <c:v>8.107064108772899E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.0829551537546895E-2</c:v>
+                    <c:v>7.8425321804209025E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>9.1864701427524009E-2</c:v>
+                    <c:v>0.11287086441350402</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.8605065735634971E-2</c:v>
+                    <c:v>8.8682341586038937E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.10543271836473511</c:v>
+                    <c:v>9.5679614261323986E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.1490188182407044E-2</c:v>
+                    <c:v>8.560706361449999E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.5342336311741041E-2</c:v>
+                    <c:v>9.7174533740611913E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.4200420547362098E-2</c:v>
+                    <c:v>8.030929393236208E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.10765747586458696</c:v>
+                    <c:v>8.5844027559954017E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>8.4515082176005007E-2</c:v>
+                    <c:v>0.10739508236530604</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.1128313734421249</c:v>
+                    <c:v>7.3574168024646003E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>9.132988812712195E-2</c:v>
+                    <c:v>7.4180548999582041E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>9.261325372316398E-2</c:v>
+                    <c:v>7.5633600734475004E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>8.0207523493703969E-2</c:v>
+                    <c:v>8.8020378661409882E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1504,7 +1504,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'24 sep'!$A$2:$A$16</c:f>
+              <c:f>'29 sep'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -1557,54 +1557,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'24 sep'!$D$2:$D$16</c:f>
+              <c:f>'29 sep'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.88324207717476599</c:v>
+                  <c:v>0.85705393867744994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94343256369705897</c:v>
+                  <c:v>0.91860726271139204</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95040928947407399</c:v>
+                  <c:v>0.85696334869788204</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0226191238284801</c:v>
+                  <c:v>0.97095090597773004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0251962933179399</c:v>
+                  <c:v>0.90921420068496095</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99798030913425995</c:v>
+                  <c:v>0.96115832467477602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97328774094169701</c:v>
+                  <c:v>0.97925937996781798</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0318573500875701</c:v>
+                  <c:v>0.94995387146820098</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94221198757471003</c:v>
+                  <c:v>0.96784076893944404</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.96965601660985001</c:v>
+                  <c:v>0.99793975666451296</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97142338469562695</c:v>
+                  <c:v>0.93705362186307295</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1024101889594999</c:v>
+                  <c:v>0.96066703780103102</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0109057735323801</c:v>
+                  <c:v>0.98063298102501495</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.95905148182539901</c:v>
+                  <c:v>0.96260082943334402</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.00990838890226</c:v>
+                  <c:v>1.0404986138421499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1621,7 +1621,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'24 oct'!$I$1</c:f>
+              <c:f>'29 oct'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1679,7 +1679,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'24 sep'!$A$2:$A$16</c:f>
+              <c:f>'29 sep'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -1732,7 +1732,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'24 oct'!$I$2:$I$16</c:f>
+              <c:f>'29 oct'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1976,7 +1976,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'24 ago'!$D$1</c:f>
+              <c:f>'29 ago'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2014,11 +2014,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2038,11 +2038,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2086,11 +2086,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2158,11 +2158,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2254,11 +2254,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2374,108 +2374,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'24 sep'!$H$2:$H$16</c:f>
+                <c:f>'29 sep'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>7.7504191717090998E-2</c:v>
+                    <c:v>6.1578226036545947E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.3554185629166944E-2</c:v>
+                    <c:v>7.1606627551627056E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>9.4151524621855054E-2</c:v>
+                    <c:v>8.888356404337594E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.4840425872010119E-2</c:v>
+                    <c:v>0.10160039332814397</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.3321141095999964E-2</c:v>
+                    <c:v>9.3432107271695153E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>9.0267930780689953E-2</c:v>
+                    <c:v>8.0859376597371968E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.1738067851788934E-2</c:v>
+                    <c:v>7.0835997273510976E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>9.1332208682719962E-2</c:v>
+                    <c:v>9.1709101605529142E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>5.6680740506985017E-2</c:v>
+                    <c:v>8.3116703459455987E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.1874161184206096E-2</c:v>
+                    <c:v>7.1440502881509937E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>6.8038710792746038E-2</c:v>
+                    <c:v>7.0180668463231011E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>9.4437696134719973E-2</c:v>
+                    <c:v>6.2894242933490108E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>7.5088675817360118E-2</c:v>
+                    <c:v>9.1439185441781867E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>7.4161454893385992E-2</c:v>
+                    <c:v>7.5418621950316012E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>8.6849108650760121E-2</c:v>
+                    <c:v>8.7422530245470087E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'24 sep'!$G$2:$G$16</c:f>
+                <c:f>'29 sep'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>8.8917309670070943E-2</c:v>
+                    <c:v>8.3301249217788031E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.3441979149421965E-2</c:v>
+                    <c:v>8.107064108772899E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.0829551537546895E-2</c:v>
+                    <c:v>7.8425321804209025E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>9.1864701427524009E-2</c:v>
+                    <c:v>0.11287086441350402</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.8605065735634971E-2</c:v>
+                    <c:v>8.8682341586038937E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.10543271836473511</c:v>
+                    <c:v>9.5679614261323986E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.1490188182407044E-2</c:v>
+                    <c:v>8.560706361449999E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.5342336311741041E-2</c:v>
+                    <c:v>9.7174533740611913E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.4200420547362098E-2</c:v>
+                    <c:v>8.030929393236208E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.10765747586458696</c:v>
+                    <c:v>8.5844027559954017E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>8.4515082176005007E-2</c:v>
+                    <c:v>0.10739508236530604</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.1128313734421249</c:v>
+                    <c:v>7.3574168024646003E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>9.132988812712195E-2</c:v>
+                    <c:v>7.4180548999582041E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>9.261325372316398E-2</c:v>
+                    <c:v>7.5633600734475004E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>8.0207523493703969E-2</c:v>
+                    <c:v>8.8020378661409882E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2496,7 +2496,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'24 sep'!$A$2:$A$16</c:f>
+              <c:f>'29 sep'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -2549,54 +2549,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'24 ago'!$D$2:$D$16</c:f>
+              <c:f>'29 ago'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.0008618187839</c:v>
+                  <c:v>0.95686563353394605</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.969917883368273</c:v>
+                  <c:v>1.0158196936448101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92073714262234296</c:v>
+                  <c:v>0.99502065395838202</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88897444336331199</c:v>
+                  <c:v>1.0569186176458201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93844118082828598</c:v>
+                  <c:v>0.95181425890927596</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.87330884264429198</c:v>
+                  <c:v>0.88469463794810799</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0165874383084701</c:v>
+                  <c:v>0.93219523682859695</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.985433460910214</c:v>
+                  <c:v>0.95955664979140298</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.00042122267141</c:v>
+                  <c:v>1.0142685861076901</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.96781049867462499</c:v>
+                  <c:v>0.92249849290021402</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0172031213191199</c:v>
+                  <c:v>0.91843714139413601</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.00632584595715</c:v>
+                  <c:v>1.0035692105282901</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.96633695773227202</c:v>
+                  <c:v>0.92291454119778005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.93859910739618302</c:v>
+                  <c:v>0.99476178072255195</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.93747794865374601</c:v>
+                  <c:v>0.93422065418748901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2613,7 +2613,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'24 oct'!$I$1</c:f>
+              <c:f>'29 oct'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2671,7 +2671,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'24 sep'!$A$2:$A$16</c:f>
+              <c:f>'29 sep'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -2724,7 +2724,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'24 oct'!$I$2:$I$16</c:f>
+              <c:f>'29 oct'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5040,7 +5040,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5080,30 +5080,30 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>44128</v>
+        <v>44133</v>
       </c>
       <c r="C2">
-        <v>0.89953678165601503</v>
+        <v>0.78074370102181301</v>
       </c>
       <c r="D2">
-        <v>0.88529741527015504</v>
+        <v>0.76813989109165304</v>
       </c>
       <c r="E2">
-        <v>0.67202136178703997</v>
+        <v>0.56988115036366704</v>
       </c>
       <c r="F2">
-        <v>1.10811489605057</v>
+        <v>0.92267050340120904</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G16" si="0">C2-E2</f>
-        <v>0.22751541986897506</v>
+        <v>0.21086255065814596</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H16" si="1">F2-C2</f>
-        <v>0.20857811439455498</v>
+        <v>0.14192680237939603</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5112,30 +5112,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1">
-        <v>44128</v>
+        <v>44133</v>
       </c>
       <c r="C3">
-        <v>0.91647269637031203</v>
+        <v>0.86199350058056401</v>
       </c>
       <c r="D3">
-        <v>0.89526198781418798</v>
+        <v>0.84878549037278295</v>
       </c>
       <c r="E3">
-        <v>0.70322930229705904</v>
+        <v>0.64986745549536395</v>
       </c>
       <c r="F3">
-        <v>1.1127710609775601</v>
+        <v>1.0278094853162001</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>0.21324339407325299</v>
+        <v>0.21212604508520005</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>0.19629836460724803</v>
+        <v>0.16581598473563608</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5144,30 +5144,30 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1">
-        <v>44128</v>
+        <v>44133</v>
       </c>
       <c r="C4">
-        <v>0.93380642499097899</v>
+        <v>0.86442255972533799</v>
       </c>
       <c r="D4">
-        <v>0.91260170279275299</v>
+        <v>0.85189057358008502</v>
       </c>
       <c r="E4">
-        <v>0.70510923368365597</v>
+        <v>0.64982337491241304</v>
       </c>
       <c r="F4">
-        <v>1.14103889341632</v>
+        <v>1.02610358153855</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.22869719130732302</v>
+        <v>0.21459918481292495</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>0.20723246842534104</v>
+        <v>0.16168102181321198</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5176,30 +5176,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>44128</v>
+        <v>44133</v>
       </c>
       <c r="C5">
-        <v>0.95548700942465403</v>
+        <v>0.89146105248501195</v>
       </c>
       <c r="D5">
-        <v>0.93410034211801796</v>
+        <v>0.87064415053085298</v>
       </c>
       <c r="E5">
-        <v>0.71670295679904095</v>
+        <v>0.65349416555336604</v>
       </c>
       <c r="F5">
-        <v>1.1345122965954699</v>
+        <v>1.07927896657527</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.23878405262561309</v>
+        <v>0.23796688693164592</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>0.17902528717081589</v>
+        <v>0.18781791409025805</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5208,30 +5208,30 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
-        <v>44128</v>
+        <v>44133</v>
       </c>
       <c r="C6">
-        <v>0.95471019224863396</v>
+        <v>0.88792066380399803</v>
       </c>
       <c r="D6">
-        <v>0.94062683902113697</v>
+        <v>0.87629229302266098</v>
       </c>
       <c r="E6">
-        <v>0.72084534891588603</v>
+        <v>0.63921389262974904</v>
       </c>
       <c r="F6">
-        <v>1.1408782855294199</v>
+        <v>1.0630680433253701</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.23386484333274793</v>
+        <v>0.248706771174249</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>0.18616809328078598</v>
+        <v>0.17514737952137205</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5243,27 +5243,27 @@
         <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>44128</v>
+        <v>44133</v>
       </c>
       <c r="C7">
-        <v>0.96800063375862599</v>
+        <v>0.90184932609781499</v>
       </c>
       <c r="D7">
-        <v>0.94622328743381801</v>
+        <v>0.87770259859887401</v>
       </c>
       <c r="E7">
-        <v>0.72157117613153998</v>
+        <v>0.68123984636603196</v>
       </c>
       <c r="F7">
-        <v>1.1694329480454499</v>
+        <v>1.1005989780599701</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.24642945762708601</v>
+        <v>0.22060947973178302</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>0.20143231428682395</v>
+        <v>0.1987496519621551</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5272,30 +5272,30 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>44128</v>
+        <v>44133</v>
       </c>
       <c r="C8">
-        <v>0.95893308998259197</v>
+        <v>0.92113296283241497</v>
       </c>
       <c r="D8">
-        <v>0.95213721839985999</v>
+        <v>0.903603202207791</v>
       </c>
       <c r="E8">
-        <v>0.76656584288277096</v>
+        <v>0.70859431143833096</v>
       </c>
       <c r="F8">
-        <v>1.1649458195842199</v>
+        <v>1.1027632617799401</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.192367247099821</v>
+        <v>0.21253865139408401</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>0.20601272960162798</v>
+        <v>0.18163029894752514</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5304,30 +5304,30 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
-        <v>44128</v>
+        <v>44133</v>
       </c>
       <c r="C9">
-        <v>0.96335409147375095</v>
+        <v>0.91881670794681902</v>
       </c>
       <c r="D9">
-        <v>0.955782107294326</v>
+        <v>0.90595489615686897</v>
       </c>
       <c r="E9">
-        <v>0.74401279263464704</v>
+        <v>0.70520597304783095</v>
       </c>
       <c r="F9">
-        <v>1.1735929034513699</v>
+        <v>1.1061170395408699</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.21934129883910392</v>
+        <v>0.21361073489898807</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>0.21023881197761896</v>
+        <v>0.18730033159405091</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5336,30 +5336,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>44128</v>
+        <v>44133</v>
       </c>
       <c r="C10">
-        <v>0.98460674885774102</v>
+        <v>0.92207590448162602</v>
       </c>
       <c r="D10">
-        <v>0.97199485076874204</v>
+        <v>0.92197842731913204</v>
       </c>
       <c r="E10">
-        <v>0.76839661460976205</v>
+        <v>0.71436338394088605</v>
       </c>
       <c r="F10">
-        <v>1.17207076483379</v>
+        <v>1.1185608813055801</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.21621013424797897</v>
+        <v>0.20771252054073996</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>0.187464015976049</v>
+        <v>0.19648497682395405</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5368,30 +5368,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>44128</v>
+        <v>44133</v>
       </c>
       <c r="C11">
-        <v>0.99916448853575801</v>
+        <v>0.94597723411815704</v>
       </c>
       <c r="D11">
-        <v>0.98165025810395001</v>
+        <v>0.93150787760982601</v>
       </c>
       <c r="E11">
-        <v>0.79469714578719997</v>
+        <v>0.74126773132335599</v>
       </c>
       <c r="F11">
-        <v>1.22504857020866</v>
+        <v>1.1300043532489099</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.20446734274855805</v>
+        <v>0.20470950279480105</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>0.22588408167290197</v>
+        <v>0.18402711913075287</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5400,30 +5400,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>44128</v>
+        <v>44133</v>
       </c>
       <c r="C12">
-        <v>0.99618337888212405</v>
+        <v>0.95746514141390404</v>
       </c>
       <c r="D12">
-        <v>0.98337624704908999</v>
+        <v>0.94431559788311603</v>
       </c>
       <c r="E12">
-        <v>0.78563472710097904</v>
+        <v>0.71836662470070001</v>
       </c>
       <c r="F12">
-        <v>1.2147867918733499</v>
+        <v>1.1425757068364699</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0.21054865178114501</v>
+        <v>0.23909851671320403</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>0.21860341299122588</v>
+        <v>0.18511056542256588</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5432,30 +5432,30 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1">
-        <v>44128</v>
+        <v>44133</v>
       </c>
       <c r="C13">
-        <v>1.02911334972476</v>
+        <v>0.96599733189768799</v>
       </c>
       <c r="D13">
-        <v>1.0033373347379999</v>
+        <v>0.94908751166372296</v>
       </c>
       <c r="E13">
-        <v>0.78081210148910596</v>
+        <v>0.73986767314415502</v>
       </c>
       <c r="F13">
-        <v>1.2468346047921399</v>
+        <v>1.14030524656175</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.24830124823565403</v>
+        <v>0.22612965875353297</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>0.21772125506737994</v>
+        <v>0.17430791466406204</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5464,30 +5464,30 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>44128</v>
+        <v>44133</v>
       </c>
       <c r="C14">
-        <v>1.02078557980673</v>
+        <v>0.97096318215991995</v>
       </c>
       <c r="D14">
-        <v>1.0136093505262</v>
+        <v>0.95304069327628604</v>
       </c>
       <c r="E14">
-        <v>0.79135677491882594</v>
+        <v>0.74662014038097202</v>
       </c>
       <c r="F14">
-        <v>1.2007789177950099</v>
+        <v>1.1766288902241899</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0.22942880488790407</v>
+        <v>0.22434304177894793</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>0.17999333798827988</v>
+        <v>0.20566570806426998</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -5496,30 +5496,30 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1">
-        <v>44128</v>
+        <v>44133</v>
       </c>
       <c r="C15">
-        <v>1.1106891714282801</v>
+        <v>0.96648181131560196</v>
       </c>
       <c r="D15">
-        <v>1.0904852390156301</v>
+        <v>0.95534923734650301</v>
       </c>
       <c r="E15">
-        <v>0.84179018825387397</v>
+        <v>0.73044832661963599</v>
       </c>
       <c r="F15">
-        <v>1.33899155066905</v>
+        <v>1.12808195007492</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0.26889898317440608</v>
+        <v>0.23603348469596597</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>0.2283023792407699</v>
+        <v>0.161600138759318</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -5531,27 +5531,27 @@
         <v>20</v>
       </c>
       <c r="B16" s="1">
-        <v>44128</v>
+        <v>44133</v>
       </c>
       <c r="C16">
-        <v>1.1285547386755499</v>
+        <v>1.08197509186751</v>
       </c>
       <c r="D16">
-        <v>1.11595731200524</v>
+        <v>1.0547516555695799</v>
       </c>
       <c r="E16">
-        <v>0.82346067000455403</v>
+        <v>0.790844219017244</v>
       </c>
       <c r="F16">
-        <v>1.32852060559176</v>
+        <v>1.26725667694167</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0.30509406867099587</v>
+        <v>0.29113087285026595</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>0.1999658669162101</v>
+        <v>0.18528158507416004</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -5571,8 +5571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9B4699-B86D-4EFA-A264-1734A39D161E}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="101" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5615,27 +5615,27 @@
         <v>19</v>
       </c>
       <c r="B2" s="1">
-        <v>44098</v>
+        <v>44103</v>
       </c>
       <c r="C2">
-        <v>0.88645423688130398</v>
+        <v>0.855047095835061</v>
       </c>
       <c r="D2">
-        <v>0.88324207717476599</v>
+        <v>0.85705393867744994</v>
       </c>
       <c r="E2">
-        <v>0.79753692721123304</v>
+        <v>0.77174584661727297</v>
       </c>
       <c r="F2">
-        <v>0.96395842859839498</v>
+        <v>0.91662532187160695</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G16" si="0">C2-E2</f>
-        <v>8.8917309670070943E-2</v>
+        <v>8.3301249217788031E-2</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H16" si="1">F2-C2</f>
-        <v>7.7504191717090998E-2</v>
+        <v>6.1578226036545947E-2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5647,27 +5647,27 @@
         <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>44098</v>
+        <v>44103</v>
       </c>
       <c r="C3">
-        <v>0.94477470711433298</v>
+        <v>0.91868861135518498</v>
       </c>
       <c r="D3">
-        <v>0.94343256369705897</v>
+        <v>0.91860726271139204</v>
       </c>
       <c r="E3">
-        <v>0.87133272796491101</v>
+        <v>0.83761797026745599</v>
       </c>
       <c r="F3">
-        <v>1.0283288927434999</v>
+        <v>0.99029523890681204</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>7.3441979149421965E-2</v>
+        <v>8.107064108772899E-2</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>8.3554185629166944E-2</v>
+        <v>7.1606627551627056E-2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5679,27 +5679,27 @@
         <v>17</v>
       </c>
       <c r="B4" s="1">
-        <v>44098</v>
+        <v>44103</v>
       </c>
       <c r="C4">
-        <v>0.95291243945441495</v>
+        <v>0.85945903148513803</v>
       </c>
       <c r="D4">
-        <v>0.95040928947407399</v>
+        <v>0.85696334869788204</v>
       </c>
       <c r="E4">
-        <v>0.87208288791686805</v>
+        <v>0.781033709680929</v>
       </c>
       <c r="F4">
-        <v>1.04706396407627</v>
+        <v>0.94834259552851397</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>8.0829551537546895E-2</v>
+        <v>7.8425321804209025E-2</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>9.4151524621855054E-2</v>
+        <v>8.888356404337594E-2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5711,27 +5711,27 @@
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>44098</v>
+        <v>44103</v>
       </c>
       <c r="C5">
-        <v>1.02330569311084</v>
+        <v>0.97354166511356599</v>
       </c>
       <c r="D5">
-        <v>1.0226191238284801</v>
+        <v>0.97095090597773004</v>
       </c>
       <c r="E5">
-        <v>0.93144099168331596</v>
+        <v>0.86067080070006197</v>
       </c>
       <c r="F5">
-        <v>1.0981461189828501</v>
+        <v>1.07514205844171</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>9.1864701427524009E-2</v>
+        <v>0.11287086441350402</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>7.4840425872010119E-2</v>
+        <v>0.10160039332814397</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5743,27 +5743,27 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>44098</v>
+        <v>44103</v>
       </c>
       <c r="C6">
-        <v>1.02748601440445</v>
+        <v>0.91074285672061495</v>
       </c>
       <c r="D6">
-        <v>1.0251962933179399</v>
+        <v>0.90921420068496095</v>
       </c>
       <c r="E6">
-        <v>0.94888094866881501</v>
+        <v>0.82206051513457601</v>
       </c>
       <c r="F6">
-        <v>1.1008071555004499</v>
+        <v>1.0041749639923101</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>7.8605065735634971E-2</v>
+        <v>8.8682341586038937E-2</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>7.3321141095999964E-2</v>
+        <v>9.3432107271695153E-2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5775,27 +5775,27 @@
         <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>44098</v>
+        <v>44103</v>
       </c>
       <c r="C7">
-        <v>1.0051625149466901</v>
+        <v>0.96114932312149803</v>
       </c>
       <c r="D7">
-        <v>0.99798030913425995</v>
+        <v>0.96115832467477602</v>
       </c>
       <c r="E7">
-        <v>0.89972979658195495</v>
+        <v>0.86546970886017405</v>
       </c>
       <c r="F7">
-        <v>1.09543044572738</v>
+        <v>1.04200869971887</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.10543271836473511</v>
+        <v>9.5679614261323986E-2</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>9.0267930780689953E-2</v>
+        <v>8.0859376597371968E-2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5807,27 +5807,27 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44098</v>
+        <v>44103</v>
       </c>
       <c r="C8">
-        <v>0.97400379146726102</v>
+        <v>0.98312969918839899</v>
       </c>
       <c r="D8">
-        <v>0.97328774094169701</v>
+        <v>0.97925937996781798</v>
       </c>
       <c r="E8">
-        <v>0.90251360328485397</v>
+        <v>0.897522635573899</v>
       </c>
       <c r="F8">
-        <v>1.0457418593190499</v>
+        <v>1.05396569646191</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>7.1490188182407044E-2</v>
+        <v>8.560706361449999E-2</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>7.1738067851788934E-2</v>
+        <v>7.0835997273510976E-2</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5839,27 +5839,27 @@
         <v>12</v>
       </c>
       <c r="B9" s="1">
-        <v>44098</v>
+        <v>44103</v>
       </c>
       <c r="C9">
-        <v>1.03304255372648</v>
+        <v>0.95638435419979095</v>
       </c>
       <c r="D9">
-        <v>1.0318573500875701</v>
+        <v>0.94995387146820098</v>
       </c>
       <c r="E9">
-        <v>0.94770021741473898</v>
+        <v>0.85920982045917904</v>
       </c>
       <c r="F9">
-        <v>1.1243747624092</v>
+        <v>1.0480934558053201</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>8.5342336311741041E-2</v>
+        <v>9.7174533740611913E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>9.1332208682719962E-2</v>
+        <v>9.1709101605529142E-2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5871,27 +5871,27 @@
         <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>44098</v>
+        <v>44103</v>
       </c>
       <c r="C10">
-        <v>0.94453245850258505</v>
+        <v>0.96874862845047405</v>
       </c>
       <c r="D10">
-        <v>0.94221198757471003</v>
+        <v>0.96784076893944404</v>
       </c>
       <c r="E10">
-        <v>0.86033203795522295</v>
+        <v>0.88843933451811197</v>
       </c>
       <c r="F10">
-        <v>1.0012131990095701</v>
+        <v>1.05186533190993</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>8.4200420547362098E-2</v>
+        <v>8.030929393236208E-2</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>5.6680740506985017E-2</v>
+        <v>8.3116703459455987E-2</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5903,27 +5903,27 @@
         <v>18</v>
       </c>
       <c r="B11" s="1">
-        <v>44098</v>
+        <v>44103</v>
       </c>
       <c r="C11">
-        <v>0.97333387147672401</v>
+        <v>1.00057721718475</v>
       </c>
       <c r="D11">
-        <v>0.96965601660985001</v>
+        <v>0.99793975666451296</v>
       </c>
       <c r="E11">
-        <v>0.86567639561213705</v>
+        <v>0.91473318962479599</v>
       </c>
       <c r="F11">
-        <v>1.0552080326609301</v>
+        <v>1.0720177200662599</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.10765747586458696</v>
+        <v>8.5844027559954017E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>8.1874161184206096E-2</v>
+        <v>7.1440502881509937E-2</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5935,27 +5935,27 @@
         <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>44098</v>
+        <v>44103</v>
       </c>
       <c r="C12">
-        <v>0.971829347664384</v>
+        <v>0.94055996072761905</v>
       </c>
       <c r="D12">
-        <v>0.97142338469562695</v>
+        <v>0.93705362186307295</v>
       </c>
       <c r="E12">
-        <v>0.88731426548837899</v>
+        <v>0.83316487836231301</v>
       </c>
       <c r="F12">
-        <v>1.03986805845713</v>
+        <v>1.0107406291908501</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>8.4515082176005007E-2</v>
+        <v>0.10739508236530604</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>6.8038710792746038E-2</v>
+        <v>7.0180668463231011E-2</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5967,27 +5967,27 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>44098</v>
+        <v>44103</v>
       </c>
       <c r="C13">
-        <v>1.1038487466792199</v>
+        <v>0.96233000736665997</v>
       </c>
       <c r="D13">
-        <v>1.1024101889594999</v>
+        <v>0.96066703780103102</v>
       </c>
       <c r="E13">
-        <v>0.99101737323709505</v>
+        <v>0.88875583934201396</v>
       </c>
       <c r="F13">
-        <v>1.1982864428139399</v>
+        <v>1.0252242503001501</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.1128313734421249</v>
+        <v>7.3574168024646003E-2</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>9.4437696134719973E-2</v>
+        <v>6.2894242933490108E-2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5999,27 +5999,27 @@
         <v>9</v>
       </c>
       <c r="B14" s="1">
-        <v>44098</v>
+        <v>44103</v>
       </c>
       <c r="C14">
-        <v>1.0105988842470499</v>
+        <v>0.98338288364929805</v>
       </c>
       <c r="D14">
-        <v>1.0109057735323801</v>
+        <v>0.98063298102501495</v>
       </c>
       <c r="E14">
-        <v>0.91926899611992796</v>
+        <v>0.909202334649716</v>
       </c>
       <c r="F14">
-        <v>1.08568756006441</v>
+        <v>1.0748220690910799</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>9.132988812712195E-2</v>
+        <v>7.4180548999582041E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>7.5088675817360118E-2</v>
+        <v>9.1439185441781867E-2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -6031,27 +6031,27 @@
         <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>44098</v>
+        <v>44103</v>
       </c>
       <c r="C15">
-        <v>0.96295617451577398</v>
+        <v>0.96479257305320398</v>
       </c>
       <c r="D15">
-        <v>0.95905148182539901</v>
+        <v>0.96260082943334402</v>
       </c>
       <c r="E15">
-        <v>0.87034292079261</v>
+        <v>0.88915897231872898</v>
       </c>
       <c r="F15">
-        <v>1.03711762940916</v>
+        <v>1.04021119500352</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>9.261325372316398E-2</v>
+        <v>7.5633600734475004E-2</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>7.4161454893385992E-2</v>
+        <v>7.5418621950316012E-2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -6063,27 +6063,27 @@
         <v>20</v>
       </c>
       <c r="B16" s="1">
-        <v>44098</v>
+        <v>44103</v>
       </c>
       <c r="C16">
-        <v>1.01512720595176</v>
+        <v>1.0431846314303299</v>
       </c>
       <c r="D16">
-        <v>1.00990838890226</v>
+        <v>1.0404986138421499</v>
       </c>
       <c r="E16">
-        <v>0.93491968245805601</v>
+        <v>0.95516425276892003</v>
       </c>
       <c r="F16">
-        <v>1.1019763146025201</v>
+        <v>1.1306071616758</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>8.0207523493703969E-2</v>
+        <v>8.8020378661409882E-2</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>8.6849108650760121E-2</v>
+        <v>8.7422530245470087E-2</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -6103,8 +6103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFCAF56-E988-48E4-BDA2-C84256C27DCF}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6147,27 +6147,27 @@
         <v>19</v>
       </c>
       <c r="B2" s="1">
-        <v>44067</v>
+        <v>44072</v>
       </c>
       <c r="C2">
-        <v>1.0041487048575899</v>
+        <v>0.95702597549186197</v>
       </c>
       <c r="D2">
-        <v>1.0008618187839</v>
+        <v>0.95686563353394605</v>
       </c>
       <c r="E2">
-        <v>0.92041428031162498</v>
+        <v>0.88061243095319996</v>
       </c>
       <c r="F2">
-        <v>1.0911604770412</v>
+        <v>1.0312071729157399</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G16" si="0">C2-E2</f>
-        <v>8.3734424545964914E-2</v>
+        <v>7.6413544538662004E-2</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H16" si="1">F2-C2</f>
-        <v>8.7011772183610114E-2</v>
+        <v>7.4181197423877965E-2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -6179,27 +6179,27 @@
         <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>44067</v>
+        <v>44072</v>
       </c>
       <c r="C3">
-        <v>0.97153701696608696</v>
+        <v>1.01874614420183</v>
       </c>
       <c r="D3">
-        <v>0.969917883368273</v>
+        <v>1.0158196936448101</v>
       </c>
       <c r="E3">
-        <v>0.89379567202152199</v>
+        <v>0.93516212474851601</v>
       </c>
       <c r="F3">
-        <v>1.05127828297728</v>
+        <v>1.0989449604847801</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>7.7741344944564972E-2</v>
+        <v>8.3584019453313951E-2</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>7.9741266011193024E-2</v>
+        <v>8.0198816282950114E-2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -6211,27 +6211,27 @@
         <v>17</v>
       </c>
       <c r="B4" s="1">
-        <v>44067</v>
+        <v>44072</v>
       </c>
       <c r="C4">
-        <v>0.92422045193277402</v>
+        <v>0.994647807719507</v>
       </c>
       <c r="D4">
-        <v>0.92073714262234296</v>
+        <v>0.99502065395838202</v>
       </c>
       <c r="E4">
-        <v>0.85048293608182801</v>
+        <v>0.91400836603346702</v>
       </c>
       <c r="F4">
-        <v>1.00393335695969</v>
+        <v>1.07244141578715</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>7.3737515850946012E-2</v>
+        <v>8.0639441686039981E-2</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>7.971290502691597E-2</v>
+        <v>7.7793608067643016E-2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -6243,27 +6243,27 @@
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>44067</v>
+        <v>44072</v>
       </c>
       <c r="C5">
-        <v>0.89021757589820705</v>
+        <v>1.0571580369740601</v>
       </c>
       <c r="D5">
-        <v>0.88897444336331199</v>
+        <v>1.0569186176458201</v>
       </c>
       <c r="E5">
-        <v>0.813525499851524</v>
+        <v>0.95141834418900095</v>
       </c>
       <c r="F5">
-        <v>0.95841724865266498</v>
+        <v>1.14020667224266</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>7.6692076046683044E-2</v>
+        <v>0.10573969278505913</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>6.819967275445793E-2</v>
+        <v>8.3048635268599957E-2</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -6275,27 +6275,27 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>44067</v>
+        <v>44072</v>
       </c>
       <c r="C6">
-        <v>0.942110627889302</v>
+        <v>0.95035570519805701</v>
       </c>
       <c r="D6">
-        <v>0.93844118082828598</v>
+        <v>0.95181425890927596</v>
       </c>
       <c r="E6">
-        <v>0.86489235542485399</v>
+        <v>0.86911852072320706</v>
       </c>
       <c r="F6">
-        <v>1.0054801593790199</v>
+        <v>1.0306057475475401</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>7.7218272464448012E-2</v>
+        <v>8.1237184474849955E-2</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>6.3369531489717912E-2</v>
+        <v>8.0250042349483075E-2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -6307,27 +6307,27 @@
         <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>44067</v>
+        <v>44072</v>
       </c>
       <c r="C7">
-        <v>0.87622402892205398</v>
+        <v>0.88824516136300502</v>
       </c>
       <c r="D7">
-        <v>0.87330884264429198</v>
+        <v>0.88469463794810799</v>
       </c>
       <c r="E7">
-        <v>0.79448213535265</v>
+        <v>0.82276125764792596</v>
       </c>
       <c r="F7">
-        <v>0.93570587277153305</v>
+        <v>0.97172145239137198</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>8.1741893569403978E-2</v>
+        <v>6.5483903715079061E-2</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>5.9481843849479077E-2</v>
+        <v>8.3476291028366956E-2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -6339,27 +6339,27 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44067</v>
+        <v>44072</v>
       </c>
       <c r="C8">
-        <v>1.01914000414669</v>
+        <v>0.93309695911705004</v>
       </c>
       <c r="D8">
-        <v>1.0165874383084701</v>
+        <v>0.93219523682859695</v>
       </c>
       <c r="E8">
-        <v>0.93990749560729403</v>
+        <v>0.86002898287715701</v>
       </c>
       <c r="F8">
-        <v>1.0917809896926101</v>
+        <v>1.0057968217212301</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>7.9232508539396007E-2</v>
+        <v>7.3067976239893029E-2</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>7.2640985545920023E-2</v>
+        <v>7.2699862604180043E-2</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -6371,27 +6371,27 @@
         <v>12</v>
       </c>
       <c r="B9" s="1">
-        <v>44067</v>
+        <v>44072</v>
       </c>
       <c r="C9">
-        <v>0.98938183147108305</v>
+        <v>0.96312633435287498</v>
       </c>
       <c r="D9">
-        <v>0.985433460910214</v>
+        <v>0.95955664979140298</v>
       </c>
       <c r="E9">
-        <v>0.90674899747006499</v>
+        <v>0.880149850872046</v>
       </c>
       <c r="F9">
-        <v>1.07178244222775</v>
+        <v>1.04111351852641</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>8.2632834001018063E-2</v>
+        <v>8.2976483480828978E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>8.2400610756666937E-2</v>
+        <v>7.7987184173535007E-2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -6403,27 +6403,27 @@
         <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>44067</v>
+        <v>44072</v>
       </c>
       <c r="C10">
-        <v>1.00322122791373</v>
+        <v>1.0180376595540299</v>
       </c>
       <c r="D10">
-        <v>1.00042122267141</v>
+        <v>1.0142685861076901</v>
       </c>
       <c r="E10">
-        <v>0.92534011070394395</v>
+        <v>0.93769956489224204</v>
       </c>
       <c r="F10">
-        <v>1.0688061440894101</v>
+        <v>1.0941482778053999</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>7.7881117209786077E-2</v>
+        <v>8.0338094661787873E-2</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>6.5584916175680075E-2</v>
+        <v>7.6110618251369999E-2</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -6435,27 +6435,27 @@
         <v>18</v>
       </c>
       <c r="B11" s="1">
-        <v>44067</v>
+        <v>44072</v>
       </c>
       <c r="C11">
-        <v>0.97082631548113196</v>
+        <v>0.92490756474500702</v>
       </c>
       <c r="D11">
-        <v>0.96781049867462499</v>
+        <v>0.92249849290021402</v>
       </c>
       <c r="E11">
-        <v>0.87640606540896004</v>
+        <v>0.85818337041537696</v>
       </c>
       <c r="F11">
-        <v>1.03430528944475</v>
+        <v>0.99277849391805995</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>9.4420250072171918E-2</v>
+        <v>6.672419432963006E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>6.3478973963618013E-2</v>
+        <v>6.787092917305293E-2</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -6467,27 +6467,27 @@
         <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>44067</v>
+        <v>44072</v>
       </c>
       <c r="C12">
-        <v>1.0194044794184001</v>
+        <v>0.92268620281807801</v>
       </c>
       <c r="D12">
-        <v>1.0172031213191199</v>
+        <v>0.91843714139413601</v>
       </c>
       <c r="E12">
-        <v>0.93399196322509703</v>
+        <v>0.83992735523360496</v>
       </c>
       <c r="F12">
-        <v>1.09887967474002</v>
+        <v>0.99292807005172801</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>8.5412516193303034E-2</v>
+        <v>8.275884758447305E-2</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>7.9475195321619951E-2</v>
+        <v>7.0241867233650002E-2</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -6499,27 +6499,27 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>44067</v>
+        <v>44072</v>
       </c>
       <c r="C13">
-        <v>1.0101542526273299</v>
+        <v>1.0067529525821299</v>
       </c>
       <c r="D13">
-        <v>1.00632584595715</v>
+        <v>1.0035692105282901</v>
       </c>
       <c r="E13">
-        <v>0.89682790778155497</v>
+        <v>0.93494841123584005</v>
       </c>
       <c r="F13">
-        <v>1.07825703059185</v>
+        <v>1.0772356306653801</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.11332634484577497</v>
+        <v>7.1804541346289885E-2</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>6.8102777964520023E-2</v>
+        <v>7.048267808325015E-2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -6531,27 +6531,27 @@
         <v>9</v>
       </c>
       <c r="B14" s="1">
-        <v>44067</v>
+        <v>44072</v>
       </c>
       <c r="C14">
-        <v>0.96820773463228005</v>
+        <v>0.92562092408187202</v>
       </c>
       <c r="D14">
-        <v>0.96633695773227202</v>
+        <v>0.92291454119778005</v>
       </c>
       <c r="E14">
-        <v>0.89843749121276595</v>
+        <v>0.84325409805868401</v>
       </c>
       <c r="F14">
-        <v>1.0453297014496401</v>
+        <v>0.99655926508840598</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>6.97702434195141E-2</v>
+        <v>8.2366826023188011E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>7.7121966817360055E-2</v>
+        <v>7.0938341006533956E-2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -6563,27 +6563,27 @@
         <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>44067</v>
+        <v>44072</v>
       </c>
       <c r="C15">
-        <v>0.93933859494331395</v>
+        <v>0.99586005023273705</v>
       </c>
       <c r="D15">
-        <v>0.93859910739618302</v>
+        <v>0.99476178072255195</v>
       </c>
       <c r="E15">
-        <v>0.85427519894194803</v>
+        <v>0.91094711553180097</v>
       </c>
       <c r="F15">
-        <v>1.00985006862732</v>
+        <v>1.0590661306273701</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>8.5063396001365921E-2</v>
+        <v>8.4912934700936082E-2</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>7.051147368400601E-2</v>
+        <v>6.3206080394633046E-2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -6595,27 +6595,27 @@
         <v>20</v>
       </c>
       <c r="B16" s="1">
-        <v>44067</v>
+        <v>44072</v>
       </c>
       <c r="C16">
-        <v>0.93913982322621203</v>
+        <v>0.93564736329808396</v>
       </c>
       <c r="D16">
-        <v>0.93747794865374601</v>
+        <v>0.93422065418748901</v>
       </c>
       <c r="E16">
-        <v>0.86071452591895303</v>
+        <v>0.86313481711155504</v>
       </c>
       <c r="F16">
-        <v>1.0077458751062101</v>
+        <v>1.00745470652629</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>7.8425297307259001E-2</v>
+        <v>7.2512546186528914E-2</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>6.860605187999802E-2</v>
+        <v>7.1807343228206033E-2</v>
       </c>
       <c r="I16">
         <v>1</v>

--- a/results/resultado_consolidado/graph2.xlsx
+++ b/results/resultado_consolidado/graph2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Georg\Documents\GitHub\covid-model\results\resultado_consolidado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FAC769-E686-491C-864C-33719AD8DFCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6EAF88-91DC-447B-A2BE-43D1A1DD7F1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4AC76AC7-E5A1-4C07-9F5F-EE5E7DC34869}"/>
   </bookViews>
   <sheets>
-    <sheet name="29 oct" sheetId="2" r:id="rId1"/>
-    <sheet name="29 sep" sheetId="1" r:id="rId2"/>
-    <sheet name="29 ago" sheetId="3" r:id="rId3"/>
+    <sheet name="4 nov" sheetId="2" r:id="rId1"/>
+    <sheet name="4 oct" sheetId="1" r:id="rId2"/>
+    <sheet name="4 sep" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -189,7 +189,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'29 oct'!$D$1</c:f>
+              <c:f>'4 nov'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -221,7 +221,7 @@
             </c:spPr>
           </c:marker>
           <c:dPt>
-            <c:idx val="3"/>
+            <c:idx val="0"/>
             <c:marker>
               <c:symbol val="square"/>
               <c:size val="6"/>
@@ -238,11 +238,44 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-7874-4D86-B162-A864952B52FE}"/>
-              </c:ext>
-            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="25400">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="25400">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -341,30 +374,6 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="9"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="6"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:ln w="25400">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-37D8-44B2-A7F2-C4A05B9B04B2}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
             <c:idx val="10"/>
             <c:marker>
               <c:symbol val="square"/>
@@ -443,11 +452,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -491,108 +500,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'29 oct'!$H$2:$H$16</c:f>
+                <c:f>'4 nov'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.14192680237939603</c:v>
+                    <c:v>0.17911256099995099</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.16581598473563608</c:v>
+                    <c:v>0.1635773332243009</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.16168102181321198</c:v>
+                    <c:v>0.18969614638070698</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.18781791409025805</c:v>
+                    <c:v>0.12740770166709003</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.17514737952137205</c:v>
+                    <c:v>0.17327138968492495</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.1987496519621551</c:v>
+                    <c:v>0.16754838094701408</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.18163029894752514</c:v>
+                    <c:v>0.191303555747108</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.18730033159405091</c:v>
+                    <c:v>0.17809806729033695</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.19648497682395405</c:v>
+                    <c:v>0.17208217624882205</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.18402711913075287</c:v>
+                    <c:v>0.2027481009477059</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.18511056542256588</c:v>
+                    <c:v>0.15491870635900185</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.17430791466406204</c:v>
+                    <c:v>0.18649419226697406</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.20566570806426998</c:v>
+                    <c:v>0.19826253466220001</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.161600138759318</c:v>
+                    <c:v>0.21022994742237011</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.18528158507416004</c:v>
+                    <c:v>0.21871211714382999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'29 oct'!$G$2:$G$16</c:f>
+                <c:f>'4 nov'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.21086255065814596</c:v>
+                    <c:v>0.203408627448044</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.21212604508520005</c:v>
+                    <c:v>0.22045647652901301</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.21459918481292495</c:v>
+                    <c:v>0.21869576015598902</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.23796688693164592</c:v>
+                    <c:v>0.23312420999933603</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.248706771174249</c:v>
+                    <c:v>0.18538233909183399</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.22060947973178302</c:v>
+                    <c:v>0.26946021351375193</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.21253865139408401</c:v>
+                    <c:v>0.22121552078236295</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.21361073489898807</c:v>
+                    <c:v>0.20876080329245406</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.20771252054073996</c:v>
+                    <c:v>0.206025955605877</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.20470950279480105</c:v>
+                    <c:v>0.23592339291745401</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.23909851671320403</c:v>
+                    <c:v>0.23145497975510809</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.22612965875353297</c:v>
+                    <c:v>0.253069575526087</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.22434304177894793</c:v>
+                    <c:v>0.2625993410953481</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.23603348469596597</c:v>
+                    <c:v>0.20859408984959893</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.29113087285026595</c:v>
+                    <c:v>0.23736651642746209</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -613,107 +622,107 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'29 oct'!$A$2:$A$16</c:f>
+              <c:f>'4 nov'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>La Romana</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Peravia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Azua</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>La Altagracia</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Espaillat</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Puerto Plata</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>La Romana</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Azua</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>San Pedro de Macorís</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>San Cristóbal</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Santo Domingo</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>Duarte</c:v>
+                  <c:v>Sánchez Ramírez</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Distrito Nacional</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Sánchez Ramírez</c:v>
+                  <c:v>Santo Domingo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'29 oct'!$D$2:$D$16</c:f>
+              <c:f>'4 nov'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.76813989109165304</c:v>
+                  <c:v>0.79176761423311104</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84878549037278295</c:v>
+                  <c:v>0.82638040305503402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85189057358008502</c:v>
+                  <c:v>0.83875025916713297</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87064415053085298</c:v>
+                  <c:v>0.84046442715680902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87629229302266098</c:v>
+                  <c:v>0.84416190940868596</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.87770259859887401</c:v>
+                  <c:v>0.878353834071258</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.903603202207791</c:v>
+                  <c:v>0.89655467262802402</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.90595489615686897</c:v>
+                  <c:v>0.899789876370089</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92197842731913204</c:v>
+                  <c:v>0.90052420228972396</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93150787760982601</c:v>
+                  <c:v>0.93653638693951902</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.94431559788311603</c:v>
+                  <c:v>0.93729029980166301</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.94908751166372296</c:v>
+                  <c:v>0.96620035108317304</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.95304069327628604</c:v>
+                  <c:v>0.99560021566950796</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.95534923734650301</c:v>
+                  <c:v>1.0499063076261499</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0547516555695799</c:v>
+                  <c:v>1.09323534509624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -730,7 +739,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'29 oct'!$I$1</c:f>
+              <c:f>'4 nov'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -788,7 +797,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'29 oct'!$I$2:$I$16</c:f>
+              <c:f>'4 nov'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -915,7 +924,7 @@
         <c:axId val="926647024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.8"/>
+          <c:max val="1.5"/>
           <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1032,7 +1041,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'29 sep'!$D$1</c:f>
+              <c:f>'4 oct'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1112,6 +1121,25 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="25400">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="3"/>
             <c:marker>
               <c:symbol val="square"/>
@@ -1132,30 +1160,6 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000D-00C7-4289-83C2-ACC5993B81BB}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="6"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:ln w="25400">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-1F13-42B4-840D-7A2AC8332416}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1182,6 +1186,25 @@
                 <c16:uniqueId val="{00000000-7349-4B88-8F72-A9F8BF77084A}"/>
               </c:ext>
             </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="25400">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1228,30 +1251,6 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000C-2764-4D63-9C0C-43D1B7B331DC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="6"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:ln w="25400">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-7349-4B88-8F72-A9F8BF77084A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1310,11 +1309,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1358,11 +1357,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1382,108 +1381,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'29 sep'!$H$2:$H$16</c:f>
+                <c:f>'4 oct'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>6.1578226036545947E-2</c:v>
+                    <c:v>8.0289482259796041E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.1606627551627056E-2</c:v>
+                    <c:v>7.4210898490574939E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.888356404337594E-2</c:v>
+                    <c:v>8.4024549802553028E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.10160039332814397</c:v>
+                    <c:v>6.9963036177512095E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>9.3432107271695153E-2</c:v>
+                    <c:v>7.3069689442905039E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8.0859376597371968E-2</c:v>
+                    <c:v>8.0922645954909056E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.0835997273510976E-2</c:v>
+                    <c:v>7.4534751590377035E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>9.1709101605529142E-2</c:v>
+                    <c:v>7.316961188002602E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.3116703459455987E-2</c:v>
+                    <c:v>7.1719243837209956E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>7.1440502881509937E-2</c:v>
+                    <c:v>8.3426815058863957E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7.0180668463231011E-2</c:v>
+                    <c:v>7.1832628484716055E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>6.2894242933490108E-2</c:v>
+                    <c:v>7.7891635869250075E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>9.1439185441781867E-2</c:v>
+                    <c:v>8.0083689538519964E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>7.5418621950316012E-2</c:v>
+                    <c:v>7.3521771252824109E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>8.7422530245470087E-2</c:v>
+                    <c:v>7.2943388316986102E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'29 sep'!$G$2:$G$16</c:f>
+                <c:f>'4 oct'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>8.3301249217788031E-2</c:v>
+                    <c:v>9.2906052284123963E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.107064108772899E-2</c:v>
+                    <c:v>0.10635186682059505</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.8425321804209025E-2</c:v>
+                    <c:v>8.4391482631463011E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.11287086441350402</c:v>
+                    <c:v>7.649641537011298E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.8682341586038937E-2</c:v>
+                    <c:v>7.0170853894150009E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>9.5679614261323986E-2</c:v>
+                    <c:v>8.0215592564466975E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.560706361449999E-2</c:v>
+                    <c:v>9.9601634064668931E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>9.7174533740611913E-2</c:v>
+                    <c:v>6.5077471967487033E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.030929393236208E-2</c:v>
+                    <c:v>8.0730673178824985E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.5844027559954017E-2</c:v>
+                    <c:v>7.6515589040102028E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.10739508236530604</c:v>
+                    <c:v>7.8735293900602965E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>7.3574168024646003E-2</c:v>
+                    <c:v>8.9777133406164E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>7.4180548999582041E-2</c:v>
+                    <c:v>9.6656836079206943E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>7.5633600734475004E-2</c:v>
+                    <c:v>7.8465894190976937E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>8.8020378661409882E-2</c:v>
+                    <c:v>7.044442314844801E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1504,107 +1503,107 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'29 sep'!$A$2:$A$16</c:f>
+              <c:f>'4 oct'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>Espaillat</c:v>
+                  <c:v>La Romana</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>La Altagracia</c:v>
+                  <c:v>Peravia</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Azua</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Espaillat</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Duarte</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>San Pedro de Macorís</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
+                  <c:v>Sánchez Ramírez</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Distrito Nacional</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>San Cristóbal</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Distrito Nacional</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>La Romana</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Sánchez Ramírez</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'29 sep'!$D$2:$D$16</c:f>
+              <c:f>'4 oct'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.85705393867744994</c:v>
+                  <c:v>0.86745936775168597</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91860726271139204</c:v>
+                  <c:v>0.88280404333296802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85696334869788204</c:v>
+                  <c:v>0.87881206689452296</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97095090597773004</c:v>
+                  <c:v>0.85112222755057498</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90921420068496095</c:v>
+                  <c:v>0.92771159822065596</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96115832467477602</c:v>
+                  <c:v>0.85483707363665795</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97925937996781798</c:v>
+                  <c:v>0.91468925367916398</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94995387146820098</c:v>
+                  <c:v>0.93314180361412602</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.96784076893944404</c:v>
+                  <c:v>0.90957827595560203</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99793975666451296</c:v>
+                  <c:v>0.95991722139561197</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.93705362186307295</c:v>
+                  <c:v>0.93553141701117104</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.96066703780103102</c:v>
+                  <c:v>0.95426572071520199</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.98063298102501495</c:v>
+                  <c:v>1.0329802883377699</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.96260082943334402</c:v>
+                  <c:v>0.984309668680172</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0404986138421499</c:v>
+                  <c:v>0.97047638334967401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1621,7 +1620,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'29 oct'!$I$1</c:f>
+              <c:f>'4 nov'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1679,60 +1678,60 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'29 sep'!$A$2:$A$16</c:f>
+              <c:f>'4 oct'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>Espaillat</c:v>
+                  <c:v>La Romana</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>La Altagracia</c:v>
+                  <c:v>Peravia</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Azua</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Espaillat</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Duarte</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>San Pedro de Macorís</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
+                  <c:v>Sánchez Ramírez</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Distrito Nacional</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>San Cristóbal</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Distrito Nacional</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>La Romana</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Sánchez Ramírez</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'29 oct'!$I$2:$I$16</c:f>
+              <c:f>'4 nov'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1976,7 +1975,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'29 ago'!$D$1</c:f>
+              <c:f>'4 sep'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2014,11 +2013,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2038,11 +2037,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2086,11 +2085,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2206,11 +2205,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2254,11 +2253,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2278,11 +2277,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2374,108 +2373,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'29 sep'!$H$2:$H$16</c:f>
+                <c:f>'4 oct'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>6.1578226036545947E-2</c:v>
+                    <c:v>8.0289482259796041E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.1606627551627056E-2</c:v>
+                    <c:v>7.4210898490574939E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.888356404337594E-2</c:v>
+                    <c:v>8.4024549802553028E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.10160039332814397</c:v>
+                    <c:v>6.9963036177512095E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>9.3432107271695153E-2</c:v>
+                    <c:v>7.3069689442905039E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8.0859376597371968E-2</c:v>
+                    <c:v>8.0922645954909056E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.0835997273510976E-2</c:v>
+                    <c:v>7.4534751590377035E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>9.1709101605529142E-2</c:v>
+                    <c:v>7.316961188002602E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.3116703459455987E-2</c:v>
+                    <c:v>7.1719243837209956E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>7.1440502881509937E-2</c:v>
+                    <c:v>8.3426815058863957E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7.0180668463231011E-2</c:v>
+                    <c:v>7.1832628484716055E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>6.2894242933490108E-2</c:v>
+                    <c:v>7.7891635869250075E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>9.1439185441781867E-2</c:v>
+                    <c:v>8.0083689538519964E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>7.5418621950316012E-2</c:v>
+                    <c:v>7.3521771252824109E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>8.7422530245470087E-2</c:v>
+                    <c:v>7.2943388316986102E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'29 sep'!$G$2:$G$16</c:f>
+                <c:f>'4 oct'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>8.3301249217788031E-2</c:v>
+                    <c:v>9.2906052284123963E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.107064108772899E-2</c:v>
+                    <c:v>0.10635186682059505</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.8425321804209025E-2</c:v>
+                    <c:v>8.4391482631463011E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.11287086441350402</c:v>
+                    <c:v>7.649641537011298E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.8682341586038937E-2</c:v>
+                    <c:v>7.0170853894150009E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>9.5679614261323986E-2</c:v>
+                    <c:v>8.0215592564466975E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.560706361449999E-2</c:v>
+                    <c:v>9.9601634064668931E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>9.7174533740611913E-2</c:v>
+                    <c:v>6.5077471967487033E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.030929393236208E-2</c:v>
+                    <c:v>8.0730673178824985E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.5844027559954017E-2</c:v>
+                    <c:v>7.6515589040102028E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.10739508236530604</c:v>
+                    <c:v>7.8735293900602965E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>7.3574168024646003E-2</c:v>
+                    <c:v>8.9777133406164E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>7.4180548999582041E-2</c:v>
+                    <c:v>9.6656836079206943E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>7.5633600734475004E-2</c:v>
+                    <c:v>7.8465894190976937E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>8.8020378661409882E-2</c:v>
+                    <c:v>7.044442314844801E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2496,107 +2495,107 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'29 sep'!$A$2:$A$16</c:f>
+              <c:f>'4 oct'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>Espaillat</c:v>
+                  <c:v>La Romana</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>La Altagracia</c:v>
+                  <c:v>Peravia</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Azua</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Espaillat</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Duarte</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>San Pedro de Macorís</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
+                  <c:v>Sánchez Ramírez</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Distrito Nacional</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>San Cristóbal</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Distrito Nacional</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>La Romana</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Sánchez Ramírez</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'29 ago'!$D$2:$D$16</c:f>
+              <c:f>'4 sep'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.95686563353394605</c:v>
+                  <c:v>1.09755024716151</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0158196936448101</c:v>
+                  <c:v>0.95058030334656396</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99502065395838202</c:v>
+                  <c:v>0.96952621031547404</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0569186176458201</c:v>
+                  <c:v>0.95061980658536305</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.95181425890927596</c:v>
+                  <c:v>0.90476670225490397</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88469463794810799</c:v>
+                  <c:v>0.946035897229619</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93219523682859695</c:v>
+                  <c:v>0.90177366996112296</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.95955664979140298</c:v>
+                  <c:v>0.91711012613743703</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0142685861076901</c:v>
+                  <c:v>0.99693438593220096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92249849290021402</c:v>
+                  <c:v>0.99050190394868398</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.91843714139413601</c:v>
+                  <c:v>1.0399456780079801</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0035692105282901</c:v>
+                  <c:v>0.927681748499394</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.92291454119778005</c:v>
+                  <c:v>0.92622744010867197</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.99476178072255195</c:v>
+                  <c:v>0.94521254911258101</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.93422065418748901</c:v>
+                  <c:v>0.98354750873657504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2613,7 +2612,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'29 oct'!$I$1</c:f>
+              <c:f>'4 nov'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2671,60 +2670,60 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'29 sep'!$A$2:$A$16</c:f>
+              <c:f>'4 oct'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>Espaillat</c:v>
+                  <c:v>La Romana</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>La Altagracia</c:v>
+                  <c:v>Peravia</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Azua</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Espaillat</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Duarte</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>San Pedro de Macorís</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
+                  <c:v>Sánchez Ramírez</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Distrito Nacional</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>San Cristóbal</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Distrito Nacional</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>La Romana</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Sánchez Ramírez</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'29 oct'!$I$2:$I$16</c:f>
+              <c:f>'4 nov'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5040,7 +5039,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5080,30 +5079,30 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1">
-        <v>44133</v>
+        <v>44139</v>
       </c>
       <c r="C2">
-        <v>0.78074370102181301</v>
+        <v>0.81031275459290997</v>
       </c>
       <c r="D2">
-        <v>0.76813989109165304</v>
+        <v>0.79176761423311104</v>
       </c>
       <c r="E2">
-        <v>0.56988115036366704</v>
+        <v>0.60690412714486597</v>
       </c>
       <c r="F2">
-        <v>0.92267050340120904</v>
+        <v>0.98942531559286095</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G16" si="0">C2-E2</f>
-        <v>0.21086255065814596</v>
+        <f>C2-E2</f>
+        <v>0.203408627448044</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H16" si="1">F2-C2</f>
-        <v>0.14192680237939603</v>
+        <f>F2-C2</f>
+        <v>0.17911256099995099</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5112,30 +5111,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
-        <v>44133</v>
+        <v>44139</v>
       </c>
       <c r="C3">
-        <v>0.86199350058056401</v>
+        <v>0.84288273801194902</v>
       </c>
       <c r="D3">
-        <v>0.84878549037278295</v>
+        <v>0.82638040305503402</v>
       </c>
       <c r="E3">
-        <v>0.64986745549536395</v>
+        <v>0.62242626148293601</v>
       </c>
       <c r="F3">
-        <v>1.0278094853162001</v>
+        <v>1.0064600712362499</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
-        <v>0.21212604508520005</v>
+        <f>C3-E3</f>
+        <v>0.22045647652901301</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
-        <v>0.16581598473563608</v>
+        <f>F3-C3</f>
+        <v>0.1635773332243009</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5144,30 +5143,30 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
-        <v>44133</v>
+        <v>44139</v>
       </c>
       <c r="C4">
-        <v>0.86442255972533799</v>
+        <v>0.86266466278935305</v>
       </c>
       <c r="D4">
-        <v>0.85189057358008502</v>
+        <v>0.83875025916713297</v>
       </c>
       <c r="E4">
-        <v>0.64982337491241304</v>
+        <v>0.64396890263336404</v>
       </c>
       <c r="F4">
-        <v>1.02610358153855</v>
+        <v>1.05236080917006</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0.21459918481292495</v>
+        <f>C4-E4</f>
+        <v>0.21869576015598902</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
-        <v>0.16168102181321198</v>
+        <f>F4-C4</f>
+        <v>0.18969614638070698</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5176,30 +5175,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>44133</v>
+        <v>44139</v>
       </c>
       <c r="C5">
-        <v>0.89146105248501195</v>
+        <v>0.85167069933160799</v>
       </c>
       <c r="D5">
-        <v>0.87064415053085298</v>
+        <v>0.84046442715680902</v>
       </c>
       <c r="E5">
-        <v>0.65349416555336604</v>
+        <v>0.61854648933227196</v>
       </c>
       <c r="F5">
-        <v>1.07927896657527</v>
+        <v>0.97907840099869803</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0.23796688693164592</v>
+        <f>C5-E5</f>
+        <v>0.23312420999933603</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
-        <v>0.18781791409025805</v>
+        <f>F5-C5</f>
+        <v>0.12740770166709003</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5208,30 +5207,30 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>44133</v>
+        <v>44139</v>
       </c>
       <c r="C6">
-        <v>0.88792066380399803</v>
+        <v>0.854276542762475</v>
       </c>
       <c r="D6">
-        <v>0.87629229302266098</v>
+        <v>0.84416190940868596</v>
       </c>
       <c r="E6">
-        <v>0.63921389262974904</v>
+        <v>0.66889420367064101</v>
       </c>
       <c r="F6">
-        <v>1.0630680433253701</v>
+        <v>1.0275479324473999</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0.248706771174249</v>
+        <f>C6-E6</f>
+        <v>0.18538233909183399</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
-        <v>0.17514737952137205</v>
+        <f>F6-C6</f>
+        <v>0.17327138968492495</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5240,30 +5239,30 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
-        <v>44133</v>
+        <v>44139</v>
       </c>
       <c r="C7">
-        <v>0.90184932609781499</v>
+        <v>0.89654451084833597</v>
       </c>
       <c r="D7">
-        <v>0.87770259859887401</v>
+        <v>0.878353834071258</v>
       </c>
       <c r="E7">
-        <v>0.68123984636603196</v>
+        <v>0.62708429733458404</v>
       </c>
       <c r="F7">
-        <v>1.1005989780599701</v>
+        <v>1.06409289179535</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0.22060947973178302</v>
+        <f>C7-E7</f>
+        <v>0.26946021351375193</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
-        <v>0.1987496519621551</v>
+        <f>F7-C7</f>
+        <v>0.16754838094701408</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5272,30 +5271,30 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
-        <v>44133</v>
+        <v>44139</v>
       </c>
       <c r="C8">
-        <v>0.92113296283241497</v>
+        <v>0.91280817539727199</v>
       </c>
       <c r="D8">
-        <v>0.903603202207791</v>
+        <v>0.89655467262802402</v>
       </c>
       <c r="E8">
-        <v>0.70859431143833096</v>
+        <v>0.69159265461490904</v>
       </c>
       <c r="F8">
-        <v>1.1027632617799401</v>
+        <v>1.10411173114438</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>0.21253865139408401</v>
+        <f>C8-E8</f>
+        <v>0.22121552078236295</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
-        <v>0.18163029894752514</v>
+        <f>F8-C8</f>
+        <v>0.191303555747108</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5304,30 +5303,30 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>44133</v>
+        <v>44139</v>
       </c>
       <c r="C9">
-        <v>0.91881670794681902</v>
+        <v>0.90779986281806302</v>
       </c>
       <c r="D9">
-        <v>0.90595489615686897</v>
+        <v>0.899789876370089</v>
       </c>
       <c r="E9">
-        <v>0.70520597304783095</v>
+        <v>0.69903905952560896</v>
       </c>
       <c r="F9">
-        <v>1.1061170395408699</v>
+        <v>1.0858979301084</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>0.21361073489898807</v>
+        <f>C9-E9</f>
+        <v>0.20876080329245406</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
-        <v>0.18730033159405091</v>
+        <f>F9-C9</f>
+        <v>0.17809806729033695</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5336,30 +5335,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>44133</v>
+        <v>44139</v>
       </c>
       <c r="C10">
-        <v>0.92207590448162602</v>
+        <v>0.90925628389246804</v>
       </c>
       <c r="D10">
-        <v>0.92197842731913204</v>
+        <v>0.90052420228972396</v>
       </c>
       <c r="E10">
-        <v>0.71436338394088605</v>
+        <v>0.70323032828659104</v>
       </c>
       <c r="F10">
-        <v>1.1185608813055801</v>
+        <v>1.0813384601412901</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>0.20771252054073996</v>
+        <f>C10-E10</f>
+        <v>0.206025955605877</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
-        <v>0.19648497682395405</v>
+        <f>F10-C10</f>
+        <v>0.17208217624882205</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5368,30 +5367,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>44133</v>
+        <v>44139</v>
       </c>
       <c r="C11">
-        <v>0.94597723411815704</v>
+        <v>0.94792509216435406</v>
       </c>
       <c r="D11">
-        <v>0.93150787760982601</v>
+        <v>0.93653638693951902</v>
       </c>
       <c r="E11">
-        <v>0.74126773132335599</v>
+        <v>0.71200169924690004</v>
       </c>
       <c r="F11">
-        <v>1.1300043532489099</v>
+        <v>1.15067319311206</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0.20470950279480105</v>
+        <f>C11-E11</f>
+        <v>0.23592339291745401</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
-        <v>0.18402711913075287</v>
+        <f>F11-C11</f>
+        <v>0.2027481009477059</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5400,30 +5399,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>44133</v>
+        <v>44139</v>
       </c>
       <c r="C12">
-        <v>0.95746514141390404</v>
+        <v>0.94765890244931805</v>
       </c>
       <c r="D12">
-        <v>0.94431559788311603</v>
+        <v>0.93729029980166301</v>
       </c>
       <c r="E12">
-        <v>0.71836662470070001</v>
+        <v>0.71620392269420996</v>
       </c>
       <c r="F12">
-        <v>1.1425757068364699</v>
+        <v>1.1025776088083199</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>0.23909851671320403</v>
+        <f>C12-E12</f>
+        <v>0.23145497975510809</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
-        <v>0.18511056542256588</v>
+        <f>F12-C12</f>
+        <v>0.15491870635900185</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5432,30 +5431,30 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>44133</v>
+        <v>44139</v>
       </c>
       <c r="C13">
-        <v>0.96599733189768799</v>
+        <v>0.98064024527256599</v>
       </c>
       <c r="D13">
-        <v>0.94908751166372296</v>
+        <v>0.96620035108317304</v>
       </c>
       <c r="E13">
-        <v>0.73986767314415502</v>
+        <v>0.72757066974647899</v>
       </c>
       <c r="F13">
-        <v>1.14030524656175</v>
+        <v>1.16713443753954</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>0.22612965875353297</v>
+        <f>C13-E13</f>
+        <v>0.253069575526087</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
-        <v>0.17430791466406204</v>
+        <f>F13-C13</f>
+        <v>0.18649419226697406</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5464,30 +5463,30 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
-        <v>44133</v>
+        <v>44139</v>
       </c>
       <c r="C14">
-        <v>0.97096318215991995</v>
+        <v>1.0168117841184501</v>
       </c>
       <c r="D14">
-        <v>0.95304069327628604</v>
+        <v>0.99560021566950796</v>
       </c>
       <c r="E14">
-        <v>0.74662014038097202</v>
+        <v>0.75421244302310197</v>
       </c>
       <c r="F14">
-        <v>1.1766288902241899</v>
+        <v>1.2150743187806501</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>0.22434304177894793</v>
+        <f>C14-E14</f>
+        <v>0.2625993410953481</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
-        <v>0.20566570806426998</v>
+        <f>F14-C14</f>
+        <v>0.19826253466220001</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -5499,27 +5498,27 @@
         <v>6</v>
       </c>
       <c r="B15" s="1">
-        <v>44133</v>
+        <v>44139</v>
       </c>
       <c r="C15">
-        <v>0.96648181131560196</v>
+        <v>1.05527674831705</v>
       </c>
       <c r="D15">
-        <v>0.95534923734650301</v>
+        <v>1.0499063076261499</v>
       </c>
       <c r="E15">
-        <v>0.73044832661963599</v>
+        <v>0.84668265846745105</v>
       </c>
       <c r="F15">
-        <v>1.12808195007492</v>
+        <v>1.2655066957394201</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>0.23603348469596597</v>
+        <f>C15-E15</f>
+        <v>0.20859408984959893</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
-        <v>0.161600138759318</v>
+        <f>F15-C15</f>
+        <v>0.21022994742237011</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -5528,30 +5527,30 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1">
-        <v>44133</v>
+        <v>44139</v>
       </c>
       <c r="C16">
-        <v>1.08197509186751</v>
+        <v>1.1055884105385001</v>
       </c>
       <c r="D16">
-        <v>1.0547516555695799</v>
+        <v>1.09323534509624</v>
       </c>
       <c r="E16">
-        <v>0.790844219017244</v>
+        <v>0.86822189411103801</v>
       </c>
       <c r="F16">
-        <v>1.26725667694167</v>
+        <v>1.3243005276823301</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>0.29113087285026595</v>
+        <f>C16-E16</f>
+        <v>0.23736651642746209</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
-        <v>0.18528158507416004</v>
+        <f>F16-C16</f>
+        <v>0.21871211714382999</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -5560,7 +5559,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I16">
-    <sortCondition ref="D2:D16"/>
+    <sortCondition ref="A2:A16" customList="La Romana,Peravia,Azua,La Altagracia,La Vega,Espaillat,San Juan,Santiago,Puerto Plata,Duarte,San Cristóbal,San Pedro de Macorís,Sánchez Ramírez,Distrito Nacional,Santo Domingo"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5571,8 +5570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9B4699-B86D-4EFA-A264-1734A39D161E}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="101" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5612,30 +5611,30 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1">
-        <v>44103</v>
+        <v>44108</v>
       </c>
       <c r="C2">
-        <v>0.855047095835061</v>
+        <v>0.87000477207663296</v>
       </c>
       <c r="D2">
-        <v>0.85705393867744994</v>
+        <v>0.86745936775168597</v>
       </c>
       <c r="E2">
-        <v>0.77174584661727297</v>
+        <v>0.777098719792509</v>
       </c>
       <c r="F2">
-        <v>0.91662532187160695</v>
+        <v>0.950294254336429</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G16" si="0">C2-E2</f>
-        <v>8.3301249217788031E-2</v>
+        <f>C2-E2</f>
+        <v>9.2906052284123963E-2</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H16" si="1">F2-C2</f>
-        <v>6.1578226036545947E-2</v>
+        <f>F2-C2</f>
+        <v>8.0289482259796041E-2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5644,30 +5643,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
-        <v>44103</v>
+        <v>44108</v>
       </c>
       <c r="C3">
-        <v>0.91868861135518498</v>
+        <v>0.88902655280603204</v>
       </c>
       <c r="D3">
-        <v>0.91860726271139204</v>
+        <v>0.88280404333296802</v>
       </c>
       <c r="E3">
-        <v>0.83761797026745599</v>
+        <v>0.78267468598543699</v>
       </c>
       <c r="F3">
-        <v>0.99029523890681204</v>
+        <v>0.96323745129660698</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
-        <v>8.107064108772899E-2</v>
+        <f>C3-E3</f>
+        <v>0.10635186682059505</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
-        <v>7.1606627551627056E-2</v>
+        <f>F3-C3</f>
+        <v>7.4210898490574939E-2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5679,27 +5678,27 @@
         <v>17</v>
       </c>
       <c r="B4" s="1">
-        <v>44103</v>
+        <v>44108</v>
       </c>
       <c r="C4">
-        <v>0.85945903148513803</v>
+        <v>0.88257166597431702</v>
       </c>
       <c r="D4">
-        <v>0.85696334869788204</v>
+        <v>0.87881206689452296</v>
       </c>
       <c r="E4">
-        <v>0.781033709680929</v>
+        <v>0.79818018334285401</v>
       </c>
       <c r="F4">
-        <v>0.94834259552851397</v>
+        <v>0.96659621577687005</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>7.8425321804209025E-2</v>
+        <f>C4-E4</f>
+        <v>8.4391482631463011E-2</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
-        <v>8.888356404337594E-2</v>
+        <f>F4-C4</f>
+        <v>8.4024549802553028E-2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5708,30 +5707,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>44103</v>
+        <v>44108</v>
       </c>
       <c r="C5">
-        <v>0.97354166511356599</v>
+        <v>0.85133606715004095</v>
       </c>
       <c r="D5">
-        <v>0.97095090597773004</v>
+        <v>0.85112222755057498</v>
       </c>
       <c r="E5">
-        <v>0.86067080070006197</v>
+        <v>0.77483965177992797</v>
       </c>
       <c r="F5">
-        <v>1.07514205844171</v>
+        <v>0.92129910332755305</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0.11287086441350402</v>
+        <f>C5-E5</f>
+        <v>7.649641537011298E-2</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
-        <v>0.10160039332814397</v>
+        <f>F5-C5</f>
+        <v>6.9963036177512095E-2</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5740,30 +5739,30 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>44103</v>
+        <v>44108</v>
       </c>
       <c r="C6">
-        <v>0.91074285672061495</v>
+        <v>0.93224919614550505</v>
       </c>
       <c r="D6">
-        <v>0.90921420068496095</v>
+        <v>0.92771159822065596</v>
       </c>
       <c r="E6">
-        <v>0.82206051513457601</v>
+        <v>0.86207834225135505</v>
       </c>
       <c r="F6">
-        <v>1.0041749639923101</v>
+        <v>1.0053188855884101</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>8.8682341586038937E-2</v>
+        <f>C6-E6</f>
+        <v>7.0170853894150009E-2</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
-        <v>9.3432107271695153E-2</v>
+        <f>F6-C6</f>
+        <v>7.3069689442905039E-2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5772,30 +5771,30 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
-        <v>44103</v>
+        <v>44108</v>
       </c>
       <c r="C7">
-        <v>0.96114932312149803</v>
+        <v>0.85856687724698699</v>
       </c>
       <c r="D7">
-        <v>0.96115832467477602</v>
+        <v>0.85483707363665795</v>
       </c>
       <c r="E7">
-        <v>0.86546970886017405</v>
+        <v>0.77835128468252002</v>
       </c>
       <c r="F7">
-        <v>1.04200869971887</v>
+        <v>0.93948952320189605</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>9.5679614261323986E-2</v>
+        <f>C7-E7</f>
+        <v>8.0215592564466975E-2</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
-        <v>8.0859376597371968E-2</v>
+        <f>F7-C7</f>
+        <v>8.0922645954909056E-2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5804,30 +5803,30 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
-        <v>44103</v>
+        <v>44108</v>
       </c>
       <c r="C8">
-        <v>0.98312969918839899</v>
+        <v>0.91915966341697297</v>
       </c>
       <c r="D8">
-        <v>0.97925937996781798</v>
+        <v>0.91468925367916398</v>
       </c>
       <c r="E8">
-        <v>0.897522635573899</v>
+        <v>0.81955802935230404</v>
       </c>
       <c r="F8">
-        <v>1.05396569646191</v>
+        <v>0.99369441500735001</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>8.560706361449999E-2</v>
+        <f>C8-E8</f>
+        <v>9.9601634064668931E-2</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
-        <v>7.0835997273510976E-2</v>
+        <f>F8-C8</f>
+        <v>7.4534751590377035E-2</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5836,30 +5835,30 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>44103</v>
+        <v>44108</v>
       </c>
       <c r="C9">
-        <v>0.95638435419979095</v>
+        <v>0.93526377390396398</v>
       </c>
       <c r="D9">
-        <v>0.94995387146820098</v>
+        <v>0.93314180361412602</v>
       </c>
       <c r="E9">
-        <v>0.85920982045917904</v>
+        <v>0.87018630193647695</v>
       </c>
       <c r="F9">
-        <v>1.0480934558053201</v>
+        <v>1.00843338578399</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>9.7174533740611913E-2</v>
+        <f>C9-E9</f>
+        <v>6.5077471967487033E-2</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
-        <v>9.1709101605529142E-2</v>
+        <f>F9-C9</f>
+        <v>7.316961188002602E-2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5868,30 +5867,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>44103</v>
+        <v>44108</v>
       </c>
       <c r="C10">
-        <v>0.96874862845047405</v>
+        <v>0.91164656367423802</v>
       </c>
       <c r="D10">
-        <v>0.96784076893944404</v>
+        <v>0.90957827595560203</v>
       </c>
       <c r="E10">
-        <v>0.88843933451811197</v>
+        <v>0.83091589049541303</v>
       </c>
       <c r="F10">
-        <v>1.05186533190993</v>
+        <v>0.98336580751144798</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>8.030929393236208E-2</v>
+        <f>C10-E10</f>
+        <v>8.0730673178824985E-2</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
-        <v>8.3116703459455987E-2</v>
+        <f>F10-C10</f>
+        <v>7.1719243837209956E-2</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5900,30 +5899,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>44103</v>
+        <v>44108</v>
       </c>
       <c r="C11">
-        <v>1.00057721718475</v>
+        <v>0.96316260741160598</v>
       </c>
       <c r="D11">
-        <v>0.99793975666451296</v>
+        <v>0.95991722139561197</v>
       </c>
       <c r="E11">
-        <v>0.91473318962479599</v>
+        <v>0.88664701837150395</v>
       </c>
       <c r="F11">
-        <v>1.0720177200662599</v>
+        <v>1.0465894224704699</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>8.5844027559954017E-2</v>
+        <f>C11-E11</f>
+        <v>7.6515589040102028E-2</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
-        <v>7.1440502881509937E-2</v>
+        <f>F11-C11</f>
+        <v>8.3426815058863957E-2</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5932,30 +5931,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>44103</v>
+        <v>44108</v>
       </c>
       <c r="C12">
-        <v>0.94055996072761905</v>
+        <v>0.93679670522198399</v>
       </c>
       <c r="D12">
-        <v>0.93705362186307295</v>
+        <v>0.93553141701117104</v>
       </c>
       <c r="E12">
-        <v>0.83316487836231301</v>
+        <v>0.85806141132138103</v>
       </c>
       <c r="F12">
-        <v>1.0107406291908501</v>
+        <v>1.0086293337067</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>0.10739508236530604</v>
+        <f>C12-E12</f>
+        <v>7.8735293900602965E-2</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
-        <v>7.0180668463231011E-2</v>
+        <f>F12-C12</f>
+        <v>7.1832628484716055E-2</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5964,30 +5963,30 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>44103</v>
+        <v>44108</v>
       </c>
       <c r="C13">
-        <v>0.96233000736665997</v>
+        <v>0.95679663928083003</v>
       </c>
       <c r="D13">
-        <v>0.96066703780103102</v>
+        <v>0.95426572071520199</v>
       </c>
       <c r="E13">
-        <v>0.88875583934201396</v>
+        <v>0.86701950587466603</v>
       </c>
       <c r="F13">
-        <v>1.0252242503001501</v>
+        <v>1.0346882751500801</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>7.3574168024646003E-2</v>
+        <f>C13-E13</f>
+        <v>8.9777133406164E-2</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
-        <v>6.2894242933490108E-2</v>
+        <f>F13-C13</f>
+        <v>7.7891635869250075E-2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5996,30 +5995,30 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
-        <v>44103</v>
+        <v>44108</v>
       </c>
       <c r="C14">
-        <v>0.98338288364929805</v>
+        <v>1.0360754060316499</v>
       </c>
       <c r="D14">
-        <v>0.98063298102501495</v>
+        <v>1.0329802883377699</v>
       </c>
       <c r="E14">
-        <v>0.909202334649716</v>
+        <v>0.93941856995244299</v>
       </c>
       <c r="F14">
-        <v>1.0748220690910799</v>
+        <v>1.1161590955701699</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>7.4180548999582041E-2</v>
+        <f>C14-E14</f>
+        <v>9.6656836079206943E-2</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
-        <v>9.1439185441781867E-2</v>
+        <f>F14-C14</f>
+        <v>8.0083689538519964E-2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -6028,30 +6027,30 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1">
-        <v>44103</v>
+        <v>44108</v>
       </c>
       <c r="C15">
-        <v>0.96479257305320398</v>
+        <v>0.98607491719051599</v>
       </c>
       <c r="D15">
-        <v>0.96260082943334402</v>
+        <v>0.984309668680172</v>
       </c>
       <c r="E15">
-        <v>0.88915897231872898</v>
+        <v>0.90760902299953905</v>
       </c>
       <c r="F15">
-        <v>1.04021119500352</v>
+        <v>1.0595966884433401</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>7.5633600734475004E-2</v>
+        <f>C15-E15</f>
+        <v>7.8465894190976937E-2</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
-        <v>7.5418621950316012E-2</v>
+        <f>F15-C15</f>
+        <v>7.3521771252824109E-2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -6060,30 +6059,30 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1">
-        <v>44103</v>
+        <v>44108</v>
       </c>
       <c r="C16">
-        <v>1.0431846314303299</v>
+        <v>0.97556335738057398</v>
       </c>
       <c r="D16">
-        <v>1.0404986138421499</v>
+        <v>0.97047638334967401</v>
       </c>
       <c r="E16">
-        <v>0.95516425276892003</v>
+        <v>0.90511893423212597</v>
       </c>
       <c r="F16">
-        <v>1.1306071616758</v>
+        <v>1.0485067456975601</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>8.8020378661409882E-2</v>
+        <f>C16-E16</f>
+        <v>7.044442314844801E-2</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
-        <v>8.7422530245470087E-2</v>
+        <f>F16-C16</f>
+        <v>7.2943388316986102E-2</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -6092,7 +6091,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I16">
-    <sortCondition ref="A2:A16" customList="Azua,Espaillat,Distrito Nacional,San Juan,La Altagracia,Santo Domingo,Sánchez Ramírez,Puerto Plata,Peravia,Duarte,San Pedro de Macorís,La Vega,Santiago,San Cristóbal,La Romana"/>
+    <sortCondition ref="A2:A16" customList="La Romana,Peravia,Azua,La Altagracia,La Vega,Espaillat,San Juan,Santiago,Puerto Plata,Duarte,San Cristóbal,San Pedro de Macorís,Sánchez Ramírez,Distrito Nacional,Santo Domingo"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6103,8 +6102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFCAF56-E988-48E4-BDA2-C84256C27DCF}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="103" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6144,30 +6143,30 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1">
-        <v>44072</v>
+        <v>44078</v>
       </c>
       <c r="C2">
-        <v>0.95702597549186197</v>
+        <v>1.0967180319199299</v>
       </c>
       <c r="D2">
-        <v>0.95686563353394605</v>
+        <v>1.09755024716151</v>
       </c>
       <c r="E2">
-        <v>0.88061243095319996</v>
+        <v>0.98897744359252404</v>
       </c>
       <c r="F2">
-        <v>1.0312071729157399</v>
+        <v>1.1831485555693499</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G16" si="0">C2-E2</f>
-        <v>7.6413544538662004E-2</v>
+        <f>C2-E2</f>
+        <v>0.10774058832740585</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H16" si="1">F2-C2</f>
-        <v>7.4181197423877965E-2</v>
+        <f>F2-C2</f>
+        <v>8.6430523649420055E-2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -6176,30 +6175,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
-        <v>44072</v>
+        <v>44078</v>
       </c>
       <c r="C3">
-        <v>1.01874614420183</v>
+        <v>0.95140110923149701</v>
       </c>
       <c r="D3">
-        <v>1.0158196936448101</v>
+        <v>0.95058030334656396</v>
       </c>
       <c r="E3">
-        <v>0.93516212474851601</v>
+        <v>0.86130705306622901</v>
       </c>
       <c r="F3">
-        <v>1.0989449604847801</v>
+        <v>1.02586217966333</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
-        <v>8.3584019453313951E-2</v>
+        <f>C3-E3</f>
+        <v>9.0094056165267999E-2</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
-        <v>8.0198816282950114E-2</v>
+        <f>F3-C3</f>
+        <v>7.4461070431833032E-2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -6211,27 +6210,27 @@
         <v>17</v>
       </c>
       <c r="B4" s="1">
-        <v>44072</v>
+        <v>44078</v>
       </c>
       <c r="C4">
-        <v>0.994647807719507</v>
+        <v>0.97339969049105202</v>
       </c>
       <c r="D4">
-        <v>0.99502065395838202</v>
+        <v>0.96952621031547404</v>
       </c>
       <c r="E4">
-        <v>0.91400836603346702</v>
+        <v>0.88117259204414899</v>
       </c>
       <c r="F4">
-        <v>1.07244141578715</v>
+        <v>1.0457694349325899</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>8.0639441686039981E-2</v>
+        <f>C4-E4</f>
+        <v>9.2227098446903022E-2</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
-        <v>7.7793608067643016E-2</v>
+        <f>F4-C4</f>
+        <v>7.2369744441537875E-2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -6240,30 +6239,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>44072</v>
+        <v>44078</v>
       </c>
       <c r="C5">
-        <v>1.0571580369740601</v>
+        <v>0.95512738035840306</v>
       </c>
       <c r="D5">
-        <v>1.0569186176458201</v>
+        <v>0.95061980658536305</v>
       </c>
       <c r="E5">
-        <v>0.95141834418900095</v>
+        <v>0.87579630433648203</v>
       </c>
       <c r="F5">
-        <v>1.14020667224266</v>
+        <v>1.0246183123896799</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0.10573969278505913</v>
+        <f>C5-E5</f>
+        <v>7.9331076021921021E-2</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
-        <v>8.3048635268599957E-2</v>
+        <f>F5-C5</f>
+        <v>6.9490932031276875E-2</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -6272,30 +6271,30 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>44072</v>
+        <v>44078</v>
       </c>
       <c r="C6">
-        <v>0.95035570519805701</v>
+        <v>0.90742704202195601</v>
       </c>
       <c r="D6">
-        <v>0.95181425890927596</v>
+        <v>0.90476670225490397</v>
       </c>
       <c r="E6">
-        <v>0.86911852072320706</v>
+        <v>0.83482942708696795</v>
       </c>
       <c r="F6">
-        <v>1.0306057475475401</v>
+        <v>0.98212620959225405</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>8.1237184474849955E-2</v>
+        <f>C6-E6</f>
+        <v>7.2597614934988064E-2</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
-        <v>8.0250042349483075E-2</v>
+        <f>F6-C6</f>
+        <v>7.4699167570298042E-2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -6304,30 +6303,30 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
-        <v>44072</v>
+        <v>44078</v>
       </c>
       <c r="C7">
-        <v>0.88824516136300502</v>
+        <v>0.94873574541264105</v>
       </c>
       <c r="D7">
-        <v>0.88469463794810799</v>
+        <v>0.946035897229619</v>
       </c>
       <c r="E7">
-        <v>0.82276125764792596</v>
+        <v>0.86667658659684399</v>
       </c>
       <c r="F7">
-        <v>0.97172145239137198</v>
+        <v>1.0268084376459501</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>6.5483903715079061E-2</v>
+        <f>C7-E7</f>
+        <v>8.2059158815797062E-2</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
-        <v>8.3476291028366956E-2</v>
+        <f>F7-C7</f>
+        <v>7.8072692233309038E-2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -6336,30 +6335,30 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
-        <v>44072</v>
+        <v>44078</v>
       </c>
       <c r="C8">
-        <v>0.93309695911705004</v>
+        <v>0.90489250665200105</v>
       </c>
       <c r="D8">
-        <v>0.93219523682859695</v>
+        <v>0.90177366996112296</v>
       </c>
       <c r="E8">
-        <v>0.86002898287715701</v>
+        <v>0.83348893252037504</v>
       </c>
       <c r="F8">
-        <v>1.0057968217212301</v>
+        <v>0.98463215935207604</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>7.3067976239893029E-2</v>
+        <f>C8-E8</f>
+        <v>7.1403574131626013E-2</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
-        <v>7.2699862604180043E-2</v>
+        <f>F8-C8</f>
+        <v>7.9739652700074992E-2</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -6368,30 +6367,30 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>44072</v>
+        <v>44078</v>
       </c>
       <c r="C9">
-        <v>0.96312633435287498</v>
+        <v>0.91868430067731699</v>
       </c>
       <c r="D9">
-        <v>0.95955664979140298</v>
+        <v>0.91711012613743703</v>
       </c>
       <c r="E9">
-        <v>0.880149850872046</v>
+        <v>0.841564565839514</v>
       </c>
       <c r="F9">
-        <v>1.04111351852641</v>
+        <v>0.97920374063173898</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>8.2976483480828978E-2</v>
+        <f>C9-E9</f>
+        <v>7.7119734837802989E-2</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
-        <v>7.7987184173535007E-2</v>
+        <f>F9-C9</f>
+        <v>6.0519439954421994E-2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -6400,30 +6399,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>44072</v>
+        <v>44078</v>
       </c>
       <c r="C10">
-        <v>1.0180376595540299</v>
+        <v>1.0000710016127901</v>
       </c>
       <c r="D10">
-        <v>1.0142685861076901</v>
+        <v>0.99693438593220096</v>
       </c>
       <c r="E10">
-        <v>0.93769956489224204</v>
+        <v>0.92783476085082095</v>
       </c>
       <c r="F10">
-        <v>1.0941482778053999</v>
+        <v>1.08555213576472</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>8.0338094661787873E-2</v>
+        <f>C10-E10</f>
+        <v>7.2236240761969106E-2</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
-        <v>7.6110618251369999E-2</v>
+        <f>F10-C10</f>
+        <v>8.5481134151929927E-2</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -6432,30 +6431,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>44072</v>
+        <v>44078</v>
       </c>
       <c r="C11">
-        <v>0.92490756474500702</v>
+        <v>0.99034309395628495</v>
       </c>
       <c r="D11">
-        <v>0.92249849290021402</v>
+        <v>0.99050190394868398</v>
       </c>
       <c r="E11">
-        <v>0.85818337041537696</v>
+        <v>0.90865674790733197</v>
       </c>
       <c r="F11">
-        <v>0.99277849391805995</v>
+        <v>1.06424638758349</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>6.672419432963006E-2</v>
+        <f>C11-E11</f>
+        <v>8.1686346048952974E-2</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
-        <v>6.787092917305293E-2</v>
+        <f>F11-C11</f>
+        <v>7.3903293627205047E-2</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -6464,30 +6463,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>44072</v>
+        <v>44078</v>
       </c>
       <c r="C12">
-        <v>0.92268620281807801</v>
+        <v>1.0379694560550199</v>
       </c>
       <c r="D12">
-        <v>0.91843714139413601</v>
+        <v>1.0399456780079801</v>
       </c>
       <c r="E12">
-        <v>0.83992735523360496</v>
+        <v>0.95988116900368103</v>
       </c>
       <c r="F12">
-        <v>0.99292807005172801</v>
+        <v>1.1178071357236501</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>8.275884758447305E-2</v>
+        <f>C12-E12</f>
+        <v>7.8088287051338856E-2</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
-        <v>7.0241867233650002E-2</v>
+        <f>F12-C12</f>
+        <v>7.9837679668630201E-2</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -6496,30 +6495,30 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>44072</v>
+        <v>44078</v>
       </c>
       <c r="C13">
-        <v>1.0067529525821299</v>
+        <v>0.92830401359043402</v>
       </c>
       <c r="D13">
-        <v>1.0035692105282901</v>
+        <v>0.927681748499394</v>
       </c>
       <c r="E13">
-        <v>0.93494841123584005</v>
+        <v>0.85248877897062902</v>
       </c>
       <c r="F13">
-        <v>1.0772356306653801</v>
+        <v>1.01413490156785</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>7.1804541346289885E-2</v>
+        <f>C13-E13</f>
+        <v>7.5815234619804994E-2</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
-        <v>7.048267808325015E-2</v>
+        <f>F13-C13</f>
+        <v>8.5830887977416004E-2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -6528,30 +6527,30 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
-        <v>44072</v>
+        <v>44078</v>
       </c>
       <c r="C14">
-        <v>0.92562092408187202</v>
+        <v>0.93110517805648696</v>
       </c>
       <c r="D14">
-        <v>0.92291454119778005</v>
+        <v>0.92622744010867197</v>
       </c>
       <c r="E14">
-        <v>0.84325409805868401</v>
+        <v>0.85784464316338405</v>
       </c>
       <c r="F14">
-        <v>0.99655926508840598</v>
+        <v>1.01175952369426</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>8.2366826023188011E-2</v>
+        <f>C14-E14</f>
+        <v>7.3260534893102913E-2</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
-        <v>7.0938341006533956E-2</v>
+        <f>F14-C14</f>
+        <v>8.0654345637773073E-2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -6560,30 +6559,30 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1">
-        <v>44072</v>
+        <v>44078</v>
       </c>
       <c r="C15">
-        <v>0.99586005023273705</v>
+        <v>0.94820813921874603</v>
       </c>
       <c r="D15">
-        <v>0.99476178072255195</v>
+        <v>0.94521254911258101</v>
       </c>
       <c r="E15">
-        <v>0.91094711553180097</v>
+        <v>0.86941706662549301</v>
       </c>
       <c r="F15">
-        <v>1.0590661306273701</v>
+        <v>1.01326755640167</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>8.4912934700936082E-2</v>
+        <f>C15-E15</f>
+        <v>7.879107259325302E-2</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
-        <v>6.3206080394633046E-2</v>
+        <f>F15-C15</f>
+        <v>6.5059417182923962E-2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -6592,30 +6591,30 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1">
-        <v>44072</v>
+        <v>44078</v>
       </c>
       <c r="C16">
-        <v>0.93564736329808396</v>
+        <v>0.98755252604669497</v>
       </c>
       <c r="D16">
-        <v>0.93422065418748901</v>
+        <v>0.98354750873657504</v>
       </c>
       <c r="E16">
-        <v>0.86313481711155504</v>
+        <v>0.91552124573312299</v>
       </c>
       <c r="F16">
-        <v>1.00745470652629</v>
+        <v>1.05205062097174</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>7.2512546186528914E-2</v>
+        <f>C16-E16</f>
+        <v>7.2031280313571977E-2</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
-        <v>7.1807343228206033E-2</v>
+        <f>F16-C16</f>
+        <v>6.4498094925044991E-2</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -6624,7 +6623,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I16">
-    <sortCondition ref="A2:A16" customList="Azua,Espaillat,Distrito Nacional,San Juan,La Altagracia,Santo Domingo,Sánchez Ramírez,Puerto Plata,Peravia,Duarte,San Pedro de Macorís,La Vega,Santiago,San Cristóbal,La Romana"/>
+    <sortCondition ref="A2:A16" customList="La Romana,Peravia,Azua,La Altagracia,La Vega,Espaillat,San Juan,Santiago,Puerto Plata,Duarte,San Cristóbal,San Pedro de Macorís,Sánchez Ramírez,Distrito Nacional,Santo Domingo"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/results/resultado_consolidado/graph2.xlsx
+++ b/results/resultado_consolidado/graph2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Georg\Documents\GitHub\covid-model\results\resultado_consolidado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6EAF88-91DC-447B-A2BE-43D1A1DD7F1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2603A7DA-F1F4-4AF4-B2C4-BBB5C817CC38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4AC76AC7-E5A1-4C07-9F5F-EE5E7DC34869}"/>
   </bookViews>
   <sheets>
-    <sheet name="4 nov" sheetId="2" r:id="rId1"/>
-    <sheet name="4 oct" sheetId="1" r:id="rId2"/>
-    <sheet name="4 sep" sheetId="3" r:id="rId3"/>
+    <sheet name="9 nov" sheetId="2" r:id="rId1"/>
+    <sheet name="9 oct" sheetId="1" r:id="rId2"/>
+    <sheet name="9 sep" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -189,7 +189,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4 nov'!$D$1</c:f>
+              <c:f>'9 nov'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -238,6 +238,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-3BAD-4609-A032-A1F1C861E213}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -257,6 +262,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3BAD-4609-A032-A1F1C861E213}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -276,6 +286,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-3BAD-4609-A032-A1F1C861E213}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -332,11 +347,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -356,11 +371,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -374,17 +389,41 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
+            <c:idx val="9"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="25400">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-3BAD-4609-A032-A1F1C861E213}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="10"/>
             <c:marker>
               <c:symbol val="square"/>
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -404,11 +443,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -428,11 +467,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -500,108 +539,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'4 nov'!$H$2:$H$16</c:f>
+                <c:f>'9 nov'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.17911256099995099</c:v>
+                    <c:v>0.19931155413046009</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.1635773332243009</c:v>
+                    <c:v>0.19120984190870993</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.18969614638070698</c:v>
+                    <c:v>0.19370059601776091</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.12740770166709003</c:v>
+                    <c:v>0.16174921785386509</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.17327138968492495</c:v>
+                    <c:v>0.17057276556568002</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.16754838094701408</c:v>
+                    <c:v>0.22033709754081998</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.191303555747108</c:v>
+                    <c:v>0.19889341427389307</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.17809806729033695</c:v>
+                    <c:v>0.20027566961147003</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.17208217624882205</c:v>
+                    <c:v>0.20516535451351992</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.2027481009477059</c:v>
+                    <c:v>0.22447961819863993</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.15491870635900185</c:v>
+                    <c:v>0.17118684086487002</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.18649419226697406</c:v>
+                    <c:v>0.23332130611831015</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.19826253466220001</c:v>
+                    <c:v>0.22648796034045993</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.21022994742237011</c:v>
+                    <c:v>0.23583661494218</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.21871211714382999</c:v>
+                    <c:v>0.15576651105666994</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'4 nov'!$G$2:$G$16</c:f>
+                <c:f>'9 nov'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.203408627448044</c:v>
+                    <c:v>0.22066440865161596</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.22045647652901301</c:v>
+                    <c:v>0.22801963019835503</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.21869576015598902</c:v>
+                    <c:v>0.24097549659352402</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.23312420999933603</c:v>
+                    <c:v>0.21641539077845995</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.18538233909183399</c:v>
+                    <c:v>0.22597509922361292</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.26946021351375193</c:v>
+                    <c:v>0.19407406723581</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.22121552078236295</c:v>
+                    <c:v>0.23549672202385297</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.20876080329245406</c:v>
+                    <c:v>0.2638149398172519</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.206025955605877</c:v>
+                    <c:v>0.2324047845896331</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.23592339291745401</c:v>
+                    <c:v>0.26653085008929711</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.23145497975510809</c:v>
+                    <c:v>0.26612042425747495</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.253069575526087</c:v>
+                    <c:v>0.22989682045037285</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.2625993410953481</c:v>
+                    <c:v>0.24331701146922902</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.20859408984959893</c:v>
+                    <c:v>0.21879034698454003</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.23736651642746209</c:v>
+                    <c:v>0.29130915522046197</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -622,47 +661,47 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'4 nov'!$A$2:$A$16</c:f>
+              <c:f>'9 nov'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>Azua</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>La Romana</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>Sánchez Ramírez</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Peravia</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Azua</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>La Altagracia</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Duarte</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>San Cristóbal</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sánchez Ramírez</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Distrito Nacional</c:v>
@@ -675,54 +714,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4 nov'!$D$2:$D$16</c:f>
+              <c:f>'9 nov'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.79176761423311104</c:v>
+                  <c:v>0.83709236393601605</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82638040305503402</c:v>
+                  <c:v>0.904946712727692</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83875025916713297</c:v>
+                  <c:v>0.91909783777640397</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84046442715680902</c:v>
+                  <c:v>0.92459077076098395</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.84416190940868596</c:v>
+                  <c:v>0.94294598620810499</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.878353834071258</c:v>
+                  <c:v>0.94698836403693998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89655467262802402</c:v>
+                  <c:v>0.96991293540784096</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.899789876370089</c:v>
+                  <c:v>1.0357347975273301</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.90052420228972396</c:v>
+                  <c:v>1.06055486958616</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93653638693951902</c:v>
+                  <c:v>1.06579306159661</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.93729029980166301</c:v>
+                  <c:v>1.0658009885955</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.96620035108317304</c:v>
+                  <c:v>1.06793038536295</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99560021566950796</c:v>
+                  <c:v>1.10786488376917</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0499063076261499</c:v>
+                  <c:v>1.1106296857019999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.09323534509624</c:v>
+                  <c:v>1.1547608191308201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -739,7 +778,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4 nov'!$I$1</c:f>
+              <c:f>'9 nov'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -797,7 +836,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'4 nov'!$I$2:$I$16</c:f>
+              <c:f>'9 nov'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1041,7 +1080,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4 oct'!$D$1</c:f>
+              <c:f>'9 oct'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1138,6 +1177,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-4FC6-4430-897B-97AFD8306EC4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1205,6 +1249,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4FC6-4430-897B-97AFD8306EC4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1309,11 +1358,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1333,11 +1382,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1357,11 +1406,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1381,108 +1430,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'4 oct'!$H$2:$H$16</c:f>
+                <c:f>'9 oct'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>8.0289482259796041E-2</c:v>
+                    <c:v>8.7826463661679899E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.4210898490574939E-2</c:v>
+                    <c:v>8.5706525572551873E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.4024549802553028E-2</c:v>
+                    <c:v>8.5211524568300945E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.9963036177512095E-2</c:v>
+                    <c:v>8.5064587659657076E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.3069689442905039E-2</c:v>
+                    <c:v>6.2026462794324999E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8.0922645954909056E-2</c:v>
+                    <c:v>7.6524177959120032E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.4534751590377035E-2</c:v>
+                    <c:v>8.3096637825202047E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7.316961188002602E-2</c:v>
+                    <c:v>7.7493552609669947E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.1719243837209956E-2</c:v>
+                    <c:v>7.1855447305353981E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.3426815058863957E-2</c:v>
+                    <c:v>9.8320401489930043E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7.1832628484716055E-2</c:v>
+                    <c:v>8.344833757347403E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>7.7891635869250075E-2</c:v>
+                    <c:v>6.0939338128943921E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>8.0083689538519964E-2</c:v>
+                    <c:v>8.4549696292169907E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>7.3521771252824109E-2</c:v>
+                    <c:v>6.9759114012359902E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>7.2943388316986102E-2</c:v>
+                    <c:v>6.5053995019739963E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'4 oct'!$G$2:$G$16</c:f>
+                <c:f>'9 oct'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>9.2906052284123963E-2</c:v>
+                    <c:v>9.3934267678300043E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.10635186682059505</c:v>
+                    <c:v>9.3062253968542064E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.4391482631463011E-2</c:v>
+                    <c:v>8.7849351647037E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.649641537011298E-2</c:v>
+                    <c:v>9.1378593969417055E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.0170853894150009E-2</c:v>
+                    <c:v>8.0491992895143971E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8.0215592564466975E-2</c:v>
+                    <c:v>6.4268923147152934E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>9.9601634064668931E-2</c:v>
+                    <c:v>8.7654730324927987E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>6.5077471967487033E-2</c:v>
+                    <c:v>7.6629987492329077E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.0730673178824985E-2</c:v>
+                    <c:v>7.3791437869744958E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>7.6515589040102028E-2</c:v>
+                    <c:v>8.2946292461920978E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7.8735293900602965E-2</c:v>
+                    <c:v>7.4807879562293955E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>8.9777133406164E-2</c:v>
+                    <c:v>8.3905391020461018E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>9.6656836079206943E-2</c:v>
+                    <c:v>8.0102132426540074E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>7.8465894190976937E-2</c:v>
+                    <c:v>7.256206909347207E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>7.044442314844801E-2</c:v>
+                    <c:v>8.7189353684550053E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1503,47 +1552,47 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'4 oct'!$A$2:$A$16</c:f>
+              <c:f>'9 oct'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>Azua</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>La Romana</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>Sánchez Ramírez</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Peravia</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Azua</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>La Altagracia</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Duarte</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>San Cristóbal</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sánchez Ramírez</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Distrito Nacional</c:v>
@@ -1556,54 +1605,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4 oct'!$D$2:$D$16</c:f>
+              <c:f>'9 oct'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.86745936775168597</c:v>
+                  <c:v>0.86240375393189295</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88280404333296802</c:v>
+                  <c:v>0.91376843743598501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87881206689452296</c:v>
+                  <c:v>0.90451947772173302</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85112222755057498</c:v>
+                  <c:v>0.98589892680256297</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.92771159822065596</c:v>
+                  <c:v>0.91574526142662505</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85483707363665795</c:v>
+                  <c:v>0.91826843475477304</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91468925367916398</c:v>
+                  <c:v>0.941954716115875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.93314180361412602</c:v>
+                  <c:v>0.95455940228692204</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.90957827595560203</c:v>
+                  <c:v>0.90700021769608696</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95991722139561197</c:v>
+                  <c:v>0.976695601399999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.93553141701117104</c:v>
+                  <c:v>0.99481846822319897</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.95426572071520199</c:v>
+                  <c:v>0.95647039216798302</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0329802883377699</c:v>
+                  <c:v>0.93965423692130901</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.984309668680172</c:v>
+                  <c:v>1.011472059011</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.97047638334967401</c:v>
+                  <c:v>1.0130448111327399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1620,7 +1669,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4 nov'!$I$1</c:f>
+              <c:f>'9 nov'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1678,47 +1727,47 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'4 oct'!$A$2:$A$16</c:f>
+              <c:f>'9 oct'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>Azua</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>La Romana</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>Sánchez Ramírez</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Peravia</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Azua</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>La Altagracia</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Duarte</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>San Cristóbal</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sánchez Ramírez</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Distrito Nacional</c:v>
@@ -1731,7 +1780,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4 nov'!$I$2:$I$16</c:f>
+              <c:f>'9 nov'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1975,7 +2024,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4 sep'!$D$1</c:f>
+              <c:f>'9 sep'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2013,11 +2062,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2061,11 +2110,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2133,11 +2182,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2373,108 +2422,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'4 oct'!$H$2:$H$16</c:f>
+                <c:f>'9 oct'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>8.0289482259796041E-2</c:v>
+                    <c:v>8.7826463661679899E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.4210898490574939E-2</c:v>
+                    <c:v>8.5706525572551873E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.4024549802553028E-2</c:v>
+                    <c:v>8.5211524568300945E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.9963036177512095E-2</c:v>
+                    <c:v>8.5064587659657076E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.3069689442905039E-2</c:v>
+                    <c:v>6.2026462794324999E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8.0922645954909056E-2</c:v>
+                    <c:v>7.6524177959120032E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.4534751590377035E-2</c:v>
+                    <c:v>8.3096637825202047E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7.316961188002602E-2</c:v>
+                    <c:v>7.7493552609669947E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.1719243837209956E-2</c:v>
+                    <c:v>7.1855447305353981E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.3426815058863957E-2</c:v>
+                    <c:v>9.8320401489930043E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7.1832628484716055E-2</c:v>
+                    <c:v>8.344833757347403E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>7.7891635869250075E-2</c:v>
+                    <c:v>6.0939338128943921E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>8.0083689538519964E-2</c:v>
+                    <c:v>8.4549696292169907E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>7.3521771252824109E-2</c:v>
+                    <c:v>6.9759114012359902E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>7.2943388316986102E-2</c:v>
+                    <c:v>6.5053995019739963E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'4 oct'!$G$2:$G$16</c:f>
+                <c:f>'9 oct'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>9.2906052284123963E-2</c:v>
+                    <c:v>9.3934267678300043E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.10635186682059505</c:v>
+                    <c:v>9.3062253968542064E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.4391482631463011E-2</c:v>
+                    <c:v>8.7849351647037E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.649641537011298E-2</c:v>
+                    <c:v>9.1378593969417055E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.0170853894150009E-2</c:v>
+                    <c:v>8.0491992895143971E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8.0215592564466975E-2</c:v>
+                    <c:v>6.4268923147152934E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>9.9601634064668931E-2</c:v>
+                    <c:v>8.7654730324927987E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>6.5077471967487033E-2</c:v>
+                    <c:v>7.6629987492329077E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.0730673178824985E-2</c:v>
+                    <c:v>7.3791437869744958E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>7.6515589040102028E-2</c:v>
+                    <c:v>8.2946292461920978E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7.8735293900602965E-2</c:v>
+                    <c:v>7.4807879562293955E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>8.9777133406164E-2</c:v>
+                    <c:v>8.3905391020461018E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>9.6656836079206943E-2</c:v>
+                    <c:v>8.0102132426540074E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>7.8465894190976937E-2</c:v>
+                    <c:v>7.256206909347207E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>7.044442314844801E-2</c:v>
+                    <c:v>8.7189353684550053E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2495,47 +2544,47 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'4 oct'!$A$2:$A$16</c:f>
+              <c:f>'9 oct'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>Azua</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>La Romana</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>Sánchez Ramírez</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Peravia</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Azua</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>La Altagracia</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Duarte</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>San Cristóbal</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sánchez Ramírez</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Distrito Nacional</c:v>
@@ -2548,54 +2597,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4 sep'!$D$2:$D$16</c:f>
+              <c:f>'9 sep'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.09755024716151</c:v>
+                  <c:v>0.98990143053269997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95058030334656396</c:v>
+                  <c:v>0.903119498151566</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96952621031547404</c:v>
+                  <c:v>1.10194614370716</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95061980658536305</c:v>
+                  <c:v>0.93784199781116095</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90476670225490397</c:v>
+                  <c:v>0.93445998279537101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.946035897229619</c:v>
+                  <c:v>1.04473821646043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90177366996112296</c:v>
+                  <c:v>0.95497132516827798</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.91711012613743703</c:v>
+                  <c:v>0.89856696824300397</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99693438593220096</c:v>
+                  <c:v>0.95924885984392205</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99050190394868398</c:v>
+                  <c:v>0.924076602681145</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0399456780079801</c:v>
+                  <c:v>1.0369685879975299</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.927681748499394</c:v>
+                  <c:v>0.98169745136328401</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.92622744010867197</c:v>
+                  <c:v>0.91510555664918303</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.94521254911258101</c:v>
+                  <c:v>0.905941911722841</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.98354750873657504</c:v>
+                  <c:v>0.968083626797416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2612,7 +2661,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4 nov'!$I$1</c:f>
+              <c:f>'9 nov'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2670,47 +2719,47 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'4 oct'!$A$2:$A$16</c:f>
+              <c:f>'9 oct'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>Azua</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>La Romana</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>Sánchez Ramírez</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Peravia</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Azua</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>La Altagracia</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Duarte</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>San Cristóbal</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sánchez Ramírez</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Distrito Nacional</c:v>
@@ -2723,7 +2772,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4 nov'!$I$2:$I$16</c:f>
+              <c:f>'9 nov'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5038,8 +5087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A870B0F-A2EC-457C-A8A5-5E639A765E29}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5079,30 +5128,30 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>44139</v>
+        <v>44144</v>
       </c>
       <c r="C2">
-        <v>0.81031275459290997</v>
+        <v>0.84826952907928999</v>
       </c>
       <c r="D2">
-        <v>0.79176761423311104</v>
+        <v>0.83709236393601605</v>
       </c>
       <c r="E2">
-        <v>0.60690412714486597</v>
+        <v>0.62760512042767402</v>
       </c>
       <c r="F2">
-        <v>0.98942531559286095</v>
+        <v>1.0475810832097501</v>
       </c>
       <c r="G2">
-        <f>C2-E2</f>
-        <v>0.203408627448044</v>
+        <f t="shared" ref="G2:G16" si="0">C2-E2</f>
+        <v>0.22066440865161596</v>
       </c>
       <c r="H2">
-        <f>F2-C2</f>
-        <v>0.17911256099995099</v>
+        <f t="shared" ref="H2:H16" si="1">F2-C2</f>
+        <v>0.19931155413046009</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5111,30 +5160,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1">
-        <v>44139</v>
+        <v>44144</v>
       </c>
       <c r="C3">
-        <v>0.84288273801194902</v>
+        <v>0.91340160396831005</v>
       </c>
       <c r="D3">
-        <v>0.82638040305503402</v>
+        <v>0.904946712727692</v>
       </c>
       <c r="E3">
-        <v>0.62242626148293601</v>
+        <v>0.68538197376995502</v>
       </c>
       <c r="F3">
-        <v>1.0064600712362499</v>
+        <v>1.10461144587702</v>
       </c>
       <c r="G3">
-        <f>C3-E3</f>
-        <v>0.22045647652901301</v>
+        <f t="shared" si="0"/>
+        <v>0.22801963019835503</v>
       </c>
       <c r="H3">
-        <f>F3-C3</f>
-        <v>0.1635773332243009</v>
+        <f t="shared" si="1"/>
+        <v>0.19120984190870993</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5143,30 +5192,30 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
-        <v>44139</v>
+        <v>44144</v>
       </c>
       <c r="C4">
-        <v>0.86266466278935305</v>
+        <v>0.92994871822415903</v>
       </c>
       <c r="D4">
-        <v>0.83875025916713297</v>
+        <v>0.91909783777640397</v>
       </c>
       <c r="E4">
-        <v>0.64396890263336404</v>
+        <v>0.68897322163063501</v>
       </c>
       <c r="F4">
-        <v>1.05236080917006</v>
+        <v>1.1236493142419199</v>
       </c>
       <c r="G4">
-        <f>C4-E4</f>
-        <v>0.21869576015598902</v>
+        <f t="shared" si="0"/>
+        <v>0.24097549659352402</v>
       </c>
       <c r="H4">
-        <f>F4-C4</f>
-        <v>0.18969614638070698</v>
+        <f t="shared" si="1"/>
+        <v>0.19370059601776091</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5175,30 +5224,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
-        <v>44139</v>
+        <v>44144</v>
       </c>
       <c r="C5">
-        <v>0.85167069933160799</v>
+        <v>0.93525676461915497</v>
       </c>
       <c r="D5">
-        <v>0.84046442715680902</v>
+        <v>0.92459077076098395</v>
       </c>
       <c r="E5">
-        <v>0.61854648933227196</v>
+        <v>0.71884137384069502</v>
       </c>
       <c r="F5">
-        <v>0.97907840099869803</v>
+        <v>1.0970059824730201</v>
       </c>
       <c r="G5">
-        <f>C5-E5</f>
-        <v>0.23312420999933603</v>
+        <f t="shared" si="0"/>
+        <v>0.21641539077845995</v>
       </c>
       <c r="H5">
-        <f>F5-C5</f>
-        <v>0.12740770166709003</v>
+        <f t="shared" si="1"/>
+        <v>0.16174921785386509</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5207,30 +5256,30 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>44139</v>
+        <v>44144</v>
       </c>
       <c r="C6">
-        <v>0.854276542762475</v>
+        <v>0.95701974226404996</v>
       </c>
       <c r="D6">
-        <v>0.84416190940868596</v>
+        <v>0.94294598620810499</v>
       </c>
       <c r="E6">
-        <v>0.66889420367064101</v>
+        <v>0.73104464304043704</v>
       </c>
       <c r="F6">
-        <v>1.0275479324473999</v>
+        <v>1.12759250782973</v>
       </c>
       <c r="G6">
-        <f>C6-E6</f>
-        <v>0.18538233909183399</v>
+        <f t="shared" si="0"/>
+        <v>0.22597509922361292</v>
       </c>
       <c r="H6">
-        <f>F6-C6</f>
-        <v>0.17327138968492495</v>
+        <f t="shared" si="1"/>
+        <v>0.17057276556568002</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5239,30 +5288,30 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
-        <v>44139</v>
+        <v>44144</v>
       </c>
       <c r="C7">
-        <v>0.89654451084833597</v>
+        <v>0.96067875358028998</v>
       </c>
       <c r="D7">
-        <v>0.878353834071258</v>
+        <v>0.94698836403693998</v>
       </c>
       <c r="E7">
-        <v>0.62708429733458404</v>
+        <v>0.76660468634447998</v>
       </c>
       <c r="F7">
-        <v>1.06409289179535</v>
+        <v>1.18101585112111</v>
       </c>
       <c r="G7">
-        <f>C7-E7</f>
-        <v>0.26946021351375193</v>
+        <f t="shared" si="0"/>
+        <v>0.19407406723581</v>
       </c>
       <c r="H7">
-        <f>F7-C7</f>
-        <v>0.16754838094701408</v>
+        <f t="shared" si="1"/>
+        <v>0.22033709754081998</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5271,30 +5320,30 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>44139</v>
+        <v>44144</v>
       </c>
       <c r="C8">
-        <v>0.91280817539727199</v>
+        <v>0.97688381521936696</v>
       </c>
       <c r="D8">
-        <v>0.89655467262802402</v>
+        <v>0.96991293540784096</v>
       </c>
       <c r="E8">
-        <v>0.69159265461490904</v>
+        <v>0.74138709319551399</v>
       </c>
       <c r="F8">
-        <v>1.10411173114438</v>
+        <v>1.17577722949326</v>
       </c>
       <c r="G8">
-        <f>C8-E8</f>
-        <v>0.22121552078236295</v>
+        <f t="shared" si="0"/>
+        <v>0.23549672202385297</v>
       </c>
       <c r="H8">
-        <f>F8-C8</f>
-        <v>0.191303555747108</v>
+        <f t="shared" si="1"/>
+        <v>0.19889341427389307</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5303,30 +5352,30 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>44139</v>
+        <v>44144</v>
       </c>
       <c r="C9">
-        <v>0.90779986281806302</v>
+        <v>1.0543183918496699</v>
       </c>
       <c r="D9">
-        <v>0.899789876370089</v>
+        <v>1.0357347975273301</v>
       </c>
       <c r="E9">
-        <v>0.69903905952560896</v>
+        <v>0.79050345203241801</v>
       </c>
       <c r="F9">
-        <v>1.0858979301084</v>
+        <v>1.2545940614611399</v>
       </c>
       <c r="G9">
-        <f>C9-E9</f>
-        <v>0.20876080329245406</v>
+        <f t="shared" si="0"/>
+        <v>0.2638149398172519</v>
       </c>
       <c r="H9">
-        <f>F9-C9</f>
-        <v>0.17809806729033695</v>
+        <f t="shared" si="1"/>
+        <v>0.20027566961147003</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5335,30 +5384,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>44139</v>
+        <v>44144</v>
       </c>
       <c r="C10">
-        <v>0.90925628389246804</v>
+        <v>1.0788949040393401</v>
       </c>
       <c r="D10">
-        <v>0.90052420228972396</v>
+        <v>1.06055486958616</v>
       </c>
       <c r="E10">
-        <v>0.70323032828659104</v>
+        <v>0.84649011944970698</v>
       </c>
       <c r="F10">
-        <v>1.0813384601412901</v>
+        <v>1.28406025855286</v>
       </c>
       <c r="G10">
-        <f>C10-E10</f>
-        <v>0.206025955605877</v>
+        <f t="shared" si="0"/>
+        <v>0.2324047845896331</v>
       </c>
       <c r="H10">
-        <f>F10-C10</f>
-        <v>0.17208217624882205</v>
+        <f t="shared" si="1"/>
+        <v>0.20516535451351992</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5367,30 +5416,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1">
-        <v>44139</v>
+        <v>44144</v>
       </c>
       <c r="C11">
-        <v>0.94792509216435406</v>
+        <v>1.0897914697487201</v>
       </c>
       <c r="D11">
-        <v>0.93653638693951902</v>
+        <v>1.06579306159661</v>
       </c>
       <c r="E11">
-        <v>0.71200169924690004</v>
+        <v>0.82326061965942299</v>
       </c>
       <c r="F11">
-        <v>1.15067319311206</v>
+        <v>1.31427108794736</v>
       </c>
       <c r="G11">
-        <f>C11-E11</f>
-        <v>0.23592339291745401</v>
+        <f t="shared" si="0"/>
+        <v>0.26653085008929711</v>
       </c>
       <c r="H11">
-        <f>F11-C11</f>
-        <v>0.2027481009477059</v>
+        <f t="shared" si="1"/>
+        <v>0.22447961819863993</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5399,30 +5448,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>44139</v>
+        <v>44144</v>
       </c>
       <c r="C12">
-        <v>0.94765890244931805</v>
+        <v>1.0757713478761499</v>
       </c>
       <c r="D12">
-        <v>0.93729029980166301</v>
+        <v>1.0658009885955</v>
       </c>
       <c r="E12">
-        <v>0.71620392269420996</v>
+        <v>0.80965092361867497</v>
       </c>
       <c r="F12">
-        <v>1.1025776088083199</v>
+        <v>1.2469581887410199</v>
       </c>
       <c r="G12">
-        <f>C12-E12</f>
-        <v>0.23145497975510809</v>
+        <f t="shared" si="0"/>
+        <v>0.26612042425747495</v>
       </c>
       <c r="H12">
-        <f>F12-C12</f>
-        <v>0.15491870635900185</v>
+        <f t="shared" si="1"/>
+        <v>0.17118684086487002</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5431,30 +5480,30 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
-        <v>44139</v>
+        <v>44144</v>
       </c>
       <c r="C13">
-        <v>0.98064024527256599</v>
+        <v>1.0829211382050099</v>
       </c>
       <c r="D13">
-        <v>0.96620035108317304</v>
+        <v>1.06793038536295</v>
       </c>
       <c r="E13">
-        <v>0.72757066974647899</v>
+        <v>0.85302431775463705</v>
       </c>
       <c r="F13">
-        <v>1.16713443753954</v>
+        <v>1.31624244432332</v>
       </c>
       <c r="G13">
-        <f>C13-E13</f>
-        <v>0.253069575526087</v>
+        <f t="shared" si="0"/>
+        <v>0.22989682045037285</v>
       </c>
       <c r="H13">
-        <f>F13-C13</f>
-        <v>0.18649419226697406</v>
+        <f t="shared" si="1"/>
+        <v>0.23332130611831015</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5463,30 +5512,30 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1">
-        <v>44139</v>
+        <v>44144</v>
       </c>
       <c r="C14">
-        <v>1.0168117841184501</v>
+        <v>1.1175700480755</v>
       </c>
       <c r="D14">
-        <v>0.99560021566950796</v>
+        <v>1.10786488376917</v>
       </c>
       <c r="E14">
-        <v>0.75421244302310197</v>
+        <v>0.87425303660627096</v>
       </c>
       <c r="F14">
-        <v>1.2150743187806501</v>
+        <v>1.3440580084159599</v>
       </c>
       <c r="G14">
-        <f>C14-E14</f>
-        <v>0.2625993410953481</v>
+        <f t="shared" si="0"/>
+        <v>0.24331701146922902</v>
       </c>
       <c r="H14">
-        <f>F14-C14</f>
-        <v>0.19826253466220001</v>
+        <f t="shared" si="1"/>
+        <v>0.22648796034045993</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -5498,27 +5547,27 @@
         <v>6</v>
       </c>
       <c r="B15" s="1">
-        <v>44139</v>
+        <v>44144</v>
       </c>
       <c r="C15">
-        <v>1.05527674831705</v>
+        <v>1.12680704317295</v>
       </c>
       <c r="D15">
-        <v>1.0499063076261499</v>
+        <v>1.1106296857019999</v>
       </c>
       <c r="E15">
-        <v>0.84668265846745105</v>
+        <v>0.90801669618840997</v>
       </c>
       <c r="F15">
-        <v>1.2655066957394201</v>
+        <v>1.36264365811513</v>
       </c>
       <c r="G15">
-        <f>C15-E15</f>
-        <v>0.20859408984959893</v>
+        <f t="shared" si="0"/>
+        <v>0.21879034698454003</v>
       </c>
       <c r="H15">
-        <f>F15-C15</f>
-        <v>0.21022994742237011</v>
+        <f t="shared" si="1"/>
+        <v>0.23583661494218</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -5530,27 +5579,27 @@
         <v>7</v>
       </c>
       <c r="B16" s="1">
-        <v>44139</v>
+        <v>44144</v>
       </c>
       <c r="C16">
-        <v>1.1055884105385001</v>
+        <v>1.16332582051769</v>
       </c>
       <c r="D16">
-        <v>1.09323534509624</v>
+        <v>1.1547608191308201</v>
       </c>
       <c r="E16">
-        <v>0.86822189411103801</v>
+        <v>0.87201666529722799</v>
       </c>
       <c r="F16">
-        <v>1.3243005276823301</v>
+        <v>1.3190923315743599</v>
       </c>
       <c r="G16">
-        <f>C16-E16</f>
-        <v>0.23736651642746209</v>
+        <f t="shared" si="0"/>
+        <v>0.29130915522046197</v>
       </c>
       <c r="H16">
-        <f>F16-C16</f>
-        <v>0.21871211714382999</v>
+        <f t="shared" si="1"/>
+        <v>0.15576651105666994</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -5570,8 +5619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9B4699-B86D-4EFA-A264-1734A39D161E}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5611,30 +5660,30 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>44108</v>
+        <v>44113</v>
       </c>
       <c r="C2">
-        <v>0.87000477207663296</v>
+        <v>0.86653725178433305</v>
       </c>
       <c r="D2">
-        <v>0.86745936775168597</v>
+        <v>0.86240375393189295</v>
       </c>
       <c r="E2">
-        <v>0.777098719792509</v>
+        <v>0.77260298410603301</v>
       </c>
       <c r="F2">
-        <v>0.950294254336429</v>
+        <v>0.95436371544601295</v>
       </c>
       <c r="G2">
-        <f>C2-E2</f>
-        <v>9.2906052284123963E-2</v>
+        <f t="shared" ref="G2:G16" si="0">C2-E2</f>
+        <v>9.3934267678300043E-2</v>
       </c>
       <c r="H2">
-        <f>F2-C2</f>
-        <v>8.0289482259796041E-2</v>
+        <f t="shared" ref="H2:H16" si="1">F2-C2</f>
+        <v>8.7826463661679899E-2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5643,30 +5692,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1">
-        <v>44108</v>
+        <v>44113</v>
       </c>
       <c r="C3">
-        <v>0.88902655280603204</v>
+        <v>0.91603553804095805</v>
       </c>
       <c r="D3">
-        <v>0.88280404333296802</v>
+        <v>0.91376843743598501</v>
       </c>
       <c r="E3">
-        <v>0.78267468598543699</v>
+        <v>0.82297328407241599</v>
       </c>
       <c r="F3">
-        <v>0.96323745129660698</v>
+        <v>1.0017420636135099</v>
       </c>
       <c r="G3">
-        <f>C3-E3</f>
-        <v>0.10635186682059505</v>
+        <f t="shared" si="0"/>
+        <v>9.3062253968542064E-2</v>
       </c>
       <c r="H3">
-        <f>F3-C3</f>
-        <v>7.4210898490574939E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.5706525572551873E-2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5675,30 +5724,30 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
-        <v>44108</v>
+        <v>44113</v>
       </c>
       <c r="C4">
-        <v>0.88257166597431702</v>
+        <v>0.90738954147003603</v>
       </c>
       <c r="D4">
-        <v>0.87881206689452296</v>
+        <v>0.90451947772173302</v>
       </c>
       <c r="E4">
-        <v>0.79818018334285401</v>
+        <v>0.81954018982299903</v>
       </c>
       <c r="F4">
-        <v>0.96659621577687005</v>
+        <v>0.99260106603833698</v>
       </c>
       <c r="G4">
-        <f>C4-E4</f>
-        <v>8.4391482631463011E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.7849351647037E-2</v>
       </c>
       <c r="H4">
-        <f>F4-C4</f>
-        <v>8.4024549802553028E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.5211524568300945E-2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5707,30 +5756,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
-        <v>44108</v>
+        <v>44113</v>
       </c>
       <c r="C5">
-        <v>0.85133606715004095</v>
+        <v>0.98843526317550301</v>
       </c>
       <c r="D5">
-        <v>0.85112222755057498</v>
+        <v>0.98589892680256297</v>
       </c>
       <c r="E5">
-        <v>0.77483965177992797</v>
+        <v>0.89705666920608595</v>
       </c>
       <c r="F5">
-        <v>0.92129910332755305</v>
+        <v>1.0734998508351601</v>
       </c>
       <c r="G5">
-        <f>C5-E5</f>
-        <v>7.649641537011298E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.1378593969417055E-2</v>
       </c>
       <c r="H5">
-        <f>F5-C5</f>
-        <v>6.9963036177512095E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.5064587659657076E-2</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5739,30 +5788,30 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>44108</v>
+        <v>44113</v>
       </c>
       <c r="C6">
-        <v>0.93224919614550505</v>
+        <v>0.91844181006366399</v>
       </c>
       <c r="D6">
-        <v>0.92771159822065596</v>
+        <v>0.91574526142662505</v>
       </c>
       <c r="E6">
-        <v>0.86207834225135505</v>
+        <v>0.83794981716852002</v>
       </c>
       <c r="F6">
-        <v>1.0053188855884101</v>
+        <v>0.98046827285798899</v>
       </c>
       <c r="G6">
-        <f>C6-E6</f>
-        <v>7.0170853894150009E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.0491992895143971E-2</v>
       </c>
       <c r="H6">
-        <f>F6-C6</f>
-        <v>7.3069689442905039E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.2026462794324999E-2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5771,30 +5820,30 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
-        <v>44108</v>
+        <v>44113</v>
       </c>
       <c r="C7">
-        <v>0.85856687724698699</v>
+        <v>0.91811870296514997</v>
       </c>
       <c r="D7">
-        <v>0.85483707363665795</v>
+        <v>0.91826843475477304</v>
       </c>
       <c r="E7">
-        <v>0.77835128468252002</v>
+        <v>0.85384977981799703</v>
       </c>
       <c r="F7">
-        <v>0.93948952320189605</v>
+        <v>0.99464288092427</v>
       </c>
       <c r="G7">
-        <f>C7-E7</f>
-        <v>8.0215592564466975E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.4268923147152934E-2</v>
       </c>
       <c r="H7">
-        <f>F7-C7</f>
-        <v>8.0922645954909056E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.6524177959120032E-2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5803,30 +5852,30 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>44108</v>
+        <v>44113</v>
       </c>
       <c r="C8">
-        <v>0.91915966341697297</v>
+        <v>0.94345173803335802</v>
       </c>
       <c r="D8">
-        <v>0.91468925367916398</v>
+        <v>0.941954716115875</v>
       </c>
       <c r="E8">
-        <v>0.81955802935230404</v>
+        <v>0.85579700770843004</v>
       </c>
       <c r="F8">
-        <v>0.99369441500735001</v>
+        <v>1.0265483758585601</v>
       </c>
       <c r="G8">
-        <f>C8-E8</f>
-        <v>9.9601634064668931E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.7654730324927987E-2</v>
       </c>
       <c r="H8">
-        <f>F8-C8</f>
-        <v>7.4534751590377035E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.3096637825202047E-2</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5835,30 +5884,30 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>44108</v>
+        <v>44113</v>
       </c>
       <c r="C9">
-        <v>0.93526377390396398</v>
+        <v>0.95572852759209004</v>
       </c>
       <c r="D9">
-        <v>0.93314180361412602</v>
+        <v>0.95455940228692204</v>
       </c>
       <c r="E9">
-        <v>0.87018630193647695</v>
+        <v>0.87909854009976096</v>
       </c>
       <c r="F9">
-        <v>1.00843338578399</v>
+        <v>1.03322208020176</v>
       </c>
       <c r="G9">
-        <f>C9-E9</f>
-        <v>6.5077471967487033E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.6629987492329077E-2</v>
       </c>
       <c r="H9">
-        <f>F9-C9</f>
-        <v>7.316961188002602E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.7493552609669947E-2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5867,30 +5916,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>44108</v>
+        <v>44113</v>
       </c>
       <c r="C10">
-        <v>0.91164656367423802</v>
+        <v>0.90976708015082397</v>
       </c>
       <c r="D10">
-        <v>0.90957827595560203</v>
+        <v>0.90700021769608696</v>
       </c>
       <c r="E10">
-        <v>0.83091589049541303</v>
+        <v>0.83597564228107901</v>
       </c>
       <c r="F10">
-        <v>0.98336580751144798</v>
+        <v>0.98162252745617795</v>
       </c>
       <c r="G10">
-        <f>C10-E10</f>
-        <v>8.0730673178824985E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.3791437869744958E-2</v>
       </c>
       <c r="H10">
-        <f>F10-C10</f>
-        <v>7.1719243837209956E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.1855447305353981E-2</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5899,30 +5948,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1">
-        <v>44108</v>
+        <v>44113</v>
       </c>
       <c r="C11">
-        <v>0.96316260741160598</v>
+        <v>0.97717990544162003</v>
       </c>
       <c r="D11">
-        <v>0.95991722139561197</v>
+        <v>0.976695601399999</v>
       </c>
       <c r="E11">
-        <v>0.88664701837150395</v>
+        <v>0.89423361297969906</v>
       </c>
       <c r="F11">
-        <v>1.0465894224704699</v>
+        <v>1.0755003069315501</v>
       </c>
       <c r="G11">
-        <f>C11-E11</f>
-        <v>7.6515589040102028E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.2946292461920978E-2</v>
       </c>
       <c r="H11">
-        <f>F11-C11</f>
-        <v>8.3426815058863957E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.8320401489930043E-2</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5931,30 +5980,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>44108</v>
+        <v>44113</v>
       </c>
       <c r="C12">
-        <v>0.93679670522198399</v>
+        <v>0.99694891945985598</v>
       </c>
       <c r="D12">
-        <v>0.93553141701117104</v>
+        <v>0.99481846822319897</v>
       </c>
       <c r="E12">
-        <v>0.85806141132138103</v>
+        <v>0.92214103989756202</v>
       </c>
       <c r="F12">
-        <v>1.0086293337067</v>
+        <v>1.08039725703333</v>
       </c>
       <c r="G12">
-        <f>C12-E12</f>
-        <v>7.8735293900602965E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.4807879562293955E-2</v>
       </c>
       <c r="H12">
-        <f>F12-C12</f>
-        <v>7.1832628484716055E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.344833757347403E-2</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5963,30 +6012,30 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
-        <v>44108</v>
+        <v>44113</v>
       </c>
       <c r="C13">
-        <v>0.95679663928083003</v>
+        <v>0.95748701723604601</v>
       </c>
       <c r="D13">
-        <v>0.95426572071520199</v>
+        <v>0.95647039216798302</v>
       </c>
       <c r="E13">
-        <v>0.86701950587466603</v>
+        <v>0.87358162621558499</v>
       </c>
       <c r="F13">
-        <v>1.0346882751500801</v>
+        <v>1.0184263553649899</v>
       </c>
       <c r="G13">
-        <f>C13-E13</f>
-        <v>8.9777133406164E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.3905391020461018E-2</v>
       </c>
       <c r="H13">
-        <f>F13-C13</f>
-        <v>7.7891635869250075E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.0939338128943921E-2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5995,30 +6044,30 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1">
-        <v>44108</v>
+        <v>44113</v>
       </c>
       <c r="C14">
-        <v>1.0360754060316499</v>
+        <v>0.94397216040770004</v>
       </c>
       <c r="D14">
-        <v>1.0329802883377699</v>
+        <v>0.93965423692130901</v>
       </c>
       <c r="E14">
-        <v>0.93941856995244299</v>
+        <v>0.86387002798115997</v>
       </c>
       <c r="F14">
-        <v>1.1161590955701699</v>
+        <v>1.02852185669987</v>
       </c>
       <c r="G14">
-        <f>C14-E14</f>
-        <v>9.6656836079206943E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.0102132426540074E-2</v>
       </c>
       <c r="H14">
-        <f>F14-C14</f>
-        <v>8.0083689538519964E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.4549696292169907E-2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -6030,27 +6079,27 @@
         <v>6</v>
       </c>
       <c r="B15" s="1">
-        <v>44108</v>
+        <v>44113</v>
       </c>
       <c r="C15">
-        <v>0.98607491719051599</v>
+        <v>1.0179950085821801</v>
       </c>
       <c r="D15">
-        <v>0.984309668680172</v>
+        <v>1.011472059011</v>
       </c>
       <c r="E15">
-        <v>0.90760902299953905</v>
+        <v>0.94543293948870799</v>
       </c>
       <c r="F15">
-        <v>1.0595966884433401</v>
+        <v>1.08775412259454</v>
       </c>
       <c r="G15">
-        <f>C15-E15</f>
-        <v>7.8465894190976937E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.256206909347207E-2</v>
       </c>
       <c r="H15">
-        <f>F15-C15</f>
-        <v>7.3521771252824109E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.9759114012359902E-2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -6062,27 +6111,27 @@
         <v>7</v>
       </c>
       <c r="B16" s="1">
-        <v>44108</v>
+        <v>44113</v>
       </c>
       <c r="C16">
-        <v>0.97556335738057398</v>
+        <v>1.01384427605824</v>
       </c>
       <c r="D16">
-        <v>0.97047638334967401</v>
+        <v>1.0130448111327399</v>
       </c>
       <c r="E16">
-        <v>0.90511893423212597</v>
+        <v>0.92665492237368996</v>
       </c>
       <c r="F16">
-        <v>1.0485067456975601</v>
+        <v>1.07889827107798</v>
       </c>
       <c r="G16">
-        <f>C16-E16</f>
-        <v>7.044442314844801E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.7189353684550053E-2</v>
       </c>
       <c r="H16">
-        <f>F16-C16</f>
-        <v>7.2943388316986102E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.5053995019739963E-2</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -6102,8 +6151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFCAF56-E988-48E4-BDA2-C84256C27DCF}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="103" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6143,30 +6192,30 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>44078</v>
+        <v>44083</v>
       </c>
       <c r="C2">
-        <v>1.0967180319199299</v>
+        <v>0.98923004729028496</v>
       </c>
       <c r="D2">
-        <v>1.09755024716151</v>
+        <v>0.98990143053269997</v>
       </c>
       <c r="E2">
-        <v>0.98897744359252404</v>
+        <v>0.91064147130695705</v>
       </c>
       <c r="F2">
-        <v>1.1831485555693499</v>
+        <v>1.07533041945189</v>
       </c>
       <c r="G2">
-        <f>C2-E2</f>
-        <v>0.10774058832740585</v>
+        <f t="shared" ref="G2:G16" si="0">C2-E2</f>
+        <v>7.8588575983327913E-2</v>
       </c>
       <c r="H2">
-        <f>F2-C2</f>
-        <v>8.6430523649420055E-2</v>
+        <f t="shared" ref="H2:H16" si="1">F2-C2</f>
+        <v>8.6100372161605043E-2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -6175,30 +6224,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1">
-        <v>44078</v>
+        <v>44083</v>
       </c>
       <c r="C3">
-        <v>0.95140110923149701</v>
+        <v>0.90262470119945504</v>
       </c>
       <c r="D3">
-        <v>0.95058030334656396</v>
+        <v>0.903119498151566</v>
       </c>
       <c r="E3">
-        <v>0.86130705306622901</v>
+        <v>0.82565760503207597</v>
       </c>
       <c r="F3">
-        <v>1.02586217966333</v>
+        <v>0.97713662656894196</v>
       </c>
       <c r="G3">
-        <f>C3-E3</f>
-        <v>9.0094056165267999E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.6967096167379068E-2</v>
       </c>
       <c r="H3">
-        <f>F3-C3</f>
-        <v>7.4461070431833032E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.451192536948692E-2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -6207,30 +6256,30 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
-        <v>44078</v>
+        <v>44083</v>
       </c>
       <c r="C4">
-        <v>0.97339969049105202</v>
+        <v>1.1064244599097499</v>
       </c>
       <c r="D4">
-        <v>0.96952621031547404</v>
+        <v>1.10194614370716</v>
       </c>
       <c r="E4">
-        <v>0.88117259204414899</v>
+        <v>1.01331123776637</v>
       </c>
       <c r="F4">
-        <v>1.0457694349325899</v>
+        <v>1.1969772470494799</v>
       </c>
       <c r="G4">
-        <f>C4-E4</f>
-        <v>9.2227098446903022E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.3113222143379915E-2</v>
       </c>
       <c r="H4">
-        <f>F4-C4</f>
-        <v>7.2369744441537875E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.0552787139730029E-2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -6239,30 +6288,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
-        <v>44078</v>
+        <v>44083</v>
       </c>
       <c r="C5">
-        <v>0.95512738035840306</v>
+        <v>0.93823225602643801</v>
       </c>
       <c r="D5">
-        <v>0.95061980658536305</v>
+        <v>0.93784199781116095</v>
       </c>
       <c r="E5">
-        <v>0.87579630433648203</v>
+        <v>0.85916721040329003</v>
       </c>
       <c r="F5">
-        <v>1.0246183123896799</v>
+        <v>1.00890431239236</v>
       </c>
       <c r="G5">
-        <f>C5-E5</f>
-        <v>7.9331076021921021E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.9065045623147978E-2</v>
       </c>
       <c r="H5">
-        <f>F5-C5</f>
-        <v>6.9490932031276875E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.0672056365921998E-2</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -6271,30 +6320,30 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>44078</v>
+        <v>44083</v>
       </c>
       <c r="C6">
-        <v>0.90742704202195601</v>
+        <v>0.93542051650213398</v>
       </c>
       <c r="D6">
-        <v>0.90476670225490397</v>
+        <v>0.93445998279537101</v>
       </c>
       <c r="E6">
-        <v>0.83482942708696795</v>
+        <v>0.86012314164896198</v>
       </c>
       <c r="F6">
-        <v>0.98212620959225405</v>
+        <v>1.00872741388861</v>
       </c>
       <c r="G6">
-        <f>C6-E6</f>
-        <v>7.2597614934988064E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.5297374853172006E-2</v>
       </c>
       <c r="H6">
-        <f>F6-C6</f>
-        <v>7.4699167570298042E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.3306897386476E-2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -6303,30 +6352,30 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
-        <v>44078</v>
+        <v>44083</v>
       </c>
       <c r="C7">
-        <v>0.94873574541264105</v>
+        <v>1.04561483500532</v>
       </c>
       <c r="D7">
-        <v>0.946035897229619</v>
+        <v>1.04473821646043</v>
       </c>
       <c r="E7">
-        <v>0.86667658659684399</v>
+        <v>0.97023797041697002</v>
       </c>
       <c r="F7">
-        <v>1.0268084376459501</v>
+        <v>1.13616106565511</v>
       </c>
       <c r="G7">
-        <f>C7-E7</f>
-        <v>8.2059158815797062E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.5376864588350023E-2</v>
       </c>
       <c r="H7">
-        <f>F7-C7</f>
-        <v>7.8072692233309038E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.0546230649789949E-2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -6335,30 +6384,30 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>44078</v>
+        <v>44083</v>
       </c>
       <c r="C8">
-        <v>0.90489250665200105</v>
+        <v>0.95868225130140305</v>
       </c>
       <c r="D8">
-        <v>0.90177366996112296</v>
+        <v>0.95497132516827798</v>
       </c>
       <c r="E8">
-        <v>0.83348893252037504</v>
+        <v>0.88540434318721895</v>
       </c>
       <c r="F8">
-        <v>0.98463215935207604</v>
+        <v>1.0428300558143899</v>
       </c>
       <c r="G8">
-        <f>C8-E8</f>
-        <v>7.1403574131626013E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.3277908114184109E-2</v>
       </c>
       <c r="H8">
-        <f>F8-C8</f>
-        <v>7.9739652700074992E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.4147804512986868E-2</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -6367,30 +6416,30 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>44078</v>
+        <v>44083</v>
       </c>
       <c r="C9">
-        <v>0.91868430067731699</v>
+        <v>0.89828295730039198</v>
       </c>
       <c r="D9">
-        <v>0.91711012613743703</v>
+        <v>0.89856696824300397</v>
       </c>
       <c r="E9">
-        <v>0.841564565839514</v>
+        <v>0.82532822482982204</v>
       </c>
       <c r="F9">
-        <v>0.97920374063173898</v>
+        <v>0.95258624375429302</v>
       </c>
       <c r="G9">
-        <f>C9-E9</f>
-        <v>7.7119734837802989E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.2954732470569938E-2</v>
       </c>
       <c r="H9">
-        <f>F9-C9</f>
-        <v>6.0519439954421994E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.4303286453901034E-2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -6399,30 +6448,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>44078</v>
+        <v>44083</v>
       </c>
       <c r="C10">
-        <v>1.0000710016127901</v>
+        <v>0.96018762617720899</v>
       </c>
       <c r="D10">
-        <v>0.99693438593220096</v>
+        <v>0.95924885984392205</v>
       </c>
       <c r="E10">
-        <v>0.92783476085082095</v>
+        <v>0.87390673555319298</v>
       </c>
       <c r="F10">
-        <v>1.08555213576472</v>
+        <v>1.0290211270276699</v>
       </c>
       <c r="G10">
-        <f>C10-E10</f>
-        <v>7.2236240761969106E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.6280890624016005E-2</v>
       </c>
       <c r="H10">
-        <f>F10-C10</f>
-        <v>8.5481134151929927E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.8833500850460916E-2</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -6431,30 +6480,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1">
-        <v>44078</v>
+        <v>44083</v>
       </c>
       <c r="C11">
-        <v>0.99034309395628495</v>
+        <v>0.92642199929291702</v>
       </c>
       <c r="D11">
-        <v>0.99050190394868398</v>
+        <v>0.924076602681145</v>
       </c>
       <c r="E11">
-        <v>0.90865674790733197</v>
+        <v>0.84635175000950302</v>
       </c>
       <c r="F11">
-        <v>1.06424638758349</v>
+        <v>0.99593438493271302</v>
       </c>
       <c r="G11">
-        <f>C11-E11</f>
-        <v>8.1686346048952974E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.0070249283413997E-2</v>
       </c>
       <c r="H11">
-        <f>F11-C11</f>
-        <v>7.3903293627205047E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.9512385639796004E-2</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -6463,30 +6512,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>44078</v>
+        <v>44083</v>
       </c>
       <c r="C12">
-        <v>1.0379694560550199</v>
+        <v>1.0399530512611499</v>
       </c>
       <c r="D12">
-        <v>1.0399456780079801</v>
+        <v>1.0369685879975299</v>
       </c>
       <c r="E12">
-        <v>0.95988116900368103</v>
+        <v>0.96044431305175904</v>
       </c>
       <c r="F12">
-        <v>1.1178071357236501</v>
+        <v>1.1353021720943599</v>
       </c>
       <c r="G12">
-        <f>C12-E12</f>
-        <v>7.8088287051338856E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.9508738209390861E-2</v>
       </c>
       <c r="H12">
-        <f>F12-C12</f>
-        <v>7.9837679668630201E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.534912083321001E-2</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -6495,30 +6544,30 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
-        <v>44078</v>
+        <v>44083</v>
       </c>
       <c r="C13">
-        <v>0.92830401359043402</v>
+        <v>0.98096923717009199</v>
       </c>
       <c r="D13">
-        <v>0.927681748499394</v>
+        <v>0.98169745136328401</v>
       </c>
       <c r="E13">
-        <v>0.85248877897062902</v>
+        <v>0.89638784037973396</v>
       </c>
       <c r="F13">
-        <v>1.01413490156785</v>
+        <v>1.05362209127363</v>
       </c>
       <c r="G13">
-        <f>C13-E13</f>
-        <v>7.5815234619804994E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.4581396790358032E-2</v>
       </c>
       <c r="H13">
-        <f>F13-C13</f>
-        <v>8.5830887977416004E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.2652854103538056E-2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -6527,30 +6576,30 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1">
-        <v>44078</v>
+        <v>44083</v>
       </c>
       <c r="C14">
-        <v>0.93110517805648696</v>
+        <v>0.915894489979589</v>
       </c>
       <c r="D14">
-        <v>0.92622744010867197</v>
+        <v>0.91510555664918303</v>
       </c>
       <c r="E14">
-        <v>0.85784464316338405</v>
+        <v>0.83732090459132202</v>
       </c>
       <c r="F14">
-        <v>1.01175952369426</v>
+        <v>0.99040071858337198</v>
       </c>
       <c r="G14">
-        <f>C14-E14</f>
-        <v>7.3260534893102913E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.8573585388266975E-2</v>
       </c>
       <c r="H14">
-        <f>F14-C14</f>
-        <v>8.0654345637773073E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.4506228603782976E-2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -6562,27 +6611,27 @@
         <v>6</v>
       </c>
       <c r="B15" s="1">
-        <v>44078</v>
+        <v>44083</v>
       </c>
       <c r="C15">
-        <v>0.94820813921874603</v>
+        <v>0.90898912399362697</v>
       </c>
       <c r="D15">
-        <v>0.94521254911258101</v>
+        <v>0.905941911722841</v>
       </c>
       <c r="E15">
-        <v>0.86941706662549301</v>
+        <v>0.82730823165145995</v>
       </c>
       <c r="F15">
-        <v>1.01326755640167</v>
+        <v>0.96150222011498898</v>
       </c>
       <c r="G15">
-        <f>C15-E15</f>
-        <v>7.879107259325302E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.1680892342167022E-2</v>
       </c>
       <c r="H15">
-        <f>F15-C15</f>
-        <v>6.5059417182923962E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.2513096121362013E-2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -6594,27 +6643,27 @@
         <v>7</v>
       </c>
       <c r="B16" s="1">
-        <v>44078</v>
+        <v>44083</v>
       </c>
       <c r="C16">
-        <v>0.98755252604669497</v>
+        <v>0.97016315483078297</v>
       </c>
       <c r="D16">
-        <v>0.98354750873657504</v>
+        <v>0.968083626797416</v>
       </c>
       <c r="E16">
-        <v>0.91552124573312299</v>
+        <v>0.89412255204195801</v>
       </c>
       <c r="F16">
-        <v>1.05205062097174</v>
+        <v>1.0335584886051501</v>
       </c>
       <c r="G16">
-        <f>C16-E16</f>
-        <v>7.2031280313571977E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.6040602788824962E-2</v>
       </c>
       <c r="H16">
-        <f>F16-C16</f>
-        <v>6.4498094925044991E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.3395333774367124E-2</v>
       </c>
       <c r="I16">
         <v>1</v>

--- a/results/resultado_consolidado/graph2.xlsx
+++ b/results/resultado_consolidado/graph2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Georg\Documents\GitHub\covid-model\results\resultado_consolidado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2603A7DA-F1F4-4AF4-B2C4-BBB5C817CC38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040029A8-2F10-497E-B99D-98B9ADB11F5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4AC76AC7-E5A1-4C07-9F5F-EE5E7DC34869}"/>
   </bookViews>
@@ -1907,7 +1907,7 @@
         <c:axId val="926647024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.8"/>
+          <c:max val="1.5"/>
           <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2899,7 +2899,7 @@
         <c:axId val="926647024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.8"/>
+          <c:max val="1.5"/>
           <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>

--- a/results/resultado_consolidado/graph2.xlsx
+++ b/results/resultado_consolidado/graph2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Georg\Documents\GitHub\covid-model\results\resultado_consolidado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040029A8-2F10-497E-B99D-98B9ADB11F5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395759ED-99CB-4125-9087-9F731C7F40A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4AC76AC7-E5A1-4C07-9F5F-EE5E7DC34869}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4AC76AC7-E5A1-4C07-9F5F-EE5E7DC34869}"/>
   </bookViews>
   <sheets>
-    <sheet name="9 nov" sheetId="2" r:id="rId1"/>
-    <sheet name="9 oct" sheetId="1" r:id="rId2"/>
-    <sheet name="9 sep" sheetId="3" r:id="rId3"/>
+    <sheet name="11 nov" sheetId="2" r:id="rId1"/>
+    <sheet name="11 oct" sheetId="1" r:id="rId2"/>
+    <sheet name="11 sep" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -189,7 +189,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9 nov'!$D$1</c:f>
+              <c:f>'11 nov'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -539,108 +539,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'9 nov'!$H$2:$H$16</c:f>
+                <c:f>'11 nov'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.19931155413046009</c:v>
+                    <c:v>0.18662430828166887</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.19120984190870993</c:v>
+                    <c:v>0.20903672015666697</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.19370059601776091</c:v>
+                    <c:v>0.18253430285345695</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.16174921785386509</c:v>
+                    <c:v>0.20472698394683386</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.17057276556568002</c:v>
+                    <c:v>0.17447845247789795</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.22033709754081998</c:v>
+                    <c:v>0.1904840515919779</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.19889341427389307</c:v>
+                    <c:v>0.18001794429670603</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.20027566961147003</c:v>
+                    <c:v>0.20466074636593001</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.20516535451351992</c:v>
+                    <c:v>0.20751305700486</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.22447961819863993</c:v>
+                    <c:v>0.23842193901364994</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.17118684086487002</c:v>
+                    <c:v>0.19614884117039</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.23332130611831015</c:v>
+                    <c:v>0.21212429897460994</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.22648796034045993</c:v>
+                    <c:v>0.22789052039825997</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.23583661494218</c:v>
+                    <c:v>0.25065895516264991</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.15576651105666994</c:v>
+                    <c:v>0.21616756063725995</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'9 nov'!$G$2:$G$16</c:f>
+                <c:f>'11 nov'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.22066440865161596</c:v>
+                    <c:v>0.23570892685046008</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.22801963019835503</c:v>
+                    <c:v>0.22592333506765094</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.24097549659352402</c:v>
+                    <c:v>0.19670512145158803</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.21641539077845995</c:v>
+                    <c:v>0.20825184083827908</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.22597509922361292</c:v>
+                    <c:v>0.209009794759623</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.19407406723581</c:v>
+                    <c:v>0.25574235542623303</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.23549672202385297</c:v>
+                    <c:v>0.21003017204482499</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.2638149398172519</c:v>
+                    <c:v>0.24118429647649009</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.2324047845896331</c:v>
+                    <c:v>0.25792280570445103</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.26653085008929711</c:v>
+                    <c:v>0.235489222301695</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.26612042425747495</c:v>
+                    <c:v>0.25014358079900911</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.22989682045037285</c:v>
+                    <c:v>0.26645471701596202</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.24331701146922902</c:v>
+                    <c:v>0.26810933871586007</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.21879034698454003</c:v>
+                    <c:v>0.23526988202857402</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.29130915522046197</c:v>
+                    <c:v>0.229179166670746</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -661,44 +661,44 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'9 nov'!$A$2:$A$16</c:f>
+              <c:f>'11 nov'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Azua</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>La Romana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sánchez Ramírez</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>San Juan</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>La Romana</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sánchez Ramírez</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>San Cristóbal</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>San Pedro de Macorís</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>La Vega</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>La Altagracia</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Duarte</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Puerto Plata</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Espaillat</c:v>
@@ -714,54 +714,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9 nov'!$D$2:$D$16</c:f>
+              <c:f>'11 nov'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.83709236393601605</c:v>
+                  <c:v>0.82457694313241203</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.904946712727692</c:v>
+                  <c:v>0.85933817119727895</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91909783777640397</c:v>
+                  <c:v>0.87151987762035099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92459077076098395</c:v>
+                  <c:v>0.88902715742878402</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94294598620810499</c:v>
+                  <c:v>0.89006913053999004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94698836403693998</c:v>
+                  <c:v>0.92886713832977597</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96991293540784096</c:v>
+                  <c:v>0.95946793529626495</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0357347975273301</c:v>
+                  <c:v>1.0143827086549699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.06055486958616</c:v>
+                  <c:v>1.0187629989690701</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.06579306159661</c:v>
+                  <c:v>1.0447994634409801</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0658009885955</c:v>
+                  <c:v>1.05598141816611</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.06793038536295</c:v>
+                  <c:v>1.0575400661308401</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.10786488376917</c:v>
+                  <c:v>1.08294347061452</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1106296857019999</c:v>
+                  <c:v>1.1317097837548</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1547608191308201</c:v>
+                  <c:v>1.1410431404741099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -778,7 +778,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9 nov'!$I$1</c:f>
+              <c:f>'11 nov'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -836,7 +836,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'9 nov'!$I$2:$I$16</c:f>
+              <c:f>'11 nov'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1080,7 +1080,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9 oct'!$D$1</c:f>
+              <c:f>'11 oct'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1304,6 +1304,30 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
+            <c:idx val="9"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="25400">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-0A5E-4C3C-B530-0E9ED826D7D5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="10"/>
             <c:marker>
               <c:symbol val="square"/>
@@ -1430,108 +1454,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'9 oct'!$H$2:$H$16</c:f>
+                <c:f>'11 oct'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>8.7826463661679899E-2</c:v>
+                    <c:v>6.899353954587395E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.5706525572551873E-2</c:v>
+                    <c:v>9.9304134582807957E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.5211524568300945E-2</c:v>
+                    <c:v>7.2305879561451958E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.5064587659657076E-2</c:v>
+                    <c:v>8.0300669669803981E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6.2026462794324999E-2</c:v>
+                    <c:v>6.7672610719196946E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.6524177959120032E-2</c:v>
+                    <c:v>9.1257067094882904E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.3096637825202047E-2</c:v>
+                    <c:v>7.3730125797031087E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7.7493552609669947E-2</c:v>
+                    <c:v>8.2661124405024156E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.1855447305353981E-2</c:v>
+                    <c:v>7.5656181727716043E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>9.8320401489930043E-2</c:v>
+                    <c:v>8.2529766534289895E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>8.344833757347403E-2</c:v>
+                    <c:v>7.184801539544694E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>6.0939338128943921E-2</c:v>
+                    <c:v>8.7517255216376988E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>8.4549696292169907E-2</c:v>
+                    <c:v>8.2845923614955019E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>6.9759114012359902E-2</c:v>
+                    <c:v>6.7757807659599933E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>6.5053995019739963E-2</c:v>
+                    <c:v>7.2748717800519946E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'9 oct'!$G$2:$G$16</c:f>
+                <c:f>'11 oct'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>9.3934267678300043E-2</c:v>
+                    <c:v>0.11075971085359304</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>9.3062253968542064E-2</c:v>
+                    <c:v>7.4838694636754077E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.7849351647037E-2</c:v>
+                    <c:v>9.9183640876309043E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>9.1378593969417055E-2</c:v>
+                    <c:v>8.752143247209998E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.0491992895143971E-2</c:v>
+                    <c:v>8.2080910160582055E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>6.4268923147152934E-2</c:v>
+                    <c:v>8.9912989354070993E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.7654730324927987E-2</c:v>
+                    <c:v>6.7522758953026951E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7.6629987492329077E-2</c:v>
+                    <c:v>7.0089210006961999E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.3791437869744958E-2</c:v>
+                    <c:v>8.4472748640047057E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.2946292461920978E-2</c:v>
+                    <c:v>8.9599342299502061E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7.4807879562293955E-2</c:v>
+                    <c:v>8.1255031708360015E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>8.3905391020461018E-2</c:v>
+                    <c:v>8.9806796510827014E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>8.0102132426540074E-2</c:v>
+                    <c:v>9.3270917525528074E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>7.256206909347207E-2</c:v>
+                    <c:v>7.8426068639668056E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>8.7189353684550053E-2</c:v>
+                    <c:v>7.4479040975627964E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1552,44 +1576,44 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'9 oct'!$A$2:$A$16</c:f>
+              <c:f>'11 oct'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Azua</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>La Romana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sánchez Ramírez</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>San Juan</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>La Romana</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sánchez Ramírez</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>San Cristóbal</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>San Pedro de Macorís</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>La Vega</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>La Altagracia</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Duarte</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Puerto Plata</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Espaillat</c:v>
@@ -1605,54 +1629,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9 oct'!$D$2:$D$16</c:f>
+              <c:f>'11 oct'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.86240375393189295</c:v>
+                  <c:v>0.84420699676193101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91376843743598501</c:v>
+                  <c:v>0.876387272854805</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90451947772173302</c:v>
+                  <c:v>0.95885496404361503</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98589892680256297</c:v>
+                  <c:v>0.90138441629718902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91574526142662505</c:v>
+                  <c:v>0.90223112408525896</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91826843475477304</c:v>
+                  <c:v>0.92782951959194004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.941954716115875</c:v>
+                  <c:v>0.91336787787349405</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.95455940228692204</c:v>
+                  <c:v>0.94504846570851597</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.90700021769608696</c:v>
+                  <c:v>0.96615441826134996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.976695601399999</c:v>
+                  <c:v>1.0022478819390599</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99481846822319897</c:v>
+                  <c:v>0.935688191402548</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.95647039216798302</c:v>
+                  <c:v>0.98298600733295505</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.93965423692130901</c:v>
+                  <c:v>0.96469973824546396</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.011472059011</c:v>
+                  <c:v>1.02646540550714</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0130448111327399</c:v>
+                  <c:v>1.0240570017033901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1669,7 +1693,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9 nov'!$I$1</c:f>
+              <c:f>'11 nov'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1727,44 +1751,44 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'9 oct'!$A$2:$A$16</c:f>
+              <c:f>'11 oct'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Azua</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>La Romana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sánchez Ramírez</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>San Juan</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>La Romana</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sánchez Ramírez</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>San Cristóbal</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>San Pedro de Macorís</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>La Vega</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>La Altagracia</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Duarte</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Puerto Plata</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Espaillat</c:v>
@@ -1780,7 +1804,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9 nov'!$I$2:$I$16</c:f>
+              <c:f>'11 nov'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2024,7 +2048,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9 sep'!$D$1</c:f>
+              <c:f>'11 sep'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2086,11 +2110,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2110,11 +2134,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2158,11 +2182,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2182,11 +2206,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2278,11 +2302,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2302,11 +2326,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2422,108 +2446,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'9 oct'!$H$2:$H$16</c:f>
+                <c:f>'11 oct'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>8.7826463661679899E-2</c:v>
+                    <c:v>6.899353954587395E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.5706525572551873E-2</c:v>
+                    <c:v>9.9304134582807957E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.5211524568300945E-2</c:v>
+                    <c:v>7.2305879561451958E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.5064587659657076E-2</c:v>
+                    <c:v>8.0300669669803981E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6.2026462794324999E-2</c:v>
+                    <c:v>6.7672610719196946E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.6524177959120032E-2</c:v>
+                    <c:v>9.1257067094882904E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.3096637825202047E-2</c:v>
+                    <c:v>7.3730125797031087E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7.7493552609669947E-2</c:v>
+                    <c:v>8.2661124405024156E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.1855447305353981E-2</c:v>
+                    <c:v>7.5656181727716043E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>9.8320401489930043E-2</c:v>
+                    <c:v>8.2529766534289895E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>8.344833757347403E-2</c:v>
+                    <c:v>7.184801539544694E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>6.0939338128943921E-2</c:v>
+                    <c:v>8.7517255216376988E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>8.4549696292169907E-2</c:v>
+                    <c:v>8.2845923614955019E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>6.9759114012359902E-2</c:v>
+                    <c:v>6.7757807659599933E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>6.5053995019739963E-2</c:v>
+                    <c:v>7.2748717800519946E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'9 oct'!$G$2:$G$16</c:f>
+                <c:f>'11 oct'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>9.3934267678300043E-2</c:v>
+                    <c:v>0.11075971085359304</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>9.3062253968542064E-2</c:v>
+                    <c:v>7.4838694636754077E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.7849351647037E-2</c:v>
+                    <c:v>9.9183640876309043E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>9.1378593969417055E-2</c:v>
+                    <c:v>8.752143247209998E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.0491992895143971E-2</c:v>
+                    <c:v>8.2080910160582055E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>6.4268923147152934E-2</c:v>
+                    <c:v>8.9912989354070993E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.7654730324927987E-2</c:v>
+                    <c:v>6.7522758953026951E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7.6629987492329077E-2</c:v>
+                    <c:v>7.0089210006961999E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.3791437869744958E-2</c:v>
+                    <c:v>8.4472748640047057E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.2946292461920978E-2</c:v>
+                    <c:v>8.9599342299502061E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7.4807879562293955E-2</c:v>
+                    <c:v>8.1255031708360015E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>8.3905391020461018E-2</c:v>
+                    <c:v>8.9806796510827014E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>8.0102132426540074E-2</c:v>
+                    <c:v>9.3270917525528074E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>7.256206909347207E-2</c:v>
+                    <c:v>7.8426068639668056E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>8.7189353684550053E-2</c:v>
+                    <c:v>7.4479040975627964E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2544,44 +2568,44 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'9 oct'!$A$2:$A$16</c:f>
+              <c:f>'11 oct'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Azua</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>La Romana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sánchez Ramírez</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>San Juan</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>La Romana</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sánchez Ramírez</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>San Cristóbal</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>San Pedro de Macorís</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>La Vega</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>La Altagracia</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Duarte</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Puerto Plata</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Espaillat</c:v>
@@ -2597,54 +2621,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9 sep'!$D$2:$D$16</c:f>
+              <c:f>'11 sep'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.98990143053269997</c:v>
+                  <c:v>0.98767338750954103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.903119498151566</c:v>
+                  <c:v>1.1079574297062</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.10194614370716</c:v>
+                  <c:v>0.94392636779600003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93784199781116095</c:v>
+                  <c:v>0.98494639084683</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93445998279537101</c:v>
+                  <c:v>1.0484928052814599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.04473821646043</c:v>
+                  <c:v>0.89886024948447796</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95497132516827798</c:v>
+                  <c:v>0.94444991124489897</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.89856696824300397</c:v>
+                  <c:v>0.90993249151314803</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.95924885984392205</c:v>
+                  <c:v>0.97312861170889697</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.924076602681145</c:v>
+                  <c:v>1.0475639771832801</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0369685879975299</c:v>
+                  <c:v>0.95422139805877804</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.98169745136328401</c:v>
+                  <c:v>0.931437201389549</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.91510555664918303</c:v>
+                  <c:v>0.90823969594959697</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.905941911722841</c:v>
+                  <c:v>0.90282733997015197</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.968083626797416</c:v>
+                  <c:v>0.966543755723271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2661,7 +2685,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9 nov'!$I$1</c:f>
+              <c:f>'11 nov'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2719,44 +2743,44 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'9 oct'!$A$2:$A$16</c:f>
+              <c:f>'11 oct'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Azua</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>La Romana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sánchez Ramírez</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>San Juan</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>La Romana</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sánchez Ramírez</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>San Cristóbal</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>San Pedro de Macorís</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>La Vega</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>La Altagracia</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Duarte</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Puerto Plata</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Espaillat</c:v>
@@ -2772,7 +2796,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9 nov'!$I$2:$I$16</c:f>
+              <c:f>'11 nov'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5087,8 +5111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A870B0F-A2EC-457C-A8A5-5E639A765E29}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5131,27 +5155,27 @@
         <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="C2">
-        <v>0.84826952907928999</v>
+        <v>0.83943979956890102</v>
       </c>
       <c r="D2">
-        <v>0.83709236393601605</v>
+        <v>0.82457694313241203</v>
       </c>
       <c r="E2">
-        <v>0.62760512042767402</v>
+        <v>0.60373087271844095</v>
       </c>
       <c r="F2">
-        <v>1.0475810832097501</v>
+        <v>1.0260641078505699</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G16" si="0">C2-E2</f>
-        <v>0.22066440865161596</v>
+        <v>0.23570892685046008</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H16" si="1">F2-C2</f>
-        <v>0.19931155413046009</v>
+        <v>0.18662430828166887</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5160,30 +5184,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="C3">
-        <v>0.91340160396831005</v>
+        <v>0.87556555891350296</v>
       </c>
       <c r="D3">
-        <v>0.904946712727692</v>
+        <v>0.85933817119727895</v>
       </c>
       <c r="E3">
-        <v>0.68538197376995502</v>
+        <v>0.64964222384585202</v>
       </c>
       <c r="F3">
-        <v>1.10461144587702</v>
+        <v>1.0846022790701699</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>0.22801963019835503</v>
+        <v>0.22592333506765094</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>0.19120984190870993</v>
+        <v>0.20903672015666697</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5192,30 +5216,30 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="C4">
-        <v>0.92994871822415903</v>
+        <v>0.88726347735523303</v>
       </c>
       <c r="D4">
-        <v>0.91909783777640397</v>
+        <v>0.87151987762035099</v>
       </c>
       <c r="E4">
-        <v>0.68897322163063501</v>
+        <v>0.690558355903645</v>
       </c>
       <c r="F4">
-        <v>1.1236493142419199</v>
+        <v>1.06979778020869</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.24097549659352402</v>
+        <v>0.19670512145158803</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>0.19370059601776091</v>
+        <v>0.18253430285345695</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5224,30 +5248,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="C5">
-        <v>0.93525676461915497</v>
+        <v>0.90222010901666605</v>
       </c>
       <c r="D5">
-        <v>0.92459077076098395</v>
+        <v>0.88902715742878402</v>
       </c>
       <c r="E5">
-        <v>0.71884137384069502</v>
+        <v>0.69396826817838697</v>
       </c>
       <c r="F5">
-        <v>1.0970059824730201</v>
+        <v>1.1069470929634999</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.21641539077845995</v>
+        <v>0.20825184083827908</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>0.16174921785386509</v>
+        <v>0.20472698394683386</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5256,30 +5280,30 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="C6">
-        <v>0.95701974226404996</v>
+        <v>0.90269137660778198</v>
       </c>
       <c r="D6">
-        <v>0.94294598620810499</v>
+        <v>0.89006913053999004</v>
       </c>
       <c r="E6">
-        <v>0.73104464304043704</v>
+        <v>0.69368158184815898</v>
       </c>
       <c r="F6">
-        <v>1.12759250782973</v>
+        <v>1.0771698290856799</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.22597509922361292</v>
+        <v>0.209009794759623</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>0.17057276556568002</v>
+        <v>0.17447845247789795</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5288,30 +5312,30 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="C7">
-        <v>0.96067875358028998</v>
+        <v>0.946261254749722</v>
       </c>
       <c r="D7">
-        <v>0.94698836403693998</v>
+        <v>0.92886713832977597</v>
       </c>
       <c r="E7">
-        <v>0.76660468634447998</v>
+        <v>0.69051889932348898</v>
       </c>
       <c r="F7">
-        <v>1.18101585112111</v>
+        <v>1.1367453063416999</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.19407406723581</v>
+        <v>0.25574235542623303</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>0.22033709754081998</v>
+        <v>0.1904840515919779</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5320,30 +5344,30 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="C8">
-        <v>0.97688381521936696</v>
+        <v>0.96790611356032397</v>
       </c>
       <c r="D8">
-        <v>0.96991293540784096</v>
+        <v>0.95946793529626495</v>
       </c>
       <c r="E8">
-        <v>0.74138709319551399</v>
+        <v>0.75787594151549897</v>
       </c>
       <c r="F8">
-        <v>1.17577722949326</v>
+        <v>1.14792405785703</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.23549672202385297</v>
+        <v>0.21003017204482499</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>0.19889341427389307</v>
+        <v>0.18001794429670603</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5355,27 +5379,27 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="C9">
-        <v>1.0543183918496699</v>
+        <v>1.0274261380113301</v>
       </c>
       <c r="D9">
-        <v>1.0357347975273301</v>
+        <v>1.0143827086549699</v>
       </c>
       <c r="E9">
-        <v>0.79050345203241801</v>
+        <v>0.78624184153484</v>
       </c>
       <c r="F9">
-        <v>1.2545940614611399</v>
+        <v>1.2320868843772601</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.2638149398172519</v>
+        <v>0.24118429647649009</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>0.20027566961147003</v>
+        <v>0.20466074636593001</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5384,30 +5408,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="C10">
-        <v>1.0788949040393401</v>
+        <v>1.03171609131873</v>
       </c>
       <c r="D10">
-        <v>1.06055486958616</v>
+        <v>1.0187629989690701</v>
       </c>
       <c r="E10">
-        <v>0.84649011944970698</v>
+        <v>0.77379328561427896</v>
       </c>
       <c r="F10">
-        <v>1.28406025855286</v>
+        <v>1.23922914832359</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.2324047845896331</v>
+        <v>0.25792280570445103</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>0.20516535451351992</v>
+        <v>0.20751305700486</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5416,30 +5440,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="C11">
-        <v>1.0897914697487201</v>
+        <v>1.07033857016242</v>
       </c>
       <c r="D11">
-        <v>1.06579306159661</v>
+        <v>1.0447994634409801</v>
       </c>
       <c r="E11">
-        <v>0.82326061965942299</v>
+        <v>0.83484934786072496</v>
       </c>
       <c r="F11">
-        <v>1.31427108794736</v>
+        <v>1.3087605091760699</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.26653085008929711</v>
+        <v>0.235489222301695</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>0.22447961819863993</v>
+        <v>0.23842193901364994</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5448,30 +5472,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="C12">
-        <v>1.0757713478761499</v>
+        <v>1.0764573767408301</v>
       </c>
       <c r="D12">
-        <v>1.0658009885955</v>
+        <v>1.05598141816611</v>
       </c>
       <c r="E12">
-        <v>0.80965092361867497</v>
+        <v>0.82631379594182097</v>
       </c>
       <c r="F12">
-        <v>1.2469581887410199</v>
+        <v>1.2726062179112201</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0.26612042425747495</v>
+        <v>0.25014358079900911</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>0.17118684086487002</v>
+        <v>0.19614884117039</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5480,30 +5504,30 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="C13">
-        <v>1.0829211382050099</v>
+        <v>1.07953652725795</v>
       </c>
       <c r="D13">
-        <v>1.06793038536295</v>
+        <v>1.0575400661308401</v>
       </c>
       <c r="E13">
-        <v>0.85302431775463705</v>
+        <v>0.813081810241988</v>
       </c>
       <c r="F13">
-        <v>1.31624244432332</v>
+        <v>1.29166082623256</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.22989682045037285</v>
+        <v>0.26645471701596202</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>0.23332130611831015</v>
+        <v>0.21212429897460994</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5515,27 +5539,27 @@
         <v>19</v>
       </c>
       <c r="B14" s="1">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="C14">
-        <v>1.1175700480755</v>
+        <v>1.1069577792864</v>
       </c>
       <c r="D14">
-        <v>1.10786488376917</v>
+        <v>1.08294347061452</v>
       </c>
       <c r="E14">
-        <v>0.87425303660627096</v>
+        <v>0.83884844057053998</v>
       </c>
       <c r="F14">
-        <v>1.3440580084159599</v>
+        <v>1.33484829968466</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0.24331701146922902</v>
+        <v>0.26810933871586007</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>0.22648796034045993</v>
+        <v>0.22789052039825997</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -5547,27 +5571,27 @@
         <v>6</v>
       </c>
       <c r="B15" s="1">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="C15">
-        <v>1.12680704317295</v>
+        <v>1.13680950068174</v>
       </c>
       <c r="D15">
-        <v>1.1106296857019999</v>
+        <v>1.1317097837548</v>
       </c>
       <c r="E15">
-        <v>0.90801669618840997</v>
+        <v>0.90153961865316601</v>
       </c>
       <c r="F15">
-        <v>1.36264365811513</v>
+        <v>1.3874684558443899</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0.21879034698454003</v>
+        <v>0.23526988202857402</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>0.23583661494218</v>
+        <v>0.25065895516264991</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -5579,27 +5603,27 @@
         <v>7</v>
       </c>
       <c r="B16" s="1">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="C16">
-        <v>1.16332582051769</v>
+        <v>1.14614859338941</v>
       </c>
       <c r="D16">
-        <v>1.1547608191308201</v>
+        <v>1.1410431404741099</v>
       </c>
       <c r="E16">
-        <v>0.87201666529722799</v>
+        <v>0.91696942671866399</v>
       </c>
       <c r="F16">
-        <v>1.3190923315743599</v>
+        <v>1.3623161540266699</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0.29130915522046197</v>
+        <v>0.229179166670746</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>0.15576651105666994</v>
+        <v>0.21616756063725995</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -5620,7 +5644,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5663,27 +5687,27 @@
         <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>44113</v>
+        <v>44115</v>
       </c>
       <c r="C2">
-        <v>0.86653725178433305</v>
+        <v>0.85095385389482303</v>
       </c>
       <c r="D2">
-        <v>0.86240375393189295</v>
+        <v>0.84420699676193101</v>
       </c>
       <c r="E2">
-        <v>0.77260298410603301</v>
+        <v>0.74019414304122999</v>
       </c>
       <c r="F2">
-        <v>0.95436371544601295</v>
+        <v>0.91994739344069698</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G16" si="0">C2-E2</f>
-        <v>9.3934267678300043E-2</v>
+        <v>0.11075971085359304</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H16" si="1">F2-C2</f>
-        <v>8.7826463661679899E-2</v>
+        <v>6.899353954587395E-2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5692,30 +5716,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
-        <v>44113</v>
+        <v>44115</v>
       </c>
       <c r="C3">
-        <v>0.91603553804095805</v>
+        <v>0.87677078331972202</v>
       </c>
       <c r="D3">
-        <v>0.91376843743598501</v>
+        <v>0.876387272854805</v>
       </c>
       <c r="E3">
-        <v>0.82297328407241599</v>
+        <v>0.80193208868296795</v>
       </c>
       <c r="F3">
-        <v>1.0017420636135099</v>
+        <v>0.97607491790252998</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>9.3062253968542064E-2</v>
+        <v>7.4838694636754077E-2</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>8.5706525572551873E-2</v>
+        <v>9.9304134582807957E-2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5724,30 +5748,30 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
-        <v>44113</v>
+        <v>44115</v>
       </c>
       <c r="C4">
-        <v>0.90738954147003603</v>
+        <v>0.95949396440859802</v>
       </c>
       <c r="D4">
-        <v>0.90451947772173302</v>
+        <v>0.95885496404361503</v>
       </c>
       <c r="E4">
-        <v>0.81954018982299903</v>
+        <v>0.86031032353228898</v>
       </c>
       <c r="F4">
-        <v>0.99260106603833698</v>
+        <v>1.03179984397005</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>8.7849351647037E-2</v>
+        <v>9.9183640876309043E-2</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>8.5211524568300945E-2</v>
+        <v>7.2305879561451958E-2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5756,30 +5780,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>44113</v>
+        <v>44115</v>
       </c>
       <c r="C5">
-        <v>0.98843526317550301</v>
+        <v>0.90247873980934101</v>
       </c>
       <c r="D5">
-        <v>0.98589892680256297</v>
+        <v>0.90138441629718902</v>
       </c>
       <c r="E5">
-        <v>0.89705666920608595</v>
+        <v>0.81495730733724103</v>
       </c>
       <c r="F5">
-        <v>1.0734998508351601</v>
+        <v>0.98277940947914499</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>9.1378593969417055E-2</v>
+        <v>8.752143247209998E-2</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>8.5064587659657076E-2</v>
+        <v>8.0300669669803981E-2</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5788,30 +5812,30 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>44113</v>
+        <v>44115</v>
       </c>
       <c r="C6">
-        <v>0.91844181006366399</v>
+        <v>0.90697105093019303</v>
       </c>
       <c r="D6">
-        <v>0.91574526142662505</v>
+        <v>0.90223112408525896</v>
       </c>
       <c r="E6">
-        <v>0.83794981716852002</v>
+        <v>0.82489014076961098</v>
       </c>
       <c r="F6">
-        <v>0.98046827285798899</v>
+        <v>0.97464366164938998</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>8.0491992895143971E-2</v>
+        <v>8.2080910160582055E-2</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>6.2026462794324999E-2</v>
+        <v>6.7672610719196946E-2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5820,30 +5844,30 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
-        <v>44113</v>
+        <v>44115</v>
       </c>
       <c r="C7">
-        <v>0.91811870296514997</v>
+        <v>0.93101259687820703</v>
       </c>
       <c r="D7">
-        <v>0.91826843475477304</v>
+        <v>0.92782951959194004</v>
       </c>
       <c r="E7">
-        <v>0.85384977981799703</v>
+        <v>0.84109960752413604</v>
       </c>
       <c r="F7">
-        <v>0.99464288092427</v>
+        <v>1.0222696639730899</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>6.4268923147152934E-2</v>
+        <v>8.9912989354070993E-2</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>7.6524177959120032E-2</v>
+        <v>9.1257067094882904E-2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5852,30 +5876,30 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>44113</v>
+        <v>44115</v>
       </c>
       <c r="C8">
-        <v>0.94345173803335802</v>
+        <v>0.91426005891416695</v>
       </c>
       <c r="D8">
-        <v>0.941954716115875</v>
+        <v>0.91336787787349405</v>
       </c>
       <c r="E8">
-        <v>0.85579700770843004</v>
+        <v>0.84673729996114</v>
       </c>
       <c r="F8">
-        <v>1.0265483758585601</v>
+        <v>0.98799018471119804</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>8.7654730324927987E-2</v>
+        <v>6.7522758953026951E-2</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>8.3096637825202047E-2</v>
+        <v>7.3730125797031087E-2</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5887,27 +5911,27 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>44113</v>
+        <v>44115</v>
       </c>
       <c r="C9">
-        <v>0.95572852759209004</v>
+        <v>0.94555179797464595</v>
       </c>
       <c r="D9">
-        <v>0.95455940228692204</v>
+        <v>0.94504846570851597</v>
       </c>
       <c r="E9">
-        <v>0.87909854009976096</v>
+        <v>0.87546258796768395</v>
       </c>
       <c r="F9">
-        <v>1.03322208020176</v>
+        <v>1.0282129223796701</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>7.6629987492329077E-2</v>
+        <v>7.0089210006961999E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>7.7493552609669947E-2</v>
+        <v>8.2661124405024156E-2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5916,30 +5940,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>44113</v>
+        <v>44115</v>
       </c>
       <c r="C10">
-        <v>0.90976708015082397</v>
+        <v>0.96693021595974404</v>
       </c>
       <c r="D10">
-        <v>0.90700021769608696</v>
+        <v>0.96615441826134996</v>
       </c>
       <c r="E10">
-        <v>0.83597564228107901</v>
+        <v>0.88245746731969699</v>
       </c>
       <c r="F10">
-        <v>0.98162252745617795</v>
+        <v>1.0425863976874601</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>7.3791437869744958E-2</v>
+        <v>8.4472748640047057E-2</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>7.1855447305353981E-2</v>
+        <v>7.5656181727716043E-2</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5948,30 +5972,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>44113</v>
+        <v>44115</v>
       </c>
       <c r="C11">
-        <v>0.97717990544162003</v>
+        <v>1.00610271517155</v>
       </c>
       <c r="D11">
-        <v>0.976695601399999</v>
+        <v>1.0022478819390599</v>
       </c>
       <c r="E11">
-        <v>0.89423361297969906</v>
+        <v>0.91650337287204797</v>
       </c>
       <c r="F11">
-        <v>1.0755003069315501</v>
+        <v>1.0886324817058399</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>8.2946292461920978E-2</v>
+        <v>8.9599342299502061E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>9.8320401489930043E-2</v>
+        <v>8.2529766534289895E-2</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5980,30 +6004,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>44113</v>
+        <v>44115</v>
       </c>
       <c r="C12">
-        <v>0.99694891945985598</v>
+        <v>0.93516868138109299</v>
       </c>
       <c r="D12">
-        <v>0.99481846822319897</v>
+        <v>0.935688191402548</v>
       </c>
       <c r="E12">
-        <v>0.92214103989756202</v>
+        <v>0.85391364967273298</v>
       </c>
       <c r="F12">
-        <v>1.08039725703333</v>
+        <v>1.0070166967765399</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>7.4807879562293955E-2</v>
+        <v>8.1255031708360015E-2</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>8.344833757347403E-2</v>
+        <v>7.184801539544694E-2</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -6012,30 +6036,30 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1">
-        <v>44113</v>
+        <v>44115</v>
       </c>
       <c r="C13">
-        <v>0.95748701723604601</v>
+        <v>0.98375386310992297</v>
       </c>
       <c r="D13">
-        <v>0.95647039216798302</v>
+        <v>0.98298600733295505</v>
       </c>
       <c r="E13">
-        <v>0.87358162621558499</v>
+        <v>0.89394706659909595</v>
       </c>
       <c r="F13">
-        <v>1.0184263553649899</v>
+        <v>1.0712711183263</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>8.3905391020461018E-2</v>
+        <v>8.9806796510827014E-2</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>6.0939338128943921E-2</v>
+        <v>8.7517255216376988E-2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -6047,27 +6071,27 @@
         <v>19</v>
       </c>
       <c r="B14" s="1">
-        <v>44113</v>
+        <v>44115</v>
       </c>
       <c r="C14">
-        <v>0.94397216040770004</v>
+        <v>0.96719623769740504</v>
       </c>
       <c r="D14">
-        <v>0.93965423692130901</v>
+        <v>0.96469973824546396</v>
       </c>
       <c r="E14">
-        <v>0.86387002798115997</v>
+        <v>0.87392532017187696</v>
       </c>
       <c r="F14">
-        <v>1.02852185669987</v>
+        <v>1.0500421613123601</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>8.0102132426540074E-2</v>
+        <v>9.3270917525528074E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>8.4549696292169907E-2</v>
+        <v>8.2845923614955019E-2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -6079,27 +6103,27 @@
         <v>6</v>
       </c>
       <c r="B15" s="1">
-        <v>44113</v>
+        <v>44115</v>
       </c>
       <c r="C15">
-        <v>1.0179950085821801</v>
+        <v>1.0287406258090901</v>
       </c>
       <c r="D15">
-        <v>1.011472059011</v>
+        <v>1.02646540550714</v>
       </c>
       <c r="E15">
-        <v>0.94543293948870799</v>
+        <v>0.95031455716942204</v>
       </c>
       <c r="F15">
-        <v>1.08775412259454</v>
+        <v>1.09649843346869</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>7.256206909347207E-2</v>
+        <v>7.8426068639668056E-2</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>6.9759114012359902E-2</v>
+        <v>6.7757807659599933E-2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -6111,27 +6135,27 @@
         <v>7</v>
       </c>
       <c r="B16" s="1">
-        <v>44113</v>
+        <v>44115</v>
       </c>
       <c r="C16">
-        <v>1.01384427605824</v>
+        <v>1.0264175763084999</v>
       </c>
       <c r="D16">
-        <v>1.0130448111327399</v>
+        <v>1.0240570017033901</v>
       </c>
       <c r="E16">
-        <v>0.92665492237368996</v>
+        <v>0.95193853533287198</v>
       </c>
       <c r="F16">
-        <v>1.07889827107798</v>
+        <v>1.0991662941090199</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>8.7189353684550053E-2</v>
+        <v>7.4479040975627964E-2</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>6.5053995019739963E-2</v>
+        <v>7.2748717800519946E-2</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -6151,8 +6175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFCAF56-E988-48E4-BDA2-C84256C27DCF}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView topLeftCell="A13" zoomScale="97" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6195,27 +6219,27 @@
         <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>44083</v>
+        <v>44085</v>
       </c>
       <c r="C2">
-        <v>0.98923004729028496</v>
+        <v>0.99208220852491502</v>
       </c>
       <c r="D2">
-        <v>0.98990143053269997</v>
+        <v>0.98767338750954103</v>
       </c>
       <c r="E2">
-        <v>0.91064147130695705</v>
+        <v>0.90772060246988995</v>
       </c>
       <c r="F2">
-        <v>1.07533041945189</v>
+        <v>1.0719879863766599</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G16" si="0">C2-E2</f>
-        <v>7.8588575983327913E-2</v>
+        <v>8.4361606055025073E-2</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H16" si="1">F2-C2</f>
-        <v>8.6100372161605043E-2</v>
+        <v>7.9905777851744908E-2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -6224,30 +6248,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
-        <v>44083</v>
+        <v>44085</v>
       </c>
       <c r="C3">
-        <v>0.90262470119945504</v>
+        <v>1.1090616753229501</v>
       </c>
       <c r="D3">
-        <v>0.903119498151566</v>
+        <v>1.1079574297062</v>
       </c>
       <c r="E3">
-        <v>0.82565760503207597</v>
+        <v>1.0062930779725501</v>
       </c>
       <c r="F3">
-        <v>0.97713662656894196</v>
+        <v>1.20170629514104</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>7.6967096167379068E-2</v>
+        <v>0.1027685973504</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>7.451192536948692E-2</v>
+        <v>9.2644619818089913E-2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -6256,30 +6280,30 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
-        <v>44083</v>
+        <v>44085</v>
       </c>
       <c r="C4">
-        <v>1.1064244599097499</v>
+        <v>0.94648435453963997</v>
       </c>
       <c r="D4">
-        <v>1.10194614370716</v>
+        <v>0.94392636779600003</v>
       </c>
       <c r="E4">
-        <v>1.01331123776637</v>
+        <v>0.85736748431257803</v>
       </c>
       <c r="F4">
-        <v>1.1969772470494799</v>
+        <v>1.01151077754292</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>9.3113222143379915E-2</v>
+        <v>8.911687022706194E-2</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>9.0552787139730029E-2</v>
+        <v>6.5026423003279987E-2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -6288,30 +6312,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>44083</v>
+        <v>44085</v>
       </c>
       <c r="C5">
-        <v>0.93823225602643801</v>
+        <v>0.98773664540294304</v>
       </c>
       <c r="D5">
-        <v>0.93784199781116095</v>
+        <v>0.98494639084683</v>
       </c>
       <c r="E5">
-        <v>0.85916721040329003</v>
+        <v>0.90773528775927903</v>
       </c>
       <c r="F5">
-        <v>1.00890431239236</v>
+        <v>1.07902104888558</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>7.9065045623147978E-2</v>
+        <v>8.0001357643664006E-2</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>7.0672056365921998E-2</v>
+        <v>9.1284403482637E-2</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -6320,30 +6344,30 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>44083</v>
+        <v>44085</v>
       </c>
       <c r="C6">
-        <v>0.93542051650213398</v>
+        <v>1.05065630036639</v>
       </c>
       <c r="D6">
-        <v>0.93445998279537101</v>
+        <v>1.0484928052814599</v>
       </c>
       <c r="E6">
-        <v>0.86012314164896198</v>
+        <v>0.96723257717375499</v>
       </c>
       <c r="F6">
-        <v>1.00872741388861</v>
+        <v>1.1352356845763301</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>7.5297374853172006E-2</v>
+        <v>8.3423723192635024E-2</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>7.3306897386476E-2</v>
+        <v>8.4579384209940045E-2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -6352,30 +6376,30 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
-        <v>44083</v>
+        <v>44085</v>
       </c>
       <c r="C7">
-        <v>1.04561483500532</v>
+        <v>0.90140992964962097</v>
       </c>
       <c r="D7">
-        <v>1.04473821646043</v>
+        <v>0.89886024948447796</v>
       </c>
       <c r="E7">
-        <v>0.97023797041697002</v>
+        <v>0.83081959130678695</v>
       </c>
       <c r="F7">
-        <v>1.13616106565511</v>
+        <v>0.97881873597290803</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>7.5376864588350023E-2</v>
+        <v>7.0590338342834014E-2</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>9.0546230649789949E-2</v>
+        <v>7.740880632328706E-2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -6384,30 +6408,30 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>44083</v>
+        <v>44085</v>
       </c>
       <c r="C8">
-        <v>0.95868225130140305</v>
+        <v>0.94780825702919702</v>
       </c>
       <c r="D8">
-        <v>0.95497132516827798</v>
+        <v>0.94444991124489897</v>
       </c>
       <c r="E8">
-        <v>0.88540434318721895</v>
+        <v>0.88210996771519101</v>
       </c>
       <c r="F8">
-        <v>1.0428300558143899</v>
+        <v>1.02311401777171</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>7.3277908114184109E-2</v>
+        <v>6.5698289314006009E-2</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>8.4147804512986868E-2</v>
+        <v>7.5305760742512939E-2</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -6419,27 +6443,27 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>44083</v>
+        <v>44085</v>
       </c>
       <c r="C9">
-        <v>0.89828295730039198</v>
+        <v>0.91131576247483204</v>
       </c>
       <c r="D9">
-        <v>0.89856696824300397</v>
+        <v>0.90993249151314803</v>
       </c>
       <c r="E9">
-        <v>0.82532822482982204</v>
+        <v>0.82600832953578096</v>
       </c>
       <c r="F9">
-        <v>0.95258624375429302</v>
+        <v>0.97745759209465499</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>7.2954732470569938E-2</v>
+        <v>8.5307432939051075E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>5.4303286453901034E-2</v>
+        <v>6.6141829619822956E-2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -6448,30 +6472,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>44083</v>
+        <v>44085</v>
       </c>
       <c r="C10">
-        <v>0.96018762617720899</v>
+        <v>0.97580499927835695</v>
       </c>
       <c r="D10">
-        <v>0.95924885984392205</v>
+        <v>0.97312861170889697</v>
       </c>
       <c r="E10">
-        <v>0.87390673555319298</v>
+        <v>0.90766573637850201</v>
       </c>
       <c r="F10">
-        <v>1.0290211270276699</v>
+        <v>1.05766002691449</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>8.6280890624016005E-2</v>
+        <v>6.8139262899854947E-2</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>6.8833500850460916E-2</v>
+        <v>8.185502763613306E-2</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -6480,30 +6504,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>44083</v>
+        <v>44085</v>
       </c>
       <c r="C11">
-        <v>0.92642199929291702</v>
+        <v>1.05066552111614</v>
       </c>
       <c r="D11">
-        <v>0.924076602681145</v>
+        <v>1.0475639771832801</v>
       </c>
       <c r="E11">
-        <v>0.84635175000950302</v>
+        <v>0.95332339673567801</v>
       </c>
       <c r="F11">
-        <v>0.99593438493271302</v>
+        <v>1.1281720418661101</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>8.0070249283413997E-2</v>
+        <v>9.734212438046197E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>6.9512385639796004E-2</v>
+        <v>7.7506520749970109E-2</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -6512,30 +6536,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>44083</v>
+        <v>44085</v>
       </c>
       <c r="C12">
-        <v>1.0399530512611499</v>
+        <v>0.95631440412813395</v>
       </c>
       <c r="D12">
-        <v>1.0369685879975299</v>
+        <v>0.95422139805877804</v>
       </c>
       <c r="E12">
-        <v>0.96044431305175904</v>
+        <v>0.87048292008106098</v>
       </c>
       <c r="F12">
-        <v>1.1353021720943599</v>
+        <v>1.02866859865768</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>7.9508738209390861E-2</v>
+        <v>8.583148404707297E-2</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>9.534912083321001E-2</v>
+        <v>7.2354194529546056E-2</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -6544,30 +6568,30 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1">
-        <v>44083</v>
+        <v>44085</v>
       </c>
       <c r="C13">
-        <v>0.98096923717009199</v>
+        <v>0.93067040559111602</v>
       </c>
       <c r="D13">
-        <v>0.98169745136328401</v>
+        <v>0.931437201389549</v>
       </c>
       <c r="E13">
-        <v>0.89638784037973396</v>
+        <v>0.84761568546625299</v>
       </c>
       <c r="F13">
-        <v>1.05362209127363</v>
+        <v>1.00081811758995</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>8.4581396790358032E-2</v>
+        <v>8.3054720124863035E-2</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>7.2652854103538056E-2</v>
+        <v>7.0147711998833961E-2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -6579,27 +6603,27 @@
         <v>19</v>
       </c>
       <c r="B14" s="1">
-        <v>44083</v>
+        <v>44085</v>
       </c>
       <c r="C14">
-        <v>0.915894489979589</v>
+        <v>0.91048708970522996</v>
       </c>
       <c r="D14">
-        <v>0.91510555664918303</v>
+        <v>0.90823969594959697</v>
       </c>
       <c r="E14">
-        <v>0.83732090459132202</v>
+        <v>0.82452065571168798</v>
       </c>
       <c r="F14">
-        <v>0.99040071858337198</v>
+        <v>0.97744724011872497</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>7.8573585388266975E-2</v>
+        <v>8.596643399354198E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>7.4506228603782976E-2</v>
+        <v>6.6960150413495012E-2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -6611,27 +6635,27 @@
         <v>6</v>
       </c>
       <c r="B15" s="1">
-        <v>44083</v>
+        <v>44085</v>
       </c>
       <c r="C15">
-        <v>0.90898912399362697</v>
+        <v>0.90223579241990004</v>
       </c>
       <c r="D15">
-        <v>0.905941911722841</v>
+        <v>0.90282733997015197</v>
       </c>
       <c r="E15">
-        <v>0.82730823165145995</v>
+        <v>0.82894020499899701</v>
       </c>
       <c r="F15">
-        <v>0.96150222011498898</v>
+        <v>0.96873387020171298</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>8.1680892342167022E-2</v>
+        <v>7.329558742090303E-2</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>5.2513096121362013E-2</v>
+        <v>6.6498077781812936E-2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -6643,27 +6667,27 @@
         <v>7</v>
       </c>
       <c r="B16" s="1">
-        <v>44083</v>
+        <v>44085</v>
       </c>
       <c r="C16">
-        <v>0.97016315483078297</v>
+        <v>0.96632888066668399</v>
       </c>
       <c r="D16">
-        <v>0.968083626797416</v>
+        <v>0.966543755723271</v>
       </c>
       <c r="E16">
-        <v>0.89412255204195801</v>
+        <v>0.88611516007204105</v>
       </c>
       <c r="F16">
-        <v>1.0335584886051501</v>
+        <v>1.03233086380798</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>7.6040602788824962E-2</v>
+        <v>8.0213720594642934E-2</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>6.3395333774367124E-2</v>
+        <v>6.6001983141296017E-2</v>
       </c>
       <c r="I16">
         <v>1</v>

--- a/results/resultado_consolidado/graph2.xlsx
+++ b/results/resultado_consolidado/graph2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Georg\Documents\GitHub\covid-model\results\resultado_consolidado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395759ED-99CB-4125-9087-9F731C7F40A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B86BD3-313B-4C55-A3D7-D38CCCE4697B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4AC76AC7-E5A1-4C07-9F5F-EE5E7DC34869}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4AC76AC7-E5A1-4C07-9F5F-EE5E7DC34869}"/>
   </bookViews>
   <sheets>
-    <sheet name="11 nov" sheetId="2" r:id="rId1"/>
-    <sheet name="11 oct" sheetId="1" r:id="rId2"/>
-    <sheet name="11 sep" sheetId="3" r:id="rId3"/>
+    <sheet name="16 nov" sheetId="2" r:id="rId1"/>
+    <sheet name="16 oct" sheetId="1" r:id="rId2"/>
+    <sheet name="16 sep" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -189,7 +189,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'11 nov'!$D$1</c:f>
+              <c:f>'16 nov'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -347,11 +347,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -539,108 +539,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'11 nov'!$H$2:$H$16</c:f>
+                <c:f>'16 nov'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.18662430828166887</c:v>
+                    <c:v>0.1862540446907951</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.20903672015666697</c:v>
+                    <c:v>0.18320877434375715</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.18253430285345695</c:v>
+                    <c:v>0.19601175014375805</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.20472698394683386</c:v>
+                    <c:v>0.21409167588153899</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.17447845247789795</c:v>
+                    <c:v>0.19534367204910996</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.1904840515919779</c:v>
+                    <c:v>0.18527405549267595</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.18001794429670603</c:v>
+                    <c:v>0.23305129053456086</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.20466074636593001</c:v>
+                    <c:v>0.23697988908095002</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.20751305700486</c:v>
+                    <c:v>0.20580711640255989</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.23842193901364994</c:v>
+                    <c:v>0.19969384270662993</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.19614884117039</c:v>
+                    <c:v>0.24417350120342007</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.21212429897460994</c:v>
+                    <c:v>0.20810302191824004</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.22789052039825997</c:v>
+                    <c:v>0.20182670969844008</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.25065895516264991</c:v>
+                    <c:v>0.24342022752004988</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.21616756063725995</c:v>
+                    <c:v>0.25318600323350982</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'11 nov'!$G$2:$G$16</c:f>
+                <c:f>'16 nov'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.23570892685046008</c:v>
+                    <c:v>0.21824347045848291</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.22592333506765094</c:v>
+                    <c:v>0.22265394889280998</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.19670512145158803</c:v>
+                    <c:v>0.20142744391917899</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.20825184083827908</c:v>
+                    <c:v>0.20036513073251594</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.209009794759623</c:v>
+                    <c:v>0.23063686537471006</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.25574235542623303</c:v>
+                    <c:v>0.23487943269143197</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.21003017204482499</c:v>
+                    <c:v>0.22425396644533202</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.24118429647649009</c:v>
+                    <c:v>0.20822387481292903</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.25792280570445103</c:v>
+                    <c:v>0.21907322204567803</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.235489222301695</c:v>
+                    <c:v>0.25129161494772601</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.25014358079900911</c:v>
+                    <c:v>0.257427260071454</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.26645471701596202</c:v>
+                    <c:v>0.23553423556168995</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.26810933871586007</c:v>
+                    <c:v>0.240897399961161</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.23526988202857402</c:v>
+                    <c:v>0.24114162061363509</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.229179166670746</c:v>
+                    <c:v>0.23171405238607212</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -661,107 +661,107 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'11 nov'!$A$2:$A$16</c:f>
+              <c:f>'16 nov'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Azua</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>La Romana</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Sánchez Ramírez</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>San Cristóbal</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>San Juan</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Peravia</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>La Vega</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Puerto Plata</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Espaillat</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Santo Domingo</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Duarte</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>La Altagracia</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>Distrito Nacional</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Santo Domingo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'11 nov'!$D$2:$D$16</c:f>
+              <c:f>'16 nov'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.82457694313241203</c:v>
+                  <c:v>0.80249683235424996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85933817119727895</c:v>
+                  <c:v>0.88099113175922295</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87151987762035099</c:v>
+                  <c:v>0.94805496744025197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88902715742878402</c:v>
+                  <c:v>0.95983600852316098</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89006913053999004</c:v>
+                  <c:v>0.96403685364568004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92886713832977597</c:v>
+                  <c:v>0.97573749675399402</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95946793529626495</c:v>
+                  <c:v>0.98343767521692904</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0143827086549699</c:v>
+                  <c:v>0.99865787141592999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0187629989690701</c:v>
+                  <c:v>1.02222987640935</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0447994634409801</c:v>
+                  <c:v>1.03838382285546</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.05598141816611</c:v>
+                  <c:v>1.06371145535499</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0575400661308401</c:v>
+                  <c:v>1.09454598075501</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.08294347061452</c:v>
+                  <c:v>1.11683669237939</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1317097837548</c:v>
+                  <c:v>1.1386417494524801</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1410431404741099</c:v>
+                  <c:v>1.1647762915798101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -778,7 +778,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'11 nov'!$I$1</c:f>
+              <c:f>'16 nov'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -836,7 +836,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'11 nov'!$I$2:$I$16</c:f>
+              <c:f>'16 nov'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1080,7 +1080,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'11 oct'!$D$1</c:f>
+              <c:f>'16 oct'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1454,108 +1454,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'11 oct'!$H$2:$H$16</c:f>
+                <c:f>'16 oct'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>6.899353954587395E-2</c:v>
+                    <c:v>7.5740396678765975E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>9.9304134582807957E-2</c:v>
+                    <c:v>9.9687645047724982E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.2305879561451958E-2</c:v>
+                    <c:v>7.2944879926434947E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.0300669669803981E-2</c:v>
+                    <c:v>8.1394993181955977E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6.7672610719196946E-2</c:v>
+                    <c:v>7.2412537564131019E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>9.1257067094882904E-2</c:v>
+                    <c:v>9.4440144381149893E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.3730125797031087E-2</c:v>
+                    <c:v>7.4622306837703989E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.2661124405024156E-2</c:v>
+                    <c:v>8.316445667115413E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.5656181727716043E-2</c:v>
+                    <c:v>7.643197942611013E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.2529766534289895E-2</c:v>
+                    <c:v>8.6384599766780035E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7.184801539544694E-2</c:v>
+                    <c:v>7.1328505373991935E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>8.7517255216376988E-2</c:v>
+                    <c:v>8.8285110993344906E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>8.2845923614955019E-2</c:v>
+                    <c:v>8.53424230668961E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>6.7757807659599933E-2</c:v>
+                    <c:v>7.0033027961549976E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>7.2748717800519946E-2</c:v>
+                    <c:v>7.5109292405629802E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'11 oct'!$G$2:$G$16</c:f>
+                <c:f>'16 oct'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.11075971085359304</c:v>
+                    <c:v>0.10401285372070102</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.4838694636754077E-2</c:v>
+                    <c:v>7.4455184171837052E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>9.9183640876309043E-2</c:v>
+                    <c:v>9.8544640511326054E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.752143247209998E-2</c:v>
+                    <c:v>8.6427108959947985E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.2080910160582055E-2</c:v>
+                    <c:v>7.7340983315647982E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8.9912989354070993E-2</c:v>
+                    <c:v>8.6729912067804005E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6.7522758953026951E-2</c:v>
+                    <c:v>6.663057791235405E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7.0089210006961999E-2</c:v>
+                    <c:v>6.9585877740832025E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.4472748640047057E-2</c:v>
+                    <c:v>8.369695094165297E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.9599342299502061E-2</c:v>
+                    <c:v>8.574450906701192E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>8.1255031708360015E-2</c:v>
+                    <c:v>8.177454172981502E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>8.9806796510827014E-2</c:v>
+                    <c:v>8.9038940733859095E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>9.3270917525528074E-2</c:v>
+                    <c:v>9.0774418073586993E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>7.8426068639668056E-2</c:v>
+                    <c:v>7.6150848337718013E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>7.4479040975627964E-2</c:v>
+                    <c:v>7.2118466370518108E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1576,60 +1576,60 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'11 oct'!$A$2:$A$16</c:f>
+              <c:f>'16 oct'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Azua</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>La Romana</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Sánchez Ramírez</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>San Cristóbal</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>San Juan</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Peravia</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>La Vega</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Puerto Plata</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Espaillat</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Santo Domingo</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Duarte</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>La Altagracia</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>Distrito Nacional</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Santo Domingo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'11 oct'!$D$2:$D$16</c:f>
+              <c:f>'16 oct'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1693,7 +1693,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'11 nov'!$I$1</c:f>
+              <c:f>'16 nov'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1751,60 +1751,60 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'11 oct'!$A$2:$A$16</c:f>
+              <c:f>'16 oct'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Azua</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>La Romana</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Sánchez Ramírez</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>San Cristóbal</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>San Juan</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Peravia</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>La Vega</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Puerto Plata</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Espaillat</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Santo Domingo</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Duarte</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>La Altagracia</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>Distrito Nacional</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Santo Domingo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'11 nov'!$I$2:$I$16</c:f>
+              <c:f>'16 nov'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2048,7 +2048,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'11 sep'!$D$1</c:f>
+              <c:f>'16 sep'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2134,11 +2134,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2182,11 +2182,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2302,11 +2302,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2374,11 +2374,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2446,108 +2446,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'11 oct'!$H$2:$H$16</c:f>
+                <c:f>'16 oct'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>6.899353954587395E-2</c:v>
+                    <c:v>7.5740396678765975E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>9.9304134582807957E-2</c:v>
+                    <c:v>9.9687645047724982E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.2305879561451958E-2</c:v>
+                    <c:v>7.2944879926434947E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.0300669669803981E-2</c:v>
+                    <c:v>8.1394993181955977E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6.7672610719196946E-2</c:v>
+                    <c:v>7.2412537564131019E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>9.1257067094882904E-2</c:v>
+                    <c:v>9.4440144381149893E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.3730125797031087E-2</c:v>
+                    <c:v>7.4622306837703989E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.2661124405024156E-2</c:v>
+                    <c:v>8.316445667115413E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.5656181727716043E-2</c:v>
+                    <c:v>7.643197942611013E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.2529766534289895E-2</c:v>
+                    <c:v>8.6384599766780035E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7.184801539544694E-2</c:v>
+                    <c:v>7.1328505373991935E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>8.7517255216376988E-2</c:v>
+                    <c:v>8.8285110993344906E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>8.2845923614955019E-2</c:v>
+                    <c:v>8.53424230668961E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>6.7757807659599933E-2</c:v>
+                    <c:v>7.0033027961549976E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>7.2748717800519946E-2</c:v>
+                    <c:v>7.5109292405629802E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'11 oct'!$G$2:$G$16</c:f>
+                <c:f>'16 oct'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.11075971085359304</c:v>
+                    <c:v>0.10401285372070102</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.4838694636754077E-2</c:v>
+                    <c:v>7.4455184171837052E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>9.9183640876309043E-2</c:v>
+                    <c:v>9.8544640511326054E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.752143247209998E-2</c:v>
+                    <c:v>8.6427108959947985E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.2080910160582055E-2</c:v>
+                    <c:v>7.7340983315647982E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8.9912989354070993E-2</c:v>
+                    <c:v>8.6729912067804005E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6.7522758953026951E-2</c:v>
+                    <c:v>6.663057791235405E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7.0089210006961999E-2</c:v>
+                    <c:v>6.9585877740832025E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.4472748640047057E-2</c:v>
+                    <c:v>8.369695094165297E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.9599342299502061E-2</c:v>
+                    <c:v>8.574450906701192E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>8.1255031708360015E-2</c:v>
+                    <c:v>8.177454172981502E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>8.9806796510827014E-2</c:v>
+                    <c:v>8.9038940733859095E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>9.3270917525528074E-2</c:v>
+                    <c:v>9.0774418073586993E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>7.8426068639668056E-2</c:v>
+                    <c:v>7.6150848337718013E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>7.4479040975627964E-2</c:v>
+                    <c:v>7.2118466370518108E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2568,107 +2568,107 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'11 oct'!$A$2:$A$16</c:f>
+              <c:f>'16 oct'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Azua</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>La Romana</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Sánchez Ramírez</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>San Cristóbal</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>San Juan</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Peravia</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>La Vega</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Puerto Plata</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Espaillat</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Santo Domingo</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Duarte</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>La Altagracia</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>Distrito Nacional</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Santo Domingo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'11 sep'!$D$2:$D$16</c:f>
+              <c:f>'16 sep'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.98767338750954103</c:v>
+                  <c:v>0.99254841623201995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1079574297062</c:v>
+                  <c:v>1.0510583107410301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94392636779600003</c:v>
+                  <c:v>1.1006163921441501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98494639084683</c:v>
+                  <c:v>0.95460666981050901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0484928052814599</c:v>
+                  <c:v>0.99623607489950805</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89886024948447796</c:v>
+                  <c:v>0.90731861240369305</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94444991124489897</c:v>
+                  <c:v>0.93081027314605103</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.90993249151314803</c:v>
+                  <c:v>0.99818864573059296</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97312861170889697</c:v>
+                  <c:v>0.97204429851274798</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0475639771832801</c:v>
+                  <c:v>0.94019483482063304</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.95422139805877804</c:v>
+                  <c:v>0.89621971777272402</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.931437201389549</c:v>
+                  <c:v>0.96307035331138002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.90823969594959697</c:v>
+                  <c:v>1.06446431234965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.90282733997015197</c:v>
+                  <c:v>0.95533075867323702</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.966543755723271</c:v>
+                  <c:v>0.89304517717230503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2685,7 +2685,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'11 nov'!$I$1</c:f>
+              <c:f>'16 nov'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2743,60 +2743,60 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'11 oct'!$A$2:$A$16</c:f>
+              <c:f>'16 oct'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Azua</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>La Romana</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Sánchez Ramírez</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>San Cristóbal</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>San Juan</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Peravia</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>La Vega</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Puerto Plata</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Espaillat</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Santo Domingo</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Duarte</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>La Altagracia</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>Distrito Nacional</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Santo Domingo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'11 nov'!$I$2:$I$16</c:f>
+              <c:f>'16 nov'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5111,8 +5111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A870B0F-A2EC-457C-A8A5-5E639A765E29}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5155,27 +5155,27 @@
         <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>44146</v>
+        <v>44151</v>
       </c>
       <c r="C2">
-        <v>0.83943979956890102</v>
+        <v>0.82017973247461495</v>
       </c>
       <c r="D2">
-        <v>0.82457694313241203</v>
+        <v>0.80249683235424996</v>
       </c>
       <c r="E2">
-        <v>0.60373087271844095</v>
+        <v>0.58425336189576704</v>
       </c>
       <c r="F2">
-        <v>1.0260641078505699</v>
+        <v>0.98875087704504505</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G16" si="0">C2-E2</f>
-        <v>0.23570892685046008</v>
+        <f>D2-E2</f>
+        <v>0.21824347045848291</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H16" si="1">F2-C2</f>
-        <v>0.18662430828166887</v>
+        <f>F2-D2</f>
+        <v>0.1862540446907951</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5184,30 +5184,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>44146</v>
+        <v>44151</v>
       </c>
       <c r="C3">
-        <v>0.87556555891350296</v>
+        <v>0.90325400739494899</v>
       </c>
       <c r="D3">
-        <v>0.85933817119727895</v>
+        <v>0.88099113175922295</v>
       </c>
       <c r="E3">
-        <v>0.64964222384585202</v>
+        <v>0.65833718286641296</v>
       </c>
       <c r="F3">
-        <v>1.0846022790701699</v>
+        <v>1.0641999061029801</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
-        <v>0.22592333506765094</v>
+        <f t="shared" ref="G3:G16" si="0">D3-E3</f>
+        <v>0.22265394889280998</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
-        <v>0.20903672015666697</v>
+        <f t="shared" ref="H3:H16" si="1">F3-D3</f>
+        <v>0.18320877434375715</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5216,30 +5216,30 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
-        <v>44146</v>
+        <v>44151</v>
       </c>
       <c r="C4">
-        <v>0.88726347735523303</v>
+        <v>0.96279806210079799</v>
       </c>
       <c r="D4">
-        <v>0.87151987762035099</v>
+        <v>0.94805496744025197</v>
       </c>
       <c r="E4">
-        <v>0.690558355903645</v>
+        <v>0.74662752352107298</v>
       </c>
       <c r="F4">
-        <v>1.06979778020869</v>
+        <v>1.14406671758401</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.19670512145158803</v>
+        <v>0.20142744391917899</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>0.18253430285345695</v>
+        <v>0.19601175014375805</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5248,30 +5248,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
-        <v>44146</v>
+        <v>44151</v>
       </c>
       <c r="C5">
-        <v>0.90222010901666605</v>
+        <v>0.97686532449403096</v>
       </c>
       <c r="D5">
-        <v>0.88902715742878402</v>
+        <v>0.95983600852316098</v>
       </c>
       <c r="E5">
-        <v>0.69396826817838697</v>
+        <v>0.75947087779064504</v>
       </c>
       <c r="F5">
-        <v>1.1069470929634999</v>
+        <v>1.1739276844047</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.20825184083827908</v>
+        <v>0.20036513073251594</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>0.20472698394683386</v>
+        <v>0.21409167588153899</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5280,30 +5280,30 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>44146</v>
+        <v>44151</v>
       </c>
       <c r="C6">
-        <v>0.90269137660778198</v>
+        <v>0.97538923416082202</v>
       </c>
       <c r="D6">
-        <v>0.89006913053999004</v>
+        <v>0.96403685364568004</v>
       </c>
       <c r="E6">
-        <v>0.69368158184815898</v>
+        <v>0.73339998827096997</v>
       </c>
       <c r="F6">
-        <v>1.0771698290856799</v>
+        <v>1.15938052569479</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.209009794759623</v>
+        <v>0.23063686537471006</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>0.17447845247789795</v>
+        <v>0.19534367204910996</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5315,27 +5315,27 @@
         <v>16</v>
       </c>
       <c r="B7" s="1">
-        <v>44146</v>
+        <v>44151</v>
       </c>
       <c r="C7">
-        <v>0.946261254749722</v>
+        <v>0.98264512612284005</v>
       </c>
       <c r="D7">
-        <v>0.92886713832977597</v>
+        <v>0.97573749675399402</v>
       </c>
       <c r="E7">
-        <v>0.69051889932348898</v>
+        <v>0.74085806406256205</v>
       </c>
       <c r="F7">
-        <v>1.1367453063416999</v>
+        <v>1.16101155224667</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.25574235542623303</v>
+        <v>0.23487943269143197</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>0.1904840515919779</v>
+        <v>0.18527405549267595</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5344,30 +5344,30 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
-        <v>44146</v>
+        <v>44151</v>
       </c>
       <c r="C8">
-        <v>0.96790611356032397</v>
+        <v>0.99730591533603996</v>
       </c>
       <c r="D8">
-        <v>0.95946793529626495</v>
+        <v>0.98343767521692904</v>
       </c>
       <c r="E8">
-        <v>0.75787594151549897</v>
+        <v>0.75918370877159702</v>
       </c>
       <c r="F8">
-        <v>1.14792405785703</v>
+        <v>1.2164889657514899</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.21003017204482499</v>
+        <v>0.22425396644533202</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>0.18001794429670603</v>
+        <v>0.23305129053456086</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5376,30 +5376,30 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>44146</v>
+        <v>44151</v>
       </c>
       <c r="C9">
-        <v>1.0274261380113301</v>
+        <v>1.01663256448198</v>
       </c>
       <c r="D9">
-        <v>1.0143827086549699</v>
+        <v>0.99865787141592999</v>
       </c>
       <c r="E9">
-        <v>0.78624184153484</v>
+        <v>0.79043399660300095</v>
       </c>
       <c r="F9">
-        <v>1.2320868843772601</v>
+        <v>1.23563776049688</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.24118429647649009</v>
+        <v>0.20822387481292903</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>0.20466074636593001</v>
+        <v>0.23697988908095002</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5411,27 +5411,27 @@
         <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>44146</v>
+        <v>44151</v>
       </c>
       <c r="C10">
-        <v>1.03171609131873</v>
+        <v>1.02839387293211</v>
       </c>
       <c r="D10">
-        <v>1.0187629989690701</v>
+        <v>1.02222987640935</v>
       </c>
       <c r="E10">
-        <v>0.77379328561427896</v>
+        <v>0.80315665436367201</v>
       </c>
       <c r="F10">
-        <v>1.23922914832359</v>
+        <v>1.2280369928119099</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.25792280570445103</v>
+        <v>0.21907322204567803</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>0.20751305700486</v>
+        <v>0.20580711640255989</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5440,30 +5440,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>44146</v>
+        <v>44151</v>
       </c>
       <c r="C11">
-        <v>1.07033857016242</v>
+        <v>1.0475265362278301</v>
       </c>
       <c r="D11">
-        <v>1.0447994634409801</v>
+        <v>1.03838382285546</v>
       </c>
       <c r="E11">
-        <v>0.83484934786072496</v>
+        <v>0.78709220790773404</v>
       </c>
       <c r="F11">
-        <v>1.3087605091760699</v>
+        <v>1.23807766556209</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.235489222301695</v>
+        <v>0.25129161494772601</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>0.23842193901364994</v>
+        <v>0.19969384270662993</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5472,30 +5472,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1">
-        <v>44146</v>
+        <v>44151</v>
       </c>
       <c r="C12">
-        <v>1.0764573767408301</v>
+        <v>1.08854022061737</v>
       </c>
       <c r="D12">
-        <v>1.05598141816611</v>
+        <v>1.06371145535499</v>
       </c>
       <c r="E12">
-        <v>0.82631379594182097</v>
+        <v>0.80628419528353601</v>
       </c>
       <c r="F12">
-        <v>1.2726062179112201</v>
+        <v>1.3078849565584101</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0.25014358079900911</v>
+        <v>0.257427260071454</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>0.19614884117039</v>
+        <v>0.24417350120342007</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5504,30 +5504,30 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1">
-        <v>44146</v>
+        <v>44151</v>
       </c>
       <c r="C13">
-        <v>1.07953652725795</v>
+        <v>1.10270054557421</v>
       </c>
       <c r="D13">
-        <v>1.0575400661308401</v>
+        <v>1.09454598075501</v>
       </c>
       <c r="E13">
-        <v>0.813081810241988</v>
+        <v>0.85901174519332002</v>
       </c>
       <c r="F13">
-        <v>1.29166082623256</v>
+        <v>1.30264900267325</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.26645471701596202</v>
+        <v>0.23553423556168995</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>0.21212429897460994</v>
+        <v>0.20810302191824004</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5536,30 +5536,30 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>44146</v>
+        <v>44151</v>
       </c>
       <c r="C14">
-        <v>1.1069577792864</v>
+        <v>1.1312901169023899</v>
       </c>
       <c r="D14">
-        <v>1.08294347061452</v>
+        <v>1.11683669237939</v>
       </c>
       <c r="E14">
-        <v>0.83884844057053998</v>
+        <v>0.87593929241822899</v>
       </c>
       <c r="F14">
-        <v>1.33484829968466</v>
+        <v>1.3186634020778301</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0.26810933871586007</v>
+        <v>0.240897399961161</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>0.22789052039825997</v>
+        <v>0.20182670969844008</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -5568,30 +5568,30 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1">
-        <v>44146</v>
+        <v>44151</v>
       </c>
       <c r="C15">
-        <v>1.13680950068174</v>
+        <v>1.15827309592455</v>
       </c>
       <c r="D15">
-        <v>1.1317097837548</v>
+        <v>1.1386417494524801</v>
       </c>
       <c r="E15">
-        <v>0.90153961865316601</v>
+        <v>0.897500128838845</v>
       </c>
       <c r="F15">
-        <v>1.3874684558443899</v>
+        <v>1.38206197697253</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0.23526988202857402</v>
+        <v>0.24114162061363509</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>0.25065895516264991</v>
+        <v>0.24342022752004988</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -5600,30 +5600,30 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1">
-        <v>44146</v>
+        <v>44151</v>
       </c>
       <c r="C16">
-        <v>1.14614859338941</v>
+        <v>1.17822311654653</v>
       </c>
       <c r="D16">
-        <v>1.1410431404741099</v>
+        <v>1.1647762915798101</v>
       </c>
       <c r="E16">
-        <v>0.91696942671866399</v>
+        <v>0.93306223919373799</v>
       </c>
       <c r="F16">
-        <v>1.3623161540266699</v>
+        <v>1.4179622948133199</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0.229179166670746</v>
+        <v>0.23171405238607212</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>0.21616756063725995</v>
+        <v>0.25318600323350982</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -5643,8 +5643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9B4699-B86D-4EFA-A264-1734A39D161E}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5687,10 +5687,10 @@
         <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>44115</v>
+        <v>44120</v>
       </c>
       <c r="C2">
-        <v>0.85095385389482303</v>
+        <v>0.82058005995345795</v>
       </c>
       <c r="D2">
         <v>0.84420699676193101</v>
@@ -5702,12 +5702,12 @@
         <v>0.91994739344069698</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G16" si="0">C2-E2</f>
-        <v>0.11075971085359304</v>
+        <f>D2-E2</f>
+        <v>0.10401285372070102</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H16" si="1">F2-C2</f>
-        <v>6.899353954587395E-2</v>
+        <f>F2-D2</f>
+        <v>7.5740396678765975E-2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5716,13 +5716,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>44115</v>
+        <v>44120</v>
       </c>
       <c r="C3">
-        <v>0.87677078331972202</v>
+        <v>0.89982086273650097</v>
       </c>
       <c r="D3">
         <v>0.876387272854805</v>
@@ -5734,12 +5734,12 @@
         <v>0.97607491790252998</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
-        <v>7.4838694636754077E-2</v>
+        <f t="shared" ref="G3:G16" si="0">D3-E3</f>
+        <v>7.4455184171837052E-2</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
-        <v>9.9304134582807957E-2</v>
+        <f t="shared" ref="H3:H16" si="1">F3-D3</f>
+        <v>9.9687645047724982E-2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5748,13 +5748,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
-        <v>44115</v>
+        <v>44120</v>
       </c>
       <c r="C4">
-        <v>0.95949396440859802</v>
+        <v>0.91736963171683406</v>
       </c>
       <c r="D4">
         <v>0.95885496404361503</v>
@@ -5767,11 +5767,11 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>9.9183640876309043E-2</v>
+        <v>9.8544640511326054E-2</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>7.2305879561451958E-2</v>
+        <v>7.2944879926434947E-2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5780,13 +5780,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
-        <v>44115</v>
+        <v>44120</v>
       </c>
       <c r="C5">
-        <v>0.90247873980934101</v>
+        <v>0.97117885796357994</v>
       </c>
       <c r="D5">
         <v>0.90138441629718902</v>
@@ -5799,11 +5799,11 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>8.752143247209998E-2</v>
+        <v>8.6427108959947985E-2</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>8.0300669669803981E-2</v>
+        <v>8.1394993181955977E-2</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5812,13 +5812,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>44115</v>
+        <v>44120</v>
       </c>
       <c r="C6">
-        <v>0.90697105093019303</v>
+        <v>0.94256771989527799</v>
       </c>
       <c r="D6">
         <v>0.90223112408525896</v>
@@ -5831,11 +5831,11 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>8.2080910160582055E-2</v>
+        <v>7.7340983315647982E-2</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>6.7672610719196946E-2</v>
+        <v>7.2412537564131019E-2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5847,10 +5847,10 @@
         <v>16</v>
       </c>
       <c r="B7" s="1">
-        <v>44115</v>
+        <v>44120</v>
       </c>
       <c r="C7">
-        <v>0.93101259687820703</v>
+        <v>0.949265959336414</v>
       </c>
       <c r="D7">
         <v>0.92782951959194004</v>
@@ -5863,11 +5863,11 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>8.9912989354070993E-2</v>
+        <v>8.6729912067804005E-2</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>9.1257067094882904E-2</v>
+        <v>9.4440144381149893E-2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5876,13 +5876,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
-        <v>44115</v>
+        <v>44120</v>
       </c>
       <c r="C8">
-        <v>0.91426005891416695</v>
+        <v>0.973256840764396</v>
       </c>
       <c r="D8">
         <v>0.91336787787349405</v>
@@ -5895,11 +5895,11 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>6.7522758953026951E-2</v>
+        <v>6.663057791235405E-2</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>7.3730125797031087E-2</v>
+        <v>7.4622306837703989E-2</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5908,13 +5908,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>44115</v>
+        <v>44120</v>
       </c>
       <c r="C9">
-        <v>0.94555179797464595</v>
+        <v>0.934622740757863</v>
       </c>
       <c r="D9">
         <v>0.94504846570851597</v>
@@ -5927,11 +5927,11 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>7.0089210006961999E-2</v>
+        <v>6.9585877740832025E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>8.2661124405024156E-2</v>
+        <v>8.316445667115413E-2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5943,10 +5943,10 @@
         <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>44115</v>
+        <v>44120</v>
       </c>
       <c r="C10">
-        <v>0.96693021595974404</v>
+        <v>0.99575055447741001</v>
       </c>
       <c r="D10">
         <v>0.96615441826134996</v>
@@ -5959,11 +5959,11 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>8.4472748640047057E-2</v>
+        <v>8.369695094165297E-2</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>7.5656181727716043E-2</v>
+        <v>7.643197942611013E-2</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5972,13 +5972,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>44115</v>
+        <v>44120</v>
       </c>
       <c r="C11">
-        <v>1.00610271517155</v>
+        <v>0.98122875165006795</v>
       </c>
       <c r="D11">
         <v>1.0022478819390599</v>
@@ -5991,11 +5991,11 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>8.9599342299502061E-2</v>
+        <v>8.574450906701192E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>8.2529766534289895E-2</v>
+        <v>8.6384599766780035E-2</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -6004,13 +6004,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1">
-        <v>44115</v>
+        <v>44120</v>
       </c>
       <c r="C12">
-        <v>0.93516868138109299</v>
+        <v>1.0031005855592401</v>
       </c>
       <c r="D12">
         <v>0.935688191402548</v>
@@ -6023,11 +6023,11 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>8.1255031708360015E-2</v>
+        <v>8.177454172981502E-2</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>7.184801539544694E-2</v>
+        <v>7.1328505373991935E-2</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -6036,13 +6036,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1">
-        <v>44115</v>
+        <v>44120</v>
       </c>
       <c r="C13">
-        <v>0.98375386310992297</v>
+        <v>1.0693170410273001</v>
       </c>
       <c r="D13">
         <v>0.98298600733295505</v>
@@ -6055,11 +6055,11 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>8.9806796510827014E-2</v>
+        <v>8.9038940733859095E-2</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>8.7517255216376988E-2</v>
+        <v>8.8285110993344906E-2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -6068,13 +6068,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>44115</v>
+        <v>44120</v>
       </c>
       <c r="C14">
-        <v>0.96719623769740504</v>
+        <v>1.0539632056088399</v>
       </c>
       <c r="D14">
         <v>0.96469973824546396</v>
@@ -6087,11 +6087,11 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>9.3270917525528074E-2</v>
+        <v>9.0774418073586993E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>8.2845923614955019E-2</v>
+        <v>8.53424230668961E-2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -6100,13 +6100,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1">
-        <v>44115</v>
+        <v>44120</v>
       </c>
       <c r="C15">
-        <v>1.0287406258090901</v>
+        <v>1.0074241263527199</v>
       </c>
       <c r="D15">
         <v>1.02646540550714</v>
@@ -6119,11 +6119,11 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>7.8426068639668056E-2</v>
+        <v>7.6150848337718013E-2</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>6.7757807659599933E-2</v>
+        <v>7.0033027961549976E-2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -6132,13 +6132,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1">
-        <v>44115</v>
+        <v>44120</v>
       </c>
       <c r="C16">
-        <v>1.0264175763084999</v>
+        <v>1.07590621709334</v>
       </c>
       <c r="D16">
         <v>1.0240570017033901</v>
@@ -6151,11 +6151,11 @@
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>7.4479040975627964E-2</v>
+        <v>7.2118466370518108E-2</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>7.2748717800519946E-2</v>
+        <v>7.5109292405629802E-2</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -6175,8 +6175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFCAF56-E988-48E4-BDA2-C84256C27DCF}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="97" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="97" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6222,24 +6222,24 @@
         <v>44085</v>
       </c>
       <c r="C2">
-        <v>0.99208220852491502</v>
+        <v>0.99148238729784399</v>
       </c>
       <c r="D2">
-        <v>0.98767338750954103</v>
+        <v>0.99254841623201995</v>
       </c>
       <c r="E2">
-        <v>0.90772060246988995</v>
+        <v>0.88918463414505</v>
       </c>
       <c r="F2">
-        <v>1.0719879863766599</v>
+        <v>1.0615805774020499</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G16" si="0">C2-E2</f>
-        <v>8.4361606055025073E-2</v>
+        <f>D2-E2</f>
+        <v>0.10336378208696995</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H16" si="1">F2-C2</f>
-        <v>7.9905777851744908E-2</v>
+        <f>F2-D2</f>
+        <v>6.9032161170029971E-2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -6254,24 +6254,24 @@
         <v>44085</v>
       </c>
       <c r="C3">
-        <v>1.1090616753229501</v>
+        <v>1.05348329450204</v>
       </c>
       <c r="D3">
-        <v>1.1079574297062</v>
+        <v>1.0510583107410301</v>
       </c>
       <c r="E3">
-        <v>1.0062930779725501</v>
+        <v>0.95103048610958196</v>
       </c>
       <c r="F3">
-        <v>1.20170629514104</v>
+        <v>1.13194449949933</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
-        <v>0.1027685973504</v>
+        <f t="shared" ref="G3:G16" si="0">D3-E3</f>
+        <v>0.1000278246314481</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
-        <v>9.2644619818089913E-2</v>
+        <f t="shared" ref="H3:H16" si="1">F3-D3</f>
+        <v>8.0886188758299893E-2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -6286,24 +6286,24 @@
         <v>44085</v>
       </c>
       <c r="C4">
-        <v>0.94648435453963997</v>
+        <v>1.1015790435781001</v>
       </c>
       <c r="D4">
-        <v>0.94392636779600003</v>
+        <v>1.1006163921441501</v>
       </c>
       <c r="E4">
-        <v>0.85736748431257803</v>
+        <v>1.0056456863769101</v>
       </c>
       <c r="F4">
-        <v>1.01151077754292</v>
+        <v>1.1988365032991799</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>8.911687022706194E-2</v>
+        <v>9.4970705767239982E-2</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>6.5026423003279987E-2</v>
+        <v>9.8220111155029821E-2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -6318,24 +6318,24 @@
         <v>44085</v>
       </c>
       <c r="C5">
-        <v>0.98773664540294304</v>
+        <v>0.95723061163073098</v>
       </c>
       <c r="D5">
-        <v>0.98494639084683</v>
+        <v>0.95460666981050901</v>
       </c>
       <c r="E5">
-        <v>0.90773528775927903</v>
+        <v>0.87860666805411303</v>
       </c>
       <c r="F5">
-        <v>1.07902104888558</v>
+        <v>1.03216052940506</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>8.0001357643664006E-2</v>
+        <v>7.6000001756395985E-2</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>9.1284403482637E-2</v>
+        <v>7.7553859594550967E-2</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -6350,24 +6350,24 @@
         <v>44085</v>
       </c>
       <c r="C6">
-        <v>1.05065630036639</v>
+        <v>0.99671784441840305</v>
       </c>
       <c r="D6">
-        <v>1.0484928052814599</v>
+        <v>0.99623607489950805</v>
       </c>
       <c r="E6">
-        <v>0.96723257717375499</v>
+        <v>0.90883554814579204</v>
       </c>
       <c r="F6">
-        <v>1.1352356845763301</v>
+        <v>1.0781025418579799</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>8.3423723192635024E-2</v>
+        <v>8.7400526753716012E-2</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>8.4579384209940045E-2</v>
+        <v>8.1866466958471884E-2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -6382,24 +6382,24 @@
         <v>44085</v>
       </c>
       <c r="C7">
-        <v>0.90140992964962097</v>
+        <v>0.910403214713284</v>
       </c>
       <c r="D7">
-        <v>0.89886024948447796</v>
+        <v>0.90731861240369305</v>
       </c>
       <c r="E7">
-        <v>0.83081959130678695</v>
+        <v>0.83566404813551698</v>
       </c>
       <c r="F7">
-        <v>0.97881873597290803</v>
+        <v>0.98840688069126903</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>7.0590338342834014E-2</v>
+        <v>7.1654564268176069E-2</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>7.740880632328706E-2</v>
+        <v>8.1088268287575982E-2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -6414,24 +6414,24 @@
         <v>44085</v>
       </c>
       <c r="C8">
-        <v>0.94780825702919702</v>
+        <v>0.93424711189741205</v>
       </c>
       <c r="D8">
-        <v>0.94444991124489897</v>
+        <v>0.93081027314605103</v>
       </c>
       <c r="E8">
-        <v>0.88210996771519101</v>
+        <v>0.85493607529099302</v>
       </c>
       <c r="F8">
-        <v>1.02311401777171</v>
+        <v>1.0193267663764101</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>6.5698289314006009E-2</v>
+        <v>7.5874197855058001E-2</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>7.5305760742512939E-2</v>
+        <v>8.8516493230359039E-2</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -6446,24 +6446,24 @@
         <v>44085</v>
       </c>
       <c r="C9">
-        <v>0.91131576247483204</v>
+        <v>0.99802207613918203</v>
       </c>
       <c r="D9">
-        <v>0.90993249151314803</v>
+        <v>0.99818864573059296</v>
       </c>
       <c r="E9">
-        <v>0.82600832953578096</v>
+        <v>0.92405714921332505</v>
       </c>
       <c r="F9">
-        <v>0.97745759209465499</v>
+        <v>1.0685091561787201</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>8.5307432939051075E-2</v>
+        <v>7.4131496517267914E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>6.6141829619822956E-2</v>
+        <v>7.0320510448127149E-2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -6478,24 +6478,24 @@
         <v>44085</v>
       </c>
       <c r="C10">
-        <v>0.97580499927835695</v>
+        <v>0.97522365370276998</v>
       </c>
       <c r="D10">
-        <v>0.97312861170889697</v>
+        <v>0.97204429851274798</v>
       </c>
       <c r="E10">
-        <v>0.90766573637850201</v>
+        <v>0.89273876233835703</v>
       </c>
       <c r="F10">
-        <v>1.05766002691449</v>
+        <v>1.04477193321707</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>6.8139262899854947E-2</v>
+        <v>7.9305536174390956E-2</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>8.185502763613306E-2</v>
+        <v>7.2727634704321975E-2</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -6510,24 +6510,24 @@
         <v>44085</v>
       </c>
       <c r="C11">
-        <v>1.05066552111614</v>
+        <v>0.94309634652961205</v>
       </c>
       <c r="D11">
-        <v>1.0475639771832801</v>
+        <v>0.94019483482063304</v>
       </c>
       <c r="E11">
-        <v>0.95332339673567801</v>
+        <v>0.86450827019572996</v>
       </c>
       <c r="F11">
-        <v>1.1281720418661101</v>
+        <v>1.0064447167738999</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>9.734212438046197E-2</v>
+        <v>7.5686564624903085E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>7.7506520749970109E-2</v>
+        <v>6.6249881953266865E-2</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -6542,24 +6542,24 @@
         <v>44085</v>
       </c>
       <c r="C12">
-        <v>0.95631440412813395</v>
+        <v>0.89973697960564303</v>
       </c>
       <c r="D12">
-        <v>0.95422139805877804</v>
+        <v>0.89621971777272402</v>
       </c>
       <c r="E12">
-        <v>0.87048292008106098</v>
+        <v>0.82535637618477398</v>
       </c>
       <c r="F12">
-        <v>1.02866859865768</v>
+        <v>0.97075480324866004</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>8.583148404707297E-2</v>
+        <v>7.0863341587950046E-2</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>7.2354194529546056E-2</v>
+        <v>7.4535085475936014E-2</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -6574,24 +6574,24 @@
         <v>44085</v>
       </c>
       <c r="C13">
-        <v>0.93067040559111602</v>
+        <v>0.965659957424712</v>
       </c>
       <c r="D13">
-        <v>0.931437201389549</v>
+        <v>0.96307035331138002</v>
       </c>
       <c r="E13">
-        <v>0.84761568546625299</v>
+        <v>0.88759816847123096</v>
       </c>
       <c r="F13">
-        <v>1.00081811758995</v>
+        <v>1.02594534506423</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>8.3054720124863035E-2</v>
+        <v>7.5472184840149059E-2</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>7.0147711998833961E-2</v>
+        <v>6.287499175284994E-2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -6606,24 +6606,24 @@
         <v>44085</v>
       </c>
       <c r="C14">
-        <v>0.91048708970522996</v>
+        <v>1.0639134247669999</v>
       </c>
       <c r="D14">
-        <v>0.90823969594959697</v>
+        <v>1.06446431234965</v>
       </c>
       <c r="E14">
-        <v>0.82452065571168798</v>
+        <v>0.98386980741312602</v>
       </c>
       <c r="F14">
-        <v>0.97744724011872497</v>
+        <v>1.1574128879202501</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>8.596643399354198E-2</v>
+        <v>8.0594504936523981E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>6.6960150413495012E-2</v>
+        <v>9.29485755706001E-2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -6638,24 +6638,24 @@
         <v>44085</v>
       </c>
       <c r="C15">
-        <v>0.90223579241990004</v>
+        <v>0.95552476125594399</v>
       </c>
       <c r="D15">
-        <v>0.90282733997015197</v>
+        <v>0.95533075867323702</v>
       </c>
       <c r="E15">
-        <v>0.82894020499899701</v>
+        <v>0.87207155361701105</v>
       </c>
       <c r="F15">
-        <v>0.96873387020171298</v>
+        <v>1.02914202720168</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>7.329558742090303E-2</v>
+        <v>8.3259205056225971E-2</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>6.6498077781812936E-2</v>
+        <v>7.3811268528442997E-2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -6670,24 +6670,24 @@
         <v>44085</v>
       </c>
       <c r="C16">
-        <v>0.96632888066668399</v>
+        <v>0.89601178699331596</v>
       </c>
       <c r="D16">
-        <v>0.966543755723271</v>
+        <v>0.89304517717230503</v>
       </c>
       <c r="E16">
-        <v>0.88611516007204105</v>
+        <v>0.82974311861457295</v>
       </c>
       <c r="F16">
-        <v>1.03233086380798</v>
+        <v>0.96186326750538198</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>8.0213720594642934E-2</v>
+        <v>6.3302058557732077E-2</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>6.6001983141296017E-2</v>
+        <v>6.8818090333076953E-2</v>
       </c>
       <c r="I16">
         <v>1</v>

--- a/results/resultado_consolidado/graph2.xlsx
+++ b/results/resultado_consolidado/graph2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Georg\Documents\GitHub\covid-model\results\resultado_consolidado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B86BD3-313B-4C55-A3D7-D38CCCE4697B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3BCBC2-3489-4845-A6F2-D4BD813BA2F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4AC76AC7-E5A1-4C07-9F5F-EE5E7DC34869}"/>
   </bookViews>
   <sheets>
-    <sheet name="16 nov" sheetId="2" r:id="rId1"/>
-    <sheet name="16 oct" sheetId="1" r:id="rId2"/>
-    <sheet name="16 sep" sheetId="3" r:id="rId3"/>
+    <sheet name="14 dic" sheetId="2" r:id="rId1"/>
+    <sheet name="14 nov" sheetId="1" r:id="rId2"/>
+    <sheet name="14 oct" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -189,7 +189,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'16 nov'!$D$1</c:f>
+              <c:f>'14 dic'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -210,11 +210,11 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="25400">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -275,11 +275,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -299,11 +299,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -323,11 +323,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -347,11 +347,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -539,108 +539,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'16 nov'!$H$2:$H$16</c:f>
+                <c:f>'14 dic'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.1862540446907951</c:v>
+                    <c:v>0.18655668433685013</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.18320877434375715</c:v>
+                    <c:v>0.23092570062775297</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.19601175014375805</c:v>
+                    <c:v>0.20835079317145988</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.21409167588153899</c:v>
+                    <c:v>0.22721079444260006</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.19534367204910996</c:v>
+                    <c:v>0.22353142072895005</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.18527405549267595</c:v>
+                    <c:v>0.19095509215794015</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.23305129053456086</c:v>
+                    <c:v>0.20360315435603993</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.23697988908095002</c:v>
+                    <c:v>0.24352066378063997</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.20580711640255989</c:v>
+                    <c:v>0.22612887455616004</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.19969384270662993</c:v>
+                    <c:v>0.21079184169559007</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.24417350120342007</c:v>
+                    <c:v>0.16858832492615017</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.20810302191824004</c:v>
+                    <c:v>0.28970884017800014</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.20182670969844008</c:v>
+                    <c:v>0.21465085929045991</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.24342022752004988</c:v>
+                    <c:v>0.2493607392491699</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.25318600323350982</c:v>
+                    <c:v>0.29321744927987003</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'16 nov'!$G$2:$G$16</c:f>
+                <c:f>'14 dic'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.21824347045848291</c:v>
+                    <c:v>0.22059895421095299</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.22265394889280998</c:v>
+                    <c:v>0.19742661670466299</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.20142744391917899</c:v>
+                    <c:v>0.22541705706271697</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.20036513073251594</c:v>
+                    <c:v>0.19716209396960094</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.23063686537471006</c:v>
+                    <c:v>0.23734646196047793</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.23487943269143197</c:v>
+                    <c:v>0.22578433257566288</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.22425396644533202</c:v>
+                    <c:v>0.23428932497701405</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.20822387481292903</c:v>
+                    <c:v>0.25272728746333595</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.21907322204567803</c:v>
+                    <c:v>0.28161128763318088</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.25129161494772601</c:v>
+                    <c:v>0.20828122210160793</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.257427260071454</c:v>
+                    <c:v>0.27263857515713397</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.23553423556168995</c:v>
+                    <c:v>0.24220964054584493</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.240897399961161</c:v>
+                    <c:v>0.23858587804752607</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.24114162061363509</c:v>
+                    <c:v>0.28772618251955395</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.23171405238607212</c:v>
+                    <c:v>0.27042379569719999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -661,107 +661,107 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'16 nov'!$A$2:$A$16</c:f>
+              <c:f>'14 dic'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>Azua</c:v>
+                  <c:v>Espaillat</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>San Cristóbal</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sánchez Ramírez</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Distrito Nacional</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>La Romana</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sánchez Ramírez</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
+                  <c:v>Santo Domingo</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Azua</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Duarte</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>La Altagracia</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Distrito Nacional</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'16 nov'!$D$2:$D$16</c:f>
+              <c:f>'14 dic'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.80249683235424996</c:v>
+                  <c:v>0.85683654368579998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88099113175922295</c:v>
+                  <c:v>0.960202074623977</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94805496744025197</c:v>
+                  <c:v>1.01332189794616</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95983600852316098</c:v>
+                  <c:v>1.0135572627387299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96403685364568004</c:v>
+                  <c:v>1.0207868260369299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97573749675399402</c:v>
+                  <c:v>1.0333396484558699</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98343767521692904</c:v>
+                  <c:v>1.06265004445914</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99865787141592999</c:v>
+                  <c:v>1.08597413350858</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.02222987640935</c:v>
+                  <c:v>1.0901702683399499</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.03838382285546</c:v>
+                  <c:v>1.0959996994513499</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.06371145535499</c:v>
+                  <c:v>1.0976893324193899</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.09454598075501</c:v>
+                  <c:v>1.1106897131195499</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.11683669237939</c:v>
+                  <c:v>1.1118737104547201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1386417494524801</c:v>
+                  <c:v>1.19492193759331</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1647762915798101</c:v>
+                  <c:v>1.29129062765505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -778,7 +778,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'16 nov'!$I$1</c:f>
+              <c:f>'14 dic'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -836,7 +836,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'16 nov'!$I$2:$I$16</c:f>
+              <c:f>'14 dic'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -963,7 +963,7 @@
         <c:axId val="926647024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.5"/>
+          <c:max val="1.6"/>
           <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1080,7 +1080,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'16 oct'!$D$1</c:f>
+              <c:f>'14 nov'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1101,11 +1101,11 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="25400">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1142,11 +1142,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1166,11 +1166,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1190,11 +1190,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1214,11 +1214,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1238,11 +1238,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1262,11 +1262,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1286,11 +1286,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1334,11 +1334,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1358,11 +1358,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1382,11 +1382,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1454,108 +1454,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'16 oct'!$H$2:$H$16</c:f>
+                <c:f>'14 nov'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>7.5740396678765975E-2</c:v>
+                    <c:v>8.6938391100984003E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>9.9687645047724982E-2</c:v>
+                    <c:v>8.3651869684519875E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.2944879926434947E-2</c:v>
+                    <c:v>7.3274774567019918E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.1394993181955977E-2</c:v>
+                    <c:v>8.8661843332299872E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.2412537564131019E-2</c:v>
+                    <c:v>8.9813152823499998E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>9.4440144381149893E-2</c:v>
+                    <c:v>7.3678388335890022E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.4622306837703989E-2</c:v>
+                    <c:v>8.8251388616320092E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.316445667115413E-2</c:v>
+                    <c:v>9.3200222650769993E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.643197942611013E-2</c:v>
+                    <c:v>9.1542302302510148E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.6384599766780035E-2</c:v>
+                    <c:v>7.2694290682550067E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7.1328505373991935E-2</c:v>
+                    <c:v>7.9805153531550044E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>8.8285110993344906E-2</c:v>
+                    <c:v>0.11273449618944986</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>8.53424230668961E-2</c:v>
+                    <c:v>6.7020965249410036E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>7.0033027961549976E-2</c:v>
+                    <c:v>0.10795804131964015</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>7.5109292405629802E-2</c:v>
+                    <c:v>0.1103321396249699</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'16 oct'!$G$2:$G$16</c:f>
+                <c:f>'14 nov'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.10401285372070102</c:v>
+                    <c:v>9.2954260227922969E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.4455184171837052E-2</c:v>
+                    <c:v>8.6801992687081109E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>9.8544640511326054E-2</c:v>
+                    <c:v>9.0698594625823081E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.6427108959947985E-2</c:v>
+                    <c:v>8.2393789823762109E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.7340983315647982E-2</c:v>
+                    <c:v>7.7392875298482933E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8.6729912067804005E-2</c:v>
+                    <c:v>8.102659645672905E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6.663057791235405E-2</c:v>
+                    <c:v>7.4728500208467885E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>6.9585877740832025E-2</c:v>
+                    <c:v>0.11281748891602994</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.369695094165297E-2</c:v>
+                    <c:v>0.1057865266398309</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.574450906701192E-2</c:v>
+                    <c:v>8.6343367862201981E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>8.177454172981502E-2</c:v>
+                    <c:v>9.0141030134600064E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>8.9038940733859095E-2</c:v>
+                    <c:v>0.10405318669363406</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>9.0774418073586993E-2</c:v>
+                    <c:v>8.1248959099896934E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>7.6150848337718013E-2</c:v>
+                    <c:v>0.10894002435308003</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>7.2118466370518108E-2</c:v>
+                    <c:v>9.1420035852070036E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1576,107 +1576,107 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'16 oct'!$A$2:$A$16</c:f>
+              <c:f>'14 nov'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>Azua</c:v>
+                  <c:v>Espaillat</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>San Cristóbal</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sánchez Ramírez</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Distrito Nacional</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>La Romana</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sánchez Ramírez</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
+                  <c:v>Santo Domingo</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Azua</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Duarte</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>La Altagracia</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Distrito Nacional</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'16 oct'!$D$2:$D$16</c:f>
+              <c:f>'14 nov'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.84420699676193101</c:v>
+                  <c:v>0.93836396328615601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.876387272854805</c:v>
+                  <c:v>1.0110761910445301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95885496404361503</c:v>
+                  <c:v>1.0182875683575101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90138441629718902</c:v>
+                  <c:v>1.0202890116244201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90223112408525896</c:v>
+                  <c:v>1.0006602882753399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92782951959194004</c:v>
+                  <c:v>1.04719003417412</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91336787787349405</c:v>
+                  <c:v>1.0482817810820599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94504846570851597</c:v>
+                  <c:v>1.0877737500075699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.96615441826134996</c:v>
+                  <c:v>1.0892997097261199</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0022478819390599</c:v>
+                  <c:v>1.0687354091146399</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.935688191402548</c:v>
+                  <c:v>1.07957054124477</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.98298600733295505</c:v>
+                  <c:v>1.08708592311865</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.96469973824546396</c:v>
+                  <c:v>1.01471815834589</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.02646540550714</c:v>
+                  <c:v>1.11189058570213</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0240570017033901</c:v>
+                  <c:v>1.16094742008758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1693,7 +1693,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'16 nov'!$I$1</c:f>
+              <c:f>'14 dic'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1751,60 +1751,60 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'16 oct'!$A$2:$A$16</c:f>
+              <c:f>'14 nov'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>Azua</c:v>
+                  <c:v>Espaillat</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>San Cristóbal</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sánchez Ramírez</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Distrito Nacional</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>La Romana</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sánchez Ramírez</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
+                  <c:v>Santo Domingo</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Azua</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Duarte</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>La Altagracia</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Distrito Nacional</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'16 nov'!$I$2:$I$16</c:f>
+              <c:f>'14 dic'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1931,7 +1931,7 @@
         <c:axId val="926647024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.5"/>
+          <c:max val="1.6"/>
           <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2048,7 +2048,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'16 sep'!$D$1</c:f>
+              <c:f>'14 oct'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2110,11 +2110,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2182,11 +2182,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2206,11 +2206,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2446,108 +2446,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'16 oct'!$H$2:$H$16</c:f>
+                <c:f>'14 nov'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>7.5740396678765975E-2</c:v>
+                    <c:v>8.6938391100984003E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>9.9687645047724982E-2</c:v>
+                    <c:v>8.3651869684519875E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.2944879926434947E-2</c:v>
+                    <c:v>7.3274774567019918E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.1394993181955977E-2</c:v>
+                    <c:v>8.8661843332299872E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.2412537564131019E-2</c:v>
+                    <c:v>8.9813152823499998E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>9.4440144381149893E-2</c:v>
+                    <c:v>7.3678388335890022E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.4622306837703989E-2</c:v>
+                    <c:v>8.8251388616320092E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.316445667115413E-2</c:v>
+                    <c:v>9.3200222650769993E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.643197942611013E-2</c:v>
+                    <c:v>9.1542302302510148E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.6384599766780035E-2</c:v>
+                    <c:v>7.2694290682550067E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7.1328505373991935E-2</c:v>
+                    <c:v>7.9805153531550044E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>8.8285110993344906E-2</c:v>
+                    <c:v>0.11273449618944986</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>8.53424230668961E-2</c:v>
+                    <c:v>6.7020965249410036E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>7.0033027961549976E-2</c:v>
+                    <c:v>0.10795804131964015</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>7.5109292405629802E-2</c:v>
+                    <c:v>0.1103321396249699</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'16 oct'!$G$2:$G$16</c:f>
+                <c:f>'14 nov'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.10401285372070102</c:v>
+                    <c:v>9.2954260227922969E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.4455184171837052E-2</c:v>
+                    <c:v>8.6801992687081109E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>9.8544640511326054E-2</c:v>
+                    <c:v>9.0698594625823081E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.6427108959947985E-2</c:v>
+                    <c:v>8.2393789823762109E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.7340983315647982E-2</c:v>
+                    <c:v>7.7392875298482933E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8.6729912067804005E-2</c:v>
+                    <c:v>8.102659645672905E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6.663057791235405E-2</c:v>
+                    <c:v>7.4728500208467885E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>6.9585877740832025E-2</c:v>
+                    <c:v>0.11281748891602994</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.369695094165297E-2</c:v>
+                    <c:v>0.1057865266398309</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.574450906701192E-2</c:v>
+                    <c:v>8.6343367862201981E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>8.177454172981502E-2</c:v>
+                    <c:v>9.0141030134600064E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>8.9038940733859095E-2</c:v>
+                    <c:v>0.10405318669363406</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>9.0774418073586993E-2</c:v>
+                    <c:v>8.1248959099896934E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>7.6150848337718013E-2</c:v>
+                    <c:v>0.10894002435308003</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>7.2118466370518108E-2</c:v>
+                    <c:v>9.1420035852070036E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2568,107 +2568,107 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'16 oct'!$A$2:$A$16</c:f>
+              <c:f>'14 nov'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>Azua</c:v>
+                  <c:v>Espaillat</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>San Cristóbal</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sánchez Ramírez</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Distrito Nacional</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>La Romana</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sánchez Ramírez</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
+                  <c:v>Santo Domingo</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Azua</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Duarte</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>La Altagracia</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Distrito Nacional</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'16 sep'!$D$2:$D$16</c:f>
+              <c:f>'14 oct'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.99254841623201995</c:v>
+                  <c:v>0.98688842172267399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0510583107410301</c:v>
+                  <c:v>0.94330641878031796</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1006163921441501</c:v>
+                  <c:v>1.11276723272253</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95460666981050901</c:v>
+                  <c:v>0.97701622256848497</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99623607489950805</c:v>
+                  <c:v>1.00388952900981</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90731861240369305</c:v>
+                  <c:v>1.05953823337509</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93081027314605103</c:v>
+                  <c:v>0.98626808554656797</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99818864573059296</c:v>
+                  <c:v>0.94594939236239195</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97204429851274798</c:v>
+                  <c:v>0.98135283394144601</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.94019483482063304</c:v>
+                  <c:v>0.92439898754030003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.89621971777272402</c:v>
+                  <c:v>0.96914824832739999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.96307035331138002</c:v>
+                  <c:v>0.87579556456980101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.06446431234965</c:v>
+                  <c:v>1.05370736796773</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.95533075867323702</c:v>
+                  <c:v>0.87831807438459797</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.89304517717230503</c:v>
+                  <c:v>0.94085060416705002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2685,7 +2685,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'16 nov'!$I$1</c:f>
+              <c:f>'14 dic'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2743,60 +2743,60 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'16 oct'!$A$2:$A$16</c:f>
+              <c:f>'14 nov'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>Azua</c:v>
+                  <c:v>Espaillat</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>San Cristóbal</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sánchez Ramírez</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Distrito Nacional</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>La Romana</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sánchez Ramírez</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
+                  <c:v>Santo Domingo</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Azua</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Duarte</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>La Altagracia</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Distrito Nacional</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'16 nov'!$I$2:$I$16</c:f>
+              <c:f>'14 dic'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2923,7 +2923,7 @@
         <c:axId val="926647024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.5"/>
+          <c:max val="1.6"/>
           <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5111,8 +5111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A870B0F-A2EC-457C-A8A5-5E639A765E29}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5152,30 +5152,30 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
-        <v>44151</v>
+        <v>44179</v>
       </c>
       <c r="C2">
-        <v>0.82017973247461495</v>
+        <v>0.87652916249999302</v>
       </c>
       <c r="D2">
-        <v>0.80249683235424996</v>
+        <v>0.85683654368579998</v>
       </c>
       <c r="E2">
-        <v>0.58425336189576704</v>
+        <v>0.63623758947484699</v>
       </c>
       <c r="F2">
-        <v>0.98875087704504505</v>
+        <v>1.0433932280226501</v>
       </c>
       <c r="G2">
         <f>D2-E2</f>
-        <v>0.21824347045848291</v>
+        <v>0.22059895421095299</v>
       </c>
       <c r="H2">
         <f>F2-D2</f>
-        <v>0.1862540446907951</v>
+        <v>0.18655668433685013</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5187,27 +5187,27 @@
         <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>44151</v>
+        <v>44179</v>
       </c>
       <c r="C3">
-        <v>0.90325400739494899</v>
+        <v>0.98207990856183802</v>
       </c>
       <c r="D3">
-        <v>0.88099113175922295</v>
+        <v>0.960202074623977</v>
       </c>
       <c r="E3">
-        <v>0.65833718286641296</v>
+        <v>0.762775457919314</v>
       </c>
       <c r="F3">
-        <v>1.0641999061029801</v>
+        <v>1.19112777525173</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G16" si="0">D3-E3</f>
-        <v>0.22265394889280998</v>
+        <v>0.19742661670466299</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H16" si="1">F3-D3</f>
-        <v>0.18320877434375715</v>
+        <v>0.23092570062775297</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5216,30 +5216,30 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>44151</v>
+        <v>44179</v>
       </c>
       <c r="C4">
-        <v>0.96279806210079799</v>
+        <v>1.0252431109893001</v>
       </c>
       <c r="D4">
-        <v>0.94805496744025197</v>
+        <v>1.01332189794616</v>
       </c>
       <c r="E4">
-        <v>0.74662752352107298</v>
+        <v>0.78790484088344304</v>
       </c>
       <c r="F4">
-        <v>1.14406671758401</v>
+        <v>1.2216726911176199</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.20142744391917899</v>
+        <v>0.22541705706271697</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>0.19601175014375805</v>
+        <v>0.20835079317145988</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5248,30 +5248,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>44151</v>
+        <v>44179</v>
       </c>
       <c r="C5">
-        <v>0.97686532449403096</v>
+        <v>1.02398133263806</v>
       </c>
       <c r="D5">
-        <v>0.95983600852316098</v>
+        <v>1.0135572627387299</v>
       </c>
       <c r="E5">
-        <v>0.75947087779064504</v>
+        <v>0.81639516876912899</v>
       </c>
       <c r="F5">
-        <v>1.1739276844047</v>
+        <v>1.24076805718133</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.20036513073251594</v>
+        <v>0.19716209396960094</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>0.21409167588153899</v>
+        <v>0.22721079444260006</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5280,30 +5280,30 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
-        <v>44151</v>
+        <v>44179</v>
       </c>
       <c r="C6">
-        <v>0.97538923416082202</v>
+        <v>1.0335919852522699</v>
       </c>
       <c r="D6">
-        <v>0.96403685364568004</v>
+        <v>1.0207868260369299</v>
       </c>
       <c r="E6">
-        <v>0.73339998827096997</v>
+        <v>0.78344036407645201</v>
       </c>
       <c r="F6">
-        <v>1.15938052569479</v>
+        <v>1.24431824676588</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.23063686537471006</v>
+        <v>0.23734646196047793</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>0.19534367204910996</v>
+        <v>0.22353142072895005</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5312,30 +5312,30 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>44151</v>
+        <v>44179</v>
       </c>
       <c r="C7">
-        <v>0.98264512612284005</v>
+        <v>1.05075586155937</v>
       </c>
       <c r="D7">
-        <v>0.97573749675399402</v>
+        <v>1.0333396484558699</v>
       </c>
       <c r="E7">
-        <v>0.74085806406256205</v>
+        <v>0.80755531588020701</v>
       </c>
       <c r="F7">
-        <v>1.16101155224667</v>
+        <v>1.2242947406138101</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.23487943269143197</v>
+        <v>0.22578433257566288</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>0.18527405549267595</v>
+        <v>0.19095509215794015</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5344,30 +5344,30 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>44151</v>
+        <v>44179</v>
       </c>
       <c r="C8">
-        <v>0.99730591533603996</v>
+        <v>1.0754616766301199</v>
       </c>
       <c r="D8">
-        <v>0.98343767521692904</v>
+        <v>1.06265004445914</v>
       </c>
       <c r="E8">
-        <v>0.75918370877159702</v>
+        <v>0.82836071948212597</v>
       </c>
       <c r="F8">
-        <v>1.2164889657514899</v>
+        <v>1.2662531988151799</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.22425396644533202</v>
+        <v>0.23428932497701405</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>0.23305129053456086</v>
+        <v>0.20360315435603993</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5376,30 +5376,30 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
-        <v>44151</v>
+        <v>44179</v>
       </c>
       <c r="C9">
-        <v>1.01663256448198</v>
+        <v>1.1090247720112201</v>
       </c>
       <c r="D9">
-        <v>0.99865787141592999</v>
+        <v>1.08597413350858</v>
       </c>
       <c r="E9">
-        <v>0.79043399660300095</v>
+        <v>0.83324684604524402</v>
       </c>
       <c r="F9">
-        <v>1.23563776049688</v>
+        <v>1.3294947972892199</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.20822387481292903</v>
+        <v>0.25272728746333595</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>0.23697988908095002</v>
+        <v>0.24352066378063997</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5408,30 +5408,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1">
-        <v>44151</v>
+        <v>44179</v>
       </c>
       <c r="C10">
-        <v>1.02839387293211</v>
+        <v>1.1076547284009799</v>
       </c>
       <c r="D10">
-        <v>1.02222987640935</v>
+        <v>1.0901702683399499</v>
       </c>
       <c r="E10">
-        <v>0.80315665436367201</v>
+        <v>0.80855898070676901</v>
       </c>
       <c r="F10">
-        <v>1.2280369928119099</v>
+        <v>1.3162991428961099</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.21907322204567803</v>
+        <v>0.28161128763318088</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>0.20580711640255989</v>
+        <v>0.22612887455616004</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5440,30 +5440,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>44151</v>
+        <v>44179</v>
       </c>
       <c r="C11">
-        <v>1.0475265362278301</v>
+        <v>1.10208215315835</v>
       </c>
       <c r="D11">
-        <v>1.03838382285546</v>
+        <v>1.0959996994513499</v>
       </c>
       <c r="E11">
-        <v>0.78709220790773404</v>
+        <v>0.88771847734974196</v>
       </c>
       <c r="F11">
-        <v>1.23807766556209</v>
+        <v>1.30679154114694</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.25129161494772601</v>
+        <v>0.20828122210160793</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>0.19969384270662993</v>
+        <v>0.21079184169559007</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5472,30 +5472,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>44151</v>
+        <v>44179</v>
       </c>
       <c r="C12">
-        <v>1.08854022061737</v>
+        <v>1.11121442070983</v>
       </c>
       <c r="D12">
-        <v>1.06371145535499</v>
+        <v>1.0976893324193899</v>
       </c>
       <c r="E12">
-        <v>0.80628419528353601</v>
+        <v>0.82505075726225596</v>
       </c>
       <c r="F12">
-        <v>1.3078849565584101</v>
+        <v>1.2662776573455401</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0.257427260071454</v>
+        <v>0.27263857515713397</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>0.24417350120342007</v>
+        <v>0.16858832492615017</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5504,30 +5504,30 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>44151</v>
+        <v>44179</v>
       </c>
       <c r="C13">
-        <v>1.10270054557421</v>
+        <v>1.1161952743794501</v>
       </c>
       <c r="D13">
-        <v>1.09454598075501</v>
+        <v>1.1106897131195499</v>
       </c>
       <c r="E13">
-        <v>0.85901174519332002</v>
+        <v>0.86848007257370496</v>
       </c>
       <c r="F13">
-        <v>1.30264900267325</v>
+        <v>1.40039855329755</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.23553423556168995</v>
+        <v>0.24220964054584493</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>0.20810302191824004</v>
+        <v>0.28970884017800014</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5536,30 +5536,30 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1">
-        <v>44151</v>
+        <v>44179</v>
       </c>
       <c r="C14">
-        <v>1.1312901169023899</v>
+        <v>1.1185363603571301</v>
       </c>
       <c r="D14">
-        <v>1.11683669237939</v>
+        <v>1.1118737104547201</v>
       </c>
       <c r="E14">
-        <v>0.87593929241822899</v>
+        <v>0.87328783240719399</v>
       </c>
       <c r="F14">
-        <v>1.3186634020778301</v>
+        <v>1.32652456974518</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0.240897399961161</v>
+        <v>0.23858587804752607</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>0.20182670969844008</v>
+        <v>0.21465085929045991</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -5568,30 +5568,30 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
-        <v>44151</v>
+        <v>44179</v>
       </c>
       <c r="C15">
-        <v>1.15827309592455</v>
+        <v>1.2035279969556401</v>
       </c>
       <c r="D15">
-        <v>1.1386417494524801</v>
+        <v>1.19492193759331</v>
       </c>
       <c r="E15">
-        <v>0.897500128838845</v>
+        <v>0.90719575507375605</v>
       </c>
       <c r="F15">
-        <v>1.38206197697253</v>
+        <v>1.4442826768424799</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0.24114162061363509</v>
+        <v>0.28772618251955395</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>0.24342022752004988</v>
+        <v>0.2493607392491699</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -5600,30 +5600,30 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
-        <v>44151</v>
+        <v>44179</v>
       </c>
       <c r="C16">
-        <v>1.17822311654653</v>
+        <v>1.3042626069208101</v>
       </c>
       <c r="D16">
-        <v>1.1647762915798101</v>
+        <v>1.29129062765505</v>
       </c>
       <c r="E16">
-        <v>0.93306223919373799</v>
+        <v>1.02086683195785</v>
       </c>
       <c r="F16">
-        <v>1.4179622948133199</v>
+        <v>1.58450807693492</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0.23171405238607212</v>
+        <v>0.27042379569719999</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>0.25318600323350982</v>
+        <v>0.29321744927987003</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -5643,8 +5643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9B4699-B86D-4EFA-A264-1734A39D161E}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5684,30 +5684,30 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
-        <v>44120</v>
+        <v>44149</v>
       </c>
       <c r="C2">
-        <v>0.82058005995345795</v>
+        <v>0.94221370921257896</v>
       </c>
       <c r="D2">
-        <v>0.84420699676193101</v>
+        <v>0.93836396328615601</v>
       </c>
       <c r="E2">
-        <v>0.74019414304122999</v>
+        <v>0.84540970305823304</v>
       </c>
       <c r="F2">
-        <v>0.91994739344069698</v>
+        <v>1.02530235438714</v>
       </c>
       <c r="G2">
         <f>D2-E2</f>
-        <v>0.10401285372070102</v>
+        <v>9.2954260227922969E-2</v>
       </c>
       <c r="H2">
         <f>F2-D2</f>
-        <v>7.5740396678765975E-2</v>
+        <v>8.6938391100984003E-2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5719,27 +5719,27 @@
         <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>44120</v>
+        <v>44149</v>
       </c>
       <c r="C3">
-        <v>0.89982086273650097</v>
+        <v>1.0143305743226401</v>
       </c>
       <c r="D3">
-        <v>0.876387272854805</v>
+        <v>1.0110761910445301</v>
       </c>
       <c r="E3">
-        <v>0.80193208868296795</v>
+        <v>0.92427419835744895</v>
       </c>
       <c r="F3">
-        <v>0.97607491790252998</v>
+        <v>1.0947280607290499</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G16" si="0">D3-E3</f>
-        <v>7.4455184171837052E-2</v>
+        <v>8.6801992687081109E-2</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H16" si="1">F3-D3</f>
-        <v>9.9687645047724982E-2</v>
+        <v>8.3651869684519875E-2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5748,30 +5748,30 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>44120</v>
+        <v>44149</v>
       </c>
       <c r="C4">
-        <v>0.91736963171683406</v>
+        <v>1.019181502156</v>
       </c>
       <c r="D4">
-        <v>0.95885496404361503</v>
+        <v>1.0182875683575101</v>
       </c>
       <c r="E4">
-        <v>0.86031032353228898</v>
+        <v>0.92758897373168703</v>
       </c>
       <c r="F4">
-        <v>1.03179984397005</v>
+        <v>1.09156234292453</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>9.8544640511326054E-2</v>
+        <v>9.0698594625823081E-2</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>7.2944879926434947E-2</v>
+        <v>7.3274774567019918E-2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5780,30 +5780,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>44120</v>
+        <v>44149</v>
       </c>
       <c r="C5">
-        <v>0.97117885796357994</v>
+        <v>1.0230263157995301</v>
       </c>
       <c r="D5">
-        <v>0.90138441629718902</v>
+        <v>1.0202890116244201</v>
       </c>
       <c r="E5">
-        <v>0.81495730733724103</v>
+        <v>0.93789522180065799</v>
       </c>
       <c r="F5">
-        <v>0.98277940947914499</v>
+        <v>1.10895085495672</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>8.6427108959947985E-2</v>
+        <v>8.2393789823762109E-2</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>8.1394993181955977E-2</v>
+        <v>8.8661843332299872E-2</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5812,30 +5812,30 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
-        <v>44120</v>
+        <v>44149</v>
       </c>
       <c r="C6">
-        <v>0.94256771989527799</v>
+        <v>1.00312312096637</v>
       </c>
       <c r="D6">
-        <v>0.90223112408525896</v>
+        <v>1.0006602882753399</v>
       </c>
       <c r="E6">
-        <v>0.82489014076961098</v>
+        <v>0.92326741297685699</v>
       </c>
       <c r="F6">
-        <v>0.97464366164938998</v>
+        <v>1.0904734410988399</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>7.7340983315647982E-2</v>
+        <v>7.7392875298482933E-2</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>7.2412537564131019E-2</v>
+        <v>8.9813152823499998E-2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5844,30 +5844,30 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>44120</v>
+        <v>44149</v>
       </c>
       <c r="C7">
-        <v>0.949265959336414</v>
+        <v>1.04588071239751</v>
       </c>
       <c r="D7">
-        <v>0.92782951959194004</v>
+        <v>1.04719003417412</v>
       </c>
       <c r="E7">
-        <v>0.84109960752413604</v>
+        <v>0.96616343771739099</v>
       </c>
       <c r="F7">
-        <v>1.0222696639730899</v>
+        <v>1.1208684225100101</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>8.6729912067804005E-2</v>
+        <v>8.102659645672905E-2</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>9.4440144381149893E-2</v>
+        <v>7.3678388335890022E-2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5876,30 +5876,30 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>44120</v>
+        <v>44149</v>
       </c>
       <c r="C8">
-        <v>0.973256840764396</v>
+        <v>1.04987517308058</v>
       </c>
       <c r="D8">
-        <v>0.91336787787349405</v>
+        <v>1.0482817810820599</v>
       </c>
       <c r="E8">
-        <v>0.84673729996114</v>
+        <v>0.97355328087359205</v>
       </c>
       <c r="F8">
-        <v>0.98799018471119804</v>
+        <v>1.13653316969838</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>6.663057791235405E-2</v>
+        <v>7.4728500208467885E-2</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>7.4622306837703989E-2</v>
+        <v>8.8251388616320092E-2</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5908,30 +5908,30 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
-        <v>44120</v>
+        <v>44149</v>
       </c>
       <c r="C9">
-        <v>0.934622740757863</v>
+        <v>1.0900961629947401</v>
       </c>
       <c r="D9">
-        <v>0.94504846570851597</v>
+        <v>1.0877737500075699</v>
       </c>
       <c r="E9">
-        <v>0.87546258796768395</v>
+        <v>0.97495626109153999</v>
       </c>
       <c r="F9">
-        <v>1.0282129223796701</v>
+        <v>1.1809739726583399</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>6.9585877740832025E-2</v>
+        <v>0.11281748891602994</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>8.316445667115413E-2</v>
+        <v>9.3200222650769993E-2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5940,30 +5940,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1">
-        <v>44120</v>
+        <v>44149</v>
       </c>
       <c r="C10">
-        <v>0.99575055447741001</v>
+        <v>1.09367075952318</v>
       </c>
       <c r="D10">
-        <v>0.96615441826134996</v>
+        <v>1.0892997097261199</v>
       </c>
       <c r="E10">
-        <v>0.88245746731969699</v>
+        <v>0.98351318308628899</v>
       </c>
       <c r="F10">
-        <v>1.0425863976874601</v>
+        <v>1.18084201202863</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>8.369695094165297E-2</v>
+        <v>0.1057865266398309</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>7.643197942611013E-2</v>
+        <v>9.1542302302510148E-2</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5972,30 +5972,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>44120</v>
+        <v>44149</v>
       </c>
       <c r="C11">
-        <v>0.98122875165006795</v>
+        <v>1.0724783581022199</v>
       </c>
       <c r="D11">
-        <v>1.0022478819390599</v>
+        <v>1.0687354091146399</v>
       </c>
       <c r="E11">
-        <v>0.91650337287204797</v>
+        <v>0.98239204125243795</v>
       </c>
       <c r="F11">
-        <v>1.0886324817058399</v>
+        <v>1.14142969979719</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>8.574450906701192E-2</v>
+        <v>8.6343367862201981E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>8.6384599766780035E-2</v>
+        <v>7.2694290682550067E-2</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -6004,30 +6004,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>44120</v>
+        <v>44149</v>
       </c>
       <c r="C12">
-        <v>1.0031005855592401</v>
+        <v>1.08171194861916</v>
       </c>
       <c r="D12">
-        <v>0.935688191402548</v>
+        <v>1.07957054124477</v>
       </c>
       <c r="E12">
-        <v>0.85391364967273298</v>
+        <v>0.98942951111016997</v>
       </c>
       <c r="F12">
-        <v>1.0070166967765399</v>
+        <v>1.1593756947763201</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>8.177454172981502E-2</v>
+        <v>9.0141030134600064E-2</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>7.1328505373991935E-2</v>
+        <v>7.9805153531550044E-2</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -6036,30 +6036,30 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>44120</v>
+        <v>44149</v>
       </c>
       <c r="C13">
-        <v>1.0693170410273001</v>
+        <v>1.08778168274778</v>
       </c>
       <c r="D13">
-        <v>0.98298600733295505</v>
+        <v>1.08708592311865</v>
       </c>
       <c r="E13">
-        <v>0.89394706659909595</v>
+        <v>0.98303273642501598</v>
       </c>
       <c r="F13">
-        <v>1.0712711183263</v>
+        <v>1.1998204193080999</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>8.9038940733859095E-2</v>
+        <v>0.10405318669363406</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>8.8285110993344906E-2</v>
+        <v>0.11273449618944986</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -6068,30 +6068,30 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1">
-        <v>44120</v>
+        <v>44149</v>
       </c>
       <c r="C14">
-        <v>1.0539632056088399</v>
+        <v>1.01762852425478</v>
       </c>
       <c r="D14">
-        <v>0.96469973824546396</v>
+        <v>1.01471815834589</v>
       </c>
       <c r="E14">
-        <v>0.87392532017187696</v>
+        <v>0.93346919924599303</v>
       </c>
       <c r="F14">
-        <v>1.0500421613123601</v>
+        <v>1.0817391235953</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>9.0774418073586993E-2</v>
+        <v>8.1248959099896934E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>8.53424230668961E-2</v>
+        <v>6.7020965249410036E-2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -6100,30 +6100,30 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
-        <v>44120</v>
+        <v>44149</v>
       </c>
       <c r="C15">
-        <v>1.0074241263527199</v>
+        <v>1.11646524189925</v>
       </c>
       <c r="D15">
-        <v>1.02646540550714</v>
+        <v>1.11189058570213</v>
       </c>
       <c r="E15">
-        <v>0.95031455716942204</v>
+        <v>1.0029505613490499</v>
       </c>
       <c r="F15">
-        <v>1.09649843346869</v>
+        <v>1.2198486270217701</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>7.6150848337718013E-2</v>
+        <v>0.10894002435308003</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>7.0033027961549976E-2</v>
+        <v>0.10795804131964015</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -6132,30 +6132,30 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
-        <v>44120</v>
+        <v>44149</v>
       </c>
       <c r="C16">
-        <v>1.07590621709334</v>
+        <v>1.1644542995452001</v>
       </c>
       <c r="D16">
-        <v>1.0240570017033901</v>
+        <v>1.16094742008758</v>
       </c>
       <c r="E16">
-        <v>0.95193853533287198</v>
+        <v>1.06952738423551</v>
       </c>
       <c r="F16">
-        <v>1.0991662941090199</v>
+        <v>1.2712795597125499</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>7.2118466370518108E-2</v>
+        <v>9.1420035852070036E-2</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>7.5109292405629802E-2</v>
+        <v>0.1103321396249699</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -6175,14 +6175,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFCAF56-E988-48E4-BDA2-C84256C27DCF}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="97" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="97" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -6216,30 +6216,30 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
-        <v>44085</v>
+        <v>44118</v>
       </c>
       <c r="C2">
-        <v>0.99148238729784399</v>
+        <v>0.99091107610209395</v>
       </c>
       <c r="D2">
-        <v>0.99254841623201995</v>
+        <v>0.98688842172267399</v>
       </c>
       <c r="E2">
-        <v>0.88918463414505</v>
+        <v>0.91100456935466301</v>
       </c>
       <c r="F2">
-        <v>1.0615805774020499</v>
+        <v>1.08497117982015</v>
       </c>
       <c r="G2">
         <f>D2-E2</f>
-        <v>0.10336378208696995</v>
+        <v>7.5883852368010984E-2</v>
       </c>
       <c r="H2">
         <f>F2-D2</f>
-        <v>6.9032161170029971E-2</v>
+        <v>9.8082758097476019E-2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -6248,30 +6248,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>44085</v>
+        <v>44118</v>
       </c>
       <c r="C3">
-        <v>1.05348329450204</v>
+        <v>0.94724906377853801</v>
       </c>
       <c r="D3">
-        <v>1.0510583107410301</v>
+        <v>0.94330641878031796</v>
       </c>
       <c r="E3">
-        <v>0.95103048610958196</v>
+        <v>0.87519540851345201</v>
       </c>
       <c r="F3">
-        <v>1.13194449949933</v>
+        <v>1.0229669530330701</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G16" si="0">D3-E3</f>
-        <v>0.1000278246314481</v>
+        <v>6.8111010266865946E-2</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H16" si="1">F3-D3</f>
-        <v>8.0886188758299893E-2</v>
+        <v>7.9660534252752102E-2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -6280,30 +6280,30 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>44085</v>
+        <v>44118</v>
       </c>
       <c r="C4">
-        <v>1.1015790435781001</v>
+        <v>1.11478196607809</v>
       </c>
       <c r="D4">
-        <v>1.1006163921441501</v>
+        <v>1.11276723272253</v>
       </c>
       <c r="E4">
-        <v>1.0056456863769101</v>
+        <v>1.0326572416867901</v>
       </c>
       <c r="F4">
-        <v>1.1988365032991799</v>
+        <v>1.2090073825576</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>9.4970705767239982E-2</v>
+        <v>8.0109991035739903E-2</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>9.8220111155029821E-2</v>
+        <v>9.624014983507001E-2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -6312,30 +6312,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>44085</v>
+        <v>44118</v>
       </c>
       <c r="C5">
-        <v>0.95723061163073098</v>
+        <v>0.981178994431958</v>
       </c>
       <c r="D5">
-        <v>0.95460666981050901</v>
+        <v>0.97701622256848497</v>
       </c>
       <c r="E5">
-        <v>0.87860666805411303</v>
+        <v>0.90689336221492201</v>
       </c>
       <c r="F5">
-        <v>1.03216052940506</v>
+        <v>1.0569797846690101</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>7.6000001756395985E-2</v>
+        <v>7.0122860353562966E-2</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>7.7553859594550967E-2</v>
+        <v>7.9963562100525132E-2</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -6344,30 +6344,30 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
-        <v>44085</v>
+        <v>44118</v>
       </c>
       <c r="C6">
-        <v>0.99671784441840305</v>
+        <v>1.0078222486344399</v>
       </c>
       <c r="D6">
-        <v>0.99623607489950805</v>
+        <v>1.00388952900981</v>
       </c>
       <c r="E6">
-        <v>0.90883554814579204</v>
+        <v>0.917891425456278</v>
       </c>
       <c r="F6">
-        <v>1.0781025418579799</v>
+        <v>1.08142789950048</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>8.7400526753716012E-2</v>
+        <v>8.599810355353199E-2</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>8.1866466958471884E-2</v>
+        <v>7.7538370490670028E-2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -6376,30 +6376,30 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>44085</v>
+        <v>44118</v>
       </c>
       <c r="C7">
-        <v>0.910403214713284</v>
+        <v>1.0619930127601001</v>
       </c>
       <c r="D7">
-        <v>0.90731861240369305</v>
+        <v>1.05953823337509</v>
       </c>
       <c r="E7">
-        <v>0.83566404813551698</v>
+        <v>0.98205248116906396</v>
       </c>
       <c r="F7">
-        <v>0.98840688069126903</v>
+        <v>1.1352504630056299</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>7.1654564268176069E-2</v>
+        <v>7.7485752206026048E-2</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>8.1088268287575982E-2</v>
+        <v>7.5712229630539918E-2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -6408,30 +6408,30 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>44085</v>
+        <v>44118</v>
       </c>
       <c r="C8">
-        <v>0.93424711189741205</v>
+        <v>0.98773482264035295</v>
       </c>
       <c r="D8">
-        <v>0.93081027314605103</v>
+        <v>0.98626808554656797</v>
       </c>
       <c r="E8">
-        <v>0.85493607529099302</v>
+        <v>0.90527857473374995</v>
       </c>
       <c r="F8">
-        <v>1.0193267663764101</v>
+        <v>1.0598968722693201</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>7.5874197855058001E-2</v>
+        <v>8.0989510812818022E-2</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>8.8516493230359039E-2</v>
+        <v>7.3628786722752082E-2</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -6440,30 +6440,30 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
-        <v>44085</v>
+        <v>44118</v>
       </c>
       <c r="C9">
-        <v>0.99802207613918203</v>
+        <v>0.95252968934021698</v>
       </c>
       <c r="D9">
-        <v>0.99818864573059296</v>
+        <v>0.94594939236239195</v>
       </c>
       <c r="E9">
-        <v>0.92405714921332505</v>
+        <v>0.85801509626191697</v>
       </c>
       <c r="F9">
-        <v>1.0685091561787201</v>
+        <v>1.0327112545219399</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>7.4131496517267914E-2</v>
+        <v>8.7934296100474985E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>7.0320510448127149E-2</v>
+        <v>8.6761862159547953E-2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -6472,30 +6472,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1">
-        <v>44085</v>
+        <v>44118</v>
       </c>
       <c r="C10">
-        <v>0.97522365370276998</v>
+        <v>0.98258908635120701</v>
       </c>
       <c r="D10">
-        <v>0.97204429851274798</v>
+        <v>0.98135283394144601</v>
       </c>
       <c r="E10">
-        <v>0.89273876233835703</v>
+        <v>0.90364181943271904</v>
       </c>
       <c r="F10">
-        <v>1.04477193321707</v>
+        <v>1.0698505149095801</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>7.9305536174390956E-2</v>
+        <v>7.7711014508726972E-2</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>7.2727634704321975E-2</v>
+        <v>8.849768096813404E-2</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -6504,30 +6504,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>44085</v>
+        <v>44118</v>
       </c>
       <c r="C11">
-        <v>0.94309634652961205</v>
+        <v>0.92561207405183799</v>
       </c>
       <c r="D11">
-        <v>0.94019483482063304</v>
+        <v>0.92439898754030003</v>
       </c>
       <c r="E11">
-        <v>0.86450827019572996</v>
+        <v>0.85086501549593097</v>
       </c>
       <c r="F11">
-        <v>1.0064447167738999</v>
+        <v>0.98713090371545498</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>7.5686564624903085E-2</v>
+        <v>7.3533972044369067E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>6.6249881953266865E-2</v>
+        <v>6.2731916175154945E-2</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -6536,30 +6536,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>44085</v>
+        <v>44118</v>
       </c>
       <c r="C12">
-        <v>0.89973697960564303</v>
+        <v>0.97246159085087402</v>
       </c>
       <c r="D12">
-        <v>0.89621971777272402</v>
+        <v>0.96914824832739999</v>
       </c>
       <c r="E12">
-        <v>0.82535637618477398</v>
+        <v>0.90140765731375405</v>
       </c>
       <c r="F12">
-        <v>0.97075480324866004</v>
+        <v>1.0483964730713899</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>7.0863341587950046E-2</v>
+        <v>6.7740591013645934E-2</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>7.4535085475936014E-2</v>
+        <v>7.9248224743989959E-2</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -6568,30 +6568,30 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>44085</v>
+        <v>44118</v>
       </c>
       <c r="C13">
-        <v>0.965659957424712</v>
+        <v>0.87625240155135997</v>
       </c>
       <c r="D13">
-        <v>0.96307035331138002</v>
+        <v>0.87579556456980101</v>
       </c>
       <c r="E13">
-        <v>0.88759816847123096</v>
+        <v>0.800451572103695</v>
       </c>
       <c r="F13">
-        <v>1.02594534506423</v>
+        <v>0.96071099892200995</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>7.5472184840149059E-2</v>
+        <v>7.5343992466106013E-2</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>6.287499175284994E-2</v>
+        <v>8.4915434352208941E-2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -6600,30 +6600,30 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1">
-        <v>44085</v>
+        <v>44118</v>
       </c>
       <c r="C14">
-        <v>1.0639134247669999</v>
+        <v>1.0561713397875101</v>
       </c>
       <c r="D14">
-        <v>1.06446431234965</v>
+        <v>1.05370736796773</v>
       </c>
       <c r="E14">
-        <v>0.98386980741312602</v>
+        <v>0.97691484248468496</v>
       </c>
       <c r="F14">
-        <v>1.1574128879202501</v>
+        <v>1.1293086785069399</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>8.0594504936523981E-2</v>
+        <v>7.6792525483045049E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>9.29485755706001E-2</v>
+        <v>7.5601310539209932E-2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -6632,30 +6632,30 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
-        <v>44085</v>
+        <v>44118</v>
       </c>
       <c r="C15">
-        <v>0.95552476125594399</v>
+        <v>0.87766977539300595</v>
       </c>
       <c r="D15">
-        <v>0.95533075867323702</v>
+        <v>0.87831807438459797</v>
       </c>
       <c r="E15">
-        <v>0.87207155361701105</v>
+        <v>0.80303729542371005</v>
       </c>
       <c r="F15">
-        <v>1.02914202720168</v>
+        <v>0.957745032875299</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>8.3259205056225971E-2</v>
+        <v>7.5280778960887917E-2</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>7.3811268528442997E-2</v>
+        <v>7.9426958490701027E-2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -6664,30 +6664,30 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
-        <v>44085</v>
+        <v>44118</v>
       </c>
       <c r="C16">
-        <v>0.89601178699331596</v>
+        <v>0.94335876273310004</v>
       </c>
       <c r="D16">
-        <v>0.89304517717230503</v>
+        <v>0.94085060416705002</v>
       </c>
       <c r="E16">
-        <v>0.82974311861457295</v>
+        <v>0.85458175813197801</v>
       </c>
       <c r="F16">
-        <v>0.96186326750538198</v>
+        <v>1.01956885181548</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>6.3302058557732077E-2</v>
+        <v>8.6268846035072011E-2</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>6.8818090333076953E-2</v>
+        <v>7.871824764842994E-2</v>
       </c>
       <c r="I16">
         <v>1</v>

--- a/results/resultado_consolidado/graph2.xlsx
+++ b/results/resultado_consolidado/graph2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Georg\Documents\GitHub\covid-model\results\resultado_consolidado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3BCBC2-3489-4845-A6F2-D4BD813BA2F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDC9AF3-EB5E-48D9-BAB1-AF72038E8FF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4AC76AC7-E5A1-4C07-9F5F-EE5E7DC34869}"/>
   </bookViews>
   <sheets>
-    <sheet name="14 dic" sheetId="2" r:id="rId1"/>
-    <sheet name="14 nov" sheetId="1" r:id="rId2"/>
-    <sheet name="14 oct" sheetId="3" r:id="rId3"/>
+    <sheet name="17 dic" sheetId="2" r:id="rId1"/>
+    <sheet name="17 nov" sheetId="1" r:id="rId2"/>
+    <sheet name="17 oct" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -189,7 +189,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'14 dic'!$D$1</c:f>
+              <c:f>'17 dic'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -269,17 +269,65 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="25400">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-CB40-48E0-84DF-F46A34BB89EE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="25400">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-CB40-48E0-84DF-F46A34BB89EE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="4"/>
             <c:marker>
               <c:symbol val="square"/>
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -539,108 +587,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'14 dic'!$H$2:$H$16</c:f>
+                <c:f>'17 dic'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.18655668433685013</c:v>
+                    <c:v>0.212947047891059</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.23092570062775297</c:v>
+                    <c:v>0.1758778448262831</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.20835079317145988</c:v>
+                    <c:v>0.19331368586506192</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.22721079444260006</c:v>
+                    <c:v>0.17907254868326605</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.22353142072895005</c:v>
+                    <c:v>0.22171544986617508</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.19095509215794015</c:v>
+                    <c:v>0.21100550092615999</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.20360315435603993</c:v>
+                    <c:v>0.22602073828456004</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.24352066378063997</c:v>
+                    <c:v>0.24653029539482008</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.22612887455616004</c:v>
+                    <c:v>0.23442244061963002</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.21079184169559007</c:v>
+                    <c:v>0.23470717708759992</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.16858832492615017</c:v>
+                    <c:v>0.24116791043987007</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.28970884017800014</c:v>
+                    <c:v>0.22919735563151988</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.21465085929045991</c:v>
+                    <c:v>0.28084772915548006</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.2493607392491699</c:v>
+                    <c:v>0.22013377717695004</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.29321744927987003</c:v>
+                    <c:v>0.28976509130758998</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'14 dic'!$G$2:$G$16</c:f>
+                <c:f>'17 dic'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.22059895421095299</c:v>
+                    <c:v>0.20156733708344698</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.19742661670466299</c:v>
+                    <c:v>0.21190591280577198</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.22541705706271697</c:v>
+                    <c:v>0.22453931038254704</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.19716209396960094</c:v>
+                    <c:v>0.26991148912020002</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.23734646196047793</c:v>
+                    <c:v>0.24888770864059695</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.22578433257566288</c:v>
+                    <c:v>0.20335343870899503</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.23428932497701405</c:v>
+                    <c:v>0.2152506913078559</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.25272728746333595</c:v>
+                    <c:v>0.180442137408798</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.28161128763318088</c:v>
+                    <c:v>0.28328170957751297</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.20828122210160793</c:v>
+                    <c:v>0.21310168829309295</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.27263857515713397</c:v>
+                    <c:v>0.23483871406327794</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.24220964054584493</c:v>
+                    <c:v>0.20070569273682903</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.23858587804752607</c:v>
+                    <c:v>0.270239385478386</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.28772618251955395</c:v>
+                    <c:v>0.22451257172621286</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.27042379569719999</c:v>
+                    <c:v>0.27137252002802104</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -661,20 +709,20 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'14 dic'!$A$2:$A$16</c:f>
+              <c:f>'17 dic'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>San Cristóbal</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Duarte</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>La Altagracia</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sánchez Ramírez</c:v>
@@ -683,28 +731,28 @@
                   <c:v>Distrito Nacional</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Santo Domingo</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>La Romana</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Puerto Plata</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
+                  <c:v>Azua</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>La Romana</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Azua</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Peravia</c:v>
@@ -714,54 +762,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'14 dic'!$D$2:$D$16</c:f>
+              <c:f>'17 dic'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.85683654368579998</c:v>
+                  <c:v>0.91365402404743101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.960202074623977</c:v>
+                  <c:v>0.92526116633153699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.01332189794616</c:v>
+                  <c:v>0.96021759674740803</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0135572627387299</c:v>
+                  <c:v>0.96663347160444402</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0207868260369299</c:v>
+                  <c:v>0.97028292559690499</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0333396484558699</c:v>
+                  <c:v>1.0024422688865</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.06265004445914</c:v>
+                  <c:v>1.04484445338406</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.08597413350858</c:v>
+                  <c:v>1.05373800142771</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0901702683399499</c:v>
+                  <c:v>1.05893499564532</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0959996994513499</c:v>
+                  <c:v>1.06837582702597</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0976893324193899</c:v>
+                  <c:v>1.0782333079925099</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1106897131195499</c:v>
+                  <c:v>1.1098412238112501</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1118737104547201</c:v>
+                  <c:v>1.11437071292199</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.19492193759331</c:v>
+                  <c:v>1.1195114894481899</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.29129062765505</c:v>
+                  <c:v>1.2400738788095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -778,7 +826,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'14 dic'!$I$1</c:f>
+              <c:f>'17 dic'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -836,7 +884,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'14 dic'!$I$2:$I$16</c:f>
+              <c:f>'17 dic'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1080,7 +1128,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'14 nov'!$D$1</c:f>
+              <c:f>'17 nov'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1142,11 +1190,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1190,11 +1238,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1204,6 +1252,30 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000D-00C7-4289-83C2-ACC5993B81BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="25400">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-F8D6-40E2-A25B-6F9A96A4412C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1454,108 +1526,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'14 nov'!$H$2:$H$16</c:f>
+                <c:f>'17 nov'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>8.6938391100984003E-2</c:v>
+                    <c:v>8.5021538165384047E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.3651869684519875E-2</c:v>
+                    <c:v>9.1498844551604064E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.3274774567019918E-2</c:v>
+                    <c:v>8.1419385246110032E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.8661843332299872E-2</c:v>
+                    <c:v>8.7900904599936047E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.9813152823499998E-2</c:v>
+                    <c:v>0.1016597256982531</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.3678388335890022E-2</c:v>
+                    <c:v>6.9690502885719985E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.8251388616320092E-2</c:v>
+                    <c:v>8.0938507413469862E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>9.3200222650769993E-2</c:v>
+                    <c:v>6.8867166554730019E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>9.1542302302510148E-2</c:v>
+                    <c:v>9.3319116191979967E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>7.2694290682550067E-2</c:v>
+                    <c:v>8.895824101519012E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7.9805153531550044E-2</c:v>
+                    <c:v>0.1036059721360898</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.11273449618944986</c:v>
+                    <c:v>9.9563390864300105E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>6.7020965249410036E-2</c:v>
+                    <c:v>9.9164843491410082E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.10795804131964015</c:v>
+                    <c:v>8.8385647367700049E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.1103321396249699</c:v>
+                    <c:v>9.5845359189520085E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'14 nov'!$G$2:$G$16</c:f>
+                <c:f>'17 nov'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>9.2954260227922969E-2</c:v>
+                    <c:v>8.8075146878643928E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.6801992687081109E-2</c:v>
+                    <c:v>7.8717608533167005E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>9.0698594625823081E-2</c:v>
+                    <c:v>8.6735759840590121E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.2393789823762109E-2</c:v>
+                    <c:v>0.10156331695117893</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.7392875298482933E-2</c:v>
+                    <c:v>7.5626887886139915E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8.102659645672905E-2</c:v>
+                    <c:v>7.1476718954729068E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.4728500208467885E-2</c:v>
+                    <c:v>9.7450966412963136E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.11281748891602994</c:v>
+                    <c:v>7.1315981275074991E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.1057865266398309</c:v>
+                    <c:v>0.12141309506175402</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.6343367862201981E-2</c:v>
+                    <c:v>7.813560514663398E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>9.0141030134600064E-2</c:v>
+                    <c:v>9.2599051983108138E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.10405318669363406</c:v>
+                    <c:v>8.6728710203040849E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>8.1248959099896934E-2</c:v>
+                    <c:v>0.10422844767206685</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.10894002435308003</c:v>
+                    <c:v>7.6330679288952985E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>9.1420035852070036E-2</c:v>
+                    <c:v>0.11309988163522999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1576,20 +1648,20 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'14 nov'!$A$2:$A$16</c:f>
+              <c:f>'17 nov'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>San Cristóbal</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Duarte</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>La Altagracia</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sánchez Ramírez</c:v>
@@ -1598,28 +1670,28 @@
                   <c:v>Distrito Nacional</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Santo Domingo</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>La Romana</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Puerto Plata</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
+                  <c:v>Azua</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>La Romana</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Azua</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Peravia</c:v>
@@ -1629,54 +1701,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'14 nov'!$D$2:$D$16</c:f>
+              <c:f>'17 nov'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.93836396328615601</c:v>
+                  <c:v>0.97881547016037596</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0110761910445301</c:v>
+                  <c:v>0.99408218600353604</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0182875683575101</c:v>
+                  <c:v>1.0026901343655801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0202890116244201</c:v>
+                  <c:v>0.97300667341245395</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0006602882753399</c:v>
+                  <c:v>0.97237023722899696</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.04719003417412</c:v>
+                  <c:v>1.0276318783871501</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0482817810820599</c:v>
+                  <c:v>1.0684737598146501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0877737500075699</c:v>
+                  <c:v>1.0236771517315</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0892997097261199</c:v>
+                  <c:v>1.0585248800057501</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0687354091146399</c:v>
+                  <c:v>1.07286445125958</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.07957054124477</c:v>
+                  <c:v>1.0802217437097501</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.08708592311865</c:v>
+                  <c:v>1.0636726115961599</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.01471815834589</c:v>
+                  <c:v>1.1016156853180299</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.11189058570213</c:v>
+                  <c:v>1.07215327486532</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.16094742008758</c:v>
+                  <c:v>1.1790366820589699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1693,7 +1765,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'14 dic'!$I$1</c:f>
+              <c:f>'17 dic'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1751,20 +1823,20 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'14 nov'!$A$2:$A$16</c:f>
+              <c:f>'17 nov'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>San Cristóbal</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Duarte</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>La Altagracia</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sánchez Ramírez</c:v>
@@ -1773,28 +1845,28 @@
                   <c:v>Distrito Nacional</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Santo Domingo</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>La Romana</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Puerto Plata</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
+                  <c:v>Azua</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>La Romana</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Azua</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Peravia</c:v>
@@ -1804,7 +1876,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'14 dic'!$I$2:$I$16</c:f>
+              <c:f>'17 dic'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2048,7 +2120,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'14 oct'!$D$1</c:f>
+              <c:f>'17 oct'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2086,11 +2158,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2110,11 +2182,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2134,11 +2206,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2158,11 +2230,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2230,11 +2302,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2254,11 +2326,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2350,11 +2422,13 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000">
+                      <a:alpha val="99000"/>
+                    </a:srgbClr>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2374,11 +2448,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2446,108 +2520,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'14 nov'!$H$2:$H$16</c:f>
+                <c:f>'17 nov'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>8.6938391100984003E-2</c:v>
+                    <c:v>8.5021538165384047E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.3651869684519875E-2</c:v>
+                    <c:v>9.1498844551604064E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.3274774567019918E-2</c:v>
+                    <c:v>8.1419385246110032E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.8661843332299872E-2</c:v>
+                    <c:v>8.7900904599936047E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.9813152823499998E-2</c:v>
+                    <c:v>0.1016597256982531</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.3678388335890022E-2</c:v>
+                    <c:v>6.9690502885719985E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.8251388616320092E-2</c:v>
+                    <c:v>8.0938507413469862E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>9.3200222650769993E-2</c:v>
+                    <c:v>6.8867166554730019E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>9.1542302302510148E-2</c:v>
+                    <c:v>9.3319116191979967E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>7.2694290682550067E-2</c:v>
+                    <c:v>8.895824101519012E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7.9805153531550044E-2</c:v>
+                    <c:v>0.1036059721360898</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.11273449618944986</c:v>
+                    <c:v>9.9563390864300105E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>6.7020965249410036E-2</c:v>
+                    <c:v>9.9164843491410082E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.10795804131964015</c:v>
+                    <c:v>8.8385647367700049E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.1103321396249699</c:v>
+                    <c:v>9.5845359189520085E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'14 nov'!$G$2:$G$16</c:f>
+                <c:f>'17 nov'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>9.2954260227922969E-2</c:v>
+                    <c:v>8.8075146878643928E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.6801992687081109E-2</c:v>
+                    <c:v>7.8717608533167005E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>9.0698594625823081E-2</c:v>
+                    <c:v>8.6735759840590121E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.2393789823762109E-2</c:v>
+                    <c:v>0.10156331695117893</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.7392875298482933E-2</c:v>
+                    <c:v>7.5626887886139915E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8.102659645672905E-2</c:v>
+                    <c:v>7.1476718954729068E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.4728500208467885E-2</c:v>
+                    <c:v>9.7450966412963136E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.11281748891602994</c:v>
+                    <c:v>7.1315981275074991E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.1057865266398309</c:v>
+                    <c:v>0.12141309506175402</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.6343367862201981E-2</c:v>
+                    <c:v>7.813560514663398E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>9.0141030134600064E-2</c:v>
+                    <c:v>9.2599051983108138E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.10405318669363406</c:v>
+                    <c:v>8.6728710203040849E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>8.1248959099896934E-2</c:v>
+                    <c:v>0.10422844767206685</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.10894002435308003</c:v>
+                    <c:v>7.6330679288952985E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>9.1420035852070036E-2</c:v>
+                    <c:v>0.11309988163522999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2568,20 +2642,20 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'14 nov'!$A$2:$A$16</c:f>
+              <c:f>'17 nov'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>San Cristóbal</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Duarte</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>La Altagracia</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sánchez Ramírez</c:v>
@@ -2590,28 +2664,28 @@
                   <c:v>Distrito Nacional</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Santo Domingo</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>La Romana</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Puerto Plata</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
+                  <c:v>Azua</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>La Romana</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Azua</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Peravia</c:v>
@@ -2621,54 +2695,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'14 oct'!$D$2:$D$16</c:f>
+              <c:f>'17 oct'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.98688842172267399</c:v>
+                  <c:v>1.1242626056543299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94330641878031796</c:v>
+                  <c:v>1.02154441161563</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.11276723272253</c:v>
+                  <c:v>0.95477819341359704</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97701622256848497</c:v>
+                  <c:v>1.0077385085895401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.00388952900981</c:v>
+                  <c:v>1.0078322698906601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.05953823337509</c:v>
+                  <c:v>1.08140291689683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98626808554656797</c:v>
+                  <c:v>1.0029219111649399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94594939236239195</c:v>
+                  <c:v>1.0716427757128599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98135283394144601</c:v>
+                  <c:v>0.92004078754827401</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92439898754030003</c:v>
+                  <c:v>0.992698842720522</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.96914824832739999</c:v>
+                  <c:v>0.96264134061867501</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.87579556456980101</c:v>
+                  <c:v>1.00717654168395</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.05370736796773</c:v>
+                  <c:v>0.89898266161011697</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.87831807438459797</c:v>
+                  <c:v>0.94181311373001098</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.94085060416705002</c:v>
+                  <c:v>0.95487326459409605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2685,7 +2759,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'14 dic'!$I$1</c:f>
+              <c:f>'17 dic'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2743,20 +2817,20 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'14 nov'!$A$2:$A$16</c:f>
+              <c:f>'17 nov'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>La Altagracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>San Cristóbal</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Duarte</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>La Altagracia</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sánchez Ramírez</c:v>
@@ -2765,28 +2839,28 @@
                   <c:v>Distrito Nacional</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Santo Domingo</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>La Romana</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Puerto Plata</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
+                  <c:v>Azua</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>La Romana</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Azua</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Peravia</c:v>
@@ -2796,7 +2870,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'14 dic'!$I$2:$I$16</c:f>
+              <c:f>'17 dic'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5111,8 +5185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A870B0F-A2EC-457C-A8A5-5E639A765E29}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5152,30 +5226,30 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>44179</v>
+        <v>44182</v>
       </c>
       <c r="C2">
-        <v>0.87652916249999302</v>
+        <v>0.93106518034617702</v>
       </c>
       <c r="D2">
-        <v>0.85683654368579998</v>
+        <v>0.91365402404743101</v>
       </c>
       <c r="E2">
-        <v>0.63623758947484699</v>
+        <v>0.71208668696398403</v>
       </c>
       <c r="F2">
-        <v>1.0433932280226501</v>
+        <v>1.12660107193849</v>
       </c>
       <c r="G2">
         <f>D2-E2</f>
-        <v>0.22059895421095299</v>
+        <v>0.20156733708344698</v>
       </c>
       <c r="H2">
         <f>F2-D2</f>
-        <v>0.18655668433685013</v>
+        <v>0.212947047891059</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5184,30 +5258,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>44179</v>
+        <v>44182</v>
       </c>
       <c r="C3">
-        <v>0.98207990856183802</v>
+        <v>0.93454219015963302</v>
       </c>
       <c r="D3">
-        <v>0.960202074623977</v>
+        <v>0.92526116633153699</v>
       </c>
       <c r="E3">
-        <v>0.762775457919314</v>
+        <v>0.71335525352576501</v>
       </c>
       <c r="F3">
-        <v>1.19112777525173</v>
+        <v>1.1011390111578201</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G16" si="0">D3-E3</f>
-        <v>0.19742661670466299</v>
+        <v>0.21190591280577198</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H16" si="1">F3-D3</f>
-        <v>0.23092570062775297</v>
+        <v>0.1758778448262831</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5216,30 +5290,30 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
-        <v>44179</v>
+        <v>44182</v>
       </c>
       <c r="C4">
-        <v>1.0252431109893001</v>
+        <v>0.98075987334460701</v>
       </c>
       <c r="D4">
-        <v>1.01332189794616</v>
+        <v>0.96021759674740803</v>
       </c>
       <c r="E4">
-        <v>0.78790484088344304</v>
+        <v>0.73567828636486099</v>
       </c>
       <c r="F4">
-        <v>1.2216726911176199</v>
+        <v>1.15353128261247</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.22541705706271697</v>
+        <v>0.22453931038254704</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>0.20835079317145988</v>
+        <v>0.19331368586506192</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5248,30 +5322,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1">
-        <v>44179</v>
+        <v>44182</v>
       </c>
       <c r="C5">
-        <v>1.02398133263806</v>
+        <v>0.98608368417060599</v>
       </c>
       <c r="D5">
-        <v>1.0135572627387299</v>
+        <v>0.96663347160444402</v>
       </c>
       <c r="E5">
-        <v>0.81639516876912899</v>
+        <v>0.696721982484244</v>
       </c>
       <c r="F5">
-        <v>1.24076805718133</v>
+        <v>1.1457060202877101</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.19716209396960094</v>
+        <v>0.26991148912020002</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>0.22721079444260006</v>
+        <v>0.17907254868326605</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5283,27 +5357,27 @@
         <v>20</v>
       </c>
       <c r="B6" s="1">
-        <v>44179</v>
+        <v>44182</v>
       </c>
       <c r="C6">
-        <v>1.0335919852522699</v>
+        <v>0.984580451139482</v>
       </c>
       <c r="D6">
-        <v>1.0207868260369299</v>
+        <v>0.97028292559690499</v>
       </c>
       <c r="E6">
-        <v>0.78344036407645201</v>
+        <v>0.72139521695630804</v>
       </c>
       <c r="F6">
-        <v>1.24431824676588</v>
+        <v>1.1919983754630801</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.23734646196047793</v>
+        <v>0.24888770864059695</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>0.22353142072895005</v>
+        <v>0.22171544986617508</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5315,27 +5389,27 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>44179</v>
+        <v>44182</v>
       </c>
       <c r="C7">
-        <v>1.05075586155937</v>
+        <v>1.01951057381563</v>
       </c>
       <c r="D7">
-        <v>1.0333396484558699</v>
+        <v>1.0024422688865</v>
       </c>
       <c r="E7">
-        <v>0.80755531588020701</v>
+        <v>0.79908883017750498</v>
       </c>
       <c r="F7">
-        <v>1.2242947406138101</v>
+        <v>1.21344776981266</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.22578433257566288</v>
+        <v>0.20335343870899503</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>0.19095509215794015</v>
+        <v>0.21100550092615999</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5344,30 +5418,30 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>44179</v>
+        <v>44182</v>
       </c>
       <c r="C8">
-        <v>1.0754616766301199</v>
+        <v>1.0602035070543001</v>
       </c>
       <c r="D8">
-        <v>1.06265004445914</v>
+        <v>1.04484445338406</v>
       </c>
       <c r="E8">
-        <v>0.82836071948212597</v>
+        <v>0.82959376207620406</v>
       </c>
       <c r="F8">
-        <v>1.2662531988151799</v>
+        <v>1.27086519166862</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.23428932497701405</v>
+        <v>0.2152506913078559</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>0.20360315435603993</v>
+        <v>0.22602073828456004</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5376,30 +5450,30 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>44179</v>
+        <v>44182</v>
       </c>
       <c r="C9">
-        <v>1.1090247720112201</v>
+        <v>1.06822624592396</v>
       </c>
       <c r="D9">
-        <v>1.08597413350858</v>
+        <v>1.05373800142771</v>
       </c>
       <c r="E9">
-        <v>0.83324684604524402</v>
+        <v>0.87329586401891202</v>
       </c>
       <c r="F9">
-        <v>1.3294947972892199</v>
+        <v>1.3002682968225301</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.25272728746333595</v>
+        <v>0.180442137408798</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>0.24352066378063997</v>
+        <v>0.24653029539482008</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5408,30 +5482,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
-        <v>44179</v>
+        <v>44182</v>
       </c>
       <c r="C10">
-        <v>1.1076547284009799</v>
+        <v>1.0805198683970001</v>
       </c>
       <c r="D10">
-        <v>1.0901702683399499</v>
+        <v>1.05893499564532</v>
       </c>
       <c r="E10">
-        <v>0.80855898070676901</v>
+        <v>0.77565328606780704</v>
       </c>
       <c r="F10">
-        <v>1.3162991428961099</v>
+        <v>1.29335743626495</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.28161128763318088</v>
+        <v>0.28328170957751297</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>0.22612887455616004</v>
+        <v>0.23442244061963002</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5440,30 +5514,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>44179</v>
+        <v>44182</v>
       </c>
       <c r="C11">
-        <v>1.10208215315835</v>
+        <v>1.08070802839293</v>
       </c>
       <c r="D11">
-        <v>1.0959996994513499</v>
+        <v>1.06837582702597</v>
       </c>
       <c r="E11">
-        <v>0.88771847734974196</v>
+        <v>0.85527413873287705</v>
       </c>
       <c r="F11">
-        <v>1.30679154114694</v>
+        <v>1.3030830041135699</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.20828122210160793</v>
+        <v>0.21310168829309295</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>0.21079184169559007</v>
+        <v>0.23470717708759992</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5472,30 +5546,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>44179</v>
+        <v>44182</v>
       </c>
       <c r="C12">
-        <v>1.11121442070983</v>
+        <v>1.0884641909288899</v>
       </c>
       <c r="D12">
-        <v>1.0976893324193899</v>
+        <v>1.0782333079925099</v>
       </c>
       <c r="E12">
-        <v>0.82505075726225596</v>
+        <v>0.84339459392923199</v>
       </c>
       <c r="F12">
-        <v>1.2662776573455401</v>
+        <v>1.31940121843238</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0.27263857515713397</v>
+        <v>0.23483871406327794</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>0.16858832492615017</v>
+        <v>0.24116791043987007</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5504,30 +5578,30 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
-        <v>44179</v>
+        <v>44182</v>
       </c>
       <c r="C13">
-        <v>1.1161952743794501</v>
+        <v>1.13232272223236</v>
       </c>
       <c r="D13">
-        <v>1.1106897131195499</v>
+        <v>1.1098412238112501</v>
       </c>
       <c r="E13">
-        <v>0.86848007257370496</v>
+        <v>0.90913553107442102</v>
       </c>
       <c r="F13">
-        <v>1.40039855329755</v>
+        <v>1.3390385794427699</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.24220964054584493</v>
+        <v>0.20070569273682903</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>0.28970884017800014</v>
+        <v>0.22919735563151988</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5536,30 +5610,30 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
-        <v>44179</v>
+        <v>44182</v>
       </c>
       <c r="C14">
-        <v>1.1185363603571301</v>
+        <v>1.13282123713942</v>
       </c>
       <c r="D14">
-        <v>1.1118737104547201</v>
+        <v>1.11437071292199</v>
       </c>
       <c r="E14">
-        <v>0.87328783240719399</v>
+        <v>0.84413132744360397</v>
       </c>
       <c r="F14">
-        <v>1.32652456974518</v>
+        <v>1.39521844207747</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0.23858587804752607</v>
+        <v>0.270239385478386</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>0.21465085929045991</v>
+        <v>0.28084772915548006</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -5568,30 +5642,30 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1">
-        <v>44179</v>
+        <v>44182</v>
       </c>
       <c r="C15">
-        <v>1.2035279969556401</v>
+        <v>1.12618087886921</v>
       </c>
       <c r="D15">
-        <v>1.19492193759331</v>
+        <v>1.1195114894481899</v>
       </c>
       <c r="E15">
-        <v>0.90719575507375605</v>
+        <v>0.89499891772197704</v>
       </c>
       <c r="F15">
-        <v>1.4442826768424799</v>
+        <v>1.3396452666251399</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0.28772618251955395</v>
+        <v>0.22451257172621286</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>0.2493607392491699</v>
+        <v>0.22013377717695004</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -5603,27 +5677,27 @@
         <v>18</v>
       </c>
       <c r="B16" s="1">
-        <v>44179</v>
+        <v>44182</v>
       </c>
       <c r="C16">
-        <v>1.3042626069208101</v>
+        <v>1.2561797950084299</v>
       </c>
       <c r="D16">
-        <v>1.29129062765505</v>
+        <v>1.2400738788095</v>
       </c>
       <c r="E16">
-        <v>1.02086683195785</v>
+        <v>0.968701358781479</v>
       </c>
       <c r="F16">
-        <v>1.58450807693492</v>
+        <v>1.52983897011709</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0.27042379569719999</v>
+        <v>0.27137252002802104</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>0.29321744927987003</v>
+        <v>0.28976509130758998</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -5643,8 +5717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9B4699-B86D-4EFA-A264-1734A39D161E}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5684,30 +5758,30 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>44149</v>
+        <v>44152</v>
       </c>
       <c r="C2">
-        <v>0.94221370921257896</v>
+        <v>0.97984594518023604</v>
       </c>
       <c r="D2">
-        <v>0.93836396328615601</v>
+        <v>0.97881547016037596</v>
       </c>
       <c r="E2">
-        <v>0.84540970305823304</v>
+        <v>0.89074032328173203</v>
       </c>
       <c r="F2">
-        <v>1.02530235438714</v>
+        <v>1.06383700832576</v>
       </c>
       <c r="G2">
         <f>D2-E2</f>
-        <v>9.2954260227922969E-2</v>
+        <v>8.8075146878643928E-2</v>
       </c>
       <c r="H2">
         <f>F2-D2</f>
-        <v>8.6938391100984003E-2</v>
+        <v>8.5021538165384047E-2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5716,30 +5790,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>44149</v>
+        <v>44152</v>
       </c>
       <c r="C3">
-        <v>1.0143305743226401</v>
+        <v>0.99581267009069696</v>
       </c>
       <c r="D3">
-        <v>1.0110761910445301</v>
+        <v>0.99408218600353604</v>
       </c>
       <c r="E3">
-        <v>0.92427419835744895</v>
+        <v>0.91536457747036903</v>
       </c>
       <c r="F3">
-        <v>1.0947280607290499</v>
+        <v>1.0855810305551401</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G16" si="0">D3-E3</f>
-        <v>8.6801992687081109E-2</v>
+        <v>7.8717608533167005E-2</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H16" si="1">F3-D3</f>
-        <v>8.3651869684519875E-2</v>
+        <v>9.1498844551604064E-2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5748,30 +5822,30 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
-        <v>44149</v>
+        <v>44152</v>
       </c>
       <c r="C4">
-        <v>1.019181502156</v>
+        <v>1.0029270058344</v>
       </c>
       <c r="D4">
-        <v>1.0182875683575101</v>
+        <v>1.0026901343655801</v>
       </c>
       <c r="E4">
-        <v>0.92758897373168703</v>
+        <v>0.91595437452498996</v>
       </c>
       <c r="F4">
-        <v>1.09156234292453</v>
+        <v>1.0841095196116901</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>9.0698594625823081E-2</v>
+        <v>8.6735759840590121E-2</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>7.3274774567019918E-2</v>
+        <v>8.1419385246110032E-2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5780,30 +5854,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1">
-        <v>44149</v>
+        <v>44152</v>
       </c>
       <c r="C5">
-        <v>1.0230263157995301</v>
+        <v>0.97611157899005097</v>
       </c>
       <c r="D5">
-        <v>1.0202890116244201</v>
+        <v>0.97300667341245395</v>
       </c>
       <c r="E5">
-        <v>0.93789522180065799</v>
+        <v>0.87144335646127502</v>
       </c>
       <c r="F5">
-        <v>1.10895085495672</v>
+        <v>1.06090757801239</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>8.2393789823762109E-2</v>
+        <v>0.10156331695117893</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>8.8661843332299872E-2</v>
+        <v>8.7900904599936047E-2</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5815,27 +5889,27 @@
         <v>20</v>
       </c>
       <c r="B6" s="1">
-        <v>44149</v>
+        <v>44152</v>
       </c>
       <c r="C6">
-        <v>1.00312312096637</v>
+        <v>0.97399917483169196</v>
       </c>
       <c r="D6">
-        <v>1.0006602882753399</v>
+        <v>0.97237023722899696</v>
       </c>
       <c r="E6">
-        <v>0.92326741297685699</v>
+        <v>0.89674334934285704</v>
       </c>
       <c r="F6">
-        <v>1.0904734410988399</v>
+        <v>1.0740299629272501</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>7.7392875298482933E-2</v>
+        <v>7.5626887886139915E-2</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>8.9813152823499998E-2</v>
+        <v>0.1016597256982531</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5847,27 +5921,27 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>44149</v>
+        <v>44152</v>
       </c>
       <c r="C7">
-        <v>1.04588071239751</v>
+        <v>1.0277455373680899</v>
       </c>
       <c r="D7">
-        <v>1.04719003417412</v>
+        <v>1.0276318783871501</v>
       </c>
       <c r="E7">
-        <v>0.96616343771739099</v>
+        <v>0.95615515943242102</v>
       </c>
       <c r="F7">
-        <v>1.1208684225100101</v>
+        <v>1.0973223812728701</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>8.102659645672905E-2</v>
+        <v>7.1476718954729068E-2</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>7.3678388335890022E-2</v>
+        <v>6.9690502885719985E-2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5876,30 +5950,30 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>44149</v>
+        <v>44152</v>
       </c>
       <c r="C8">
-        <v>1.04987517308058</v>
+        <v>1.0667512132038</v>
       </c>
       <c r="D8">
-        <v>1.0482817810820599</v>
+        <v>1.0684737598146501</v>
       </c>
       <c r="E8">
-        <v>0.97355328087359205</v>
+        <v>0.97102279340168696</v>
       </c>
       <c r="F8">
-        <v>1.13653316969838</v>
+        <v>1.14941226722812</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>7.4728500208467885E-2</v>
+        <v>9.7450966412963136E-2</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>8.8251388616320092E-2</v>
+        <v>8.0938507413469862E-2</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5908,30 +5982,30 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>44149</v>
+        <v>44152</v>
       </c>
       <c r="C9">
-        <v>1.0900961629947401</v>
+        <v>1.02465983779335</v>
       </c>
       <c r="D9">
-        <v>1.0877737500075699</v>
+        <v>1.0236771517315</v>
       </c>
       <c r="E9">
-        <v>0.97495626109153999</v>
+        <v>0.95236117045642499</v>
       </c>
       <c r="F9">
-        <v>1.1809739726583399</v>
+        <v>1.09254431828623</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.11281748891602994</v>
+        <v>7.1315981275074991E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>9.3200222650769993E-2</v>
+        <v>6.8867166554730019E-2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5940,30 +6014,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
-        <v>44149</v>
+        <v>44152</v>
       </c>
       <c r="C10">
-        <v>1.09367075952318</v>
+        <v>1.0635767158795699</v>
       </c>
       <c r="D10">
-        <v>1.0892997097261199</v>
+        <v>1.0585248800057501</v>
       </c>
       <c r="E10">
-        <v>0.98351318308628899</v>
+        <v>0.93711178494399605</v>
       </c>
       <c r="F10">
-        <v>1.18084201202863</v>
+        <v>1.15184399619773</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.1057865266398309</v>
+        <v>0.12141309506175402</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>9.1542302302510148E-2</v>
+        <v>9.3319116191979967E-2</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5972,30 +6046,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>44149</v>
+        <v>44152</v>
       </c>
       <c r="C11">
-        <v>1.0724783581022199</v>
+        <v>1.07589056895754</v>
       </c>
       <c r="D11">
-        <v>1.0687354091146399</v>
+        <v>1.07286445125958</v>
       </c>
       <c r="E11">
-        <v>0.98239204125243795</v>
+        <v>0.99472884611294599</v>
       </c>
       <c r="F11">
-        <v>1.14142969979719</v>
+        <v>1.1618226922747701</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>8.6343367862201981E-2</v>
+        <v>7.813560514663398E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>7.2694290682550067E-2</v>
+        <v>8.895824101519012E-2</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -6004,30 +6078,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>44149</v>
+        <v>44152</v>
       </c>
       <c r="C12">
-        <v>1.08171194861916</v>
+        <v>1.0866684252346499</v>
       </c>
       <c r="D12">
-        <v>1.07957054124477</v>
+        <v>1.0802217437097501</v>
       </c>
       <c r="E12">
-        <v>0.98942951111016997</v>
+        <v>0.98762269172664197</v>
       </c>
       <c r="F12">
-        <v>1.1593756947763201</v>
+        <v>1.1838277158458399</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>9.0141030134600064E-2</v>
+        <v>9.2599051983108138E-2</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>7.9805153531550044E-2</v>
+        <v>0.1036059721360898</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -6036,30 +6110,30 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
-        <v>44149</v>
+        <v>44152</v>
       </c>
       <c r="C13">
-        <v>1.08778168274778</v>
+        <v>1.06503854037448</v>
       </c>
       <c r="D13">
-        <v>1.08708592311865</v>
+        <v>1.0636726115961599</v>
       </c>
       <c r="E13">
-        <v>0.98303273642501598</v>
+        <v>0.97694390139311904</v>
       </c>
       <c r="F13">
-        <v>1.1998204193080999</v>
+        <v>1.16323600246046</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.10405318669363406</v>
+        <v>8.6728710203040849E-2</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>0.11273449618944986</v>
+        <v>9.9563390864300105E-2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -6068,30 +6142,30 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
-        <v>44149</v>
+        <v>44152</v>
       </c>
       <c r="C14">
-        <v>1.01762852425478</v>
+        <v>1.1054485120097299</v>
       </c>
       <c r="D14">
-        <v>1.01471815834589</v>
+        <v>1.1016156853180299</v>
       </c>
       <c r="E14">
-        <v>0.93346919924599303</v>
+        <v>0.99738723764596304</v>
       </c>
       <c r="F14">
-        <v>1.0817391235953</v>
+        <v>1.20078052880944</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>8.1248959099896934E-2</v>
+        <v>0.10422844767206685</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>6.7020965249410036E-2</v>
+        <v>9.9164843491410082E-2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -6100,30 +6174,30 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1">
-        <v>44149</v>
+        <v>44152</v>
       </c>
       <c r="C15">
-        <v>1.11646524189925</v>
+        <v>1.07489743218613</v>
       </c>
       <c r="D15">
-        <v>1.11189058570213</v>
+        <v>1.07215327486532</v>
       </c>
       <c r="E15">
-        <v>1.0029505613490499</v>
+        <v>0.99582259557636699</v>
       </c>
       <c r="F15">
-        <v>1.2198486270217701</v>
+        <v>1.16053892223302</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0.10894002435308003</v>
+        <v>7.6330679288952985E-2</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>0.10795804131964015</v>
+        <v>8.8385647367700049E-2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -6135,27 +6209,27 @@
         <v>18</v>
       </c>
       <c r="B16" s="1">
-        <v>44149</v>
+        <v>44152</v>
       </c>
       <c r="C16">
-        <v>1.1644542995452001</v>
+        <v>1.1807990310462</v>
       </c>
       <c r="D16">
-        <v>1.16094742008758</v>
+        <v>1.1790366820589699</v>
       </c>
       <c r="E16">
-        <v>1.06952738423551</v>
+        <v>1.0659368004237399</v>
       </c>
       <c r="F16">
-        <v>1.2712795597125499</v>
+        <v>1.27488204124849</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>9.1420035852070036E-2</v>
+        <v>0.11309988163522999</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>0.1103321396249699</v>
+        <v>9.5845359189520085E-2</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -6175,8 +6249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFCAF56-E988-48E4-BDA2-C84256C27DCF}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="97" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="97" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6216,30 +6290,30 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>44118</v>
+        <v>44121</v>
       </c>
       <c r="C2">
-        <v>0.99091107610209395</v>
+        <v>1.1269669332379599</v>
       </c>
       <c r="D2">
-        <v>0.98688842172267399</v>
+        <v>1.1242626056543299</v>
       </c>
       <c r="E2">
-        <v>0.91100456935466301</v>
+        <v>1.04236302910481</v>
       </c>
       <c r="F2">
-        <v>1.08497117982015</v>
+        <v>1.21770383363707</v>
       </c>
       <c r="G2">
         <f>D2-E2</f>
-        <v>7.5883852368010984E-2</v>
+        <v>8.1899576549519848E-2</v>
       </c>
       <c r="H2">
         <f>F2-D2</f>
-        <v>9.8082758097476019E-2</v>
+        <v>9.3441227982740127E-2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -6248,30 +6322,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>44118</v>
+        <v>44121</v>
       </c>
       <c r="C3">
-        <v>0.94724906377853801</v>
+        <v>1.02292160392495</v>
       </c>
       <c r="D3">
-        <v>0.94330641878031796</v>
+        <v>1.02154441161563</v>
       </c>
       <c r="E3">
-        <v>0.87519540851345201</v>
+        <v>0.94733649005809994</v>
       </c>
       <c r="F3">
-        <v>1.0229669530330701</v>
+        <v>1.1004102758196099</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G16" si="0">D3-E3</f>
-        <v>6.8111010266865946E-2</v>
+        <v>7.4207921557530088E-2</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H16" si="1">F3-D3</f>
-        <v>7.9660534252752102E-2</v>
+        <v>7.8865864203979896E-2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -6280,30 +6354,30 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
-        <v>44118</v>
+        <v>44121</v>
       </c>
       <c r="C4">
-        <v>1.11478196607809</v>
+        <v>0.95548272872690598</v>
       </c>
       <c r="D4">
-        <v>1.11276723272253</v>
+        <v>0.95477819341359704</v>
       </c>
       <c r="E4">
-        <v>1.0326572416867901</v>
+        <v>0.87035709037584297</v>
       </c>
       <c r="F4">
-        <v>1.2090073825576</v>
+        <v>1.02615724768004</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>8.0109991035739903E-2</v>
+        <v>8.4421103037754075E-2</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>9.624014983507001E-2</v>
+        <v>7.1379054266442976E-2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -6312,30 +6386,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1">
-        <v>44118</v>
+        <v>44121</v>
       </c>
       <c r="C5">
-        <v>0.981178994431958</v>
+        <v>1.00771595414667</v>
       </c>
       <c r="D5">
-        <v>0.97701622256848497</v>
+        <v>1.0077385085895401</v>
       </c>
       <c r="E5">
-        <v>0.90689336221492201</v>
+        <v>0.91231814674456202</v>
       </c>
       <c r="F5">
-        <v>1.0569797846690101</v>
+        <v>1.0812353163633699</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>7.0122860353562966E-2</v>
+        <v>9.5420361844978041E-2</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>7.9963562100525132E-2</v>
+        <v>7.3496807773829831E-2</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -6347,27 +6421,27 @@
         <v>20</v>
       </c>
       <c r="B6" s="1">
-        <v>44118</v>
+        <v>44121</v>
       </c>
       <c r="C6">
-        <v>1.0078222486344399</v>
+        <v>1.010169015887</v>
       </c>
       <c r="D6">
-        <v>1.00388952900981</v>
+        <v>1.0078322698906601</v>
       </c>
       <c r="E6">
-        <v>0.917891425456278</v>
+        <v>0.92624452354790399</v>
       </c>
       <c r="F6">
-        <v>1.08142789950048</v>
+        <v>1.08955748699864</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>8.599810355353199E-2</v>
+        <v>8.1587746342756118E-2</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>7.7538370490670028E-2</v>
+        <v>8.1725217107979864E-2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -6379,27 +6453,27 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>44118</v>
+        <v>44121</v>
       </c>
       <c r="C7">
-        <v>1.0619930127601001</v>
+        <v>1.08283847359209</v>
       </c>
       <c r="D7">
-        <v>1.05953823337509</v>
+        <v>1.08140291689683</v>
       </c>
       <c r="E7">
-        <v>0.98205248116906396</v>
+        <v>0.995520095747086</v>
       </c>
       <c r="F7">
-        <v>1.1352504630056299</v>
+        <v>1.15757841244912</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>7.7485752206026048E-2</v>
+        <v>8.5882821149743993E-2</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>7.5712229630539918E-2</v>
+        <v>7.6175495552289973E-2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -6408,30 +6482,30 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>44118</v>
+        <v>44121</v>
       </c>
       <c r="C8">
-        <v>0.98773482264035295</v>
+        <v>1.0041866293710899</v>
       </c>
       <c r="D8">
-        <v>0.98626808554656797</v>
+        <v>1.0029219111649399</v>
       </c>
       <c r="E8">
-        <v>0.90527857473374995</v>
+        <v>0.92165481134136495</v>
       </c>
       <c r="F8">
-        <v>1.0598968722693201</v>
+        <v>1.0805152955792201</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>8.0989510812818022E-2</v>
+        <v>8.126709982357494E-2</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>7.3628786722752082E-2</v>
+        <v>7.7593384414280209E-2</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -6440,30 +6514,30 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>44118</v>
+        <v>44121</v>
       </c>
       <c r="C9">
-        <v>0.95252968934021698</v>
+        <v>1.07470614455047</v>
       </c>
       <c r="D9">
-        <v>0.94594939236239195</v>
+        <v>1.0716427757128599</v>
       </c>
       <c r="E9">
-        <v>0.85801509626191697</v>
+        <v>1.0041415132877001</v>
       </c>
       <c r="F9">
-        <v>1.0327112545219399</v>
+        <v>1.1550837734373101</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>8.7934296100474985E-2</v>
+        <v>6.7501262425159858E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>8.6761862159547953E-2</v>
+        <v>8.3440997724450128E-2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -6472,30 +6546,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
-        <v>44118</v>
+        <v>44121</v>
       </c>
       <c r="C10">
-        <v>0.98258908635120701</v>
+        <v>0.92248132870759403</v>
       </c>
       <c r="D10">
-        <v>0.98135283394144601</v>
+        <v>0.92004078754827401</v>
       </c>
       <c r="E10">
-        <v>0.90364181943271904</v>
+        <v>0.83997810547535201</v>
       </c>
       <c r="F10">
-        <v>1.0698505149095801</v>
+        <v>1.0066901124677801</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>7.7711014508726972E-2</v>
+        <v>8.0062682072921998E-2</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>8.849768096813404E-2</v>
+        <v>8.6649324919506054E-2</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -6504,30 +6578,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>44118</v>
+        <v>44121</v>
       </c>
       <c r="C11">
-        <v>0.92561207405183799</v>
+        <v>0.99382264947672605</v>
       </c>
       <c r="D11">
-        <v>0.92439898754030003</v>
+        <v>0.992698842720522</v>
       </c>
       <c r="E11">
-        <v>0.85086501549593097</v>
+        <v>0.91996557587902605</v>
       </c>
       <c r="F11">
-        <v>0.98713090371545498</v>
+        <v>1.06649151830429</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>7.3533972044369067E-2</v>
+        <v>7.2733266841495947E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>6.2731916175154945E-2</v>
+        <v>7.3792675583768008E-2</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -6536,30 +6610,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>44118</v>
+        <v>44121</v>
       </c>
       <c r="C12">
-        <v>0.97246159085087402</v>
+        <v>0.96679888880064002</v>
       </c>
       <c r="D12">
-        <v>0.96914824832739999</v>
+        <v>0.96264134061867501</v>
       </c>
       <c r="E12">
-        <v>0.90140765731375405</v>
+        <v>0.86763677248537396</v>
       </c>
       <c r="F12">
-        <v>1.0483964730713899</v>
+        <v>1.0463094931107899</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>6.7740591013645934E-2</v>
+        <v>9.5004568133301048E-2</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>7.9248224743989959E-2</v>
+        <v>8.36681524921149E-2</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -6568,30 +6642,30 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
-        <v>44118</v>
+        <v>44121</v>
       </c>
       <c r="C13">
-        <v>0.87625240155135997</v>
+        <v>1.0073880182361501</v>
       </c>
       <c r="D13">
-        <v>0.87579556456980101</v>
+        <v>1.00717654168395</v>
       </c>
       <c r="E13">
-        <v>0.800451572103695</v>
+        <v>0.920176049279123</v>
       </c>
       <c r="F13">
-        <v>0.96071099892200995</v>
+        <v>1.07654919322835</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>7.5343992466106013E-2</v>
+        <v>8.700049240482699E-2</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>8.4915434352208941E-2</v>
+        <v>6.9372651544399977E-2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -6600,30 +6674,30 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
-        <v>44118</v>
+        <v>44121</v>
       </c>
       <c r="C14">
-        <v>1.0561713397875101</v>
+        <v>0.898678943437073</v>
       </c>
       <c r="D14">
-        <v>1.05370736796773</v>
+        <v>0.89898266161011697</v>
       </c>
       <c r="E14">
-        <v>0.97691484248468496</v>
+        <v>0.82020950934519099</v>
       </c>
       <c r="F14">
-        <v>1.1293086785069399</v>
+        <v>0.98237935527051101</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>7.6792525483045049E-2</v>
+        <v>7.8773152264925983E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>7.5601310539209932E-2</v>
+        <v>8.3396693660394039E-2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -6632,30 +6706,30 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1">
-        <v>44118</v>
+        <v>44121</v>
       </c>
       <c r="C15">
-        <v>0.87766977539300595</v>
+        <v>0.94437867823283494</v>
       </c>
       <c r="D15">
-        <v>0.87831807438459797</v>
+        <v>0.94181311373001098</v>
       </c>
       <c r="E15">
-        <v>0.80303729542371005</v>
+        <v>0.87253794910621496</v>
       </c>
       <c r="F15">
-        <v>0.957745032875299</v>
+        <v>1.01761963214017</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>7.5280778960887917E-2</v>
+        <v>6.9275164623796015E-2</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>7.9426958490701027E-2</v>
+        <v>7.5806518410159063E-2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -6667,27 +6741,27 @@
         <v>18</v>
       </c>
       <c r="B16" s="1">
-        <v>44118</v>
+        <v>44121</v>
       </c>
       <c r="C16">
-        <v>0.94335876273310004</v>
+        <v>0.95692701285650195</v>
       </c>
       <c r="D16">
-        <v>0.94085060416705002</v>
+        <v>0.95487326459409605</v>
       </c>
       <c r="E16">
-        <v>0.85458175813197801</v>
+        <v>0.87372507472733996</v>
       </c>
       <c r="F16">
-        <v>1.01956885181548</v>
+        <v>1.0384539347184201</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>8.6268846035072011E-2</v>
+        <v>8.1148189866756093E-2</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>7.871824764842994E-2</v>
+        <v>8.3580670124324019E-2</v>
       </c>
       <c r="I16">
         <v>1</v>

--- a/results/resultado_consolidado/graph2.xlsx
+++ b/results/resultado_consolidado/graph2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Georg\Documents\GitHub\covid-model\results\resultado_consolidado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDC9AF3-EB5E-48D9-BAB1-AF72038E8FF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500C24B0-F747-466C-8B1F-91A595BC7D56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4AC76AC7-E5A1-4C07-9F5F-EE5E7DC34869}"/>
   </bookViews>
   <sheets>
-    <sheet name="17 dic" sheetId="2" r:id="rId1"/>
-    <sheet name="17 nov" sheetId="1" r:id="rId2"/>
-    <sheet name="17 oct" sheetId="3" r:id="rId3"/>
+    <sheet name="18 ene" sheetId="2" r:id="rId1"/>
+    <sheet name="18 dic" sheetId="1" r:id="rId2"/>
+    <sheet name="18 nov" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="26">
   <si>
     <t>date</t>
   </si>
@@ -106,6 +106,15 @@
   <si>
     <t>upper</t>
   </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>2020-11-18</t>
+  </si>
 </sst>
 </file>
 
@@ -131,12 +140,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -145,8 +169,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -189,7 +213,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'17 dic'!$D$1</c:f>
+              <c:f>'18 ene'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -323,11 +347,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -587,108 +611,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'17 dic'!$H$2:$H$16</c:f>
+                <c:f>'18 ene'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.212947047891059</c:v>
+                    <c:v>0.1821449692239171</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.1758778448262831</c:v>
+                    <c:v>0.17180467280866263</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.19331368586506192</c:v>
+                    <c:v>0.16505134916016828</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.17907254868326605</c:v>
+                    <c:v>0.1603363453077582</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.22171544986617508</c:v>
+                    <c:v>0.21921805034126418</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.21100550092615999</c:v>
+                    <c:v>0.23077492047938297</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.22602073828456004</c:v>
+                    <c:v>0.2577777752156889</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.24653029539482008</c:v>
+                    <c:v>0.20064214892217302</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.23442244061963002</c:v>
+                    <c:v>0.2598404187093859</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.23470717708759992</c:v>
+                    <c:v>0.22270592692318902</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.24116791043987007</c:v>
+                    <c:v>0.23701269770149813</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.22919735563151988</c:v>
+                    <c:v>0.25811918522589794</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.28084772915548006</c:v>
+                    <c:v>0.26986112294372688</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.22013377717695004</c:v>
+                    <c:v>0.2621447089653719</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.28976509130758998</c:v>
+                    <c:v>0.29544063341010296</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'17 dic'!$G$2:$G$16</c:f>
+                <c:f>'18 ene'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.20156733708344698</c:v>
+                    <c:v>0.17255629778476778</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.21190591280577198</c:v>
+                    <c:v>0.21340880202180912</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.22453931038254704</c:v>
+                    <c:v>0.20813736309751585</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.26991148912020002</c:v>
+                    <c:v>0.23402671955337273</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.24888770864059695</c:v>
+                    <c:v>0.21164788754297525</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.20335343870899503</c:v>
+                    <c:v>0.22744508119273488</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.2152506913078559</c:v>
+                    <c:v>0.19873117344673752</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.180442137408798</c:v>
+                    <c:v>0.23191085904403541</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.28328170957751297</c:v>
+                    <c:v>0.20310408261362523</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.21310168829309295</c:v>
+                    <c:v>0.23863636974346725</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.23483871406327794</c:v>
+                    <c:v>0.22856525061420208</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.20070569273682903</c:v>
+                    <c:v>0.23602642672646224</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.270239385478386</c:v>
+                    <c:v>0.24803395055113764</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.22451257172621286</c:v>
+                    <c:v>0.24644457098095263</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.27137252002802104</c:v>
+                    <c:v>0.29862373076846382</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -709,107 +733,107 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'17 dic'!$A$2:$A$16</c:f>
+              <c:f>'18 ene'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>Duarte</c:v>
+                  <c:v>Santo Domingo</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>La Altagracia</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Distrito Nacional</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>San Cristóbal</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Azua</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Peravia</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Espaillat</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Sánchez Ramírez</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Distrito Nacional</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
                   <c:v>La Romana</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Azua</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Peravia</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'17 dic'!$D$2:$D$16</c:f>
+              <c:f>'18 ene'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.91365402404743101</c:v>
+                  <c:v>0.90313168213274497</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92526116633153699</c:v>
+                  <c:v>0.94859960589913839</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96021759674740803</c:v>
+                  <c:v>0.97158780690598878</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96663347160444402</c:v>
+                  <c:v>0.99490850157365585</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97028292559690499</c:v>
+                  <c:v>1.0154116419344019</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0024422688865</c:v>
+                  <c:v>1.045248549244449</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.04484445338406</c:v>
+                  <c:v>1.0457489551172341</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.05373800142771</c:v>
+                  <c:v>1.054988196518182</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.05893499564532</c:v>
+                  <c:v>1.0629267923218551</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.06837582702597</c:v>
+                  <c:v>1.068530288617342</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0782333079925099</c:v>
+                  <c:v>1.075659301656571</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1098412238112501</c:v>
+                  <c:v>1.095531550155084</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.11437071292199</c:v>
+                  <c:v>1.108631842002012</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1195114894481899</c:v>
+                  <c:v>1.216840992946993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2400738788095</c:v>
+                  <c:v>1.291111948440375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -826,7 +850,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'17 dic'!$I$1</c:f>
+              <c:f>'18 ene'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -884,7 +908,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'17 dic'!$I$2:$I$16</c:f>
+              <c:f>'18 ene'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1128,7 +1152,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'17 nov'!$D$1</c:f>
+              <c:f>'18 dic'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1166,11 +1190,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1238,11 +1262,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1262,11 +1286,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1526,108 +1550,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'17 nov'!$H$2:$H$16</c:f>
+                <c:f>'18 dic'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>8.5021538165384047E-2</c:v>
+                    <c:v>8.3057730315643896E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>9.1498844551604064E-2</c:v>
+                    <c:v>7.69290623804465E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.1419385246110032E-2</c:v>
+                    <c:v>7.347053666449499E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.7900904599936047E-2</c:v>
+                    <c:v>9.1140504537748024E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.1016597256982531</c:v>
+                    <c:v>7.2597386109411133E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>6.9690502885719985E-2</c:v>
+                    <c:v>7.0038286267144034E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.0938507413469862E-2</c:v>
+                    <c:v>8.4953122975353068E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>6.8867166554730019E-2</c:v>
+                    <c:v>7.190490243899994E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>9.3319116191979967E-2</c:v>
+                    <c:v>9.4979579606231823E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.895824101519012E-2</c:v>
+                    <c:v>8.5417914008812934E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.1036059721360898</c:v>
+                    <c:v>9.1673166101539083E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>9.9563390864300105E-2</c:v>
+                    <c:v>0.10888761313438922</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>9.9164843491410082E-2</c:v>
+                    <c:v>8.8996931997219031E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>8.8385647367700049E-2</c:v>
+                    <c:v>0.107056331327958</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>9.5845359189520085E-2</c:v>
+                    <c:v>0.11377315516084896</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'17 nov'!$G$2:$G$16</c:f>
+                <c:f>'18 dic'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>8.8075146878643928E-2</c:v>
+                    <c:v>7.0741830651858129E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.8717608533167005E-2</c:v>
+                    <c:v>7.9229910883384824E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.6735759840590121E-2</c:v>
+                    <c:v>7.7022392932546646E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.10156331695117893</c:v>
+                    <c:v>6.6952254836740943E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.5626887886139915E-2</c:v>
+                    <c:v>8.4559468777120506E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.1476718954729068E-2</c:v>
+                    <c:v>8.5203987484372412E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>9.7450966412963136E-2</c:v>
+                    <c:v>9.9262554638576805E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7.1315981275074991E-2</c:v>
+                    <c:v>9.2613850440732559E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.12141309506175402</c:v>
+                    <c:v>8.9611168601355096E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>7.813560514663398E-2</c:v>
+                    <c:v>9.3284279791330249E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>9.2599051983108138E-2</c:v>
+                    <c:v>0.10121517925119994</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>8.6728710203040849E-2</c:v>
+                    <c:v>8.7463999882080978E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.10422844767206685</c:v>
+                    <c:v>8.8753071569803277E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>7.6330679288952985E-2</c:v>
+                    <c:v>8.2031483285375018E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.11309988163522999</c:v>
+                    <c:v>0.1101914292886399</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1648,107 +1672,107 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'17 nov'!$A$2:$A$16</c:f>
+              <c:f>'18 dic'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>Duarte</c:v>
+                  <c:v>Santo Domingo</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>La Altagracia</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Distrito Nacional</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>San Cristóbal</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Azua</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Peravia</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Espaillat</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Sánchez Ramírez</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Distrito Nacional</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
                   <c:v>La Romana</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Azua</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Peravia</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'17 nov'!$D$2:$D$16</c:f>
+              <c:f>'18 dic'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.97881547016037596</c:v>
+                  <c:v>1.0716787288753611</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99408218600353604</c:v>
+                  <c:v>0.97878663006611955</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0026901343655801</c:v>
+                  <c:v>1.0686149562436611</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97300667341245395</c:v>
+                  <c:v>1.122143079094903</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97237023722899696</c:v>
+                  <c:v>1.0279627867650989</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0276318783871501</c:v>
+                  <c:v>1.075420914319656</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0684737598146501</c:v>
+                  <c:v>1.055652937615954</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0236771517315</c:v>
+                  <c:v>1.048497985598053</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0585248800057501</c:v>
+                  <c:v>1.0534629459767311</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.07286445125958</c:v>
+                  <c:v>1.033354261269483</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0802217437097501</c:v>
+                  <c:v>1.131457341942993</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0636726115961599</c:v>
+                  <c:v>1.0978358022295669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1016156853180299</c:v>
+                  <c:v>1.070852550233605</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.07215327486532</c:v>
+                  <c:v>1.116377616568752</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1790366820589699</c:v>
+                  <c:v>1.170678237376269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1765,7 +1789,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'17 dic'!$I$1</c:f>
+              <c:f>'18 ene'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1823,60 +1847,60 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'17 nov'!$A$2:$A$16</c:f>
+              <c:f>'18 dic'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>Duarte</c:v>
+                  <c:v>Santo Domingo</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>La Altagracia</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Distrito Nacional</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>San Cristóbal</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Azua</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Peravia</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Espaillat</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Sánchez Ramírez</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Distrito Nacional</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
                   <c:v>La Romana</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Azua</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Peravia</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'17 dic'!$I$2:$I$16</c:f>
+              <c:f>'18 ene'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2120,7 +2144,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'17 oct'!$D$1</c:f>
+              <c:f>'18 nov'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2141,11 +2165,11 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="25400">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2206,11 +2230,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2350,11 +2374,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2398,11 +2422,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2426,9 +2450,7 @@
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000">
-                      <a:alpha val="99000"/>
-                    </a:srgbClr>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2448,11 +2470,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2496,11 +2518,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2520,108 +2542,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'17 nov'!$H$2:$H$16</c:f>
+                <c:f>'18 dic'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>8.5021538165384047E-2</c:v>
+                    <c:v>8.3057730315643896E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>9.1498844551604064E-2</c:v>
+                    <c:v>7.69290623804465E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.1419385246110032E-2</c:v>
+                    <c:v>7.347053666449499E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.7900904599936047E-2</c:v>
+                    <c:v>9.1140504537748024E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.1016597256982531</c:v>
+                    <c:v>7.2597386109411133E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>6.9690502885719985E-2</c:v>
+                    <c:v>7.0038286267144034E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.0938507413469862E-2</c:v>
+                    <c:v>8.4953122975353068E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>6.8867166554730019E-2</c:v>
+                    <c:v>7.190490243899994E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>9.3319116191979967E-2</c:v>
+                    <c:v>9.4979579606231823E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.895824101519012E-2</c:v>
+                    <c:v>8.5417914008812934E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.1036059721360898</c:v>
+                    <c:v>9.1673166101539083E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>9.9563390864300105E-2</c:v>
+                    <c:v>0.10888761313438922</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>9.9164843491410082E-2</c:v>
+                    <c:v>8.8996931997219031E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>8.8385647367700049E-2</c:v>
+                    <c:v>0.107056331327958</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>9.5845359189520085E-2</c:v>
+                    <c:v>0.11377315516084896</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'17 nov'!$G$2:$G$16</c:f>
+                <c:f>'18 dic'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>8.8075146878643928E-2</c:v>
+                    <c:v>7.0741830651858129E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.8717608533167005E-2</c:v>
+                    <c:v>7.9229910883384824E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.6735759840590121E-2</c:v>
+                    <c:v>7.7022392932546646E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.10156331695117893</c:v>
+                    <c:v>6.6952254836740943E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.5626887886139915E-2</c:v>
+                    <c:v>8.4559468777120506E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.1476718954729068E-2</c:v>
+                    <c:v>8.5203987484372412E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>9.7450966412963136E-2</c:v>
+                    <c:v>9.9262554638576805E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7.1315981275074991E-2</c:v>
+                    <c:v>9.2613850440732559E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.12141309506175402</c:v>
+                    <c:v>8.9611168601355096E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>7.813560514663398E-2</c:v>
+                    <c:v>9.3284279791330249E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>9.2599051983108138E-2</c:v>
+                    <c:v>0.10121517925119994</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>8.6728710203040849E-2</c:v>
+                    <c:v>8.7463999882080978E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.10422844767206685</c:v>
+                    <c:v>8.8753071569803277E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>7.6330679288952985E-2</c:v>
+                    <c:v>8.2031483285375018E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.11309988163522999</c:v>
+                    <c:v>0.1101914292886399</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2642,107 +2664,107 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'17 nov'!$A$2:$A$16</c:f>
+              <c:f>'18 dic'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>Duarte</c:v>
+                  <c:v>Santo Domingo</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>La Altagracia</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Distrito Nacional</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>San Cristóbal</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Azua</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Peravia</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Espaillat</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Sánchez Ramírez</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Distrito Nacional</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
                   <c:v>La Romana</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Azua</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Peravia</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'17 oct'!$D$2:$D$16</c:f>
+              <c:f>'18 nov'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.1242626056543299</c:v>
+                  <c:v>1.03481997954942</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.02154441161563</c:v>
+                  <c:v>1.0472569609893281</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95477819341359704</c:v>
+                  <c:v>1.043668806004888</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0077385085895401</c:v>
+                  <c:v>1.0785806567363181</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0078322698906601</c:v>
+                  <c:v>1.038002549850348</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.08140291689683</c:v>
+                  <c:v>1.0797504646321221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0029219111649399</c:v>
+                  <c:v>1.1408380631560711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0716427757128599</c:v>
+                  <c:v>1.0618320755505639</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92004078754827401</c:v>
+                  <c:v>1.131719601695405</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.992698842720522</c:v>
+                  <c:v>0.98696732403932963</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.96264134061867501</c:v>
+                  <c:v>1.0103121926962351</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.00717654168395</c:v>
+                  <c:v>1.097010775399315</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.89898266161011697</c:v>
+                  <c:v>1.046160477864301</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.94181311373001098</c:v>
+                  <c:v>0.96881172087974399</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.95487326459409605</c:v>
+                  <c:v>1.036950669461048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2759,7 +2781,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'17 dic'!$I$1</c:f>
+              <c:f>'18 ene'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2817,60 +2839,60 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'17 nov'!$A$2:$A$16</c:f>
+              <c:f>'18 dic'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>Duarte</c:v>
+                  <c:v>Santo Domingo</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>La Altagracia</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Distrito Nacional</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>San Cristóbal</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Azua</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Peravia</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Espaillat</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Sánchez Ramírez</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Distrito Nacional</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Santo Domingo</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
                   <c:v>La Romana</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Azua</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Peravia</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'17 dic'!$I$2:$I$16</c:f>
+              <c:f>'18 ene'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5186,7 +5208,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5226,483 +5248,483 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44182</v>
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
       </c>
       <c r="C2">
-        <v>0.93106518034617702</v>
+        <v>0.91679287765193362</v>
       </c>
       <c r="D2">
-        <v>0.91365402404743101</v>
+        <v>0.90313168213274497</v>
       </c>
       <c r="E2">
-        <v>0.71208668696398403</v>
+        <v>0.7305753843479772</v>
       </c>
       <c r="F2">
-        <v>1.12660107193849</v>
+        <v>1.0852766513566621</v>
       </c>
       <c r="G2">
         <f>D2-E2</f>
-        <v>0.20156733708344698</v>
+        <v>0.17255629778476778</v>
       </c>
       <c r="H2">
         <f>F2-D2</f>
-        <v>0.212947047891059</v>
+        <v>0.1821449692239171</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
-        <v>44182</v>
+      <c r="B3" t="s">
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>0.93454219015963302</v>
+        <v>0.95462177487733424</v>
       </c>
       <c r="D3">
-        <v>0.92526116633153699</v>
+        <v>0.94859960589913839</v>
       </c>
       <c r="E3">
-        <v>0.71335525352576501</v>
+        <v>0.73519080387732927</v>
       </c>
       <c r="F3">
-        <v>1.1011390111578201</v>
+        <v>1.120404278707801</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G16" si="0">D3-E3</f>
-        <v>0.21190591280577198</v>
+        <v>0.21340880202180912</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H16" si="1">F3-D3</f>
-        <v>0.1758778448262831</v>
+        <v>0.17180467280866263</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44182</v>
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>0.98075987334460701</v>
+        <v>0.97911867839514322</v>
       </c>
       <c r="D4">
-        <v>0.96021759674740803</v>
+        <v>0.97158780690598878</v>
       </c>
       <c r="E4">
-        <v>0.73567828636486099</v>
+        <v>0.76345044380847293</v>
       </c>
       <c r="F4">
-        <v>1.15353128261247</v>
+        <v>1.1366391560661571</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.22453931038254704</v>
+        <v>0.20813736309751585</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>0.19331368586506192</v>
+        <v>0.16505134916016828</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44182</v>
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>0.98608368417060599</v>
+        <v>1.0037070660201171</v>
       </c>
       <c r="D5">
-        <v>0.96663347160444402</v>
+        <v>0.99490850157365585</v>
       </c>
       <c r="E5">
-        <v>0.696721982484244</v>
+        <v>0.76088178202028312</v>
       </c>
       <c r="F5">
-        <v>1.1457060202877101</v>
+        <v>1.155244846881414</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.26991148912020002</v>
+        <v>0.23402671955337273</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>0.17907254868326605</v>
+        <v>0.1603363453077582</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44182</v>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>0.984580451139482</v>
+        <v>1.031472752549125</v>
       </c>
       <c r="D6">
-        <v>0.97028292559690499</v>
+        <v>1.0154116419344019</v>
       </c>
       <c r="E6">
-        <v>0.72139521695630804</v>
+        <v>0.80376375439142667</v>
       </c>
       <c r="F6">
-        <v>1.1919983754630801</v>
+        <v>1.2346296922756661</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.24888770864059695</v>
+        <v>0.21164788754297525</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>0.22171544986617508</v>
+        <v>0.21921805034126418</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>44182</v>
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>1.01951057381563</v>
+        <v>1.0669811079683009</v>
       </c>
       <c r="D7">
-        <v>1.0024422688865</v>
+        <v>1.045248549244449</v>
       </c>
       <c r="E7">
-        <v>0.79908883017750498</v>
+        <v>0.81780346805171411</v>
       </c>
       <c r="F7">
-        <v>1.21344776981266</v>
+        <v>1.276023469723832</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.20335343870899503</v>
+        <v>0.22744508119273488</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>0.21100550092615999</v>
+        <v>0.23077492047938297</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44182</v>
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>1.0602035070543001</v>
+        <v>1.064256988530345</v>
       </c>
       <c r="D8">
-        <v>1.04484445338406</v>
+        <v>1.0457489551172341</v>
       </c>
       <c r="E8">
-        <v>0.82959376207620406</v>
+        <v>0.84701778167049657</v>
       </c>
       <c r="F8">
-        <v>1.27086519166862</v>
+        <v>1.303526730332923</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.2152506913078559</v>
+        <v>0.19873117344673752</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>0.22602073828456004</v>
+        <v>0.2577777752156889</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>44182</v>
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>1.06822624592396</v>
+        <v>1.065486746795371</v>
       </c>
       <c r="D9">
-        <v>1.05373800142771</v>
+        <v>1.054988196518182</v>
       </c>
       <c r="E9">
-        <v>0.87329586401891202</v>
+        <v>0.82307733747414658</v>
       </c>
       <c r="F9">
-        <v>1.3002682968225301</v>
+        <v>1.255630345440355</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.180442137408798</v>
+        <v>0.23191085904403541</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>0.24653029539482008</v>
+        <v>0.20064214892217302</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1">
-        <v>44182</v>
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>1.0805198683970001</v>
+        <v>1.075429894278586</v>
       </c>
       <c r="D10">
-        <v>1.05893499564532</v>
+        <v>1.0629267923218551</v>
       </c>
       <c r="E10">
-        <v>0.77565328606780704</v>
+        <v>0.85982270970822983</v>
       </c>
       <c r="F10">
-        <v>1.29335743626495</v>
+        <v>1.322767211031241</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.28328170957751297</v>
+        <v>0.20310408261362523</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>0.23442244061963002</v>
+        <v>0.2598404187093859</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>44182</v>
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>1.08070802839293</v>
+        <v>1.0830259428906279</v>
       </c>
       <c r="D11">
-        <v>1.06837582702597</v>
+        <v>1.068530288617342</v>
       </c>
       <c r="E11">
-        <v>0.85527413873287705</v>
+        <v>0.82989391887387476</v>
       </c>
       <c r="F11">
-        <v>1.3030830041135699</v>
+        <v>1.291236215540531</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.21310168829309295</v>
+        <v>0.23863636974346725</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>0.23470717708759992</v>
+        <v>0.22270592692318902</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1">
-        <v>44182</v>
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>1.0884641909288899</v>
+        <v>1.0978511407860001</v>
       </c>
       <c r="D12">
-        <v>1.0782333079925099</v>
+        <v>1.075659301656571</v>
       </c>
       <c r="E12">
-        <v>0.84339459392923199</v>
+        <v>0.8470940510423689</v>
       </c>
       <c r="F12">
-        <v>1.31940121843238</v>
+        <v>1.3126719993580691</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0.23483871406327794</v>
+        <v>0.22856525061420208</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>0.24116791043987007</v>
+        <v>0.23701269770149813</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1">
-        <v>44182</v>
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>1.13232272223236</v>
+        <v>1.115272668299315</v>
       </c>
       <c r="D13">
-        <v>1.1098412238112501</v>
+        <v>1.095531550155084</v>
       </c>
       <c r="E13">
-        <v>0.90913553107442102</v>
+        <v>0.85950512342862173</v>
       </c>
       <c r="F13">
-        <v>1.3390385794427699</v>
+        <v>1.3536507353809819</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.20070569273682903</v>
+        <v>0.23602642672646224</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>0.22919735563151988</v>
+        <v>0.25811918522589794</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1">
-        <v>44182</v>
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
       </c>
       <c r="C14">
-        <v>1.13282123713942</v>
+        <v>1.1357498641516639</v>
       </c>
       <c r="D14">
-        <v>1.11437071292199</v>
+        <v>1.108631842002012</v>
       </c>
       <c r="E14">
-        <v>0.84413132744360397</v>
+        <v>0.8605978914508744</v>
       </c>
       <c r="F14">
-        <v>1.39521844207747</v>
+        <v>1.3784929649457389</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0.270239385478386</v>
+        <v>0.24803395055113764</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>0.28084772915548006</v>
+        <v>0.26986112294372688</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1">
-        <v>44182</v>
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>1.12618087886921</v>
+        <v>1.23374296981217</v>
       </c>
       <c r="D15">
-        <v>1.1195114894481899</v>
+        <v>1.216840992946993</v>
       </c>
       <c r="E15">
-        <v>0.89499891772197704</v>
+        <v>0.97039642196604037</v>
       </c>
       <c r="F15">
-        <v>1.3396452666251399</v>
+        <v>1.4789857019123649</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0.22451257172621286</v>
+        <v>0.24644457098095263</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>0.22013377717695004</v>
+        <v>0.2621447089653719</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1">
-        <v>44182</v>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
       </c>
       <c r="C16">
-        <v>1.2561797950084299</v>
+        <v>1.3031073233360451</v>
       </c>
       <c r="D16">
-        <v>1.2400738788095</v>
+        <v>1.291111948440375</v>
       </c>
       <c r="E16">
-        <v>0.968701358781479</v>
+        <v>0.9924882176719112</v>
       </c>
       <c r="F16">
-        <v>1.52983897011709</v>
+        <v>1.586552581850478</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0.27137252002802104</v>
+        <v>0.29862373076846382</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>0.28976509130758998</v>
+        <v>0.29544063341010296</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I16">
@@ -5718,7 +5740,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5758,483 +5780,483 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44152</v>
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
       </c>
       <c r="C2">
-        <v>0.97984594518023604</v>
+        <v>1.0731136518513551</v>
       </c>
       <c r="D2">
-        <v>0.97881547016037596</v>
+        <v>1.0716787288753611</v>
       </c>
       <c r="E2">
-        <v>0.89074032328173203</v>
+        <v>1.000936898223503</v>
       </c>
       <c r="F2">
-        <v>1.06383700832576</v>
+        <v>1.154736459191005</v>
       </c>
       <c r="G2">
         <f>D2-E2</f>
-        <v>8.8075146878643928E-2</v>
+        <v>7.0741830651858129E-2</v>
       </c>
       <c r="H2">
         <f>F2-D2</f>
-        <v>8.5021538165384047E-2</v>
+        <v>8.3057730315643896E-2</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
-        <v>44152</v>
+      <c r="B3" t="s">
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>0.99581267009069696</v>
+        <v>0.97902374635225642</v>
       </c>
       <c r="D3">
-        <v>0.99408218600353604</v>
+        <v>0.97878663006611955</v>
       </c>
       <c r="E3">
-        <v>0.91536457747036903</v>
+        <v>0.89955671918273472</v>
       </c>
       <c r="F3">
-        <v>1.0855810305551401</v>
+        <v>1.055715692446566</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G16" si="0">D3-E3</f>
-        <v>7.8717608533167005E-2</v>
+        <v>7.9229910883384824E-2</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H16" si="1">F3-D3</f>
-        <v>9.1498844551604064E-2</v>
+        <v>7.69290623804465E-2</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44152</v>
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>1.0029270058344</v>
+        <v>1.0696445471652549</v>
       </c>
       <c r="D4">
-        <v>1.0026901343655801</v>
+        <v>1.0686149562436611</v>
       </c>
       <c r="E4">
-        <v>0.91595437452498996</v>
+        <v>0.99159256331111445</v>
       </c>
       <c r="F4">
-        <v>1.0841095196116901</v>
+        <v>1.1420854929081561</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>8.6735759840590121E-2</v>
+        <v>7.7022392932546646E-2</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>8.1419385246110032E-2</v>
+        <v>7.347053666449499E-2</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44152</v>
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>0.97611157899005097</v>
+        <v>1.1261850085157949</v>
       </c>
       <c r="D5">
-        <v>0.97300667341245395</v>
+        <v>1.122143079094903</v>
       </c>
       <c r="E5">
-        <v>0.87144335646127502</v>
+        <v>1.055190824258162</v>
       </c>
       <c r="F5">
-        <v>1.06090757801239</v>
+        <v>1.213283583632651</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.10156331695117893</v>
+        <v>6.6952254836740943E-2</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>8.7900904599936047E-2</v>
+        <v>9.1140504537748024E-2</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44152</v>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
       </c>
       <c r="C6">
-        <v>0.97399917483169196</v>
+        <v>1.0296950152890669</v>
       </c>
       <c r="D6">
-        <v>0.97237023722899696</v>
+        <v>1.0279627867650989</v>
       </c>
       <c r="E6">
-        <v>0.89674334934285704</v>
+        <v>0.94340331798797838</v>
       </c>
       <c r="F6">
-        <v>1.0740299629272501</v>
+        <v>1.10056017287451</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>7.5626887886139915E-2</v>
+        <v>8.4559468777120506E-2</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>0.1016597256982531</v>
+        <v>7.2597386109411133E-2</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>44152</v>
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
       </c>
       <c r="C7">
-        <v>1.0277455373680899</v>
+        <v>1.076220491261471</v>
       </c>
       <c r="D7">
-        <v>1.0276318783871501</v>
+        <v>1.075420914319656</v>
       </c>
       <c r="E7">
-        <v>0.95615515943242102</v>
+        <v>0.99021692683528362</v>
       </c>
       <c r="F7">
-        <v>1.0973223812728701</v>
+        <v>1.1454592005868001</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>7.1476718954729068E-2</v>
+        <v>8.5203987484372412E-2</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>6.9690502885719985E-2</v>
+        <v>7.0038286267144034E-2</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44152</v>
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>1.0667512132038</v>
+        <v>1.0571722655683069</v>
       </c>
       <c r="D8">
-        <v>1.0684737598146501</v>
+        <v>1.055652937615954</v>
       </c>
       <c r="E8">
-        <v>0.97102279340168696</v>
+        <v>0.95639038297737722</v>
       </c>
       <c r="F8">
-        <v>1.14941226722812</v>
+        <v>1.1406060605913071</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>9.7450966412963136E-2</v>
+        <v>9.9262554638576805E-2</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>8.0938507413469862E-2</v>
+        <v>8.4953122975353068E-2</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>44152</v>
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>1.02465983779335</v>
+        <v>1.0506222410163299</v>
       </c>
       <c r="D9">
-        <v>1.0236771517315</v>
+        <v>1.048497985598053</v>
       </c>
       <c r="E9">
-        <v>0.95236117045642499</v>
+        <v>0.9558841351573204</v>
       </c>
       <c r="F9">
-        <v>1.09254431828623</v>
+        <v>1.1204028880370529</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>7.1315981275074991E-2</v>
+        <v>9.2613850440732559E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>6.8867166554730019E-2</v>
+        <v>7.190490243899994E-2</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1">
-        <v>44152</v>
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>1.0635767158795699</v>
+        <v>1.053757259427067</v>
       </c>
       <c r="D10">
-        <v>1.0585248800057501</v>
+        <v>1.0534629459767311</v>
       </c>
       <c r="E10">
-        <v>0.93711178494399605</v>
+        <v>0.96385177737537597</v>
       </c>
       <c r="F10">
-        <v>1.15184399619773</v>
+        <v>1.1484425255829629</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.12141309506175402</v>
+        <v>8.9611168601355096E-2</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>9.3319116191979967E-2</v>
+        <v>9.4979579606231823E-2</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>44152</v>
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>1.07589056895754</v>
+        <v>1.0342935228846619</v>
       </c>
       <c r="D11">
-        <v>1.07286445125958</v>
+        <v>1.033354261269483</v>
       </c>
       <c r="E11">
-        <v>0.99472884611294599</v>
+        <v>0.94006998147815279</v>
       </c>
       <c r="F11">
-        <v>1.1618226922747701</v>
+        <v>1.118772175278296</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>7.813560514663398E-2</v>
+        <v>9.3284279791330249E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>8.895824101519012E-2</v>
+        <v>8.5417914008812934E-2</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1">
-        <v>44152</v>
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>1.0866684252346499</v>
+        <v>1.132804725449384</v>
       </c>
       <c r="D12">
-        <v>1.0802217437097501</v>
+        <v>1.131457341942993</v>
       </c>
       <c r="E12">
-        <v>0.98762269172664197</v>
+        <v>1.030242162691793</v>
       </c>
       <c r="F12">
-        <v>1.1838277158458399</v>
+        <v>1.223130508044532</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>9.2599051983108138E-2</v>
+        <v>0.10121517925119994</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>0.1036059721360898</v>
+        <v>9.1673166101539083E-2</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1">
-        <v>44152</v>
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
       </c>
       <c r="C13">
-        <v>1.06503854037448</v>
+        <v>1.1025182604101089</v>
       </c>
       <c r="D13">
-        <v>1.0636726115961599</v>
+        <v>1.0978358022295669</v>
       </c>
       <c r="E13">
-        <v>0.97694390139311904</v>
+        <v>1.0103718023474859</v>
       </c>
       <c r="F13">
-        <v>1.16323600246046</v>
+        <v>1.2067234153639561</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>8.6728710203040849E-2</v>
+        <v>8.7463999882080978E-2</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>9.9563390864300105E-2</v>
+        <v>0.10888761313438922</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1">
-        <v>44152</v>
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
       </c>
       <c r="C14">
-        <v>1.1054485120097299</v>
+        <v>1.073484930428257</v>
       </c>
       <c r="D14">
-        <v>1.1016156853180299</v>
+        <v>1.070852550233605</v>
       </c>
       <c r="E14">
-        <v>0.99738723764596304</v>
+        <v>0.98209947866380176</v>
       </c>
       <c r="F14">
-        <v>1.20078052880944</v>
+        <v>1.1598494822308241</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0.10422844767206685</v>
+        <v>8.8753071569803277E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>9.9164843491410082E-2</v>
+        <v>8.8996931997219031E-2</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1">
-        <v>44152</v>
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
       </c>
       <c r="C15">
-        <v>1.07489743218613</v>
+        <v>1.121063480218897</v>
       </c>
       <c r="D15">
-        <v>1.07215327486532</v>
+        <v>1.116377616568752</v>
       </c>
       <c r="E15">
-        <v>0.99582259557636699</v>
+        <v>1.034346133283377</v>
       </c>
       <c r="F15">
-        <v>1.16053892223302</v>
+        <v>1.22343394789671</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>7.6330679288952985E-2</v>
+        <v>8.2031483285375018E-2</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>8.8385647367700049E-2</v>
+        <v>0.107056331327958</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1">
-        <v>44152</v>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
       </c>
       <c r="C16">
-        <v>1.1807990310462</v>
+        <v>1.176382866907312</v>
       </c>
       <c r="D16">
-        <v>1.1790366820589699</v>
+        <v>1.170678237376269</v>
       </c>
       <c r="E16">
-        <v>1.0659368004237399</v>
+        <v>1.0604868080876291</v>
       </c>
       <c r="F16">
-        <v>1.27488204124849</v>
+        <v>1.2844513925371179</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0.11309988163522999</v>
+        <v>0.1101914292886399</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>9.5845359189520085E-2</v>
+        <v>0.11377315516084896</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I16">
@@ -6249,8 +6271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFCAF56-E988-48E4-BDA2-C84256C27DCF}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="97" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="97" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6289,484 +6311,484 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44121</v>
-      </c>
-      <c r="C2">
-        <v>1.1269669332379599</v>
-      </c>
-      <c r="D2">
-        <v>1.1242626056543299</v>
-      </c>
-      <c r="E2">
-        <v>1.04236302910481</v>
-      </c>
-      <c r="F2">
-        <v>1.21770383363707</v>
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.037778339370923</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.03481997954942</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.97380174728967284</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.1143482633523401</v>
       </c>
       <c r="G2">
         <f>D2-E2</f>
-        <v>8.1899576549519848E-2</v>
+        <v>6.1018232259747118E-2</v>
       </c>
       <c r="H2">
         <f>F2-D2</f>
-        <v>9.3441227982740127E-2</v>
+        <v>7.9528283802920097E-2</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
-        <v>44121</v>
+      <c r="B3" t="s">
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>1.02292160392495</v>
+        <v>1.0468924303409171</v>
       </c>
       <c r="D3">
-        <v>1.02154441161563</v>
+        <v>1.0472569609893281</v>
       </c>
       <c r="E3">
-        <v>0.94733649005809994</v>
+        <v>0.95931430675679796</v>
       </c>
       <c r="F3">
-        <v>1.1004102758196099</v>
+        <v>1.1228503173659921</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G16" si="0">D3-E3</f>
-        <v>7.4207921557530088E-2</v>
+        <v>8.7942654232530115E-2</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H16" si="1">F3-D3</f>
-        <v>7.8865864203979896E-2</v>
+        <v>7.5593356376663978E-2</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44121</v>
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>0.95548272872690598</v>
+        <v>1.04386494450156</v>
       </c>
       <c r="D4">
-        <v>0.95477819341359704</v>
+        <v>1.043668806004888</v>
       </c>
       <c r="E4">
-        <v>0.87035709037584297</v>
+        <v>0.96649929114039601</v>
       </c>
       <c r="F4">
-        <v>1.02615724768004</v>
+        <v>1.1157966014796561</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>8.4421103037754075E-2</v>
+        <v>7.7169514864491973E-2</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>7.1379054266442976E-2</v>
+        <v>7.2127795474768108E-2</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44121</v>
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>1.00771595414667</v>
+        <v>1.0811563053663089</v>
       </c>
       <c r="D5">
-        <v>1.0077385085895401</v>
+        <v>1.0785806567363181</v>
       </c>
       <c r="E5">
-        <v>0.91231814674456202</v>
+        <v>1.0021877967026649</v>
       </c>
       <c r="F5">
-        <v>1.0812353163633699</v>
+        <v>1.150563660555258</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>9.5420361844978041E-2</v>
+        <v>7.6392860033653198E-2</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>7.3496807773829831E-2</v>
+        <v>7.1983003818939961E-2</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44121</v>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>1.010169015887</v>
+        <v>1.0386872496242141</v>
       </c>
       <c r="D6">
-        <v>1.0078322698906601</v>
+        <v>1.038002549850348</v>
       </c>
       <c r="E6">
-        <v>0.92624452354790399</v>
+        <v>0.96047106637380508</v>
       </c>
       <c r="F6">
-        <v>1.08955748699864</v>
+        <v>1.1186719911462959</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>8.1587746342756118E-2</v>
+        <v>7.7531483476542928E-2</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>8.1725217107979864E-2</v>
+        <v>8.0669441295947886E-2</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>44121</v>
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>1.08283847359209</v>
+        <v>1.082867649339792</v>
       </c>
       <c r="D7">
-        <v>1.08140291689683</v>
+        <v>1.0797504646321221</v>
       </c>
       <c r="E7">
-        <v>0.995520095747086</v>
+        <v>1.0039997915997201</v>
       </c>
       <c r="F7">
-        <v>1.15757841244912</v>
+        <v>1.1656965923301441</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>8.5882821149743993E-2</v>
+        <v>7.5750673032402016E-2</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>7.6175495552289973E-2</v>
+        <v>8.5946127698022012E-2</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44121</v>
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
       </c>
       <c r="C8">
-        <v>1.0041866293710899</v>
+        <v>1.1425661858850189</v>
       </c>
       <c r="D8">
-        <v>1.0029219111649399</v>
+        <v>1.1408380631560711</v>
       </c>
       <c r="E8">
-        <v>0.92165481134136495</v>
+        <v>1.03144913536266</v>
       </c>
       <c r="F8">
-        <v>1.0805152955792201</v>
+        <v>1.239344430343621</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>8.126709982357494E-2</v>
+        <v>0.10938892779341103</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>7.7593384414280209E-2</v>
+        <v>9.8506367187549904E-2</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>44121</v>
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>1.07470614455047</v>
+        <v>1.0641430196044901</v>
       </c>
       <c r="D9">
-        <v>1.0716427757128599</v>
+        <v>1.0618320755505639</v>
       </c>
       <c r="E9">
-        <v>1.0041415132877001</v>
+        <v>0.9781426190267104</v>
       </c>
       <c r="F9">
-        <v>1.1550837734373101</v>
+        <v>1.145356642753764</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>6.7501262425159858E-2</v>
+        <v>8.3689456523853512E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>8.3440997724450128E-2</v>
+        <v>8.3524567203200117E-2</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1">
-        <v>44121</v>
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>0.92248132870759403</v>
+        <v>1.1333346025921041</v>
       </c>
       <c r="D10">
-        <v>0.92004078754827401</v>
+        <v>1.131719601695405</v>
       </c>
       <c r="E10">
-        <v>0.83997810547535201</v>
+        <v>1.0294690029210209</v>
       </c>
       <c r="F10">
-        <v>1.0066901124677801</v>
+        <v>1.220707111968361</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>8.0062682072921998E-2</v>
+        <v>0.10225059877438403</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>8.6649324919506054E-2</v>
+        <v>8.8987510272956039E-2</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>44121</v>
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>0.99382264947672605</v>
+        <v>0.98907732003248261</v>
       </c>
       <c r="D11">
-        <v>0.992698842720522</v>
+        <v>0.98696732403932963</v>
       </c>
       <c r="E11">
-        <v>0.91996557587902605</v>
+        <v>0.89310657516111835</v>
       </c>
       <c r="F11">
-        <v>1.06649151830429</v>
+        <v>1.0574014316056519</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>7.2733266841495947E-2</v>
+        <v>9.3860748878211275E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>7.3792675583768008E-2</v>
+        <v>7.043410756632229E-2</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1">
-        <v>44121</v>
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>0.96679888880064002</v>
+        <v>1.009335580479555</v>
       </c>
       <c r="D12">
-        <v>0.96264134061867501</v>
+        <v>1.0103121926962351</v>
       </c>
       <c r="E12">
-        <v>0.86763677248537396</v>
+        <v>0.90328031675524023</v>
       </c>
       <c r="F12">
-        <v>1.0463094931107899</v>
+        <v>1.078868868711562</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>9.5004568133301048E-2</v>
+        <v>0.10703187594099484</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>8.36681524921149E-2</v>
+        <v>6.8556676015326889E-2</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1">
-        <v>44121</v>
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>1.0073880182361501</v>
+        <v>1.0942902888086099</v>
       </c>
       <c r="D13">
-        <v>1.00717654168395</v>
+        <v>1.097010775399315</v>
       </c>
       <c r="E13">
-        <v>0.920176049279123</v>
+        <v>1.008403710609393</v>
       </c>
       <c r="F13">
-        <v>1.07654919322835</v>
+        <v>1.1887656663714881</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>8.700049240482699E-2</v>
+        <v>8.8607064789921974E-2</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>6.9372651544399977E-2</v>
+        <v>9.1754890972173042E-2</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1">
-        <v>44121</v>
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>0.898678943437073</v>
+        <v>1.0476923141024581</v>
       </c>
       <c r="D14">
-        <v>0.89898266161011697</v>
+        <v>1.046160477864301</v>
       </c>
       <c r="E14">
-        <v>0.82020950934519099</v>
+        <v>0.96764237818363141</v>
       </c>
       <c r="F14">
-        <v>0.98237935527051101</v>
+        <v>1.134914863048752</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>7.8773152264925983E-2</v>
+        <v>7.8518099680669584E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>8.3396693660394039E-2</v>
+        <v>8.8754385184451001E-2</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1">
-        <v>44121</v>
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
       </c>
       <c r="C15">
-        <v>0.94437867823283494</v>
+        <v>0.97116879591875638</v>
       </c>
       <c r="D15">
-        <v>0.94181311373001098</v>
+        <v>0.96881172087974399</v>
       </c>
       <c r="E15">
-        <v>0.87253794910621496</v>
+        <v>0.88980170076538434</v>
       </c>
       <c r="F15">
-        <v>1.01761963214017</v>
+        <v>1.0521735567291399</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>6.9275164623796015E-2</v>
+        <v>7.9010020114359647E-2</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>7.5806518410159063E-2</v>
+        <v>8.3361835849395938E-2</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1">
-        <v>44121</v>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
       </c>
       <c r="C16">
-        <v>0.95692701285650195</v>
+        <v>1.038644904392682</v>
       </c>
       <c r="D16">
-        <v>0.95487326459409605</v>
+        <v>1.036950669461048</v>
       </c>
       <c r="E16">
-        <v>0.87372507472733996</v>
+        <v>0.93807135261864205</v>
       </c>
       <c r="F16">
-        <v>1.0384539347184201</v>
+        <v>1.1182520475798821</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>8.1148189866756093E-2</v>
+        <v>9.8879316842405918E-2</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>8.3580670124324019E-2</v>
+        <v>8.1301378118834089E-2</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I16">

--- a/results/resultado_consolidado/graph2.xlsx
+++ b/results/resultado_consolidado/graph2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Georg\Documents\GitHub\covid-model\results\resultado_consolidado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500C24B0-F747-466C-8B1F-91A595BC7D56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E665931D-3565-484A-BC78-304F837FB911}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4AC76AC7-E5A1-4C07-9F5F-EE5E7DC34869}"/>
+    <workbookView xWindow="0" yWindow="156" windowWidth="14592" windowHeight="12204" activeTab="2" xr2:uid="{4AC76AC7-E5A1-4C07-9F5F-EE5E7DC34869}"/>
   </bookViews>
   <sheets>
-    <sheet name="18 ene" sheetId="2" r:id="rId1"/>
-    <sheet name="18 dic" sheetId="1" r:id="rId2"/>
-    <sheet name="18 nov" sheetId="3" r:id="rId3"/>
+    <sheet name="22 ene" sheetId="2" r:id="rId1"/>
+    <sheet name="22 dic" sheetId="1" r:id="rId2"/>
+    <sheet name="22 nov" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
   <si>
     <t>date</t>
   </si>
@@ -106,15 +106,6 @@
   <si>
     <t>upper</t>
   </si>
-  <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
-    <t>2020-11-18</t>
-  </si>
 </sst>
 </file>
 
@@ -140,27 +131,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -170,7 +146,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -213,7 +189,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'18 ene'!$D$1</c:f>
+              <c:f>'22 ene'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -347,11 +323,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -371,11 +347,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -395,11 +371,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -611,108 +587,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'18 ene'!$H$2:$H$16</c:f>
+                <c:f>'22 ene'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.1821449692239171</c:v>
+                    <c:v>0.14542973052171604</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.17180467280866263</c:v>
+                    <c:v>0.18748364579895194</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.16505134916016828</c:v>
+                    <c:v>0.17196888033160596</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.1603363453077582</c:v>
+                    <c:v>0.18001402684399792</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.21921805034126418</c:v>
+                    <c:v>0.21728657906586191</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.23077492047938297</c:v>
+                    <c:v>0.17708341032905806</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.2577777752156889</c:v>
+                    <c:v>0.26784596426497709</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.20064214892217302</c:v>
+                    <c:v>0.2164802053761099</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.2598404187093859</c:v>
+                    <c:v>0.22970540081799995</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.22270592692318902</c:v>
+                    <c:v>0.21963574413990994</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.23701269770149813</c:v>
+                    <c:v>0.20442818153988984</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.25811918522589794</c:v>
+                    <c:v>0.27243902598457992</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.26986112294372688</c:v>
+                    <c:v>0.23861861824146002</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.2621447089653719</c:v>
+                    <c:v>0.26326360582227992</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.29544063341010296</c:v>
+                    <c:v>0.27910316955851999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'18 ene'!$G$2:$G$16</c:f>
+                <c:f>'22 ene'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.17255629778476778</c:v>
+                    <c:v>0.18944007601167601</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.21340880202180912</c:v>
+                    <c:v>0.178409747760926</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.20813736309751585</c:v>
+                    <c:v>0.202092507846931</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.23402671955337273</c:v>
+                    <c:v>0.20403789502454006</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.21164788754297525</c:v>
+                    <c:v>0.17634684273352497</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.22744508119273488</c:v>
+                    <c:v>0.24955469215258896</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.19873117344673752</c:v>
+                    <c:v>0.19644196246092993</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.23191085904403541</c:v>
+                    <c:v>0.27951268251538808</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.20310408261362523</c:v>
+                    <c:v>0.193328856871818</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.23863636974346725</c:v>
+                    <c:v>0.21954171127672606</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.22856525061420208</c:v>
+                    <c:v>0.26282202371127106</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.23602642672646224</c:v>
+                    <c:v>0.22389198924115206</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.24803395055113764</c:v>
+                    <c:v>0.22584363208106606</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.24644457098095263</c:v>
+                    <c:v>0.23012409277136514</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.29862373076846382</c:v>
+                    <c:v>0.26441976484922192</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -733,50 +709,50 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'18 ene'!$A$2:$A$16</c:f>
+              <c:f>'22 ene'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Santo Domingo</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>La Altagracia</c:v>
+                  <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Distrito Nacional</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Santiago</c:v>
+                  <c:v>La Altagracia</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Espaillat</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>San Cristóbal</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>Sánchez Ramírez</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Peravia</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Azua</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Duarte</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sánchez Ramírez</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>La Romana</c:v>
@@ -786,54 +762,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'18 ene'!$D$2:$D$16</c:f>
+              <c:f>'22 ene'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.90313168213274497</c:v>
+                  <c:v>0.83418493195226595</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94859960589913839</c:v>
+                  <c:v>0.86805034392673797</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97158780690598878</c:v>
+                  <c:v>0.88113158669861402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99490850157365585</c:v>
+                  <c:v>0.90773899713048201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0154116419344019</c:v>
+                  <c:v>0.921930952830608</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.045248549244449</c:v>
+                  <c:v>0.97577751086543196</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0457489551172341</c:v>
+                  <c:v>0.98675031074764297</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.054988196518182</c:v>
+                  <c:v>1.0003098266289701</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0629267923218551</c:v>
+                  <c:v>1.0076535134686</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.068530288617342</c:v>
+                  <c:v>1.03705458171033</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.075659301656571</c:v>
+                  <c:v>1.0683137146453301</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.095531550155084</c:v>
+                  <c:v>1.0686089969873001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.108631842002012</c:v>
+                  <c:v>1.0803087926137001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.216840992946993</c:v>
+                  <c:v>1.1395220463640401</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.291111948440375</c:v>
+                  <c:v>1.1565592947296599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -850,7 +826,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'18 ene'!$I$1</c:f>
+              <c:f>'22 ene'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -908,7 +884,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'18 ene'!$I$2:$I$16</c:f>
+              <c:f>'22 ene'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1152,7 +1128,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'18 dic'!$D$1</c:f>
+              <c:f>'22 dic'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1190,11 +1166,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1550,108 +1526,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'18 dic'!$H$2:$H$16</c:f>
+                <c:f>'22 dic'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>8.3057730315643896E-2</c:v>
+                    <c:v>6.7014152243548009E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.69290623804465E-2</c:v>
+                    <c:v>7.5565778623874147E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.347053666449499E-2</c:v>
+                    <c:v>6.6401780639139929E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>9.1140504537748024E-2</c:v>
+                    <c:v>8.2655269800119946E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.2597386109411133E-2</c:v>
+                    <c:v>7.770493987117999E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.0038286267144034E-2</c:v>
+                    <c:v>7.6865178266920076E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.4953122975353068E-2</c:v>
+                    <c:v>9.9985058427989992E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7.190490243899994E-2</c:v>
+                    <c:v>8.5406512027120129E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>9.4979579606231823E-2</c:v>
+                    <c:v>0.11371589721275988</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.5417914008812934E-2</c:v>
+                    <c:v>9.2056326263920019E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>9.1673166101539083E-2</c:v>
+                    <c:v>0.11213812144376001</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.10888761313438922</c:v>
+                    <c:v>8.5337376519170061E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>8.8996931997219031E-2</c:v>
+                    <c:v>7.7022796508279923E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.107056331327958</c:v>
+                    <c:v>9.1115732224170021E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.11377315516084896</c:v>
+                    <c:v>9.9359510350520042E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'18 dic'!$G$2:$G$16</c:f>
+                <c:f>'22 dic'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>7.0741830651858129E-2</c:v>
+                    <c:v>7.2760769951349946E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.9229910883384824E-2</c:v>
+                    <c:v>7.739645807443396E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.7022392932546646E-2</c:v>
+                    <c:v>7.6389083801235991E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.6952254836740943E-2</c:v>
+                    <c:v>6.790790424352211E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.4559468777120506E-2</c:v>
+                    <c:v>8.4017801610374976E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8.5203987484372412E-2</c:v>
+                    <c:v>7.8426403118591947E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>9.9262554638576805E-2</c:v>
+                    <c:v>7.6146090718060888E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>9.2613850440732559E-2</c:v>
+                    <c:v>7.338981662995292E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.9611168601355096E-2</c:v>
+                    <c:v>7.3052872048777084E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>9.3284279791330249E-2</c:v>
+                    <c:v>8.6920343308483083E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.10121517925119994</c:v>
+                    <c:v>0.10348821215472692</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>8.7463999882080978E-2</c:v>
+                    <c:v>9.6889739052218871E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>8.8753071569803277E-2</c:v>
+                    <c:v>9.9840996160602935E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>8.2031483285375018E-2</c:v>
+                    <c:v>9.1790934656980072E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.1101914292886399</c:v>
+                    <c:v>0.11441077862727012</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1672,7 +1648,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'18 dic'!$A$2:$A$16</c:f>
+              <c:f>'22 dic'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -1725,54 +1701,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'18 dic'!$D$2:$D$16</c:f>
+              <c:f>'22 dic'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.0716787288753611</c:v>
+                  <c:v>0.99031066039299198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97878663006611955</c:v>
+                  <c:v>0.93058584281090595</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0686149562436611</c:v>
+                  <c:v>1.00240189940572</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.122143079094903</c:v>
+                  <c:v>1.0361817032210201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0279627867650989</c:v>
+                  <c:v>1.00359117913701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.075420914319656</c:v>
+                  <c:v>1.04562745255701</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.055652937615954</c:v>
+                  <c:v>1.0741082139545499</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.048497985598053</c:v>
+                  <c:v>1.0204075461300799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0534629459767311</c:v>
+                  <c:v>1.0478951601387501</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.033354261269483</c:v>
+                  <c:v>1.0428848933350501</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.131457341942993</c:v>
+                  <c:v>1.0919322858729299</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0978358022295669</c:v>
+                  <c:v>1.0650174145001099</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.070852550233605</c:v>
+                  <c:v>1.06960822533821</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.116377616568752</c:v>
+                  <c:v>1.1017526371559201</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.170678237376269</c:v>
+                  <c:v>1.1603366040864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1789,7 +1765,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'18 ene'!$I$1</c:f>
+              <c:f>'22 ene'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1847,7 +1823,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'18 dic'!$A$2:$A$16</c:f>
+              <c:f>'22 dic'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -1900,7 +1876,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'18 ene'!$I$2:$I$16</c:f>
+              <c:f>'22 ene'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2144,7 +2120,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'18 nov'!$D$1</c:f>
+              <c:f>'22 nov'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2542,108 +2518,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'18 dic'!$H$2:$H$16</c:f>
+                <c:f>'22 dic'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>8.3057730315643896E-2</c:v>
+                    <c:v>6.7014152243548009E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.69290623804465E-2</c:v>
+                    <c:v>7.5565778623874147E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.347053666449499E-2</c:v>
+                    <c:v>6.6401780639139929E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>9.1140504537748024E-2</c:v>
+                    <c:v>8.2655269800119946E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.2597386109411133E-2</c:v>
+                    <c:v>7.770493987117999E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.0038286267144034E-2</c:v>
+                    <c:v>7.6865178266920076E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.4953122975353068E-2</c:v>
+                    <c:v>9.9985058427989992E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7.190490243899994E-2</c:v>
+                    <c:v>8.5406512027120129E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>9.4979579606231823E-2</c:v>
+                    <c:v>0.11371589721275988</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.5417914008812934E-2</c:v>
+                    <c:v>9.2056326263920019E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>9.1673166101539083E-2</c:v>
+                    <c:v>0.11213812144376001</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.10888761313438922</c:v>
+                    <c:v>8.5337376519170061E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>8.8996931997219031E-2</c:v>
+                    <c:v>7.7022796508279923E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.107056331327958</c:v>
+                    <c:v>9.1115732224170021E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.11377315516084896</c:v>
+                    <c:v>9.9359510350520042E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'18 dic'!$G$2:$G$16</c:f>
+                <c:f>'22 dic'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>7.0741830651858129E-2</c:v>
+                    <c:v>7.2760769951349946E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.9229910883384824E-2</c:v>
+                    <c:v>7.739645807443396E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.7022392932546646E-2</c:v>
+                    <c:v>7.6389083801235991E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.6952254836740943E-2</c:v>
+                    <c:v>6.790790424352211E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.4559468777120506E-2</c:v>
+                    <c:v>8.4017801610374976E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8.5203987484372412E-2</c:v>
+                    <c:v>7.8426403118591947E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>9.9262554638576805E-2</c:v>
+                    <c:v>7.6146090718060888E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>9.2613850440732559E-2</c:v>
+                    <c:v>7.338981662995292E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.9611168601355096E-2</c:v>
+                    <c:v>7.3052872048777084E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>9.3284279791330249E-2</c:v>
+                    <c:v>8.6920343308483083E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.10121517925119994</c:v>
+                    <c:v>0.10348821215472692</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>8.7463999882080978E-2</c:v>
+                    <c:v>9.6889739052218871E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>8.8753071569803277E-2</c:v>
+                    <c:v>9.9840996160602935E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>8.2031483285375018E-2</c:v>
+                    <c:v>9.1790934656980072E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.1101914292886399</c:v>
+                    <c:v>0.11441077862727012</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2664,7 +2640,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'18 dic'!$A$2:$A$16</c:f>
+              <c:f>'22 dic'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -2717,54 +2693,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'18 nov'!$D$2:$D$16</c:f>
+              <c:f>'22 nov'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.03481997954942</c:v>
+                  <c:v>1.0728036224333799</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0472569609893281</c:v>
+                  <c:v>1.0556841698952</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.043668806004888</c:v>
+                  <c:v>1.0634353344965899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0785806567363181</c:v>
+                  <c:v>1.10513979777073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.038002549850348</c:v>
+                  <c:v>1.0467378093853501</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0797504646321221</c:v>
+                  <c:v>1.0865547269759599</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1408380631560711</c:v>
+                  <c:v>1.14089682304759</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0618320755505639</c:v>
+                  <c:v>1.0675928642582</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.131719601695405</c:v>
+                  <c:v>1.1304056500950601</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.98696732403932963</c:v>
+                  <c:v>0.981474205952937</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0103121926962351</c:v>
+                  <c:v>1.0210156369590799</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.097010775399315</c:v>
+                  <c:v>1.0991398523873399</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.046160477864301</c:v>
+                  <c:v>1.0432052856109899</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.96881172087974399</c:v>
+                  <c:v>0.98022866213083604</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.036950669461048</c:v>
+                  <c:v>1.04295060003215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2781,7 +2757,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'18 ene'!$I$1</c:f>
+              <c:f>'22 ene'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2839,7 +2815,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'18 dic'!$A$2:$A$16</c:f>
+              <c:f>'22 dic'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -2892,7 +2868,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'18 ene'!$I$2:$I$16</c:f>
+              <c:f>'22 ene'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5208,7 +5184,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5250,28 +5226,28 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
+      <c r="B2" s="2">
+        <v>44218</v>
       </c>
       <c r="C2">
-        <v>0.91679287765193362</v>
+        <v>0.84355018879539001</v>
       </c>
       <c r="D2">
-        <v>0.90313168213274497</v>
+        <v>0.83418493195226595</v>
       </c>
       <c r="E2">
-        <v>0.7305753843479772</v>
+        <v>0.64474485594058994</v>
       </c>
       <c r="F2">
-        <v>1.0852766513566621</v>
+        <v>0.97961466247398199</v>
       </c>
       <c r="G2">
         <f>D2-E2</f>
-        <v>0.17255629778476778</v>
+        <v>0.18944007601167601</v>
       </c>
       <c r="H2">
         <f>F2-D2</f>
-        <v>0.1821449692239171</v>
+        <v>0.14542973052171604</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5280,30 +5256,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44218</v>
       </c>
       <c r="C3">
-        <v>0.95462177487733424</v>
+        <v>0.87792069012437102</v>
       </c>
       <c r="D3">
-        <v>0.94859960589913839</v>
+        <v>0.86805034392673797</v>
       </c>
       <c r="E3">
-        <v>0.73519080387732927</v>
+        <v>0.68964059616581197</v>
       </c>
       <c r="F3">
-        <v>1.120404278707801</v>
+        <v>1.0555339897256899</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G16" si="0">D3-E3</f>
-        <v>0.21340880202180912</v>
+        <v>0.178409747760926</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H16" si="1">F3-D3</f>
-        <v>0.17180467280866263</v>
+        <v>0.18748364579895194</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5314,28 +5290,28 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
+      <c r="B4" s="2">
+        <v>44218</v>
       </c>
       <c r="C4">
-        <v>0.97911867839514322</v>
+        <v>0.89029297393460205</v>
       </c>
       <c r="D4">
-        <v>0.97158780690598878</v>
+        <v>0.88113158669861402</v>
       </c>
       <c r="E4">
-        <v>0.76345044380847293</v>
+        <v>0.67903907885168302</v>
       </c>
       <c r="F4">
-        <v>1.1366391560661571</v>
+        <v>1.05310046703022</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.20813736309751585</v>
+        <v>0.202092507846931</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>0.16505134916016828</v>
+        <v>0.17196888033160596</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5344,30 +5320,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44218</v>
       </c>
       <c r="C5">
-        <v>1.0037070660201171</v>
+        <v>0.91747123470090697</v>
       </c>
       <c r="D5">
-        <v>0.99490850157365585</v>
+        <v>0.90773899713048201</v>
       </c>
       <c r="E5">
-        <v>0.76088178202028312</v>
+        <v>0.70370110210594194</v>
       </c>
       <c r="F5">
-        <v>1.155244846881414</v>
+        <v>1.0877530239744799</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.23402671955337273</v>
+        <v>0.20403789502454006</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>0.1603363453077582</v>
+        <v>0.18001402684399792</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5376,30 +5352,30 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44218</v>
       </c>
       <c r="C6">
-        <v>1.031472752549125</v>
+        <v>0.93901301205344501</v>
       </c>
       <c r="D6">
-        <v>1.0154116419344019</v>
+        <v>0.921930952830608</v>
       </c>
       <c r="E6">
-        <v>0.80376375439142667</v>
+        <v>0.74558411009708303</v>
       </c>
       <c r="F6">
-        <v>1.2346296922756661</v>
+        <v>1.1392175318964699</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.21164788754297525</v>
+        <v>0.17634684273352497</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>0.21921805034126418</v>
+        <v>0.21728657906586191</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5408,30 +5384,30 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44218</v>
       </c>
       <c r="C7">
-        <v>1.0669811079683009</v>
+        <v>0.985204788740072</v>
       </c>
       <c r="D7">
-        <v>1.045248549244449</v>
+        <v>0.97577751086543196</v>
       </c>
       <c r="E7">
-        <v>0.81780346805171411</v>
+        <v>0.726222818712843</v>
       </c>
       <c r="F7">
-        <v>1.276023469723832</v>
+        <v>1.15286092119449</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.22744508119273488</v>
+        <v>0.24955469215258896</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>0.23077492047938297</v>
+        <v>0.17708341032905806</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5440,30 +5416,30 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44218</v>
       </c>
       <c r="C8">
-        <v>1.064256988530345</v>
+        <v>1.0059202792527</v>
       </c>
       <c r="D8">
-        <v>1.0457489551172341</v>
+        <v>0.98675031074764297</v>
       </c>
       <c r="E8">
-        <v>0.84701778167049657</v>
+        <v>0.79030834828671304</v>
       </c>
       <c r="F8">
-        <v>1.303526730332923</v>
+        <v>1.2545962750126201</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.19873117344673752</v>
+        <v>0.19644196246092993</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>0.2577777752156889</v>
+        <v>0.26784596426497709</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5472,30 +5448,30 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44218</v>
       </c>
       <c r="C9">
-        <v>1.065486746795371</v>
+        <v>1.02208470708406</v>
       </c>
       <c r="D9">
-        <v>1.054988196518182</v>
+        <v>1.0003098266289701</v>
       </c>
       <c r="E9">
-        <v>0.82307733747414658</v>
+        <v>0.72079714411358198</v>
       </c>
       <c r="F9">
-        <v>1.255630345440355</v>
+        <v>1.21679003200508</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.23191085904403541</v>
+        <v>0.27951268251538808</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>0.20064214892217302</v>
+        <v>0.2164802053761099</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5504,30 +5480,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44218</v>
       </c>
       <c r="C10">
-        <v>1.075429894278586</v>
+        <v>1.0223550945014099</v>
       </c>
       <c r="D10">
-        <v>1.0629267923218551</v>
+        <v>1.0076535134686</v>
       </c>
       <c r="E10">
-        <v>0.85982270970822983</v>
+        <v>0.81432465659678199</v>
       </c>
       <c r="F10">
-        <v>1.322767211031241</v>
+        <v>1.2373589142865999</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.20310408261362523</v>
+        <v>0.193328856871818</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>0.2598404187093859</v>
+        <v>0.22970540081799995</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5536,30 +5512,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44218</v>
       </c>
       <c r="C11">
-        <v>1.0830259428906279</v>
+        <v>1.0570139446350799</v>
       </c>
       <c r="D11">
-        <v>1.068530288617342</v>
+        <v>1.03705458171033</v>
       </c>
       <c r="E11">
-        <v>0.82989391887387476</v>
+        <v>0.81751287043360399</v>
       </c>
       <c r="F11">
-        <v>1.291236215540531</v>
+        <v>1.25669032585024</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.23863636974346725</v>
+        <v>0.21954171127672606</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>0.22270592692318902</v>
+        <v>0.21963574413990994</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5568,30 +5544,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44218</v>
       </c>
       <c r="C12">
-        <v>1.0978511407860001</v>
+        <v>1.0849541542343699</v>
       </c>
       <c r="D12">
-        <v>1.075659301656571</v>
+        <v>1.0683137146453301</v>
       </c>
       <c r="E12">
-        <v>0.8470940510423689</v>
+        <v>0.80549169093405903</v>
       </c>
       <c r="F12">
-        <v>1.3126719993580691</v>
+        <v>1.2727418961852199</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0.22856525061420208</v>
+        <v>0.26282202371127106</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>0.23701269770149813</v>
+        <v>0.20442818153988984</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5600,30 +5576,30 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44218</v>
       </c>
       <c r="C13">
-        <v>1.115272668299315</v>
+        <v>1.0922993989329799</v>
       </c>
       <c r="D13">
-        <v>1.095531550155084</v>
+        <v>1.0686089969873001</v>
       </c>
       <c r="E13">
-        <v>0.85950512342862173</v>
+        <v>0.844717007746148</v>
       </c>
       <c r="F13">
-        <v>1.3536507353809819</v>
+        <v>1.34104802297188</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.23602642672646224</v>
+        <v>0.22389198924115206</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>0.25811918522589794</v>
+        <v>0.27243902598457992</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5632,30 +5608,30 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44218</v>
       </c>
       <c r="C14">
-        <v>1.1357498641516639</v>
+        <v>1.09887783517931</v>
       </c>
       <c r="D14">
-        <v>1.108631842002012</v>
+        <v>1.0803087926137001</v>
       </c>
       <c r="E14">
-        <v>0.8605978914508744</v>
+        <v>0.85446516053263399</v>
       </c>
       <c r="F14">
-        <v>1.3784929649457389</v>
+        <v>1.3189274108551601</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0.24803395055113764</v>
+        <v>0.22584363208106606</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>0.26986112294372688</v>
+        <v>0.23861861824146002</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -5664,30 +5640,30 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44218</v>
       </c>
       <c r="C15">
-        <v>1.23374296981217</v>
+        <v>1.14840479228728</v>
       </c>
       <c r="D15">
-        <v>1.216840992946993</v>
+        <v>1.1395220463640401</v>
       </c>
       <c r="E15">
-        <v>0.97039642196604037</v>
+        <v>0.90939795359267495</v>
       </c>
       <c r="F15">
-        <v>1.4789857019123649</v>
+        <v>1.40278565218632</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0.24644457098095263</v>
+        <v>0.23012409277136514</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>0.2621447089653719</v>
+        <v>0.26326360582227992</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -5698,28 +5674,28 @@
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
-        <v>23</v>
+      <c r="B16" s="2">
+        <v>44218</v>
       </c>
       <c r="C16">
-        <v>1.3031073233360451</v>
+        <v>1.1759590422391699</v>
       </c>
       <c r="D16">
-        <v>1.291111948440375</v>
+        <v>1.1565592947296599</v>
       </c>
       <c r="E16">
-        <v>0.9924882176719112</v>
+        <v>0.89213952988043799</v>
       </c>
       <c r="F16">
-        <v>1.586552581850478</v>
+        <v>1.4356624642881799</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0.29862373076846382</v>
+        <v>0.26441976484922192</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>0.29544063341010296</v>
+        <v>0.27910316955851999</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -5739,8 +5715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9B4699-B86D-4EFA-A264-1734A39D161E}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5782,28 +5758,28 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
+      <c r="B2" s="2">
+        <v>44187</v>
       </c>
       <c r="C2">
-        <v>1.0731136518513551</v>
+        <v>0.99020385851883796</v>
       </c>
       <c r="D2">
-        <v>1.0716787288753611</v>
+        <v>0.99031066039299198</v>
       </c>
       <c r="E2">
-        <v>1.000936898223503</v>
+        <v>0.91754989044164204</v>
       </c>
       <c r="F2">
-        <v>1.154736459191005</v>
+        <v>1.05732481263654</v>
       </c>
       <c r="G2">
         <f>D2-E2</f>
-        <v>7.0741830651858129E-2</v>
+        <v>7.2760769951349946E-2</v>
       </c>
       <c r="H2">
         <f>F2-D2</f>
-        <v>8.3057730315643896E-2</v>
+        <v>6.7014152243548009E-2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5814,28 +5790,28 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
+      <c r="B3" s="2">
+        <v>44187</v>
       </c>
       <c r="C3">
-        <v>0.97902374635225642</v>
+        <v>0.93148828460474697</v>
       </c>
       <c r="D3">
-        <v>0.97878663006611955</v>
+        <v>0.93058584281090595</v>
       </c>
       <c r="E3">
-        <v>0.89955671918273472</v>
+        <v>0.85318938473647199</v>
       </c>
       <c r="F3">
-        <v>1.055715692446566</v>
+        <v>1.0061516214347801</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G16" si="0">D3-E3</f>
-        <v>7.9229910883384824E-2</v>
+        <v>7.739645807443396E-2</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H16" si="1">F3-D3</f>
-        <v>7.69290623804465E-2</v>
+        <v>7.5565778623874147E-2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5846,28 +5822,28 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
+      <c r="B4" s="2">
+        <v>44187</v>
       </c>
       <c r="C4">
-        <v>1.0696445471652549</v>
+        <v>1.00224598609105</v>
       </c>
       <c r="D4">
-        <v>1.0686149562436611</v>
+        <v>1.00240189940572</v>
       </c>
       <c r="E4">
-        <v>0.99159256331111445</v>
+        <v>0.92601281560448401</v>
       </c>
       <c r="F4">
-        <v>1.1420854929081561</v>
+        <v>1.0688036800448599</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>7.7022392932546646E-2</v>
+        <v>7.6389083801235991E-2</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>7.347053666449499E-2</v>
+        <v>6.6401780639139929E-2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5878,28 +5854,28 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
+      <c r="B5" s="2">
+        <v>44187</v>
       </c>
       <c r="C5">
-        <v>1.1261850085157949</v>
+        <v>1.0366111293332401</v>
       </c>
       <c r="D5">
-        <v>1.122143079094903</v>
+        <v>1.0361817032210201</v>
       </c>
       <c r="E5">
-        <v>1.055190824258162</v>
+        <v>0.96827379897749799</v>
       </c>
       <c r="F5">
-        <v>1.213283583632651</v>
+        <v>1.11883697302114</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>6.6952254836740943E-2</v>
+        <v>6.790790424352211E-2</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>9.1140504537748024E-2</v>
+        <v>8.2655269800119946E-2</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5910,28 +5886,28 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
+      <c r="B6" s="2">
+        <v>44187</v>
       </c>
       <c r="C6">
-        <v>1.0296950152890669</v>
+        <v>1.0053454072191199</v>
       </c>
       <c r="D6">
-        <v>1.0279627867650989</v>
+        <v>1.00359117913701</v>
       </c>
       <c r="E6">
-        <v>0.94340331798797838</v>
+        <v>0.91957337752663504</v>
       </c>
       <c r="F6">
-        <v>1.10056017287451</v>
+        <v>1.08129611900819</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>8.4559468777120506E-2</v>
+        <v>8.4017801610374976E-2</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>7.2597386109411133E-2</v>
+        <v>7.770493987117999E-2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5942,28 +5918,28 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
+      <c r="B7" s="2">
+        <v>44187</v>
       </c>
       <c r="C7">
-        <v>1.076220491261471</v>
+        <v>1.0481497141757099</v>
       </c>
       <c r="D7">
-        <v>1.075420914319656</v>
+        <v>1.04562745255701</v>
       </c>
       <c r="E7">
-        <v>0.99021692683528362</v>
+        <v>0.967201049438418</v>
       </c>
       <c r="F7">
-        <v>1.1454592005868001</v>
+        <v>1.12249263082393</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>8.5203987484372412E-2</v>
+        <v>7.8426403118591947E-2</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>7.0038286267144034E-2</v>
+        <v>7.6865178266920076E-2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5974,28 +5950,28 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
+      <c r="B8" s="2">
+        <v>44187</v>
       </c>
       <c r="C8">
-        <v>1.0571722655683069</v>
+        <v>1.0778304807971</v>
       </c>
       <c r="D8">
-        <v>1.055652937615954</v>
+        <v>1.0741082139545499</v>
       </c>
       <c r="E8">
-        <v>0.95639038297737722</v>
+        <v>0.99796212323648903</v>
       </c>
       <c r="F8">
-        <v>1.1406060605913071</v>
+        <v>1.1740932723825399</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>9.9262554638576805E-2</v>
+        <v>7.6146090718060888E-2</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>8.4953122975353068E-2</v>
+        <v>9.9985058427989992E-2</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -6006,28 +5982,28 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
+      <c r="B9" s="2">
+        <v>44187</v>
       </c>
       <c r="C9">
-        <v>1.0506222410163299</v>
+        <v>1.0227777050739499</v>
       </c>
       <c r="D9">
-        <v>1.048497985598053</v>
+        <v>1.0204075461300799</v>
       </c>
       <c r="E9">
-        <v>0.9558841351573204</v>
+        <v>0.94701772950012697</v>
       </c>
       <c r="F9">
-        <v>1.1204028880370529</v>
+        <v>1.1058140581572</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>9.2613850440732559E-2</v>
+        <v>7.338981662995292E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>7.190490243899994E-2</v>
+        <v>8.5406512027120129E-2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -6038,28 +6014,28 @@
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
+      <c r="B10" s="2">
+        <v>44187</v>
       </c>
       <c r="C10">
-        <v>1.053757259427067</v>
+        <v>1.0520399303425501</v>
       </c>
       <c r="D10">
-        <v>1.0534629459767311</v>
+        <v>1.0478951601387501</v>
       </c>
       <c r="E10">
-        <v>0.96385177737537597</v>
+        <v>0.97484228808997297</v>
       </c>
       <c r="F10">
-        <v>1.1484425255829629</v>
+        <v>1.1616110573515099</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>8.9611168601355096E-2</v>
+        <v>7.3052872048777084E-2</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>9.4979579606231823E-2</v>
+        <v>0.11371589721275988</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -6070,28 +6046,28 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
+      <c r="B11" s="2">
+        <v>44187</v>
       </c>
       <c r="C11">
-        <v>1.0342935228846619</v>
+        <v>1.0461117045983599</v>
       </c>
       <c r="D11">
-        <v>1.033354261269483</v>
+        <v>1.0428848933350501</v>
       </c>
       <c r="E11">
-        <v>0.94006998147815279</v>
+        <v>0.95596455002656699</v>
       </c>
       <c r="F11">
-        <v>1.118772175278296</v>
+        <v>1.1349412195989701</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>9.3284279791330249E-2</v>
+        <v>8.6920343308483083E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>8.5417914008812934E-2</v>
+        <v>9.2056326263920019E-2</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -6102,28 +6078,28 @@
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
+      <c r="B12" s="2">
+        <v>44187</v>
       </c>
       <c r="C12">
-        <v>1.132804725449384</v>
+        <v>1.0932738960855299</v>
       </c>
       <c r="D12">
-        <v>1.131457341942993</v>
+        <v>1.0919322858729299</v>
       </c>
       <c r="E12">
-        <v>1.030242162691793</v>
+        <v>0.98844407371820298</v>
       </c>
       <c r="F12">
-        <v>1.223130508044532</v>
+        <v>1.2040704073166899</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0.10121517925119994</v>
+        <v>0.10348821215472692</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>9.1673166101539083E-2</v>
+        <v>0.11213812144376001</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -6134,28 +6110,28 @@
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
-        <v>24</v>
+      <c r="B13" s="2">
+        <v>44187</v>
       </c>
       <c r="C13">
-        <v>1.1025182604101089</v>
+        <v>1.06722541256082</v>
       </c>
       <c r="D13">
-        <v>1.0978358022295669</v>
+        <v>1.0650174145001099</v>
       </c>
       <c r="E13">
-        <v>1.0103718023474859</v>
+        <v>0.96812767544789102</v>
       </c>
       <c r="F13">
-        <v>1.2067234153639561</v>
+        <v>1.15035479101928</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>8.7463999882080978E-2</v>
+        <v>9.6889739052218871E-2</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>0.10888761313438922</v>
+        <v>8.5337376519170061E-2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -6166,28 +6142,28 @@
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
+      <c r="B14" s="2">
+        <v>44187</v>
       </c>
       <c r="C14">
-        <v>1.073484930428257</v>
+        <v>1.0708833013424099</v>
       </c>
       <c r="D14">
-        <v>1.070852550233605</v>
+        <v>1.06960822533821</v>
       </c>
       <c r="E14">
-        <v>0.98209947866380176</v>
+        <v>0.96976722917760705</v>
       </c>
       <c r="F14">
-        <v>1.1598494822308241</v>
+        <v>1.1466310218464899</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>8.8753071569803277E-2</v>
+        <v>9.9840996160602935E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>8.8996931997219031E-2</v>
+        <v>7.7022796508279923E-2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -6198,28 +6174,28 @@
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
+      <c r="B15" s="2">
+        <v>44187</v>
       </c>
       <c r="C15">
-        <v>1.121063480218897</v>
+        <v>1.10440742558783</v>
       </c>
       <c r="D15">
-        <v>1.116377616568752</v>
+        <v>1.1017526371559201</v>
       </c>
       <c r="E15">
-        <v>1.034346133283377</v>
+        <v>1.00996170249894</v>
       </c>
       <c r="F15">
-        <v>1.22343394789671</v>
+        <v>1.1928683693800901</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>8.2031483285375018E-2</v>
+        <v>9.1790934656980072E-2</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>0.107056331327958</v>
+        <v>9.1115732224170021E-2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -6230,28 +6206,28 @@
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
+      <c r="B16" s="2">
+        <v>44187</v>
       </c>
       <c r="C16">
-        <v>1.176382866907312</v>
+        <v>1.15844831436963</v>
       </c>
       <c r="D16">
-        <v>1.170678237376269</v>
+        <v>1.1603366040864</v>
       </c>
       <c r="E16">
-        <v>1.0604868080876291</v>
+        <v>1.0459258254591299</v>
       </c>
       <c r="F16">
-        <v>1.2844513925371179</v>
+        <v>1.2596961144369201</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0.1101914292886399</v>
+        <v>0.11441077862727012</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>0.11377315516084896</v>
+        <v>9.9359510350520042E-2</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -6271,8 +6247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFCAF56-E988-48E4-BDA2-C84256C27DCF}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="97" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="97" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6311,31 +6287,31 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1.037778339370923</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.03481997954942</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.97380174728967284</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1.1143482633523401</v>
+      <c r="B2" s="2">
+        <v>44157</v>
+      </c>
+      <c r="C2">
+        <v>1.0759341585073301</v>
+      </c>
+      <c r="D2">
+        <v>1.0728036224333799</v>
+      </c>
+      <c r="E2">
+        <v>1.0102225803576299</v>
+      </c>
+      <c r="F2">
+        <v>1.1644914276951699</v>
       </c>
       <c r="G2">
         <f>D2-E2</f>
-        <v>6.1018232259747118E-2</v>
+        <v>6.2581042075749993E-2</v>
       </c>
       <c r="H2">
         <f>F2-D2</f>
-        <v>7.9528283802920097E-2</v>
+        <v>9.168780526178999E-2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -6346,28 +6322,28 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
+      <c r="B3" s="2">
+        <v>44157</v>
       </c>
       <c r="C3">
-        <v>1.0468924303409171</v>
+        <v>1.05531589407759</v>
       </c>
       <c r="D3">
-        <v>1.0472569609893281</v>
+        <v>1.0556841698952</v>
       </c>
       <c r="E3">
-        <v>0.95931430675679796</v>
+        <v>0.97226450346610604</v>
       </c>
       <c r="F3">
-        <v>1.1228503173659921</v>
+        <v>1.1313188923139801</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G16" si="0">D3-E3</f>
-        <v>8.7942654232530115E-2</v>
+        <v>8.341966642909393E-2</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H16" si="1">F3-D3</f>
-        <v>7.5593356376663978E-2</v>
+        <v>7.5634722418780109E-2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -6378,28 +6354,28 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
+      <c r="B4" s="2">
+        <v>44157</v>
       </c>
       <c r="C4">
-        <v>1.04386494450156</v>
+        <v>1.0660237974319899</v>
       </c>
       <c r="D4">
-        <v>1.043668806004888</v>
+        <v>1.0634353344965899</v>
       </c>
       <c r="E4">
-        <v>0.96649929114039601</v>
+        <v>0.98137420255018104</v>
       </c>
       <c r="F4">
-        <v>1.1157966014796561</v>
+        <v>1.1288470666333099</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>7.7169514864491973E-2</v>
+        <v>8.206113194640885E-2</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>7.2127795474768108E-2</v>
+        <v>6.5411732136720024E-2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -6410,28 +6386,28 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
+      <c r="B5" s="2">
+        <v>44157</v>
       </c>
       <c r="C5">
-        <v>1.0811563053663089</v>
+        <v>1.10673697603821</v>
       </c>
       <c r="D5">
-        <v>1.0785806567363181</v>
+        <v>1.10513979777073</v>
       </c>
       <c r="E5">
-        <v>1.0021877967026649</v>
+        <v>1.0292643379039701</v>
       </c>
       <c r="F5">
-        <v>1.150563660555258</v>
+        <v>1.1911370091883899</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>7.6392860033653198E-2</v>
+        <v>7.587545986675992E-2</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>7.1983003818939961E-2</v>
+        <v>8.5997211417659924E-2</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -6442,28 +6418,28 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
+      <c r="B6" s="2">
+        <v>44157</v>
       </c>
       <c r="C6">
-        <v>1.0386872496242141</v>
+        <v>1.0505642867390701</v>
       </c>
       <c r="D6">
-        <v>1.038002549850348</v>
+        <v>1.0467378093853501</v>
       </c>
       <c r="E6">
-        <v>0.96047106637380508</v>
+        <v>0.96662188137275895</v>
       </c>
       <c r="F6">
-        <v>1.1186719911462959</v>
+        <v>1.1301734660162599</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>7.7531483476542928E-2</v>
+        <v>8.0115928012591153E-2</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>8.0669441295947886E-2</v>
+        <v>8.3435656630909794E-2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -6474,28 +6450,28 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
+      <c r="B7" s="2">
+        <v>44157</v>
       </c>
       <c r="C7">
-        <v>1.082867649339792</v>
+        <v>1.0894529732529299</v>
       </c>
       <c r="D7">
-        <v>1.0797504646321221</v>
+        <v>1.0865547269759599</v>
       </c>
       <c r="E7">
-        <v>1.0039997915997201</v>
+        <v>1.0110575361941201</v>
       </c>
       <c r="F7">
-        <v>1.1656965923301441</v>
+        <v>1.1704848592633501</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>7.5750673032402016E-2</v>
+        <v>7.5497190781839807E-2</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>8.5946127698022012E-2</v>
+        <v>8.3930132287390213E-2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -6506,28 +6482,28 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
+      <c r="B8" s="2">
+        <v>44157</v>
       </c>
       <c r="C8">
-        <v>1.1425661858850189</v>
+        <v>1.14805799816933</v>
       </c>
       <c r="D8">
-        <v>1.1408380631560711</v>
+        <v>1.14089682304759</v>
       </c>
       <c r="E8">
-        <v>1.03144913536266</v>
+        <v>1.0390040804599601</v>
       </c>
       <c r="F8">
-        <v>1.239344430343621</v>
+        <v>1.23054019706229</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.10938892779341103</v>
+        <v>0.10189274258762993</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>9.8506367187549904E-2</v>
+        <v>8.9643374014700017E-2</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -6538,28 +6514,28 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
+      <c r="B9" s="2">
+        <v>44157</v>
       </c>
       <c r="C9">
-        <v>1.0641430196044901</v>
+        <v>1.06929530276231</v>
       </c>
       <c r="D9">
-        <v>1.0618320755505639</v>
+        <v>1.0675928642582</v>
       </c>
       <c r="E9">
-        <v>0.9781426190267104</v>
+        <v>0.98677470574485804</v>
       </c>
       <c r="F9">
-        <v>1.145356642753764</v>
+        <v>1.1559161451714599</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>8.3689456523853512E-2</v>
+        <v>8.0818158513341953E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>8.3524567203200117E-2</v>
+        <v>8.8323280913259916E-2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -6570,28 +6546,28 @@
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
+      <c r="B10" s="2">
+        <v>44157</v>
       </c>
       <c r="C10">
-        <v>1.1333346025921041</v>
+        <v>1.13552521884719</v>
       </c>
       <c r="D10">
-        <v>1.131719601695405</v>
+        <v>1.1304056500950601</v>
       </c>
       <c r="E10">
-        <v>1.0294690029210209</v>
+        <v>1.02851002579632</v>
       </c>
       <c r="F10">
-        <v>1.220707111968361</v>
+        <v>1.23978969173717</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.10225059877438403</v>
+        <v>0.10189562429874011</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>8.8987510272956039E-2</v>
+        <v>0.10938404164210991</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -6602,28 +6578,28 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
+      <c r="B11" s="2">
+        <v>44157</v>
       </c>
       <c r="C11">
-        <v>0.98907732003248261</v>
+        <v>0.98225194137085403</v>
       </c>
       <c r="D11">
-        <v>0.98696732403932963</v>
+        <v>0.981474205952937</v>
       </c>
       <c r="E11">
-        <v>0.89310657516111835</v>
+        <v>0.90241912742489605</v>
       </c>
       <c r="F11">
-        <v>1.0574014316056519</v>
+        <v>1.06138705557613</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>9.3860748878211275E-2</v>
+        <v>7.9055078528040945E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>7.043410756632229E-2</v>
+        <v>7.9912849623193005E-2</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -6634,28 +6610,28 @@
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
+      <c r="B12" s="2">
+        <v>44157</v>
       </c>
       <c r="C12">
-        <v>1.009335580479555</v>
+        <v>1.0231008201216301</v>
       </c>
       <c r="D12">
-        <v>1.0103121926962351</v>
+        <v>1.0210156369590799</v>
       </c>
       <c r="E12">
-        <v>0.90328031675524023</v>
+        <v>0.91627822874425602</v>
       </c>
       <c r="F12">
-        <v>1.078868868711562</v>
+        <v>1.10570329704727</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0.10703187594099484</v>
+        <v>0.10473740821482391</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>6.8556676015326889E-2</v>
+        <v>8.4687660088190064E-2</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -6666,28 +6642,28 @@
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
+      <c r="B13" s="2">
+        <v>44157</v>
       </c>
       <c r="C13">
-        <v>1.0942902888086099</v>
+        <v>1.1023565095566299</v>
       </c>
       <c r="D13">
-        <v>1.097010775399315</v>
+        <v>1.0991398523873399</v>
       </c>
       <c r="E13">
-        <v>1.008403710609393</v>
+        <v>0.999177389271931</v>
       </c>
       <c r="F13">
-        <v>1.1887656663714881</v>
+        <v>1.18758013856718</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>8.8607064789921974E-2</v>
+        <v>9.9962463115408906E-2</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>9.1754890972173042E-2</v>
+        <v>8.8440286179840122E-2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -6698,28 +6674,28 @@
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>25</v>
+      <c r="B14" s="2">
+        <v>44157</v>
       </c>
       <c r="C14">
-        <v>1.0476923141024581</v>
+        <v>1.04351830374861</v>
       </c>
       <c r="D14">
-        <v>1.046160477864301</v>
+        <v>1.0432052856109899</v>
       </c>
       <c r="E14">
-        <v>0.96764237818363141</v>
+        <v>0.95233223168135395</v>
       </c>
       <c r="F14">
-        <v>1.134914863048752</v>
+        <v>1.12321816474601</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>7.8518099680669584E-2</v>
+        <v>9.0873053929635961E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>8.8754385184451001E-2</v>
+        <v>8.0012879135020087E-2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -6730,28 +6706,28 @@
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
+      <c r="B15" s="2">
+        <v>44157</v>
       </c>
       <c r="C15">
-        <v>0.97116879591875638</v>
+        <v>0.98251604984037599</v>
       </c>
       <c r="D15">
-        <v>0.96881172087974399</v>
+        <v>0.98022866213083604</v>
       </c>
       <c r="E15">
-        <v>0.88980170076538434</v>
+        <v>0.89167012493588205</v>
       </c>
       <c r="F15">
-        <v>1.0521735567291399</v>
+        <v>1.05531105608482</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>7.9010020114359647E-2</v>
+        <v>8.855853719495399E-2</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>8.3361835849395938E-2</v>
+        <v>7.5082393953983972E-2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -6762,28 +6738,28 @@
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
+      <c r="B16" s="2">
+        <v>44157</v>
       </c>
       <c r="C16">
-        <v>1.038644904392682</v>
+        <v>1.04448472638703</v>
       </c>
       <c r="D16">
-        <v>1.036950669461048</v>
+        <v>1.04295060003215</v>
       </c>
       <c r="E16">
-        <v>0.93807135261864205</v>
+        <v>0.94375265605953995</v>
       </c>
       <c r="F16">
-        <v>1.1182520475798821</v>
+        <v>1.1303923446075299</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>9.8879316842405918E-2</v>
+        <v>9.9197943972610059E-2</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>8.1301378118834089E-2</v>
+        <v>8.7441744575379898E-2</v>
       </c>
       <c r="I16">
         <v>1</v>

--- a/results/resultado_consolidado/graph2.xlsx
+++ b/results/resultado_consolidado/graph2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Georg\Documents\GitHub\covid-model\results\resultado_consolidado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E665931D-3565-484A-BC78-304F837FB911}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84015FB8-9773-405F-BC93-05BC0DA8E705}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="156" windowWidth="14592" windowHeight="12204" activeTab="2" xr2:uid="{4AC76AC7-E5A1-4C07-9F5F-EE5E7DC34869}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4AC76AC7-E5A1-4C07-9F5F-EE5E7DC34869}"/>
   </bookViews>
   <sheets>
-    <sheet name="22 ene" sheetId="2" r:id="rId1"/>
-    <sheet name="22 dic" sheetId="1" r:id="rId2"/>
-    <sheet name="22 nov" sheetId="3" r:id="rId3"/>
+    <sheet name="26 feb" sheetId="2" r:id="rId1"/>
+    <sheet name="26 ene" sheetId="1" r:id="rId2"/>
+    <sheet name="26 dic" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -189,7 +189,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'22 ene'!$D$1</c:f>
+              <c:f>'26 feb'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -395,11 +395,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -419,11 +419,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -443,11 +443,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -467,11 +467,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -491,11 +491,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -587,108 +587,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'22 ene'!$H$2:$H$16</c:f>
+                <c:f>'26 feb'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.14542973052171604</c:v>
+                    <c:v>0.18954237467830692</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.18748364579895194</c:v>
+                    <c:v>0.1980973349078069</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.17196888033160596</c:v>
+                    <c:v>0.15854359238789806</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.18001402684399792</c:v>
+                    <c:v>0.21284865295754207</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.21728657906586191</c:v>
+                    <c:v>0.18765214746358216</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.17708341032905806</c:v>
+                    <c:v>0.22206178684394207</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.26784596426497709</c:v>
+                    <c:v>0.22788271408778804</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.2164802053761099</c:v>
+                    <c:v>0.19737353089557408</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.22970540081799995</c:v>
+                    <c:v>0.20721743638771994</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.21963574413990994</c:v>
+                    <c:v>0.19812908992067302</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.20442818153988984</c:v>
+                    <c:v>0.19083781167092895</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.27243902598457992</c:v>
+                    <c:v>0.21130216930255286</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.23861861824146002</c:v>
+                    <c:v>0.1773399249474199</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.26326360582227992</c:v>
+                    <c:v>0.22101518315700996</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.27910316955851999</c:v>
+                    <c:v>0.26592261164801001</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'22 ene'!$G$2:$G$16</c:f>
+                <c:f>'26 feb'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>0.18944007601167601</c:v>
+                    <c:v>0.18073790359428099</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.178409747760926</c:v>
+                    <c:v>0.21307187086272406</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.202092507846931</c:v>
+                    <c:v>0.19899626419410998</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.20403789502454006</c:v>
+                    <c:v>0.19764127724838099</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.17634684273352497</c:v>
+                    <c:v>0.20050575065847698</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.24955469215258896</c:v>
+                    <c:v>0.14770317536052191</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.19644196246092993</c:v>
+                    <c:v>0.18254707810717297</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.27951268251538808</c:v>
+                    <c:v>0.198506728467438</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.193328856871818</c:v>
+                    <c:v>0.17014468837333296</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.21954171127672606</c:v>
+                    <c:v>0.24259761322612305</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.26282202371127106</c:v>
+                    <c:v>0.19715926201474798</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.22389198924115206</c:v>
+                    <c:v>0.20281245384812108</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.22584363208106606</c:v>
+                    <c:v>0.25850218231325606</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.23012409277136514</c:v>
+                    <c:v>0.24953962951412212</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.26441976484922192</c:v>
+                    <c:v>0.26359288878374798</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -709,107 +709,107 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'22 ene'!$A$2:$A$16</c:f>
+              <c:f>'26 feb'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>Espaillat</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sánchez Ramírez</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Distrito Nacional</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>La Romana</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Santo Domingo</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Distrito Nacional</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
                   <c:v>La Altagracia</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
+                  <c:v>Azua</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>San Juan</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>San Cristóbal</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sánchez Ramírez</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Duarte</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Azua</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>La Romana</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'22 ene'!$D$2:$D$16</c:f>
+              <c:f>'26 feb'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.83418493195226595</c:v>
+                  <c:v>0.81859567197709304</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86805034392673797</c:v>
+                  <c:v>0.850657516289823</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88113158669861402</c:v>
+                  <c:v>0.88074692212452199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90773899713048201</c:v>
+                  <c:v>0.89614667079169796</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.921930952830608</c:v>
+                  <c:v>0.89626418146628795</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97577751086543196</c:v>
+                  <c:v>0.90592566052548795</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98675031074764297</c:v>
+                  <c:v>0.90988895682587201</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0003098266289701</c:v>
+                  <c:v>0.91100554125907596</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0076535134686</c:v>
+                  <c:v>0.93266345688403995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.03705458171033</c:v>
+                  <c:v>0.94525868236134702</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0683137146453301</c:v>
+                  <c:v>0.96057156754441098</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0686089969873001</c:v>
+                  <c:v>0.96568084422688705</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0803087926137001</c:v>
+                  <c:v>1.0694879665325401</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1395220463640401</c:v>
+                  <c:v>1.0900915905264801</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1565592947296599</c:v>
+                  <c:v>1.10137511330729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -826,7 +826,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'22 ene'!$I$1</c:f>
+              <c:f>'26 feb'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -884,7 +884,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'22 ene'!$I$2:$I$16</c:f>
+              <c:f>'26 feb'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1128,7 +1128,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'22 dic'!$D$1</c:f>
+              <c:f>'26 ene'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1149,11 +1149,11 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="25400">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1214,11 +1214,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1238,11 +1238,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1262,11 +1262,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1286,11 +1286,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1310,11 +1310,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1334,11 +1334,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1358,11 +1358,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1382,11 +1382,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1406,11 +1406,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1430,11 +1430,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1454,11 +1454,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1478,11 +1478,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1502,11 +1502,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -1526,108 +1526,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'22 dic'!$H$2:$H$16</c:f>
+                <c:f>'26 ene'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>6.7014152243548009E-2</c:v>
+                    <c:v>7.313713905455399E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.5565778623874147E-2</c:v>
+                    <c:v>7.7412192130812074E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.6401780639139929E-2</c:v>
+                    <c:v>7.3611723485362934E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.2655269800119946E-2</c:v>
+                    <c:v>0.14744061907147588</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.770493987117999E-2</c:v>
+                    <c:v>0.16820645393414302</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.6865178266920076E-2</c:v>
+                    <c:v>0.15687585437195095</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>9.9985058427989992E-2</c:v>
+                    <c:v>0.15691640497017001</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.5406512027120129E-2</c:v>
+                    <c:v>0.18714414252324896</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.11371589721275988</c:v>
+                    <c:v>6.4626170335381983E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>9.2056326263920019E-2</c:v>
+                    <c:v>9.0405331314856952E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.11213812144376001</c:v>
+                    <c:v>0.14166577547623604</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>8.5337376519170061E-2</c:v>
+                    <c:v>8.1839527968460057E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>7.7022796508279923E-2</c:v>
+                    <c:v>7.9004923603794963E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>9.1115732224170021E-2</c:v>
+                    <c:v>0.15858475236010194</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>9.9359510350520042E-2</c:v>
+                    <c:v>0.11929168142917201</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'22 dic'!$G$2:$G$16</c:f>
+                <c:f>'26 ene'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>7.2760769951349946E-2</c:v>
+                    <c:v>8.437226500875894E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.739645807443396E-2</c:v>
+                    <c:v>7.9896879634276941E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.6389083801235991E-2</c:v>
+                    <c:v>6.0453838594524023E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.790790424352211E-2</c:v>
+                    <c:v>0.19594236968490308</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.4017801610374976E-2</c:v>
+                    <c:v>0.18490888253860305</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.8426403118591947E-2</c:v>
+                    <c:v>0.15213549354995604</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.6146090718060888E-2</c:v>
+                    <c:v>0.14171105033730202</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7.338981662995292E-2</c:v>
+                    <c:v>0.17559705322230301</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.3052872048777084E-2</c:v>
+                    <c:v>7.430386257843502E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.6920343308483083E-2</c:v>
+                    <c:v>9.1022264384715945E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.10348821215472692</c:v>
+                    <c:v>0.13845748410374203</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>9.6889739052218871E-2</c:v>
+                    <c:v>8.4498160237732933E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>9.9840996160602935E-2</c:v>
+                    <c:v>8.426885114203897E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>9.1790934656980072E-2</c:v>
+                    <c:v>0.14798312654689305</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.11441077862727012</c:v>
+                    <c:v>0.15648402749549606</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1648,107 +1648,107 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'22 dic'!$A$2:$A$16</c:f>
+              <c:f>'26 ene'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>Espaillat</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sánchez Ramírez</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Distrito Nacional</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>La Romana</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Santo Domingo</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>La Altagracia</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Distrito Nacional</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>San Cristóbal</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>Azua</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Duarte</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sánchez Ramírez</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>La Romana</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'22 dic'!$D$2:$D$16</c:f>
+              <c:f>'26 ene'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.99031066039299198</c:v>
+                  <c:v>0.84849403856302397</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93058584281090595</c:v>
+                  <c:v>0.83942361826544798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.00240189940572</c:v>
+                  <c:v>0.87741960813753805</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0361817032210201</c:v>
+                  <c:v>0.87065266165953403</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.00359117913701</c:v>
+                  <c:v>0.94594846247075703</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.04562745255701</c:v>
+                  <c:v>0.92871000760564903</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0741082139545499</c:v>
+                  <c:v>0.84060775893091</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0204075461300799</c:v>
+                  <c:v>0.95876584402572096</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0478951601387501</c:v>
+                  <c:v>0.95288784013939798</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0428848933350501</c:v>
+                  <c:v>0.98509334772892299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0919322858729299</c:v>
+                  <c:v>0.90768157936874405</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0650174145001099</c:v>
+                  <c:v>0.94618145075218996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.06960822533821</c:v>
+                  <c:v>0.999112729791375</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1017526371559201</c:v>
+                  <c:v>0.79154249564370605</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1603366040864</c:v>
+                  <c:v>0.83488037205635501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1765,7 +1765,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'22 ene'!$I$1</c:f>
+              <c:f>'26 feb'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1823,60 +1823,60 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'22 dic'!$A$2:$A$16</c:f>
+              <c:f>'26 ene'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>Espaillat</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sánchez Ramírez</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Distrito Nacional</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>La Romana</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Santo Domingo</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>La Altagracia</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Distrito Nacional</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>San Cristóbal</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>Azua</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Duarte</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sánchez Ramírez</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>La Romana</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'22 ene'!$I$2:$I$16</c:f>
+              <c:f>'26 feb'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2120,7 +2120,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'22 nov'!$D$1</c:f>
+              <c:f>'26 dic'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2206,11 +2206,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2230,11 +2230,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2278,11 +2278,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2326,11 +2326,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2350,11 +2350,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2374,11 +2374,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2398,11 +2398,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2422,11 +2422,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2494,11 +2494,11 @@
               <c:size val="6"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:ln w="25400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2518,108 +2518,108 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'22 dic'!$H$2:$H$16</c:f>
+                <c:f>'26 ene'!$H$2:$H$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>6.7014152243548009E-2</c:v>
+                    <c:v>7.313713905455399E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.5565778623874147E-2</c:v>
+                    <c:v>7.7412192130812074E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.6401780639139929E-2</c:v>
+                    <c:v>7.3611723485362934E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.2655269800119946E-2</c:v>
+                    <c:v>0.14744061907147588</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.770493987117999E-2</c:v>
+                    <c:v>0.16820645393414302</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.6865178266920076E-2</c:v>
+                    <c:v>0.15687585437195095</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>9.9985058427989992E-2</c:v>
+                    <c:v>0.15691640497017001</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.5406512027120129E-2</c:v>
+                    <c:v>0.18714414252324896</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.11371589721275988</c:v>
+                    <c:v>6.4626170335381983E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>9.2056326263920019E-2</c:v>
+                    <c:v>9.0405331314856952E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.11213812144376001</c:v>
+                    <c:v>0.14166577547623604</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>8.5337376519170061E-2</c:v>
+                    <c:v>8.1839527968460057E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>7.7022796508279923E-2</c:v>
+                    <c:v>7.9004923603794963E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>9.1115732224170021E-2</c:v>
+                    <c:v>0.15858475236010194</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>9.9359510350520042E-2</c:v>
+                    <c:v>0.11929168142917201</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'22 dic'!$G$2:$G$16</c:f>
+                <c:f>'26 ene'!$G$2:$G$16</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>7.2760769951349946E-2</c:v>
+                    <c:v>8.437226500875894E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.739645807443396E-2</c:v>
+                    <c:v>7.9896879634276941E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.6389083801235991E-2</c:v>
+                    <c:v>6.0453838594524023E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.790790424352211E-2</c:v>
+                    <c:v>0.19594236968490308</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.4017801610374976E-2</c:v>
+                    <c:v>0.18490888253860305</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.8426403118591947E-2</c:v>
+                    <c:v>0.15213549354995604</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.6146090718060888E-2</c:v>
+                    <c:v>0.14171105033730202</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7.338981662995292E-2</c:v>
+                    <c:v>0.17559705322230301</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.3052872048777084E-2</c:v>
+                    <c:v>7.430386257843502E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.6920343308483083E-2</c:v>
+                    <c:v>9.1022264384715945E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.10348821215472692</c:v>
+                    <c:v>0.13845748410374203</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>9.6889739052218871E-2</c:v>
+                    <c:v>8.4498160237732933E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>9.9840996160602935E-2</c:v>
+                    <c:v>8.426885114203897E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>9.1790934656980072E-2</c:v>
+                    <c:v>0.14798312654689305</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.11441077862727012</c:v>
+                    <c:v>0.15648402749549606</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2640,107 +2640,107 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'22 dic'!$A$2:$A$16</c:f>
+              <c:f>'26 ene'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>Espaillat</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sánchez Ramírez</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Distrito Nacional</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>La Romana</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Santo Domingo</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>La Altagracia</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Distrito Nacional</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>San Cristóbal</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>Azua</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Duarte</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sánchez Ramírez</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>La Romana</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'22 nov'!$D$2:$D$16</c:f>
+              <c:f>'26 dic'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.0728036224333799</c:v>
+                  <c:v>1.0428016855637801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0556841698952</c:v>
+                  <c:v>1.02154102782353</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0634353344965899</c:v>
+                  <c:v>0.990009300772828</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.10513979777073</c:v>
+                  <c:v>0.98821394600675405</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0467378093853501</c:v>
+                  <c:v>1.04038877598986</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0865547269759599</c:v>
+                  <c:v>0.96754664691572001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.14089682304759</c:v>
+                  <c:v>1.03064467872293</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0675928642582</c:v>
+                  <c:v>0.992009581516343</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1304056500950601</c:v>
+                  <c:v>0.95985396923141797</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.981474205952937</c:v>
+                  <c:v>1.14315261261717</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0210156369590799</c:v>
+                  <c:v>0.93741936131853798</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0991398523873399</c:v>
+                  <c:v>0.95264035403395197</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0432052856109899</c:v>
+                  <c:v>1.04969202255931</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.98022866213083604</c:v>
+                  <c:v>0.97387732633369695</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.04295060003215</c:v>
+                  <c:v>0.987192971886382</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2757,7 +2757,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'22 ene'!$I$1</c:f>
+              <c:f>'26 feb'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2815,60 +2815,60 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'22 dic'!$A$2:$A$16</c:f>
+              <c:f>'26 ene'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>Espaillat</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Duarte</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>La Vega</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Puerto Plata</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>San Pedro de Macorís</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sánchez Ramírez</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>San Cristóbal</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Distrito Nacional</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>La Romana</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Santo Domingo</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>La Altagracia</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Distrito Nacional</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>San Cristóbal</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>La Vega</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>Azua</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>Puerto Plata</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
+                  <c:v>San Juan</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Peravia</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Duarte</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Espaillat</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>San Juan</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>San Pedro de Macorís</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sánchez Ramírez</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>La Romana</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'22 ene'!$I$2:$I$16</c:f>
+              <c:f>'26 feb'!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5184,7 +5184,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5224,30 +5224,30 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2">
-        <v>44218</v>
+        <v>44253</v>
       </c>
       <c r="C2">
-        <v>0.84355018879539001</v>
+        <v>0.83094951418721696</v>
       </c>
       <c r="D2">
-        <v>0.83418493195226595</v>
+        <v>0.81859567197709304</v>
       </c>
       <c r="E2">
-        <v>0.64474485594058994</v>
+        <v>0.63785776838281205</v>
       </c>
       <c r="F2">
-        <v>0.97961466247398199</v>
+        <v>1.0081380466554</v>
       </c>
       <c r="G2">
         <f>D2-E2</f>
-        <v>0.18944007601167601</v>
+        <v>0.18073790359428099</v>
       </c>
       <c r="H2">
         <f>F2-D2</f>
-        <v>0.14542973052171604</v>
+        <v>0.18954237467830692</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5256,30 +5256,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>44218</v>
+        <v>44253</v>
       </c>
       <c r="C3">
-        <v>0.87792069012437102</v>
+        <v>0.86954942096764498</v>
       </c>
       <c r="D3">
-        <v>0.86805034392673797</v>
+        <v>0.850657516289823</v>
       </c>
       <c r="E3">
-        <v>0.68964059616581197</v>
+        <v>0.63758564542709895</v>
       </c>
       <c r="F3">
-        <v>1.0555339897256899</v>
+        <v>1.0487548511976299</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G16" si="0">D3-E3</f>
-        <v>0.178409747760926</v>
+        <v>0.21307187086272406</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H16" si="1">F3-D3</f>
-        <v>0.18748364579895194</v>
+        <v>0.1980973349078069</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5288,30 +5288,30 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>44218</v>
+        <v>44253</v>
       </c>
       <c r="C4">
-        <v>0.89029297393460205</v>
+        <v>0.89157943393175698</v>
       </c>
       <c r="D4">
-        <v>0.88113158669861402</v>
+        <v>0.88074692212452199</v>
       </c>
       <c r="E4">
-        <v>0.67903907885168302</v>
+        <v>0.68175065793041201</v>
       </c>
       <c r="F4">
-        <v>1.05310046703022</v>
+        <v>1.03929051451242</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.202092507846931</v>
+        <v>0.19899626419410998</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>0.17196888033160596</v>
+        <v>0.15854359238789806</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5320,30 +5320,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>44218</v>
+        <v>44253</v>
       </c>
       <c r="C5">
-        <v>0.91747123470090697</v>
+        <v>0.90814116009838897</v>
       </c>
       <c r="D5">
-        <v>0.90773899713048201</v>
+        <v>0.89614667079169796</v>
       </c>
       <c r="E5">
-        <v>0.70370110210594194</v>
+        <v>0.69850539354331698</v>
       </c>
       <c r="F5">
-        <v>1.0877530239744799</v>
+        <v>1.10899532374924</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.20403789502454006</v>
+        <v>0.19764127724838099</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>0.18001402684399792</v>
+        <v>0.21284865295754207</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5352,30 +5352,30 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2">
-        <v>44218</v>
+        <v>44253</v>
       </c>
       <c r="C6">
-        <v>0.93901301205344501</v>
+        <v>0.90792248213371496</v>
       </c>
       <c r="D6">
-        <v>0.921930952830608</v>
+        <v>0.89626418146628795</v>
       </c>
       <c r="E6">
-        <v>0.74558411009708303</v>
+        <v>0.69575843080781097</v>
       </c>
       <c r="F6">
-        <v>1.1392175318964699</v>
+        <v>1.0839163289298701</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.17634684273352497</v>
+        <v>0.20050575065847698</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>0.21728657906586191</v>
+        <v>0.18765214746358216</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5384,30 +5384,30 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>44218</v>
+        <v>44253</v>
       </c>
       <c r="C7">
-        <v>0.985204788740072</v>
+        <v>0.92244674483387401</v>
       </c>
       <c r="D7">
-        <v>0.97577751086543196</v>
+        <v>0.90592566052548795</v>
       </c>
       <c r="E7">
-        <v>0.726222818712843</v>
+        <v>0.75822248516496604</v>
       </c>
       <c r="F7">
-        <v>1.15286092119449</v>
+        <v>1.12798744736943</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.24955469215258896</v>
+        <v>0.14770317536052191</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>0.17708341032905806</v>
+        <v>0.22206178684394207</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5416,30 +5416,30 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>44218</v>
+        <v>44253</v>
       </c>
       <c r="C8">
-        <v>1.0059202792527</v>
+        <v>0.92925168912228195</v>
       </c>
       <c r="D8">
-        <v>0.98675031074764297</v>
+        <v>0.90988895682587201</v>
       </c>
       <c r="E8">
-        <v>0.79030834828671304</v>
+        <v>0.72734187871869904</v>
       </c>
       <c r="F8">
-        <v>1.2545962750126201</v>
+        <v>1.13777167091366</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.19644196246092993</v>
+        <v>0.18254707810717297</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>0.26784596426497709</v>
+        <v>0.22788271408778804</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5448,30 +5448,30 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>44218</v>
+        <v>44253</v>
       </c>
       <c r="C9">
-        <v>1.02208470708406</v>
+        <v>0.92741945350438804</v>
       </c>
       <c r="D9">
-        <v>1.0003098266289701</v>
+        <v>0.91100554125907596</v>
       </c>
       <c r="E9">
-        <v>0.72079714411358198</v>
+        <v>0.71249881279163796</v>
       </c>
       <c r="F9">
-        <v>1.21679003200508</v>
+        <v>1.10837907215465</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.27951268251538808</v>
+        <v>0.198506728467438</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>0.2164802053761099</v>
+        <v>0.19737353089557408</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5480,30 +5480,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
-        <v>44218</v>
+        <v>44253</v>
       </c>
       <c r="C10">
-        <v>1.0223550945014099</v>
+        <v>0.94687241368350805</v>
       </c>
       <c r="D10">
-        <v>1.0076535134686</v>
+        <v>0.93266345688403995</v>
       </c>
       <c r="E10">
-        <v>0.81432465659678199</v>
+        <v>0.76251876851070699</v>
       </c>
       <c r="F10">
-        <v>1.2373589142865999</v>
+        <v>1.1398808932717599</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.193328856871818</v>
+        <v>0.17014468837333296</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>0.22970540081799995</v>
+        <v>0.20721743638771994</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5512,30 +5512,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>44218</v>
+        <v>44253</v>
       </c>
       <c r="C11">
-        <v>1.0570139446350799</v>
+        <v>0.97242657394577703</v>
       </c>
       <c r="D11">
-        <v>1.03705458171033</v>
+        <v>0.94525868236134702</v>
       </c>
       <c r="E11">
-        <v>0.81751287043360399</v>
+        <v>0.70266106913522397</v>
       </c>
       <c r="F11">
-        <v>1.25669032585024</v>
+        <v>1.14338777228202</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.21954171127672606</v>
+        <v>0.24259761322612305</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>0.21963574413990994</v>
+        <v>0.19812908992067302</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5544,30 +5544,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2">
-        <v>44218</v>
+        <v>44253</v>
       </c>
       <c r="C12">
-        <v>1.0849541542343699</v>
+        <v>0.96484321081908897</v>
       </c>
       <c r="D12">
-        <v>1.0683137146453301</v>
+        <v>0.96057156754441098</v>
       </c>
       <c r="E12">
-        <v>0.80549169093405903</v>
+        <v>0.76341230552966299</v>
       </c>
       <c r="F12">
-        <v>1.2727418961852199</v>
+        <v>1.1514093792153399</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0.26282202371127106</v>
+        <v>0.19715926201474798</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>0.20442818153988984</v>
+        <v>0.19083781167092895</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5576,30 +5576,30 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>44218</v>
+        <v>44253</v>
       </c>
       <c r="C13">
-        <v>1.0922993989329799</v>
+        <v>0.98272377160378799</v>
       </c>
       <c r="D13">
-        <v>1.0686089969873001</v>
+        <v>0.96568084422688705</v>
       </c>
       <c r="E13">
-        <v>0.844717007746148</v>
+        <v>0.76286839037876597</v>
       </c>
       <c r="F13">
-        <v>1.34104802297188</v>
+        <v>1.1769830135294399</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.22389198924115206</v>
+        <v>0.20281245384812108</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>0.27243902598457992</v>
+        <v>0.21130216930255286</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5608,30 +5608,30 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2">
-        <v>44218</v>
+        <v>44253</v>
       </c>
       <c r="C14">
-        <v>1.09887783517931</v>
+        <v>1.07973774489343</v>
       </c>
       <c r="D14">
-        <v>1.0803087926137001</v>
+        <v>1.0694879665325401</v>
       </c>
       <c r="E14">
-        <v>0.85446516053263399</v>
+        <v>0.81098578421928402</v>
       </c>
       <c r="F14">
-        <v>1.3189274108551601</v>
+        <v>1.24682789147996</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0.22584363208106606</v>
+        <v>0.25850218231325606</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>0.23861861824146002</v>
+        <v>0.1773399249474199</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -5640,30 +5640,30 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>44218</v>
+        <v>44253</v>
       </c>
       <c r="C15">
-        <v>1.14840479228728</v>
+        <v>1.1028110398612101</v>
       </c>
       <c r="D15">
-        <v>1.1395220463640401</v>
+        <v>1.0900915905264801</v>
       </c>
       <c r="E15">
-        <v>0.90939795359267495</v>
+        <v>0.84055196101235796</v>
       </c>
       <c r="F15">
-        <v>1.40278565218632</v>
+        <v>1.31110677368349</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0.23012409277136514</v>
+        <v>0.24953962951412212</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>0.26326360582227992</v>
+        <v>0.22101518315700996</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -5672,30 +5672,30 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>44218</v>
+        <v>44253</v>
       </c>
       <c r="C16">
-        <v>1.1759590422391699</v>
+        <v>1.1193465965560101</v>
       </c>
       <c r="D16">
-        <v>1.1565592947296599</v>
+        <v>1.10137511330729</v>
       </c>
       <c r="E16">
-        <v>0.89213952988043799</v>
+        <v>0.83778222452354201</v>
       </c>
       <c r="F16">
-        <v>1.4356624642881799</v>
+        <v>1.3672977249553</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0.26441976484922192</v>
+        <v>0.26359288878374798</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>0.27910316955851999</v>
+        <v>0.26592261164801001</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -5715,8 +5715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9B4699-B86D-4EFA-A264-1734A39D161E}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5756,30 +5756,30 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2">
-        <v>44187</v>
+        <v>44222</v>
       </c>
       <c r="C2">
-        <v>0.99020385851883796</v>
+        <v>0.85256340298569899</v>
       </c>
       <c r="D2">
-        <v>0.99031066039299198</v>
+        <v>0.84849403856302397</v>
       </c>
       <c r="E2">
-        <v>0.91754989044164204</v>
+        <v>0.76412177355426503</v>
       </c>
       <c r="F2">
-        <v>1.05732481263654</v>
+        <v>0.92163117761757796</v>
       </c>
       <c r="G2">
         <f>D2-E2</f>
-        <v>7.2760769951349946E-2</v>
+        <v>8.437226500875894E-2</v>
       </c>
       <c r="H2">
         <f>F2-D2</f>
-        <v>6.7014152243548009E-2</v>
+        <v>7.313713905455399E-2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5788,30 +5788,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>44187</v>
+        <v>44222</v>
       </c>
       <c r="C3">
-        <v>0.93148828460474697</v>
+        <v>0.84058202827333295</v>
       </c>
       <c r="D3">
-        <v>0.93058584281090595</v>
+        <v>0.83942361826544798</v>
       </c>
       <c r="E3">
-        <v>0.85318938473647199</v>
+        <v>0.75952673863117104</v>
       </c>
       <c r="F3">
-        <v>1.0061516214347801</v>
+        <v>0.91683581039626005</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G16" si="0">D3-E3</f>
-        <v>7.739645807443396E-2</v>
+        <v>7.9896879634276941E-2</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H16" si="1">F3-D3</f>
-        <v>7.5565778623874147E-2</v>
+        <v>7.7412192130812074E-2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5820,30 +5820,30 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>44187</v>
+        <v>44222</v>
       </c>
       <c r="C4">
-        <v>1.00224598609105</v>
+        <v>0.87650349941365702</v>
       </c>
       <c r="D4">
-        <v>1.00240189940572</v>
+        <v>0.87741960813753805</v>
       </c>
       <c r="E4">
-        <v>0.92601281560448401</v>
+        <v>0.81696576954301403</v>
       </c>
       <c r="F4">
-        <v>1.0688036800448599</v>
+        <v>0.95103133162290099</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>7.6389083801235991E-2</v>
+        <v>6.0453838594524023E-2</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>6.6401780639139929E-2</v>
+        <v>7.3611723485362934E-2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5852,30 +5852,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>44187</v>
+        <v>44222</v>
       </c>
       <c r="C5">
-        <v>1.0366111293332401</v>
+        <v>0.88236497858722596</v>
       </c>
       <c r="D5">
-        <v>1.0361817032210201</v>
+        <v>0.87065266165953403</v>
       </c>
       <c r="E5">
-        <v>0.96827379897749799</v>
+        <v>0.67471029197463095</v>
       </c>
       <c r="F5">
-        <v>1.11883697302114</v>
+        <v>1.0180932807310099</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>6.790790424352211E-2</v>
+        <v>0.19594236968490308</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>8.2655269800119946E-2</v>
+        <v>0.14744061907147588</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5884,30 +5884,30 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2">
-        <v>44187</v>
+        <v>44222</v>
       </c>
       <c r="C6">
-        <v>1.0053454072191199</v>
+        <v>0.949211376202585</v>
       </c>
       <c r="D6">
-        <v>1.00359117913701</v>
+        <v>0.94594846247075703</v>
       </c>
       <c r="E6">
-        <v>0.91957337752663504</v>
+        <v>0.76103957993215399</v>
       </c>
       <c r="F6">
-        <v>1.08129611900819</v>
+        <v>1.1141549164049001</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>8.4017801610374976E-2</v>
+        <v>0.18490888253860305</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>7.770493987117999E-2</v>
+        <v>0.16820645393414302</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5916,30 +5916,30 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>44187</v>
+        <v>44222</v>
       </c>
       <c r="C7">
-        <v>1.0481497141757099</v>
+        <v>0.93564436671374696</v>
       </c>
       <c r="D7">
-        <v>1.04562745255701</v>
+        <v>0.92871000760564903</v>
       </c>
       <c r="E7">
-        <v>0.967201049438418</v>
+        <v>0.776574514055693</v>
       </c>
       <c r="F7">
-        <v>1.12249263082393</v>
+        <v>1.0855858619776</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>7.8426403118591947E-2</v>
+        <v>0.15213549354995604</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>7.6865178266920076E-2</v>
+        <v>0.15687585437195095</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5948,30 +5948,30 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>44187</v>
+        <v>44222</v>
       </c>
       <c r="C8">
-        <v>1.0778304807971</v>
+        <v>0.85097254367128405</v>
       </c>
       <c r="D8">
-        <v>1.0741082139545499</v>
+        <v>0.84060775893091</v>
       </c>
       <c r="E8">
-        <v>0.99796212323648903</v>
+        <v>0.69889670859360797</v>
       </c>
       <c r="F8">
-        <v>1.1740932723825399</v>
+        <v>0.99752416390108001</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>7.6146090718060888E-2</v>
+        <v>0.14171105033730202</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>9.9985058427989992E-2</v>
+        <v>0.15691640497017001</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5980,30 +5980,30 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>44187</v>
+        <v>44222</v>
       </c>
       <c r="C9">
-        <v>1.0227777050739499</v>
+        <v>0.96665672533638902</v>
       </c>
       <c r="D9">
-        <v>1.0204075461300799</v>
+        <v>0.95876584402572096</v>
       </c>
       <c r="E9">
-        <v>0.94701772950012697</v>
+        <v>0.78316879080341795</v>
       </c>
       <c r="F9">
-        <v>1.1058140581572</v>
+        <v>1.1459099865489699</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>7.338981662995292E-2</v>
+        <v>0.17559705322230301</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>8.5406512027120129E-2</v>
+        <v>0.18714414252324896</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -6012,30 +6012,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
-        <v>44187</v>
+        <v>44222</v>
       </c>
       <c r="C10">
-        <v>1.0520399303425501</v>
+        <v>0.95401987883851502</v>
       </c>
       <c r="D10">
-        <v>1.0478951601387501</v>
+        <v>0.95288784013939798</v>
       </c>
       <c r="E10">
-        <v>0.97484228808997297</v>
+        <v>0.87858397756096296</v>
       </c>
       <c r="F10">
-        <v>1.1616110573515099</v>
+        <v>1.01751401047478</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>7.3052872048777084E-2</v>
+        <v>7.430386257843502E-2</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>0.11371589721275988</v>
+        <v>6.4626170335381983E-2</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -6044,30 +6044,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>44187</v>
+        <v>44222</v>
       </c>
       <c r="C11">
-        <v>1.0461117045983599</v>
+        <v>0.98739449395011603</v>
       </c>
       <c r="D11">
-        <v>1.0428848933350501</v>
+        <v>0.98509334772892299</v>
       </c>
       <c r="E11">
-        <v>0.95596455002656699</v>
+        <v>0.89407108334420704</v>
       </c>
       <c r="F11">
-        <v>1.1349412195989701</v>
+        <v>1.0754986790437799</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>8.6920343308483083E-2</v>
+        <v>9.1022264384715945E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>9.2056326263920019E-2</v>
+        <v>9.0405331314856952E-2</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -6076,30 +6076,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2">
-        <v>44187</v>
+        <v>44222</v>
       </c>
       <c r="C12">
-        <v>1.0932738960855299</v>
+        <v>0.90750343361619201</v>
       </c>
       <c r="D12">
-        <v>1.0919322858729299</v>
+        <v>0.90768157936874405</v>
       </c>
       <c r="E12">
-        <v>0.98844407371820298</v>
+        <v>0.76922409526500202</v>
       </c>
       <c r="F12">
-        <v>1.2040704073166899</v>
+        <v>1.0493473548449801</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0.10348821215472692</v>
+        <v>0.13845748410374203</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>0.11213812144376001</v>
+        <v>0.14166577547623604</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -6108,30 +6108,30 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>44187</v>
+        <v>44222</v>
       </c>
       <c r="C13">
-        <v>1.06722541256082</v>
+        <v>0.95165712108885603</v>
       </c>
       <c r="D13">
-        <v>1.0650174145001099</v>
+        <v>0.94618145075218996</v>
       </c>
       <c r="E13">
-        <v>0.96812767544789102</v>
+        <v>0.86168329051445702</v>
       </c>
       <c r="F13">
-        <v>1.15035479101928</v>
+        <v>1.02802097872065</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>9.6889739052218871E-2</v>
+        <v>8.4498160237732933E-2</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>8.5337376519170061E-2</v>
+        <v>8.1839527968460057E-2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -6140,30 +6140,30 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2">
-        <v>44187</v>
+        <v>44222</v>
       </c>
       <c r="C14">
-        <v>1.0708833013424099</v>
+        <v>0.99886850753174605</v>
       </c>
       <c r="D14">
-        <v>1.06960822533821</v>
+        <v>0.999112729791375</v>
       </c>
       <c r="E14">
-        <v>0.96976722917760705</v>
+        <v>0.91484387864933603</v>
       </c>
       <c r="F14">
-        <v>1.1466310218464899</v>
+        <v>1.07811765339517</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>9.9840996160602935E-2</v>
+        <v>8.426885114203897E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>7.7022796508279923E-2</v>
+        <v>7.9004923603794963E-2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -6172,30 +6172,30 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>44187</v>
+        <v>44222</v>
       </c>
       <c r="C15">
-        <v>1.10440742558783</v>
+        <v>0.79653343317496905</v>
       </c>
       <c r="D15">
-        <v>1.1017526371559201</v>
+        <v>0.79154249564370605</v>
       </c>
       <c r="E15">
-        <v>1.00996170249894</v>
+        <v>0.64355936909681299</v>
       </c>
       <c r="F15">
-        <v>1.1928683693800901</v>
+        <v>0.95012724800380799</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>9.1790934656980072E-2</v>
+        <v>0.14798312654689305</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>9.1115732224170021E-2</v>
+        <v>0.15858475236010194</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -6204,30 +6204,30 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>44187</v>
+        <v>44222</v>
       </c>
       <c r="C16">
-        <v>1.15844831436963</v>
+        <v>0.83669963168186201</v>
       </c>
       <c r="D16">
-        <v>1.1603366040864</v>
+        <v>0.83488037205635501</v>
       </c>
       <c r="E16">
-        <v>1.0459258254591299</v>
+        <v>0.67839634456085895</v>
       </c>
       <c r="F16">
-        <v>1.2596961144369201</v>
+        <v>0.95417205348552703</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0.11441077862727012</v>
+        <v>0.15648402749549606</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>9.9359510350520042E-2</v>
+        <v>0.11929168142917201</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -6247,8 +6247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFCAF56-E988-48E4-BDA2-C84256C27DCF}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="97" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="97" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6288,30 +6288,30 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2">
-        <v>44157</v>
+        <v>44191</v>
       </c>
       <c r="C2">
-        <v>1.0759341585073301</v>
+        <v>1.0451514245385001</v>
       </c>
       <c r="D2">
-        <v>1.0728036224333799</v>
+        <v>1.0428016855637801</v>
       </c>
       <c r="E2">
-        <v>1.0102225803576299</v>
+        <v>0.96818405734677804</v>
       </c>
       <c r="F2">
-        <v>1.1644914276951699</v>
+        <v>1.14099332577527</v>
       </c>
       <c r="G2">
         <f>D2-E2</f>
-        <v>6.2581042075749993E-2</v>
+        <v>7.4617628217002019E-2</v>
       </c>
       <c r="H2">
         <f>F2-D2</f>
-        <v>9.168780526178999E-2</v>
+        <v>9.8191640211489961E-2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -6320,30 +6320,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>44157</v>
+        <v>44191</v>
       </c>
       <c r="C3">
-        <v>1.05531589407759</v>
+        <v>1.02344701891724</v>
       </c>
       <c r="D3">
-        <v>1.0556841698952</v>
+        <v>1.02154102782353</v>
       </c>
       <c r="E3">
-        <v>0.97226450346610604</v>
+        <v>0.932866265477444</v>
       </c>
       <c r="F3">
-        <v>1.1313188923139801</v>
+        <v>1.10872391900696</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G16" si="0">D3-E3</f>
-        <v>8.341966642909393E-2</v>
+        <v>8.8674762346085956E-2</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H16" si="1">F3-D3</f>
-        <v>7.5634722418780109E-2</v>
+        <v>8.7182891183430034E-2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -6352,30 +6352,30 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>44157</v>
+        <v>44191</v>
       </c>
       <c r="C4">
-        <v>1.0660237974319899</v>
+        <v>0.99292619017385197</v>
       </c>
       <c r="D4">
-        <v>1.0634353344965899</v>
+        <v>0.990009300772828</v>
       </c>
       <c r="E4">
-        <v>0.98137420255018104</v>
+        <v>0.92740903692866306</v>
       </c>
       <c r="F4">
-        <v>1.1288470666333099</v>
+        <v>1.0758943386892399</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>8.206113194640885E-2</v>
+        <v>6.2600263844164949E-2</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>6.5411732136720024E-2</v>
+        <v>8.5885037916411888E-2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -6384,30 +6384,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>44157</v>
+        <v>44191</v>
       </c>
       <c r="C5">
-        <v>1.10673697603821</v>
+        <v>0.99025150826263098</v>
       </c>
       <c r="D5">
-        <v>1.10513979777073</v>
+        <v>0.98821394600675405</v>
       </c>
       <c r="E5">
-        <v>1.0292643379039701</v>
+        <v>0.91116077904764803</v>
       </c>
       <c r="F5">
-        <v>1.1911370091883899</v>
+        <v>1.0634911520648</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>7.587545986675992E-2</v>
+        <v>7.7053166959106023E-2</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>8.5997211417659924E-2</v>
+        <v>7.5277206058045998E-2</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -6416,30 +6416,30 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2">
-        <v>44157</v>
+        <v>44191</v>
       </c>
       <c r="C6">
-        <v>1.0505642867390701</v>
+        <v>1.03986422461143</v>
       </c>
       <c r="D6">
-        <v>1.0467378093853501</v>
+        <v>1.04038877598986</v>
       </c>
       <c r="E6">
-        <v>0.96662188137275895</v>
+        <v>0.94155027971695804</v>
       </c>
       <c r="F6">
-        <v>1.1301734660162599</v>
+        <v>1.1113171494904499</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>8.0115928012591153E-2</v>
+        <v>9.8838496272901977E-2</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>8.3435656630909794E-2</v>
+        <v>7.0928373500589892E-2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -6448,30 +6448,30 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>44157</v>
+        <v>44191</v>
       </c>
       <c r="C7">
-        <v>1.0894529732529299</v>
+        <v>0.96832739363796805</v>
       </c>
       <c r="D7">
-        <v>1.0865547269759599</v>
+        <v>0.96754664691572001</v>
       </c>
       <c r="E7">
-        <v>1.0110575361941201</v>
+        <v>0.90302229275813395</v>
       </c>
       <c r="F7">
-        <v>1.1704848592633501</v>
+        <v>1.03908326342747</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>7.5497190781839807E-2</v>
+        <v>6.4524354157586061E-2</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>8.3930132287390213E-2</v>
+        <v>7.1536616511750029E-2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -6480,30 +6480,30 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>44157</v>
+        <v>44191</v>
       </c>
       <c r="C8">
-        <v>1.14805799816933</v>
+        <v>1.0344027048586599</v>
       </c>
       <c r="D8">
-        <v>1.14089682304759</v>
+        <v>1.03064467872293</v>
       </c>
       <c r="E8">
-        <v>1.0390040804599601</v>
+        <v>0.95197791382364705</v>
       </c>
       <c r="F8">
-        <v>1.23054019706229</v>
+        <v>1.1181063163437699</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.10189274258762993</v>
+        <v>7.8666764899282926E-2</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>8.9643374014700017E-2</v>
+        <v>8.7461637620839916E-2</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -6512,30 +6512,30 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>44157</v>
+        <v>44191</v>
       </c>
       <c r="C9">
-        <v>1.06929530276231</v>
+        <v>0.99433322030172999</v>
       </c>
       <c r="D9">
-        <v>1.0675928642582</v>
+        <v>0.992009581516343</v>
       </c>
       <c r="E9">
-        <v>0.98677470574485804</v>
+        <v>0.91042954592968395</v>
       </c>
       <c r="F9">
-        <v>1.1559161451714599</v>
+        <v>1.0709369140520999</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>8.0818158513341953E-2</v>
+        <v>8.158003558665905E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>8.8323280913259916E-2</v>
+        <v>7.89273325357569E-2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -6544,30 +6544,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
-        <v>44157</v>
+        <v>44191</v>
       </c>
       <c r="C10">
-        <v>1.13552521884719</v>
+        <v>0.96312586880092999</v>
       </c>
       <c r="D10">
-        <v>1.1304056500950601</v>
+        <v>0.95985396923141797</v>
       </c>
       <c r="E10">
-        <v>1.02851002579632</v>
+        <v>0.903040798713313</v>
       </c>
       <c r="F10">
-        <v>1.23978969173717</v>
+        <v>1.0345549416472799</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.10189562429874011</v>
+        <v>5.6813170518104972E-2</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>0.10938404164210991</v>
+        <v>7.4700972415861933E-2</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -6576,30 +6576,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>44157</v>
+        <v>44191</v>
       </c>
       <c r="C11">
-        <v>0.98225194137085403</v>
+        <v>1.14429318126376</v>
       </c>
       <c r="D11">
-        <v>0.981474205952937</v>
+        <v>1.14315261261717</v>
       </c>
       <c r="E11">
-        <v>0.90241912742489605</v>
+        <v>1.0520133424476199</v>
       </c>
       <c r="F11">
-        <v>1.06138705557613</v>
+        <v>1.2465315976760201</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>7.9055078528040945E-2</v>
+        <v>9.1139270169550146E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>7.9912849623193005E-2</v>
+        <v>0.10337898505885001</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -6608,30 +6608,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2">
-        <v>44157</v>
+        <v>44191</v>
       </c>
       <c r="C12">
-        <v>1.0231008201216301</v>
+        <v>0.93583139636342205</v>
       </c>
       <c r="D12">
-        <v>1.0210156369590799</v>
+        <v>0.93741936131853798</v>
       </c>
       <c r="E12">
-        <v>0.91627822874425602</v>
+        <v>0.86641657268319405</v>
       </c>
       <c r="F12">
-        <v>1.10570329704727</v>
+        <v>1.0047859408689599</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0.10473740821482391</v>
+        <v>7.1002788635343927E-2</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>8.4687660088190064E-2</v>
+        <v>6.7366579550421912E-2</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -6640,30 +6640,30 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>44157</v>
+        <v>44191</v>
       </c>
       <c r="C13">
-        <v>1.1023565095566299</v>
+        <v>0.95480926449977599</v>
       </c>
       <c r="D13">
-        <v>1.0991398523873399</v>
+        <v>0.95264035403395197</v>
       </c>
       <c r="E13">
-        <v>0.999177389271931</v>
+        <v>0.87881695740559695</v>
       </c>
       <c r="F13">
-        <v>1.18758013856718</v>
+        <v>1.0215974662224401</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>9.9962463115408906E-2</v>
+        <v>7.382339662835502E-2</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>8.8440286179840122E-2</v>
+        <v>6.8957112188488101E-2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -6672,30 +6672,30 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2">
-        <v>44157</v>
+        <v>44191</v>
       </c>
       <c r="C14">
-        <v>1.04351830374861</v>
+        <v>1.05220681543859</v>
       </c>
       <c r="D14">
-        <v>1.0432052856109899</v>
+        <v>1.04969202255931</v>
       </c>
       <c r="E14">
-        <v>0.95233223168135395</v>
+        <v>0.95238695026936004</v>
       </c>
       <c r="F14">
-        <v>1.12321816474601</v>
+        <v>1.12725024253999</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>9.0873053929635961E-2</v>
+        <v>9.7305072289950001E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>8.0012879135020087E-2</v>
+        <v>7.755821998067991E-2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -6704,30 +6704,30 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>44157</v>
+        <v>44191</v>
       </c>
       <c r="C15">
-        <v>0.98251604984037599</v>
+        <v>0.97301799988330095</v>
       </c>
       <c r="D15">
-        <v>0.98022866213083604</v>
+        <v>0.97387732633369695</v>
       </c>
       <c r="E15">
-        <v>0.89167012493588205</v>
+        <v>0.88612876238719696</v>
       </c>
       <c r="F15">
-        <v>1.05531105608482</v>
+        <v>1.0527699869843099</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>8.855853719495399E-2</v>
+        <v>8.7748563946499991E-2</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>7.5082393953983972E-2</v>
+        <v>7.8892660650612956E-2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -6736,30 +6736,30 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>44157</v>
+        <v>44191</v>
       </c>
       <c r="C16">
-        <v>1.04448472638703</v>
+        <v>0.98959346491424705</v>
       </c>
       <c r="D16">
-        <v>1.04295060003215</v>
+        <v>0.987192971886382</v>
       </c>
       <c r="E16">
-        <v>0.94375265605953995</v>
+        <v>0.91668485992213999</v>
       </c>
       <c r="F16">
-        <v>1.1303923446075299</v>
+        <v>1.0812469024620399</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>9.9197943972610059E-2</v>
+        <v>7.0508111964242004E-2</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>8.7441744575379898E-2</v>
+        <v>9.4053930575657918E-2</v>
       </c>
       <c r="I16">
         <v>1</v>
